--- a/dumps/Stocks/Avanti Feeds.xlsx
+++ b/dumps/Stocks/Avanti Feeds.xlsx
@@ -739,7 +739,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP998"/>
+  <dimension ref="A1:AP999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="68">
       <c r="A5" s="79" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1102,18 +1102,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>1008.15</v>
+        <v>1076.4808</v>
       </c>
       <c r="F5" t="n">
-        <v>10081.5</v>
+        <v>53824.04</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252611665409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>321.83</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="68">
@@ -1122,7 +1128,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1151,7 +1157,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1160,13 +1166,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>1008.15</v>
       </c>
       <c r="F7" t="n">
-        <v>5040.75</v>
+        <v>10081.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1209,7 +1215,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1218,13 +1224,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>1008.15</v>
       </c>
       <c r="F9" t="n">
-        <v>10081.5</v>
+        <v>5040.75</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1238,7 +1244,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1247,13 +1253,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
         <v>1008.15</v>
       </c>
       <c r="F10" t="n">
-        <v>1008.15</v>
+        <v>10081.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1279,10 +1285,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1108.25</v>
+        <v>1008.15</v>
       </c>
       <c r="F11" t="n">
-        <v>1108.25</v>
+        <v>1008.15</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1305,53 +1311,47 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1108.25</v>
       </c>
       <c r="F12" t="n">
+        <v>1108.25</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="68">
+      <c r="A13" s="79" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1108.25</v>
+      </c>
+      <c r="F13" t="n">
         <v>8866</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>~</t>
         </is>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="68">
-      <c r="A13" s="66" t="n">
-        <v>46049</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>777.55</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2349.2</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14.22</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="68">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>777.55</v>
       </c>
       <c r="F14" t="n">
-        <v>1566.12</v>
+        <v>2349.2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1383,15 +1383,15 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.56</v>
+        <v>2.33</v>
       </c>
       <c r="I14" t="n">
-        <v>9.460000000000001</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="68">
       <c r="A15" s="66" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1404,13 +1404,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>794.9</v>
+        <v>777.55</v>
       </c>
       <c r="F15" t="n">
-        <v>4002.64</v>
+        <v>1566.12</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1418,15 +1418,15 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3.98</v>
+        <v>1.56</v>
       </c>
       <c r="I15" t="n">
-        <v>24.16</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="68">
       <c r="A16" s="66" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1442,10 +1442,10 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>807.2</v>
+        <v>794.9</v>
       </c>
       <c r="F16" t="n">
-        <v>4064.61</v>
+        <v>4002.64</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1453,19 +1453,19 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4.02</v>
+        <v>3.98</v>
       </c>
       <c r="I16" t="n">
-        <v>24.59</v>
+        <v>24.16</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="68">
       <c r="A17" s="66" t="n">
-        <v>46002</v>
+        <v>46030</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1474,13 +1474,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>809.55</v>
+        <v>807.2</v>
       </c>
       <c r="F17" t="n">
-        <v>3261.19</v>
+        <v>4064.61</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1488,10 +1488,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>4.02</v>
       </c>
       <c r="I17" t="n">
-        <v>19.74</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="68">
@@ -1509,13 +1509,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>809.5</v>
+        <v>809.55</v>
       </c>
       <c r="F18" t="n">
-        <v>815.23</v>
+        <v>3261.19</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1523,19 +1523,19 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>4.92</v>
+        <v>19.74</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="68">
       <c r="A19" s="66" t="n">
-        <v>45961</v>
+        <v>46002</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1544,13 +1544,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>703.85</v>
+        <v>809.5</v>
       </c>
       <c r="F19" t="n">
-        <v>2126.52</v>
+        <v>815.23</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>12.87</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="68">
@@ -1579,13 +1579,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>703.8</v>
+        <v>703.85</v>
       </c>
       <c r="F20" t="n">
-        <v>1417.56</v>
+        <v>2126.52</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1593,19 +1593,19 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="I20" t="n">
-        <v>8.550000000000001</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="68">
       <c r="A21" s="66" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>717.8</v>
+        <v>703.8</v>
       </c>
       <c r="F21" t="n">
-        <v>722.89</v>
+        <v>1417.56</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.72</v>
+        <v>1.41</v>
       </c>
       <c r="I21" t="n">
-        <v>4.37</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="68">
@@ -1649,13 +1649,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>717.95</v>
+        <v>717.8</v>
       </c>
       <c r="F22" t="n">
-        <v>2892.14</v>
+        <v>722.89</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1663,19 +1663,19 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2.86</v>
+        <v>0.72</v>
       </c>
       <c r="I22" t="n">
-        <v>17.48</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="68">
       <c r="A23" s="66" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1684,13 +1684,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>719.5</v>
+        <v>717.95</v>
       </c>
       <c r="F23" t="n">
-        <v>3623.02</v>
+        <v>2892.14</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1698,15 +1698,15 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3.61</v>
+        <v>2.86</v>
       </c>
       <c r="I23" t="n">
-        <v>21.91</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="68">
       <c r="A24" s="66" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1722,10 +1722,10 @@
         <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>723.9</v>
+        <v>719.5</v>
       </c>
       <c r="F24" t="n">
-        <v>3645.15</v>
+        <v>3623.02</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1733,15 +1733,15 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="I24" t="n">
-        <v>22.03</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="68">
       <c r="A25" s="66" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1754,13 +1754,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>731</v>
+        <v>723.9</v>
       </c>
       <c r="F25" t="n">
-        <v>6625.67</v>
+        <v>3645.15</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1768,10 +1768,10 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6.56</v>
+        <v>3.62</v>
       </c>
       <c r="I25" t="n">
-        <v>40.11</v>
+        <v>22.03</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="68">
@@ -1789,13 +1789,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>730.85</v>
+        <v>731</v>
       </c>
       <c r="F26" t="n">
-        <v>736.02</v>
+        <v>6625.67</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1803,15 +1803,15 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.73</v>
+        <v>6.56</v>
       </c>
       <c r="I26" t="n">
-        <v>4.44</v>
+        <v>40.11</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="68">
       <c r="A27" s="66" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1827,10 +1827,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>672.55</v>
+        <v>730.85</v>
       </c>
       <c r="F27" t="n">
-        <v>677.3</v>
+        <v>736.02</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1838,28 +1838,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="I27" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1008.15</v>
-      </c>
-      <c r="X27" s="79" t="n">
-        <v>46059</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0.485155</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>330.9</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1003.45</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="68">
@@ -1877,13 +1859,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>672.55</v>
       </c>
       <c r="F28" t="n">
-        <v>6095.84</v>
+        <v>677.3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1891,10 +1873,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6.05</v>
+        <v>0.67</v>
       </c>
       <c r="I28" t="n">
-        <v>36.84</v>
+        <v>4.08</v>
       </c>
       <c r="W28" t="n">
         <v>1008.15</v>
@@ -1903,25 +1885,25 @@
         <v>46059</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.485135</v>
+        <v>0.485155</v>
       </c>
       <c r="Z28" t="n">
-        <v>2978.11</v>
+        <v>330.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>9031.059999999999</v>
+        <v>1003.45</v>
       </c>
       <c r="AB28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="68">
       <c r="A29" s="66" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1930,13 +1912,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
-        <v>690.85</v>
+        <v>672.55</v>
       </c>
       <c r="F29" t="n">
-        <v>4870.24</v>
+        <v>6095.84</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1944,10 +1926,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>4.85</v>
+        <v>6.05</v>
       </c>
       <c r="I29" t="n">
-        <v>29.44</v>
+        <v>36.84</v>
       </c>
       <c r="W29" t="n">
         <v>1008.15</v>
@@ -1956,16 +1938,16 @@
         <v>46059</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.446526</v>
+        <v>0.485135</v>
       </c>
       <c r="Z29" t="n">
-        <v>2190</v>
+        <v>2978.11</v>
       </c>
       <c r="AA29" t="n">
-        <v>7025.95</v>
+        <v>9031.059999999999</v>
       </c>
       <c r="AB29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="68">
@@ -1983,13 +1965,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>690.8</v>
+        <v>690.85</v>
       </c>
       <c r="F30" t="n">
-        <v>2087.09</v>
+        <v>4870.24</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1997,10 +1979,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2.07</v>
+        <v>4.85</v>
       </c>
       <c r="I30" t="n">
-        <v>12.62</v>
+        <v>29.44</v>
       </c>
       <c r="W30" t="n">
         <v>1008.15</v>
@@ -2009,25 +1991,25 @@
         <v>46059</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.446631</v>
+        <v>0.446526</v>
       </c>
       <c r="Z30" t="n">
-        <v>938.72</v>
+        <v>2190</v>
       </c>
       <c r="AA30" t="n">
-        <v>3011.12</v>
+        <v>7025.95</v>
       </c>
       <c r="AB30" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="68">
       <c r="A31" s="66" t="n">
-        <v>45924</v>
+        <v>45947</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2036,13 +2018,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>678.95</v>
+        <v>690.8</v>
       </c>
       <c r="F31" t="n">
-        <v>6837.55</v>
+        <v>2087.09</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2050,10 +2032,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6.76</v>
+        <v>2.07</v>
       </c>
       <c r="I31" t="n">
-        <v>41.29</v>
+        <v>12.62</v>
       </c>
       <c r="W31" t="n">
         <v>1008.15</v>
@@ -2062,25 +2044,25 @@
         <v>46059</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.235703</v>
+        <v>0.446631</v>
       </c>
       <c r="Z31" t="n">
-        <v>1622.96</v>
+        <v>938.72</v>
       </c>
       <c r="AA31" t="n">
-        <v>5017.71</v>
+        <v>3011.12</v>
       </c>
       <c r="AB31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="68">
       <c r="A32" s="66" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2092,10 +2074,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>677.75</v>
+        <v>678.95</v>
       </c>
       <c r="F32" t="n">
-        <v>6825.62</v>
+        <v>6837.55</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2103,10 +2085,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6.8</v>
+        <v>6.76</v>
       </c>
       <c r="I32" t="n">
-        <v>41.32</v>
+        <v>41.29</v>
       </c>
       <c r="W32" t="n">
         <v>1008.15</v>
@@ -2115,13 +2097,13 @@
         <v>46059</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.23697</v>
+        <v>0.235703</v>
       </c>
       <c r="Z32" t="n">
-        <v>1628.87</v>
+        <v>1622.96</v>
       </c>
       <c r="AA32" t="n">
-        <v>5017.62</v>
+        <v>5017.71</v>
       </c>
       <c r="AB32" t="n">
         <v>5</v>
@@ -2129,11 +2111,11 @@
     </row>
     <row r="33" ht="15.75" customHeight="1" s="68">
       <c r="A33" s="66" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2142,13 +2124,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>625.8</v>
+        <v>677.75</v>
       </c>
       <c r="F33" t="n">
-        <v>3151.23</v>
+        <v>6825.62</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2156,10 +2138,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3.13</v>
+        <v>6.8</v>
       </c>
       <c r="I33" t="n">
-        <v>19.1</v>
+        <v>41.32</v>
       </c>
       <c r="W33" t="n">
         <v>1008.15</v>
@@ -2168,13 +2150,13 @@
         <v>46059</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.593986</v>
+        <v>0.23697</v>
       </c>
       <c r="Z33" t="n">
-        <v>1884.99</v>
+        <v>1628.87</v>
       </c>
       <c r="AA33" t="n">
-        <v>5013.99</v>
+        <v>5017.62</v>
       </c>
       <c r="AB33" t="n">
         <v>5</v>
@@ -2182,11 +2164,11 @@
     </row>
     <row r="34" ht="15.75" customHeight="1" s="68">
       <c r="A34" s="66" t="n">
-        <v>45876</v>
+        <v>45897</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2195,196 +2177,139 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>625.8</v>
       </c>
       <c r="F34" t="n">
-        <v>225</v>
+        <v>3151.23</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025  Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>19.1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1008.15</v>
+      </c>
+      <c r="X34" s="79" t="n">
+        <v>46059</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.593986</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1884.99</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>5013.99</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="68">
       <c r="A35" s="66" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>25</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>225</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025  Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" s="68">
+      <c r="A36" s="66" t="n">
         <v>45873</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D36" t="n">
         <v>5</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E36" t="n">
         <v>665.2</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F36" t="n">
         <v>3349.66</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>3.37</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>20.29</v>
       </c>
-      <c r="W35" t="n">
+      <c r="W36" t="n">
         <v>1008.15</v>
       </c>
-      <c r="X35" s="79" t="n">
+      <c r="X36" s="79" t="n">
         <v>46059</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Y36" t="n">
         <v>0.501209</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="Z36" t="n">
         <v>1690.74</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AA36" t="n">
         <v>5016.74</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AB36" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1" s="68">
-      <c r="A36" s="25" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B36" s="26" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C36" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="E36" s="28" t="n">
-        <v>741.22</v>
-      </c>
-      <c r="F36" s="28" t="n">
-        <v>7412.23</v>
-      </c>
-      <c r="G36" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H36" s="27" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="I36" s="27" t="n">
-        <v>44.87</v>
-      </c>
-      <c r="J36" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K36" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="L36" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="M36" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
-        <v/>
-      </c>
-      <c r="N36" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
-        <v/>
-      </c>
-      <c r="O36" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="P36" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="Q36" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
-        <v/>
-      </c>
-      <c r="R36" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="S36" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="T36" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="U36" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
-        <v/>
-      </c>
-      <c r="V36" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="W36" s="34" t="n">
-        <v>1008.15</v>
-      </c>
-      <c r="X36" s="80" t="n">
-        <v>46059</v>
-      </c>
-      <c r="Y36" s="33" t="n">
-        <v>0.035259</v>
-      </c>
-      <c r="Z36" s="34" t="n">
-        <v>263.19</v>
-      </c>
-      <c r="AA36" s="34" t="n">
-        <v>1004.41</v>
-      </c>
-      <c r="AB36" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="31">
-        <f>IF(B19="DIV", F19,"")</f>
-        <v/>
-      </c>
-      <c r="AD36" s="36" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="68">
       <c r="A37" s="25" t="n">
-        <v>45812</v>
+        <v>45855</v>
       </c>
       <c r="B37" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C37" s="26" t="inlineStr">
@@ -2393,13 +2318,13 @@
         </is>
       </c>
       <c r="D37" s="27" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E37" s="28" t="n">
-        <v>774.3</v>
+        <v>741.22</v>
       </c>
       <c r="F37" s="28" t="n">
-        <v>774.3</v>
+        <v>7412.23</v>
       </c>
       <c r="G37" s="26" t="inlineStr">
         <is>
@@ -2407,83 +2332,83 @@
         </is>
       </c>
       <c r="H37" s="27" t="n">
-        <v>0.77</v>
+        <v>7.36</v>
       </c>
       <c r="I37" s="27" t="n">
-        <v>4.68</v>
+        <v>44.87</v>
       </c>
       <c r="J37" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L37" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M37" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N37" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O37" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P37" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R37" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S37" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T37" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U37" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V37" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W37" s="34" t="n">
-        <v>1108.25</v>
+        <v>1008.15</v>
       </c>
       <c r="X37" s="80" t="n">
         <v>46059</v>
       </c>
       <c r="Y37" s="33" t="n">
-        <v>0.422276</v>
+        <v>0.035259</v>
       </c>
       <c r="Z37" s="34" t="n">
-        <v>329.27</v>
+        <v>263.19</v>
       </c>
       <c r="AA37" s="34" t="n">
-        <v>1103.57</v>
+        <v>1004.41</v>
       </c>
       <c r="AB37" s="35" t="n">
         <v>1</v>
       </c>
       <c r="AC37" s="31">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD37" s="36" t="n"/>
@@ -2503,13 +2428,13 @@
         </is>
       </c>
       <c r="D38" s="27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E38" s="28" t="n">
         <v>774.3</v>
       </c>
       <c r="F38" s="28" t="n">
-        <v>6194.39</v>
+        <v>774.3</v>
       </c>
       <c r="G38" s="26" t="inlineStr">
         <is>
@@ -2517,61 +2442,61 @@
         </is>
       </c>
       <c r="H38" s="27" t="n">
-        <v>6.2</v>
+        <v>0.77</v>
       </c>
       <c r="I38" s="27" t="n">
-        <v>37.39</v>
+        <v>4.68</v>
       </c>
       <c r="J38" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L38" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M38" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N38" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O38" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P38" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R38" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S38" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T38" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U38" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V38" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W38" s="34" t="n">
@@ -2581,19 +2506,19 @@
         <v>46059</v>
       </c>
       <c r="Y38" s="33" t="n">
-        <v>0.369498</v>
+        <v>0.422276</v>
       </c>
       <c r="Z38" s="34" t="n">
-        <v>2304.92</v>
+        <v>329.27</v>
       </c>
       <c r="AA38" s="34" t="n">
-        <v>7725.02</v>
+        <v>1103.57</v>
       </c>
       <c r="AB38" s="35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="31">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD38" s="36" t="n"/>
@@ -2613,13 +2538,13 @@
         </is>
       </c>
       <c r="D39" s="27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E39" s="28" t="n">
         <v>774.3</v>
       </c>
       <c r="F39" s="28" t="n">
-        <v>774.3</v>
+        <v>6194.39</v>
       </c>
       <c r="G39" s="26" t="inlineStr">
         <is>
@@ -2627,61 +2552,61 @@
         </is>
       </c>
       <c r="H39" s="27" t="n">
-        <v>0.77</v>
+        <v>6.2</v>
       </c>
       <c r="I39" s="27" t="n">
-        <v>4.68</v>
+        <v>37.39</v>
       </c>
       <c r="J39" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L39" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M39" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N39" s="32">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O39" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P39" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R39" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S39" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T39" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U39" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V39" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W39" s="34" t="n">
@@ -2691,26 +2616,26 @@
         <v>46059</v>
       </c>
       <c r="Y39" s="33" t="n">
-        <v>0.422276</v>
+        <v>0.369498</v>
       </c>
       <c r="Z39" s="34" t="n">
-        <v>329.27</v>
+        <v>2304.92</v>
       </c>
       <c r="AA39" s="34" t="n">
-        <v>1103.57</v>
+        <v>7725.02</v>
       </c>
       <c r="AB39" s="35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC39" s="31">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD39" s="36" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="68">
       <c r="A40" s="25" t="n">
-        <v>45306</v>
+        <v>45812</v>
       </c>
       <c r="B40" s="26" t="inlineStr">
         <is>
@@ -2719,17 +2644,17 @@
       </c>
       <c r="C40" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D40" s="27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E40" s="28" t="n">
-        <v>554.28</v>
+        <v>774.3</v>
       </c>
       <c r="F40" s="28" t="n">
-        <v>5542.84</v>
+        <v>774.3</v>
       </c>
       <c r="G40" s="26" t="inlineStr">
         <is>
@@ -2737,81 +2662,90 @@
         </is>
       </c>
       <c r="H40" s="27" t="n">
-        <v>6</v>
+        <v>0.77</v>
       </c>
       <c r="I40" s="27" t="n">
-        <v>33.16</v>
+        <v>4.68</v>
       </c>
       <c r="J40" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L40" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M40" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N40" s="32">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O40" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P40" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R40" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S40" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T40" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U40" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V40" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="W40" s="34" t="n"/>
-      <c r="X40" s="34" t="n"/>
-      <c r="Y40" s="33">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
-        <v/>
-      </c>
-      <c r="Z40" s="34" t="n"/>
-      <c r="AA40" s="34" t="n"/>
-      <c r="AB40" s="35" t="n"/>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W40" s="34" t="n">
+        <v>1108.25</v>
+      </c>
+      <c r="X40" s="80" t="n">
+        <v>46059</v>
+      </c>
+      <c r="Y40" s="33" t="n">
+        <v>0.422276</v>
+      </c>
+      <c r="Z40" s="34" t="n">
+        <v>329.27</v>
+      </c>
+      <c r="AA40" s="34" t="n">
+        <v>1103.57</v>
+      </c>
+      <c r="AB40" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="AC40" s="31">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD40" s="36" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="68">
       <c r="A41" s="25" t="n">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B41" s="26" t="inlineStr">
         <is>
@@ -2824,13 +2758,13 @@
         </is>
       </c>
       <c r="D41" s="27" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E41" s="28" t="n">
-        <v>492.45</v>
+        <v>554.28</v>
       </c>
       <c r="F41" s="28" t="n">
-        <v>14773.61</v>
+        <v>5542.84</v>
       </c>
       <c r="G41" s="26" t="inlineStr">
         <is>
@@ -2838,74 +2772,74 @@
         </is>
       </c>
       <c r="H41" s="27" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I41" s="27" t="n">
-        <v>88.39</v>
+        <v>33.16</v>
       </c>
       <c r="J41" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L41" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M41" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N41" s="32">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O41" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P41" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R41" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S41" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T41" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U41" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V41" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W41" s="34" t="n"/>
       <c r="X41" s="34" t="n"/>
       <c r="Y41" s="33">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z41" s="34" t="n"/>
       <c r="AA41" s="34" t="n"/>
       <c r="AB41" s="35" t="n"/>
       <c r="AC41" s="31">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD41" s="36" t="n"/>
@@ -2925,13 +2859,13 @@
         </is>
       </c>
       <c r="D42" s="27" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E42" s="28" t="n">
         <v>492.45</v>
       </c>
       <c r="F42" s="28" t="n">
-        <v>4924.53</v>
+        <v>14773.61</v>
       </c>
       <c r="G42" s="26" t="inlineStr">
         <is>
@@ -2939,81 +2873,81 @@
         </is>
       </c>
       <c r="H42" s="27" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I42" s="27" t="n">
-        <v>29.47</v>
+        <v>88.39</v>
       </c>
       <c r="J42" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L42" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M42" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N42" s="32">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O42" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P42" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R42" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S42" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T42" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U42" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V42" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W42" s="34" t="n"/>
       <c r="X42" s="34" t="n"/>
       <c r="Y42" s="33">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z42" s="34" t="n"/>
       <c r="AA42" s="34" t="n"/>
       <c r="AB42" s="35" t="n"/>
       <c r="AC42" s="31">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD42" s="36" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="68">
       <c r="A43" s="25" t="n">
-        <v>45282</v>
+        <v>45303</v>
       </c>
       <c r="B43" s="26" t="inlineStr">
         <is>
@@ -3022,17 +2956,17 @@
       </c>
       <c r="C43" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D43" s="27" t="n">
         <v>10</v>
       </c>
       <c r="E43" s="28" t="n">
-        <v>402.13</v>
+        <v>492.45</v>
       </c>
       <c r="F43" s="28" t="n">
-        <v>4021.34</v>
+        <v>4924.53</v>
       </c>
       <c r="G43" s="26" t="inlineStr">
         <is>
@@ -3040,103 +2974,81 @@
         </is>
       </c>
       <c r="H43" s="27" t="n">
-        <v>3.99</v>
+        <v>5</v>
       </c>
       <c r="I43" s="27" t="n">
-        <v>24.35</v>
+        <v>29.47</v>
       </c>
       <c r="J43" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L43" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M43" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N43" s="32">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O43" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P43" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R43" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S43" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T43" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U43" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V43" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W43" s="34" t="n">
-        <v>513.0599999999999</v>
-      </c>
-      <c r="X43" s="25" t="n">
-        <v>45306</v>
-      </c>
-      <c r="Y43" s="37">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z43" s="38" t="n">
-        <v>-221.85</v>
-      </c>
-      <c r="AA43" s="38" t="n">
-        <v>225</v>
-      </c>
-      <c r="AB43" s="39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC43" s="40">
-        <f>IF(B26="DIV", F26,"")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W43" s="34" t="n"/>
+      <c r="X43" s="34" t="n"/>
+      <c r="Y43" s="33">
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z43" s="34" t="n"/>
+      <c r="AA43" s="34" t="n"/>
+      <c r="AB43" s="35" t="n"/>
+      <c r="AC43" s="31">
+        <f>IF(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD43" s="36" t="n"/>
-      <c r="AE43" s="41" t="n"/>
-      <c r="AF43" s="41" t="n"/>
-      <c r="AG43" s="41" t="n"/>
-      <c r="AH43" s="41" t="n"/>
-      <c r="AI43" s="41" t="n"/>
-      <c r="AJ43" s="41" t="n"/>
-      <c r="AK43" s="41" t="n"/>
-      <c r="AL43" s="41" t="n"/>
-      <c r="AM43" s="41" t="n"/>
-      <c r="AN43" s="41" t="n"/>
-      <c r="AO43" s="41" t="n"/>
-      <c r="AP43" s="41" t="n"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="68">
       <c r="A44" s="25" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B44" s="26" t="inlineStr">
         <is>
@@ -3152,10 +3064,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="28" t="n">
-        <v>399.61</v>
+        <v>402.13</v>
       </c>
       <c r="F44" s="28" t="n">
-        <v>3996.05</v>
+        <v>4021.34</v>
       </c>
       <c r="G44" s="26" t="inlineStr">
         <is>
@@ -3163,61 +3075,61 @@
         </is>
       </c>
       <c r="H44" s="27" t="n">
-        <v>3.96</v>
+        <v>3.99</v>
       </c>
       <c r="I44" s="27" t="n">
-        <v>24.09</v>
+        <v>24.35</v>
       </c>
       <c r="J44" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="30">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L44" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M44" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N44" s="32">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O44" s="30">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P44" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R44" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S44" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T44" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U44" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V44" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W44" s="34" t="n">
@@ -3227,20 +3139,20 @@
         <v>45306</v>
       </c>
       <c r="Y44" s="37">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z44" s="38" t="n">
-        <v>-3279.436</v>
+        <v>-221.85</v>
       </c>
       <c r="AA44" s="38" t="n">
-        <v>3326</v>
+        <v>225</v>
       </c>
       <c r="AB44" s="39" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AC44" s="40">
-        <f>IF(B27="DIV", F27,"")</f>
+        <f>IF(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD44" s="36" t="n"/>
@@ -3259,7 +3171,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1" s="68">
       <c r="A45" s="25" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B45" s="26" t="inlineStr">
         <is>
@@ -3272,13 +3184,13 @@
         </is>
       </c>
       <c r="D45" s="27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E45" s="28" t="n">
-        <v>399.21</v>
+        <v>399.61</v>
       </c>
       <c r="F45" s="28" t="n">
-        <v>2794.47</v>
+        <v>3996.05</v>
       </c>
       <c r="G45" s="26" t="inlineStr">
         <is>
@@ -3286,61 +3198,61 @@
         </is>
       </c>
       <c r="H45" s="27" t="n">
-        <v>2.77</v>
+        <v>3.96</v>
       </c>
       <c r="I45" s="27" t="n">
-        <v>16.9</v>
+        <v>24.09</v>
       </c>
       <c r="J45" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L45" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M45" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N45" s="32">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O45" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P45" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R45" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S45" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T45" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U45" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V45" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W45" s="34" t="n">
@@ -3349,20 +3261,21 @@
       <c r="X45" s="25" t="n">
         <v>45306</v>
       </c>
-      <c r="Y45" s="37" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z45" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA45" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB45" s="39" t="e">
-        <v>#REF!</v>
+      <c r="Y45" s="37">
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <v/>
+      </c>
+      <c r="Z45" s="38" t="n">
+        <v>-3279.436</v>
+      </c>
+      <c r="AA45" s="38" t="n">
+        <v>3326</v>
+      </c>
+      <c r="AB45" s="39" t="n">
+        <v>5</v>
       </c>
       <c r="AC45" s="40">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <f>IF(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD45" s="36" t="n"/>
@@ -3380,8 +3293,8 @@
       <c r="AP45" s="41" t="n"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="68">
-      <c r="A46" s="42" t="n">
-        <v>45225</v>
+      <c r="A46" s="25" t="n">
+        <v>45258</v>
       </c>
       <c r="B46" s="26" t="inlineStr">
         <is>
@@ -3394,13 +3307,13 @@
         </is>
       </c>
       <c r="D46" s="27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E46" s="28" t="n">
-        <v>392.37</v>
+        <v>399.21</v>
       </c>
       <c r="F46" s="28" t="n">
-        <v>1569.46</v>
+        <v>2794.47</v>
       </c>
       <c r="G46" s="26" t="inlineStr">
         <is>
@@ -3408,10 +3321,10 @@
         </is>
       </c>
       <c r="H46" s="27" t="n">
-        <v>1.57</v>
+        <v>2.77</v>
       </c>
       <c r="I46" s="27" t="n">
-        <v>9.49</v>
+        <v>16.9</v>
       </c>
       <c r="J46" s="29">
         <f>Index!$C$2</f>
@@ -3489,10 +3402,21 @@
       </c>
       <c r="AD46" s="36" t="n"/>
       <c r="AE46" s="41" t="n"/>
+      <c r="AF46" s="41" t="n"/>
+      <c r="AG46" s="41" t="n"/>
+      <c r="AH46" s="41" t="n"/>
+      <c r="AI46" s="41" t="n"/>
+      <c r="AJ46" s="41" t="n"/>
+      <c r="AK46" s="41" t="n"/>
+      <c r="AL46" s="41" t="n"/>
+      <c r="AM46" s="41" t="n"/>
+      <c r="AN46" s="41" t="n"/>
+      <c r="AO46" s="41" t="n"/>
+      <c r="AP46" s="41" t="n"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="68">
       <c r="A47" s="42" t="n">
-        <v>45183</v>
+        <v>45225</v>
       </c>
       <c r="B47" s="26" t="inlineStr">
         <is>
@@ -3501,17 +3425,17 @@
       </c>
       <c r="C47" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D47" s="27" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E47" s="28" t="n">
-        <v>459.59</v>
+        <v>392.37</v>
       </c>
       <c r="F47" s="28" t="n">
-        <v>16545.32</v>
+        <v>1569.46</v>
       </c>
       <c r="G47" s="26" t="inlineStr">
         <is>
@@ -3519,10 +3443,10 @@
         </is>
       </c>
       <c r="H47" s="27" t="n">
-        <v>16.68</v>
+        <v>1.57</v>
       </c>
       <c r="I47" s="27" t="n">
-        <v>98.8</v>
+        <v>9.49</v>
       </c>
       <c r="J47" s="29">
         <f>Index!$C$2</f>
@@ -3576,42 +3500,53 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W47" s="34" t="n"/>
-      <c r="X47" s="34" t="n"/>
-      <c r="Y47" s="33" t="e">
+      <c r="W47" s="34" t="n">
+        <v>513.0599999999999</v>
+      </c>
+      <c r="X47" s="25" t="n">
+        <v>45306</v>
+      </c>
+      <c r="Y47" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z47" s="34" t="n"/>
-      <c r="AA47" s="34" t="n"/>
-      <c r="AB47" s="35" t="n"/>
-      <c r="AC47" s="31">
+      <c r="Z47" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA47" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB47" s="39" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AC47" s="40">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD47" s="36" t="n"/>
+      <c r="AE47" s="41" t="n"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="68">
       <c r="A48" s="42" t="n">
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="B48" s="26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C48" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D48" s="27" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E48" s="28" t="n">
-        <v>433.95</v>
+        <v>459.59</v>
       </c>
       <c r="F48" s="28" t="n">
-        <v>1735.79</v>
+        <v>16545.32</v>
       </c>
       <c r="G48" s="26" t="inlineStr">
         <is>
@@ -3619,10 +3554,10 @@
         </is>
       </c>
       <c r="H48" s="27" t="n">
-        <v>1.72</v>
+        <v>16.68</v>
       </c>
       <c r="I48" s="27" t="n">
-        <v>10.47</v>
+        <v>98.8</v>
       </c>
       <c r="J48" s="29">
         <f>Index!$C$2</f>
@@ -3676,38 +3611,27 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W48" s="34" t="n">
-        <v>513.0599999999999</v>
-      </c>
-      <c r="X48" s="25" t="n">
-        <v>45306</v>
-      </c>
-      <c r="Y48" s="37" t="e">
+      <c r="W48" s="34" t="n"/>
+      <c r="X48" s="34" t="n"/>
+      <c r="Y48" s="33" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z48" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA48" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB48" s="39" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC48" s="40">
+      <c r="Z48" s="34" t="n"/>
+      <c r="AA48" s="34" t="n"/>
+      <c r="AB48" s="35" t="n"/>
+      <c r="AC48" s="31">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD48" s="36" t="n"/>
-      <c r="AE48" s="41" t="n"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="68">
       <c r="A49" s="42" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B49" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C49" s="26" t="inlineStr">
@@ -3716,13 +3640,13 @@
         </is>
       </c>
       <c r="D49" s="27" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E49" s="28" t="n">
-        <v>444.44</v>
+        <v>433.95</v>
       </c>
       <c r="F49" s="28" t="n">
-        <v>4444.36</v>
+        <v>1735.79</v>
       </c>
       <c r="G49" s="26" t="inlineStr">
         <is>
@@ -3730,10 +3654,10 @@
         </is>
       </c>
       <c r="H49" s="27" t="n">
-        <v>4.4</v>
+        <v>1.72</v>
       </c>
       <c r="I49" s="27" t="n">
-        <v>26.96</v>
+        <v>10.47</v>
       </c>
       <c r="J49" s="29">
         <f>Index!$C$2</f>
@@ -3814,11 +3738,11 @@
     </row>
     <row r="50" ht="13" customHeight="1" s="68">
       <c r="A50" s="42" t="n">
-        <v>45162</v>
+        <v>45180</v>
       </c>
       <c r="B50" s="26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C50" s="26" t="inlineStr">
@@ -3827,13 +3751,13 @@
         </is>
       </c>
       <c r="D50" s="27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E50" s="28" t="n">
-        <v>433.05</v>
+        <v>444.44</v>
       </c>
       <c r="F50" s="28" t="n">
-        <v>2165.25</v>
+        <v>4444.36</v>
       </c>
       <c r="G50" s="26" t="inlineStr">
         <is>
@@ -3841,10 +3765,10 @@
         </is>
       </c>
       <c r="H50" s="27" t="n">
-        <v>2.13</v>
+        <v>4.4</v>
       </c>
       <c r="I50" s="27" t="n">
-        <v>13.12</v>
+        <v>26.96</v>
       </c>
       <c r="J50" s="29">
         <f>Index!$C$2</f>
@@ -3924,12 +3848,12 @@
       <c r="AE50" s="41" t="n"/>
     </row>
     <row r="51" ht="13" customHeight="1" s="68">
-      <c r="A51" s="25" t="n">
-        <v>45141</v>
+      <c r="A51" s="42" t="n">
+        <v>45162</v>
       </c>
       <c r="B51" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C51" s="26" t="inlineStr">
@@ -3938,24 +3862,24 @@
         </is>
       </c>
       <c r="D51" s="27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E51" s="28" t="n">
-        <v>6.25</v>
+        <v>433.05</v>
       </c>
       <c r="F51" s="28" t="n">
-        <v>62.5</v>
+        <v>2165.25</v>
       </c>
       <c r="G51" s="26" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.6.2500/- per share on Ex-Date: 03-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H51" s="27" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="I51" s="27" t="n">
-        <v>0</v>
+        <v>13.12</v>
       </c>
       <c r="J51" s="29">
         <f>Index!$C$2</f>
@@ -4009,19 +3933,30 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W51" s="34" t="n"/>
-      <c r="X51" s="34" t="n"/>
-      <c r="Y51" s="33" t="e">
+      <c r="W51" s="34" t="n">
+        <v>513.0599999999999</v>
+      </c>
+      <c r="X51" s="25" t="n">
+        <v>45306</v>
+      </c>
+      <c r="Y51" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z51" s="34" t="n"/>
-      <c r="AA51" s="34" t="n"/>
-      <c r="AB51" s="35" t="n"/>
-      <c r="AC51" s="31">
+      <c r="Z51" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA51" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB51" s="39" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AC51" s="40">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD51" s="36" t="n"/>
+      <c r="AE51" s="41" t="n"/>
     </row>
     <row r="52" ht="13" customHeight="1" s="68">
       <c r="A52" s="25" t="n">
@@ -4038,13 +3973,13 @@
         </is>
       </c>
       <c r="D52" s="27" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E52" s="28" t="n">
         <v>6.25</v>
       </c>
       <c r="F52" s="28" t="n">
-        <v>162.5</v>
+        <v>62.5</v>
       </c>
       <c r="G52" s="26" t="inlineStr">
         <is>
@@ -4124,12 +4059,12 @@
       <c r="AD52" s="36" t="n"/>
     </row>
     <row r="53" ht="13" customHeight="1" s="68">
-      <c r="A53" s="42" t="n">
-        <v>45131</v>
+      <c r="A53" s="25" t="n">
+        <v>45141</v>
       </c>
       <c r="B53" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C53" s="26" t="inlineStr">
@@ -4138,24 +4073,24 @@
         </is>
       </c>
       <c r="D53" s="27" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E53" s="28" t="n">
-        <v>404.79</v>
+        <v>6.25</v>
       </c>
       <c r="F53" s="28" t="n">
-        <v>1619.16</v>
+        <v>162.5</v>
       </c>
       <c r="G53" s="26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.6.2500/- per share on Ex-Date: 03-AUG-2023</t>
         </is>
       </c>
       <c r="H53" s="27" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I53" s="27" t="n">
-        <v>9.76</v>
+        <v>0</v>
       </c>
       <c r="J53" s="29">
         <f>Index!$C$2</f>
@@ -4209,30 +4144,19 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W53" s="43" t="n">
-        <v>456.382222</v>
-      </c>
-      <c r="X53" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y53" s="37" t="e">
+      <c r="W53" s="34" t="n"/>
+      <c r="X53" s="34" t="n"/>
+      <c r="Y53" s="33" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z53" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA53" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB53" s="39" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC53" s="40">
+      <c r="Z53" s="34" t="n"/>
+      <c r="AA53" s="34" t="n"/>
+      <c r="AB53" s="35" t="n"/>
+      <c r="AC53" s="31">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD53" s="36" t="n"/>
-      <c r="AE53" s="41" t="n"/>
     </row>
     <row r="54" ht="13" customHeight="1" s="68">
       <c r="A54" s="42" t="n">
@@ -4249,13 +4173,13 @@
         </is>
       </c>
       <c r="D54" s="27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54" s="28" t="n">
-        <v>404.8</v>
+        <v>404.79</v>
       </c>
       <c r="F54" s="28" t="n">
-        <v>809.59</v>
+        <v>1619.16</v>
       </c>
       <c r="G54" s="26" t="inlineStr">
         <is>
@@ -4263,10 +4187,10 @@
         </is>
       </c>
       <c r="H54" s="27" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="I54" s="27" t="n">
-        <v>4.89</v>
+        <v>9.76</v>
       </c>
       <c r="J54" s="29">
         <f>Index!$C$2</f>
@@ -4347,11 +4271,11 @@
     </row>
     <row r="55" ht="13" customHeight="1" s="68">
       <c r="A55" s="42" t="n">
-        <v>45034</v>
+        <v>45131</v>
       </c>
       <c r="B55" s="26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C55" s="26" t="inlineStr">
@@ -4363,10 +4287,10 @@
         <v>2</v>
       </c>
       <c r="E55" s="28" t="n">
-        <v>364.03</v>
+        <v>404.8</v>
       </c>
       <c r="F55" s="28" t="n">
-        <v>728.0599999999999</v>
+        <v>809.59</v>
       </c>
       <c r="G55" s="26" t="inlineStr">
         <is>
@@ -4374,10 +4298,10 @@
         </is>
       </c>
       <c r="H55" s="27" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="I55" s="27" t="n">
-        <v>4.44</v>
+        <v>4.89</v>
       </c>
       <c r="J55" s="29">
         <f>Index!$C$2</f>
@@ -4471,13 +4395,13 @@
         </is>
       </c>
       <c r="D56" s="27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E56" s="28" t="n">
-        <v>363.87</v>
+        <v>364.03</v>
       </c>
       <c r="F56" s="28" t="n">
-        <v>2910.96</v>
+        <v>728.0599999999999</v>
       </c>
       <c r="G56" s="26" t="inlineStr">
         <is>
@@ -4485,10 +4409,10 @@
         </is>
       </c>
       <c r="H56" s="27" t="n">
-        <v>2.9</v>
+        <v>0.72</v>
       </c>
       <c r="I56" s="27" t="n">
-        <v>17.66</v>
+        <v>4.44</v>
       </c>
       <c r="J56" s="29">
         <f>Index!$C$2</f>
@@ -4569,11 +4493,11 @@
     </row>
     <row r="57" ht="13" customHeight="1" s="68">
       <c r="A57" s="42" t="n">
-        <v>44953</v>
+        <v>45034</v>
       </c>
       <c r="B57" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C57" s="26" t="inlineStr">
@@ -4582,13 +4506,13 @@
         </is>
       </c>
       <c r="D57" s="27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57" s="28" t="n">
-        <v>378.71</v>
+        <v>363.87</v>
       </c>
       <c r="F57" s="28" t="n">
-        <v>3408.42</v>
+        <v>2910.96</v>
       </c>
       <c r="G57" s="26" t="inlineStr">
         <is>
@@ -4596,10 +4520,10 @@
         </is>
       </c>
       <c r="H57" s="27" t="n">
-        <v>3.34</v>
+        <v>2.9</v>
       </c>
       <c r="I57" s="27" t="n">
-        <v>20.63</v>
+        <v>17.66</v>
       </c>
       <c r="J57" s="29">
         <f>Index!$C$2</f>
@@ -4693,13 +4617,13 @@
         </is>
       </c>
       <c r="D58" s="27" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E58" s="28" t="n">
-        <v>378.72</v>
+        <v>378.71</v>
       </c>
       <c r="F58" s="28" t="n">
-        <v>378.72</v>
+        <v>3408.42</v>
       </c>
       <c r="G58" s="26" t="inlineStr">
         <is>
@@ -4707,10 +4631,10 @@
         </is>
       </c>
       <c r="H58" s="27" t="n">
-        <v>0.38</v>
+        <v>3.34</v>
       </c>
       <c r="I58" s="27" t="n">
-        <v>2.29</v>
+        <v>20.63</v>
       </c>
       <c r="J58" s="29">
         <f>Index!$C$2</f>
@@ -4791,7 +4715,7 @@
     </row>
     <row r="59" ht="13" customHeight="1" s="68">
       <c r="A59" s="42" t="n">
-        <v>44950</v>
+        <v>44953</v>
       </c>
       <c r="B59" s="26" t="inlineStr">
         <is>
@@ -4804,13 +4728,13 @@
         </is>
       </c>
       <c r="D59" s="27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E59" s="28" t="n">
-        <v>390.75</v>
+        <v>378.72</v>
       </c>
       <c r="F59" s="28" t="n">
-        <v>3907.45</v>
+        <v>378.72</v>
       </c>
       <c r="G59" s="26" t="inlineStr">
         <is>
@@ -4818,61 +4742,61 @@
         </is>
       </c>
       <c r="H59" s="27" t="n">
-        <v>3.86</v>
+        <v>0.38</v>
       </c>
       <c r="I59" s="27" t="n">
-        <v>23.59</v>
+        <v>2.29</v>
       </c>
       <c r="J59" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K59" s="30">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="L59" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="M59" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="N59" s="32">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
       <c r="O59" s="30">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="P59" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="R59" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="S59" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="T59" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="U59" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="V59" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="W59" s="43" t="n">
@@ -4881,29 +4805,28 @@
       <c r="X59" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y59" s="37">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
-        <v/>
-      </c>
-      <c r="Z59" s="38" t="n">
-        <v>-7308.4292</v>
-      </c>
-      <c r="AA59" s="38" t="n">
-        <v>7412.200000000001</v>
-      </c>
-      <c r="AB59" s="39" t="n">
-        <v>10</v>
+      <c r="Y59" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z59" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA59" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB59" s="39" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AC59" s="40">
-        <f>IF(B28="DIV", F28,"")</f>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD59" s="36" t="n"/>
       <c r="AE59" s="41" t="n"/>
     </row>
     <row r="60" ht="13" customHeight="1" s="68">
-      <c r="A60" s="25" t="n">
-        <v>44232</v>
+      <c r="A60" s="42" t="n">
+        <v>44950</v>
       </c>
       <c r="B60" s="26" t="inlineStr">
         <is>
@@ -4912,95 +4835,110 @@
       </c>
       <c r="C60" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D60" s="27" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E60" s="28" t="n">
-        <v>512.11</v>
+        <v>390.75</v>
       </c>
       <c r="F60" s="28" t="n">
-        <v>28165.9</v>
-      </c>
-      <c r="G60" s="26" t="n"/>
+        <v>3907.45</v>
+      </c>
+      <c r="G60" s="26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
       <c r="H60" s="27" t="n">
-        <v>28.33</v>
+        <v>3.86</v>
       </c>
       <c r="I60" s="27" t="n">
-        <v>168.47</v>
+        <v>23.59</v>
       </c>
       <c r="J60" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K60" s="30">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L60" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M60" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N60" s="32">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O60" s="30">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P60" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R60" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S60" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T60" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U60" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V60" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
-        <v/>
-      </c>
-      <c r="W60" s="45" t="n"/>
-      <c r="X60" s="34" t="n"/>
-      <c r="Y60" s="33">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
-        <v/>
-      </c>
-      <c r="Z60" s="34" t="n"/>
-      <c r="AA60" s="34" t="n"/>
-      <c r="AB60" s="35" t="n"/>
-      <c r="AC60" s="31">
-        <f>IF(B29="DIV", F29,"")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <v/>
+      </c>
+      <c r="W60" s="43" t="n">
+        <v>456.382222</v>
+      </c>
+      <c r="X60" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y60" s="37">
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
+        <v/>
+      </c>
+      <c r="Z60" s="38" t="n">
+        <v>-7308.4292</v>
+      </c>
+      <c r="AA60" s="38" t="n">
+        <v>7412.200000000001</v>
+      </c>
+      <c r="AB60" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC60" s="40">
+        <f>IF(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD60" s="36" t="n"/>
+      <c r="AE60" s="41" t="n"/>
     </row>
     <row r="61" ht="13" customHeight="1" s="68">
       <c r="A61" s="25" t="n">
-        <v>44228</v>
+        <v>44232</v>
       </c>
       <c r="B61" s="26" t="inlineStr">
         <is>
@@ -5013,91 +4951,91 @@
         </is>
       </c>
       <c r="D61" s="27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E61" s="28" t="n">
-        <v>517.9299999999999</v>
+        <v>512.11</v>
       </c>
       <c r="F61" s="28" t="n">
-        <v>25896.47</v>
+        <v>28165.9</v>
       </c>
       <c r="G61" s="26" t="n"/>
       <c r="H61" s="27" t="n">
-        <v>26.08</v>
+        <v>28.33</v>
       </c>
       <c r="I61" s="27" t="n">
-        <v>154.95</v>
+        <v>168.47</v>
       </c>
       <c r="J61" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K61" s="30">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L61" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M61" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N61" s="32">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O61" s="30">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P61" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R61" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S61" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T61" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U61" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V61" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W61" s="45" t="n"/>
       <c r="X61" s="34" t="n"/>
       <c r="Y61" s="33">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z61" s="34" t="n"/>
       <c r="AA61" s="34" t="n"/>
       <c r="AB61" s="35" t="n"/>
       <c r="AC61" s="31">
-        <f>IF(B30="DIV", F30,"")</f>
+        <f>IF(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD61" s="36" t="n"/>
     </row>
     <row r="62" ht="13" customHeight="1" s="68">
-      <c r="A62" s="42" t="n">
-        <v>44152</v>
+      <c r="A62" s="25" t="n">
+        <v>44228</v>
       </c>
       <c r="B62" s="26" t="inlineStr">
         <is>
@@ -5106,106 +5044,95 @@
       </c>
       <c r="C62" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D62" s="27" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E62" s="28" t="n">
-        <v>487.94</v>
+        <v>517.9299999999999</v>
       </c>
       <c r="F62" s="28" t="n">
-        <v>2439.72</v>
+        <v>25896.47</v>
       </c>
       <c r="G62" s="26" t="n"/>
       <c r="H62" s="27" t="n">
-        <v>1.97</v>
+        <v>26.08</v>
       </c>
       <c r="I62" s="27" t="n">
-        <v>14.75</v>
+        <v>154.95</v>
       </c>
       <c r="J62" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K62" s="30">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L62" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M62" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N62" s="32">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O62" s="30">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P62" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R62" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S62" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T62" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U62" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V62" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
-        <v/>
-      </c>
-      <c r="W62" s="43" t="n">
-        <v>508.531818</v>
-      </c>
-      <c r="X62" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y62" s="37">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
-        <v/>
-      </c>
-      <c r="Z62" s="38" t="n">
-        <v>-763.4598</v>
-      </c>
-      <c r="AA62" s="38" t="n">
-        <v>774.3</v>
-      </c>
-      <c r="AB62" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC62" s="40">
-        <f>IF(B31="DIV", F31,"")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W62" s="45" t="n"/>
+      <c r="X62" s="34" t="n"/>
+      <c r="Y62" s="33">
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z62" s="34" t="n"/>
+      <c r="AA62" s="34" t="n"/>
+      <c r="AB62" s="35" t="n"/>
+      <c r="AC62" s="31">
+        <f>IF(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD62" s="36" t="n"/>
-      <c r="AE62" s="41" t="n"/>
     </row>
     <row r="63" ht="13" customHeight="1" s="68">
       <c r="A63" s="42" t="n">
-        <v>44089</v>
+        <v>44152</v>
       </c>
       <c r="B63" s="26" t="inlineStr">
         <is>
@@ -5214,200 +5141,207 @@
       </c>
       <c r="C63" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D63" s="27" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E63" s="28" t="n">
-        <v>536.5700000000001</v>
+        <v>487.94</v>
       </c>
       <c r="F63" s="28" t="n">
-        <v>10731.39</v>
+        <v>2439.72</v>
       </c>
       <c r="G63" s="26" t="n"/>
       <c r="H63" s="27" t="n">
-        <v>10.56</v>
+        <v>1.97</v>
       </c>
       <c r="I63" s="27" t="n">
-        <v>65.05</v>
+        <v>14.75</v>
       </c>
       <c r="J63" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K63" s="30">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L63" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M63" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N63" s="32">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O63" s="30">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P63" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R63" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S63" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T63" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U63" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V63" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
-        <v/>
-      </c>
-      <c r="W63" s="45" t="n"/>
-      <c r="X63" s="34" t="n"/>
-      <c r="Y63" s="33">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
-        <v/>
-      </c>
-      <c r="Z63" s="34" t="n"/>
-      <c r="AA63" s="34" t="n"/>
-      <c r="AB63" s="35" t="n"/>
-      <c r="AC63" s="31">
-        <f>IF(B32="DIV", F32,"")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <v/>
+      </c>
+      <c r="W63" s="43" t="n">
+        <v>508.531818</v>
+      </c>
+      <c r="X63" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y63" s="37">
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
+        <v/>
+      </c>
+      <c r="Z63" s="38" t="n">
+        <v>-763.4598</v>
+      </c>
+      <c r="AA63" s="38" t="n">
+        <v>774.3</v>
+      </c>
+      <c r="AB63" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="40">
+        <f>IF(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD63" s="36" t="n"/>
+      <c r="AE63" s="41" t="n"/>
     </row>
     <row r="64" ht="13" customHeight="1" s="68">
       <c r="A64" s="42" t="n">
-        <v>44063</v>
+        <v>44089</v>
       </c>
       <c r="B64" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C64" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D64" s="27" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E64" s="28" t="n">
-        <v>0.09</v>
+        <v>536.5700000000001</v>
       </c>
       <c r="F64" s="28" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="G64" s="26" t="inlineStr">
-        <is>
-          <t>Dividend of Rs.0.0925/- per share on 20-AUG-2020 Final-Dividend of Rs.0.1000/- per share on Ex-Date: 20-AUG-2020</t>
-        </is>
-      </c>
+        <v>10731.39</v>
+      </c>
+      <c r="G64" s="26" t="n"/>
       <c r="H64" s="27" t="n">
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="I64" s="27" t="n">
-        <v>0</v>
+        <v>65.05</v>
       </c>
       <c r="J64" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K64" s="30">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L64" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M64" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N64" s="32">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O64" s="30">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P64" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R64" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S64" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T64" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U64" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V64" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W64" s="45" t="n"/>
       <c r="X64" s="34" t="n"/>
       <c r="Y64" s="33">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z64" s="34" t="n"/>
       <c r="AA64" s="34" t="n"/>
       <c r="AB64" s="35" t="n"/>
       <c r="AC64" s="31">
-        <f>IF(B33="DIV", F33,"")</f>
+        <f>IF(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD64" s="36" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1" s="68">
       <c r="A65" s="42" t="n">
-        <v>44043</v>
+        <v>44063</v>
       </c>
       <c r="B65" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C65" s="26" t="inlineStr">
@@ -5416,102 +5350,95 @@
         </is>
       </c>
       <c r="D65" s="27" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E65" s="28" t="n">
-        <v>453.3</v>
+        <v>0.09</v>
       </c>
       <c r="F65" s="28" t="n">
-        <v>4533.01</v>
-      </c>
-      <c r="G65" s="26" t="n"/>
+        <v>11.1</v>
+      </c>
+      <c r="G65" s="26" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.0.0925/- per share on 20-AUG-2020 Final-Dividend of Rs.0.1000/- per share on Ex-Date: 20-AUG-2020</t>
+        </is>
+      </c>
       <c r="H65" s="27" t="n">
-        <v>4.57</v>
+        <v>0</v>
       </c>
       <c r="I65" s="27" t="n">
-        <v>27.44</v>
+        <v>0</v>
       </c>
       <c r="J65" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K65" s="30">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L65" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M65" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N65" s="32">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O65" s="30">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P65" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R65" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S65" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T65" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U65" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V65" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
-        <v/>
-      </c>
-      <c r="W65" s="43" t="n">
-        <v>508.531818</v>
-      </c>
-      <c r="X65" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y65" s="37">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
-        <v/>
-      </c>
-      <c r="Z65" s="38" t="n">
-        <v>-4855.557</v>
-      </c>
-      <c r="AA65" s="38" t="n">
-        <v>4924.5</v>
-      </c>
-      <c r="AB65" s="39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC65" s="40">
-        <f>IF(B34="DIV", F34,"")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="W65" s="45" t="n"/>
+      <c r="X65" s="34" t="n"/>
+      <c r="Y65" s="33">
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <v/>
+      </c>
+      <c r="Z65" s="34" t="n"/>
+      <c r="AA65" s="34" t="n"/>
+      <c r="AB65" s="35" t="n"/>
+      <c r="AC65" s="31">
+        <f>IF(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD65" s="36" t="n"/>
-      <c r="AE65" s="41" t="n"/>
     </row>
     <row r="66" ht="13" customHeight="1" s="68">
       <c r="A66" s="42" t="n">
-        <v>44036</v>
+        <v>44043</v>
       </c>
       <c r="B66" s="26" t="inlineStr">
         <is>
@@ -5524,71 +5451,71 @@
         </is>
       </c>
       <c r="D66" s="27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E66" s="28" t="n">
-        <v>445.3</v>
+        <v>453.3</v>
       </c>
       <c r="F66" s="28" t="n">
-        <v>2226.52</v>
+        <v>4533.01</v>
       </c>
       <c r="G66" s="26" t="n"/>
       <c r="H66" s="27" t="n">
-        <v>2.23</v>
+        <v>4.57</v>
       </c>
       <c r="I66" s="27" t="n">
-        <v>13.29</v>
+        <v>27.44</v>
       </c>
       <c r="J66" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K66" s="30">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L66" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M66" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N66" s="32">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O66" s="30">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P66" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R66" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S66" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T66" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U66" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V66" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W66" s="43" t="n">
@@ -5597,28 +5524,29 @@
       <c r="X66" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y66" s="37" t="n">
-        <v>-0.05478210624049307</v>
+      <c r="Y66" s="37">
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
+        <v/>
       </c>
       <c r="Z66" s="38" t="n">
-        <v>1093.769799999999</v>
+        <v>-4855.557</v>
       </c>
       <c r="AA66" s="38" t="n">
-        <v>3799.45</v>
+        <v>4924.5</v>
       </c>
       <c r="AB66" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC66" s="40">
-        <f>IF(B35="DIV", F35,"")</f>
+        <f>IF(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD66" s="36" t="n"/>
       <c r="AE66" s="41" t="n"/>
     </row>
     <row r="67" ht="13" customHeight="1" s="68">
-      <c r="A67" s="46" t="n">
-        <v>43966</v>
+      <c r="A67" s="42" t="n">
+        <v>44036</v>
       </c>
       <c r="B67" s="26" t="inlineStr">
         <is>
@@ -5634,68 +5562,68 @@
         <v>5</v>
       </c>
       <c r="E67" s="28" t="n">
-        <v>425.17</v>
+        <v>445.3</v>
       </c>
       <c r="F67" s="28" t="n">
-        <v>2125.85</v>
+        <v>2226.52</v>
       </c>
       <c r="G67" s="26" t="n"/>
       <c r="H67" s="27" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="I67" s="27" t="n">
-        <v>10.6</v>
+        <v>13.29</v>
       </c>
       <c r="J67" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="30">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="L67" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M67" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N67" s="32">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O67" s="30">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="P67" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R67" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S67" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="T67" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="U67" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V67" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W67" s="43" t="n">
@@ -5705,27 +5633,27 @@
         <v>45565</v>
       </c>
       <c r="Y67" s="37" t="n">
-        <v>-0.8149489326805993</v>
+        <v>-0.05478210624049307</v>
       </c>
       <c r="Z67" s="38" t="n">
-        <v>1118.616999999999</v>
+        <v>1093.769799999999</v>
       </c>
       <c r="AA67" s="38" t="n">
-        <v>716.6640000000002</v>
+        <v>3799.45</v>
       </c>
       <c r="AB67" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC67" s="40">
-        <f>IF(B36="DIV", F36,"")</f>
+        <f>IF(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD67" s="36" t="n"/>
       <c r="AE67" s="41" t="n"/>
     </row>
     <row r="68" ht="13" customHeight="1" s="68">
-      <c r="A68" s="47" t="n">
-        <v>43959</v>
+      <c r="A68" s="46" t="n">
+        <v>43966</v>
       </c>
       <c r="B68" s="26" t="inlineStr">
         <is>
@@ -5738,71 +5666,71 @@
         </is>
       </c>
       <c r="D68" s="27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E68" s="28" t="n">
-        <v>406.67</v>
+        <v>425.17</v>
       </c>
       <c r="F68" s="28" t="n">
-        <v>4066.7</v>
+        <v>2125.85</v>
       </c>
       <c r="G68" s="26" t="n"/>
       <c r="H68" s="27" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="27" t="n">
-        <v>20.2</v>
+        <v>10.6</v>
       </c>
       <c r="J68" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="30">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="L68" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M68" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N68" s="32">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O68" s="30">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="P68" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R68" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S68" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="T68" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="U68" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V68" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W68" s="43" t="n">
@@ -5811,20 +5739,20 @@
       <c r="X68" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y68" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y68" s="37" t="n">
+        <v>-0.8149489326805993</v>
       </c>
       <c r="Z68" s="38" t="n">
-        <v>785.7926999999999</v>
-      </c>
-      <c r="AA68" s="38" t="e">
-        <v>#REF!</v>
+        <v>1118.616999999999</v>
+      </c>
+      <c r="AA68" s="38" t="n">
+        <v>716.6640000000002</v>
       </c>
       <c r="AB68" s="39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC68" s="40">
-        <f>IF(B37="DIV", F37,"")</f>
+        <f>IF(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD68" s="36" t="n"/>
@@ -5832,7 +5760,7 @@
     </row>
     <row r="69" ht="13" customHeight="1" s="68">
       <c r="A69" s="47" t="n">
-        <v>43956</v>
+        <v>43959</v>
       </c>
       <c r="B69" s="26" t="inlineStr">
         <is>
@@ -5848,68 +5776,68 @@
         <v>10</v>
       </c>
       <c r="E69" s="28" t="n">
-        <v>408.43</v>
+        <v>406.67</v>
       </c>
       <c r="F69" s="28" t="n">
-        <v>4084.3</v>
+        <v>4066.7</v>
       </c>
       <c r="G69" s="26" t="n"/>
       <c r="H69" s="27" t="n">
         <v>0</v>
       </c>
       <c r="I69" s="27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="J69" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="30">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="L69" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M69" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N69" s="32">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O69" s="30">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="P69" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R69" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S69" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="T69" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="U69" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V69" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W69" s="43" t="n">
@@ -5922,24 +5850,24 @@
         <v>#REF!</v>
       </c>
       <c r="Z69" s="38" t="n">
-        <v>476.0013599999997</v>
+        <v>785.7926999999999</v>
       </c>
       <c r="AA69" s="38" t="e">
         <v>#REF!</v>
       </c>
       <c r="AB69" s="39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC69" s="40">
-        <f>IF(B38="DIV", F38,"")</f>
+        <f>IF(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD69" s="36" t="n"/>
       <c r="AE69" s="41" t="n"/>
     </row>
     <row r="70" ht="13" customHeight="1" s="68">
-      <c r="A70" s="42" t="n">
-        <v>43944</v>
+      <c r="A70" s="47" t="n">
+        <v>43956</v>
       </c>
       <c r="B70" s="26" t="inlineStr">
         <is>
@@ -5955,10 +5883,10 @@
         <v>10</v>
       </c>
       <c r="E70" s="28" t="n">
-        <v>408.93</v>
+        <v>408.43</v>
       </c>
       <c r="F70" s="28" t="n">
-        <v>4089.3</v>
+        <v>4084.3</v>
       </c>
       <c r="G70" s="26" t="n"/>
       <c r="H70" s="27" t="n">
@@ -5972,51 +5900,51 @@
         <v/>
       </c>
       <c r="K70" s="30">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="L70" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M70" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N70" s="32">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O70" s="30">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="P70" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R70" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S70" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="T70" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="U70" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V70" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W70" s="43" t="n">
@@ -6025,21 +5953,20 @@
       <c r="X70" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y70" s="37">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
-        <v/>
+      <c r="Y70" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z70" s="38" t="n">
-        <v>-16313.60664</v>
-      </c>
-      <c r="AA70" s="38" t="n">
-        <v>16545.24</v>
+        <v>476.0013599999997</v>
+      </c>
+      <c r="AA70" s="38" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AB70" s="39" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="AC70" s="40">
-        <f>IF(B39="DIV", F39,"")</f>
+        <f>IF(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD70" s="36" t="n"/>
@@ -6047,7 +5974,7 @@
     </row>
     <row r="71" ht="13" customHeight="1" s="68">
       <c r="A71" s="42" t="n">
-        <v>43921</v>
+        <v>43944</v>
       </c>
       <c r="B71" s="26" t="inlineStr">
         <is>
@@ -6063,90 +5990,91 @@
         <v>10</v>
       </c>
       <c r="E71" s="28" t="n">
-        <v>291.69</v>
+        <v>408.93</v>
       </c>
       <c r="F71" s="28" t="n">
-        <v>2916.95</v>
+        <v>4089.3</v>
       </c>
       <c r="G71" s="26" t="n"/>
       <c r="H71" s="27" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="I71" s="27" t="n">
-        <v>17.53</v>
+        <v>20.3</v>
       </c>
       <c r="J71" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K71" s="30">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="L71" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M71" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N71" s="32">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O71" s="30">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="P71" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R71" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S71" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="T71" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="U71" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V71" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W71" s="43" t="n">
-        <v>514.3094</v>
+        <v>508.531818</v>
       </c>
       <c r="X71" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y71" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y71" s="37">
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
+        <v/>
       </c>
       <c r="Z71" s="38" t="n">
-        <v>312.0098399999998</v>
-      </c>
-      <c r="AA71" s="38" t="e">
-        <v>#REF!</v>
+        <v>-16313.60664</v>
+      </c>
+      <c r="AA71" s="38" t="n">
+        <v>16545.24</v>
       </c>
       <c r="AB71" s="39" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="AC71" s="40">
-        <f>IF(B40="DIV", F40,"")</f>
+        <f>IF(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD71" s="36" t="n"/>
@@ -6154,7 +6082,7 @@
     </row>
     <row r="72" ht="13" customHeight="1" s="68">
       <c r="A72" s="42" t="n">
-        <v>43909</v>
+        <v>43921</v>
       </c>
       <c r="B72" s="26" t="inlineStr">
         <is>
@@ -6170,68 +6098,68 @@
         <v>10</v>
       </c>
       <c r="E72" s="28" t="n">
-        <v>287.77</v>
+        <v>291.69</v>
       </c>
       <c r="F72" s="28" t="n">
-        <v>2877.67</v>
+        <v>2916.95</v>
       </c>
       <c r="G72" s="26" t="n"/>
       <c r="H72" s="27" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="I72" s="27" t="n">
-        <v>17.29</v>
+        <v>17.53</v>
       </c>
       <c r="J72" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K72" s="30">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="L72" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M72" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N72" s="32">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O72" s="30">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="P72" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R72" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S72" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="T72" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="U72" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V72" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W72" s="43" t="n">
@@ -6244,16 +6172,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z72" s="38" t="n">
-        <v>676.5931999999998</v>
+        <v>312.0098399999998</v>
       </c>
       <c r="AA72" s="38" t="e">
         <v>#REF!</v>
       </c>
       <c r="AB72" s="39" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC72" s="40">
-        <f>IF(B41="DIV", F41,"")</f>
+        <f>IF(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD72" s="36" t="n"/>
@@ -6261,7 +6189,7 @@
     </row>
     <row r="73" ht="13" customHeight="1" s="68">
       <c r="A73" s="42" t="n">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="B73" s="26" t="inlineStr">
         <is>
@@ -6277,68 +6205,68 @@
         <v>10</v>
       </c>
       <c r="E73" s="28" t="n">
-        <v>310.27</v>
+        <v>287.77</v>
       </c>
       <c r="F73" s="28" t="n">
-        <v>3102.71</v>
+        <v>2877.67</v>
       </c>
       <c r="G73" s="26" t="n"/>
       <c r="H73" s="27" t="n">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="I73" s="27" t="n">
-        <v>18.53</v>
+        <v>17.29</v>
       </c>
       <c r="J73" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K73" s="30">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="L73" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M73" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N73" s="32">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O73" s="30">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="P73" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R73" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S73" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="T73" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="U73" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V73" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W73" s="43" t="n">
@@ -6351,16 +6279,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z73" s="38" t="n">
-        <v>394.4492999999997</v>
+        <v>676.5931999999998</v>
       </c>
       <c r="AA73" s="38" t="e">
         <v>#REF!</v>
       </c>
       <c r="AB73" s="39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC73" s="40">
-        <f>IF(B42="DIV", F42,"")</f>
+        <f>IF(B41="DIV", F41,"")</f>
         <v/>
       </c>
       <c r="AD73" s="36" t="n"/>
@@ -6368,7 +6296,7 @@
     </row>
     <row r="74" ht="13" customHeight="1" s="68">
       <c r="A74" s="42" t="n">
-        <v>43901</v>
+        <v>43906</v>
       </c>
       <c r="B74" s="26" t="inlineStr">
         <is>
@@ -6384,68 +6312,68 @@
         <v>10</v>
       </c>
       <c r="E74" s="28" t="n">
-        <v>365.5</v>
+        <v>310.27</v>
       </c>
       <c r="F74" s="28" t="n">
-        <v>3654.96</v>
+        <v>3102.71</v>
       </c>
       <c r="G74" s="26" t="n"/>
       <c r="H74" s="27" t="n">
-        <v>3.63</v>
+        <v>3.18</v>
       </c>
       <c r="I74" s="27" t="n">
-        <v>21.83</v>
+        <v>18.53</v>
       </c>
       <c r="J74" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K74" s="30">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="L74" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M74" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N74" s="32">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O74" s="30">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="P74" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R74" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S74" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="T74" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="U74" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V74" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W74" s="43" t="n">
@@ -6454,29 +6382,28 @@
       <c r="X74" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y74" s="37">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
-        <v/>
+      <c r="Y74" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z74" s="38" t="n">
-        <v>-61.625</v>
-      </c>
-      <c r="AA74" s="38" t="n">
-        <v>62.5</v>
+        <v>394.4492999999997</v>
+      </c>
+      <c r="AA74" s="38" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AB74" s="39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC74" s="40">
-        <f>IF(B43="DIV", F43,"")</f>
+        <f>IF(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD74" s="36" t="n"/>
       <c r="AE74" s="41" t="n"/>
     </row>
     <row r="75" ht="13" customHeight="1" s="68">
-      <c r="A75" s="25" t="n">
-        <v>43896</v>
+      <c r="A75" s="42" t="n">
+        <v>43901</v>
       </c>
       <c r="B75" s="26" t="inlineStr">
         <is>
@@ -6492,68 +6419,68 @@
         <v>10</v>
       </c>
       <c r="E75" s="28" t="n">
-        <v>396.6</v>
+        <v>365.5</v>
       </c>
       <c r="F75" s="28" t="n">
-        <v>3965.97</v>
+        <v>3654.96</v>
       </c>
       <c r="G75" s="26" t="n"/>
       <c r="H75" s="27" t="n">
-        <v>3.99</v>
+        <v>3.63</v>
       </c>
       <c r="I75" s="27" t="n">
-        <v>23.68</v>
+        <v>21.83</v>
       </c>
       <c r="J75" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K75" s="30">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="L75" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M75" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N75" s="32">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O75" s="30">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="P75" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R75" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S75" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="T75" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="U75" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V75" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W75" s="43" t="n">
@@ -6563,20 +6490,20 @@
         <v>45565</v>
       </c>
       <c r="Y75" s="37">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z75" s="38" t="n">
-        <v>-160.225</v>
+        <v>-61.625</v>
       </c>
       <c r="AA75" s="38" t="n">
-        <v>162.5</v>
+        <v>62.5</v>
       </c>
       <c r="AB75" s="39" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AC75" s="40">
-        <f>IF(B44="DIV", F44,"")</f>
+        <f>IF(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD75" s="36" t="n"/>
@@ -6584,7 +6511,7 @@
     </row>
     <row r="76" ht="13" customHeight="1" s="68">
       <c r="A76" s="25" t="n">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B76" s="26" t="inlineStr">
         <is>
@@ -6600,90 +6527,91 @@
         <v>10</v>
       </c>
       <c r="E76" s="28" t="n">
-        <v>420.94</v>
+        <v>396.6</v>
       </c>
       <c r="F76" s="28" t="n">
-        <v>4209.36</v>
+        <v>3965.97</v>
       </c>
       <c r="G76" s="26" t="n"/>
       <c r="H76" s="27" t="n">
-        <v>4.16</v>
+        <v>3.99</v>
       </c>
       <c r="I76" s="27" t="n">
-        <v>25.2</v>
+        <v>23.68</v>
       </c>
       <c r="J76" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K76" s="30">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="L76" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M76" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N76" s="32">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O76" s="30">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="P76" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R76" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S76" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="T76" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="U76" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V76" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W76" s="43" t="n">
-        <v>532.7895</v>
+        <v>514.3094</v>
       </c>
       <c r="X76" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y76" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y76" s="37">
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <v/>
       </c>
       <c r="Z76" s="38" t="n">
-        <v>203.479723568</v>
-      </c>
-      <c r="AA76" s="38" t="e">
-        <v>#REF!</v>
+        <v>-160.225</v>
+      </c>
+      <c r="AA76" s="38" t="n">
+        <v>162.5</v>
       </c>
       <c r="AB76" s="39" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="AC76" s="40">
-        <f>IF(B45="DIV", F45,"")</f>
+        <f>IF(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD76" s="36" t="n"/>
@@ -6695,7 +6623,7 @@
       </c>
       <c r="B77" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C77" s="26" t="inlineStr">
@@ -6707,95 +6635,102 @@
         <v>10</v>
       </c>
       <c r="E77" s="28" t="n">
-        <v>5</v>
+        <v>420.94</v>
       </c>
       <c r="F77" s="28" t="n">
-        <v>50</v>
-      </c>
-      <c r="G77" s="26" t="inlineStr">
-        <is>
-          <t>Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 05-MAR-2020</t>
-        </is>
-      </c>
+        <v>4209.36</v>
+      </c>
+      <c r="G77" s="26" t="n"/>
       <c r="H77" s="27" t="n">
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="I77" s="27" t="n">
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="J77" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K77" s="30">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="L77" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M77" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N77" s="32">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O77" s="30">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="P77" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R77" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S77" s="33">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="T77" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="U77" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V77" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
-        <v/>
-      </c>
-      <c r="W77" s="45" t="n"/>
-      <c r="X77" s="34" t="n"/>
-      <c r="Y77" s="33" t="e">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <v/>
+      </c>
+      <c r="W77" s="43" t="n">
+        <v>532.7895</v>
+      </c>
+      <c r="X77" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y77" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z77" s="34" t="n"/>
-      <c r="AA77" s="34" t="n"/>
-      <c r="AB77" s="35" t="n"/>
-      <c r="AC77" s="31">
-        <f>IF(B46="DIV", F46,"")</f>
+      <c r="Z77" s="38" t="n">
+        <v>203.479723568</v>
+      </c>
+      <c r="AA77" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB77" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC77" s="40">
+        <f>IF(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD77" s="36" t="n"/>
+      <c r="AE77" s="41" t="n"/>
     </row>
     <row r="78" ht="13" customHeight="1" s="68">
       <c r="A78" s="25" t="n">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="B78" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C78" s="26" t="inlineStr">
@@ -6804,101 +6739,94 @@
         </is>
       </c>
       <c r="D78" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="E78" s="28" t="n">
-        <v>481.4</v>
-      </c>
       <c r="F78" s="28" t="n">
-        <v>2407.02</v>
-      </c>
-      <c r="G78" s="26" t="n"/>
+        <v>50</v>
+      </c>
+      <c r="G78" s="26" t="inlineStr">
+        <is>
+          <t>Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 05-MAR-2020</t>
+        </is>
+      </c>
       <c r="H78" s="27" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="I78" s="27" t="n">
-        <v>14.38</v>
+        <v>0</v>
       </c>
       <c r="J78" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K78" s="30">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="L78" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M78" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N78" s="32">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O78" s="30">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="P78" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R78" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S78" s="33">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="T78" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="U78" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V78" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
-        <v/>
-      </c>
-      <c r="W78" s="43" t="n">
-        <v>532.7895</v>
-      </c>
-      <c r="X78" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y78" s="37" t="e">
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <v/>
+      </c>
+      <c r="W78" s="45" t="n"/>
+      <c r="X78" s="34" t="n"/>
+      <c r="Y78" s="33" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z78" s="38" t="n">
-        <v>182.1185817840001</v>
-      </c>
-      <c r="AA78" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB78" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC78" s="40">
-        <f>IF(B47="DIV", F47,"")</f>
+      <c r="Z78" s="34" t="n"/>
+      <c r="AA78" s="34" t="n"/>
+      <c r="AB78" s="35" t="n"/>
+      <c r="AC78" s="31">
+        <f>IF(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD78" s="36" t="n"/>
-      <c r="AE78" s="41" t="n"/>
     </row>
     <row r="79" ht="13" customHeight="1" s="68">
       <c r="A79" s="25" t="n">
-        <v>43831</v>
+        <v>43892</v>
       </c>
       <c r="B79" s="26" t="inlineStr">
         <is>
@@ -6907,94 +6835,105 @@
       </c>
       <c r="C79" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D79" s="27" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E79" s="28" t="n">
-        <v>596.83</v>
+        <v>481.4</v>
       </c>
       <c r="F79" s="28" t="n">
-        <v>14920.76</v>
+        <v>2407.02</v>
       </c>
       <c r="G79" s="26" t="n"/>
       <c r="H79" s="27" t="n">
-        <v>15.11</v>
+        <v>2.39</v>
       </c>
       <c r="I79" s="27" t="n">
-        <v>90.38</v>
+        <v>14.38</v>
       </c>
       <c r="J79" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K79" s="30">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="L79" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M79" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N79" s="32">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O79" s="30">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="P79" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R79" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S79" s="33">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="T79" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="U79" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V79" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
-        <v/>
-      </c>
-      <c r="W79" s="45" t="n"/>
-      <c r="X79" s="34" t="n"/>
-      <c r="Y79" s="33" t="e">
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <v/>
+      </c>
+      <c r="W79" s="43" t="n">
+        <v>532.7895</v>
+      </c>
+      <c r="X79" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y79" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z79" s="34" t="n"/>
-      <c r="AA79" s="34" t="n"/>
-      <c r="AB79" s="35" t="n"/>
-      <c r="AC79" s="31">
-        <f>IF(B48="DIV", F48,"")</f>
+      <c r="Z79" s="38" t="n">
+        <v>182.1185817840001</v>
+      </c>
+      <c r="AA79" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB79" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC79" s="40">
+        <f>IF(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD79" s="36" t="n"/>
+      <c r="AE79" s="41" t="n"/>
     </row>
     <row r="80" ht="13" customHeight="1" s="68">
       <c r="A80" s="25" t="n">
-        <v>43823</v>
+        <v>43831</v>
       </c>
       <c r="B80" s="26" t="inlineStr">
         <is>
@@ -7007,71 +6946,71 @@
         </is>
       </c>
       <c r="D80" s="27" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E80" s="28" t="n">
-        <v>581.38</v>
+        <v>596.83</v>
       </c>
       <c r="F80" s="28" t="n">
-        <v>11627.69</v>
+        <v>14920.76</v>
       </c>
       <c r="G80" s="26" t="n"/>
       <c r="H80" s="27" t="n">
-        <v>11.74</v>
+        <v>15.11</v>
       </c>
       <c r="I80" s="27" t="n">
-        <v>70.56999999999999</v>
+        <v>90.38</v>
       </c>
       <c r="J80" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K80" s="30">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="L80" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M80" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N80" s="32">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O80" s="30">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="P80" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R80" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S80" s="33">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="T80" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="U80" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V80" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W80" s="45" t="n"/>
@@ -7083,14 +7022,14 @@
       <c r="AA80" s="34" t="n"/>
       <c r="AB80" s="35" t="n"/>
       <c r="AC80" s="31">
-        <f>IF(B49="DIV", F49,"")</f>
+        <f>IF(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD80" s="36" t="n"/>
     </row>
     <row r="81" ht="13" customHeight="1" s="68">
       <c r="A81" s="25" t="n">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="B81" s="26" t="inlineStr">
         <is>
@@ -7106,68 +7045,68 @@
         <v>20</v>
       </c>
       <c r="E81" s="28" t="n">
-        <v>580.9665</v>
+        <v>581.38</v>
       </c>
       <c r="F81" s="28" t="n">
-        <v>11702.13</v>
+        <v>11627.69</v>
       </c>
       <c r="G81" s="26" t="n"/>
       <c r="H81" s="27" t="n">
-        <v>11.88</v>
+        <v>11.74</v>
       </c>
       <c r="I81" s="27" t="n">
-        <v>70.98999999999999</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="J81" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K81" s="30">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="L81" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M81" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N81" s="32">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O81" s="30">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="P81" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R81" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S81" s="33">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="T81" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="U81" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V81" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W81" s="45" t="n"/>
@@ -7179,14 +7118,14 @@
       <c r="AA81" s="34" t="n"/>
       <c r="AB81" s="35" t="n"/>
       <c r="AC81" s="31">
-        <f>IF(B50="DIV", F50,"")</f>
+        <f>IF(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD81" s="36" t="n"/>
     </row>
     <row r="82" ht="13" customHeight="1" s="68">
       <c r="A82" s="25" t="n">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="B82" s="26" t="inlineStr">
         <is>
@@ -7199,90 +7138,90 @@
         </is>
       </c>
       <c r="D82" s="27" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E82" s="28" t="n">
-        <v>570.971</v>
+        <v>580.9665</v>
       </c>
       <c r="F82" s="28" t="n">
-        <v>17251.48</v>
+        <v>11702.13</v>
       </c>
       <c r="G82" s="26" t="n"/>
       <c r="H82" s="27" t="n">
-        <v>17.54</v>
+        <v>11.88</v>
       </c>
       <c r="I82" s="27" t="n">
-        <v>104.83</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="J82" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K82" s="30">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="L82" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M82" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N82" s="32">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O82" s="30">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="P82" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R82" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S82" s="33">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="T82" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="U82" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V82" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W82" s="45" t="n"/>
       <c r="X82" s="34" t="n"/>
-      <c r="Y82" s="33" t="n">
-        <v>-1.857335434191466</v>
+      <c r="Y82" s="33" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z82" s="34" t="n"/>
       <c r="AA82" s="34" t="n"/>
       <c r="AB82" s="35" t="n"/>
       <c r="AC82" s="31">
-        <f>IF(B51="DIV", F51,"")</f>
+        <f>IF(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD82" s="36" t="n"/>
     </row>
     <row r="83" ht="13" customHeight="1" s="68">
       <c r="A83" s="25" t="n">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="B83" s="26" t="inlineStr">
         <is>
@@ -7291,102 +7230,90 @@
       </c>
       <c r="C83" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D83" s="27" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E83" s="28" t="n">
-        <v>581.792</v>
+        <v>570.971</v>
       </c>
       <c r="F83" s="28" t="n">
-        <v>2914.03</v>
+        <v>17251.48</v>
       </c>
       <c r="G83" s="26" t="n"/>
       <c r="H83" s="27" t="n">
-        <v>2.155</v>
+        <v>17.54</v>
       </c>
       <c r="I83" s="27" t="n">
-        <v>2.925</v>
+        <v>104.83</v>
       </c>
       <c r="J83" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K83" s="30">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="L83" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M83" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N83" s="32">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O83" s="30">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="P83" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R83" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S83" s="33">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="T83" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="U83" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V83" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
-        <v/>
-      </c>
-      <c r="W83" s="43" t="n">
-        <v>532.7895</v>
-      </c>
-      <c r="X83" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y83" s="37">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
-        <v/>
-      </c>
-      <c r="Z83" s="38" t="n">
-        <v>-27771.7253</v>
-      </c>
-      <c r="AA83" s="38" t="n">
-        <v>28166.05</v>
-      </c>
-      <c r="AB83" s="39" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC83" s="40">
-        <f>IF(B52="DIV", F52,"")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <v/>
+      </c>
+      <c r="W83" s="45" t="n"/>
+      <c r="X83" s="34" t="n"/>
+      <c r="Y83" s="33" t="n">
+        <v>-1.857335434191466</v>
+      </c>
+      <c r="Z83" s="34" t="n"/>
+      <c r="AA83" s="34" t="n"/>
+      <c r="AB83" s="35" t="n"/>
+      <c r="AC83" s="31">
+        <f>IF(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD83" s="36" t="n"/>
-      <c r="AE83" s="41" t="n"/>
     </row>
     <row r="84" ht="13" customHeight="1" s="68">
       <c r="A84" s="25" t="n">
@@ -7423,74 +7350,74 @@
         <v/>
       </c>
       <c r="K84" s="30">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="L84" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M84" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N84" s="32">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O84" s="30">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="P84" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R84" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S84" s="33">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="T84" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="U84" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V84" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W84" s="43" t="n">
-        <v>574.903</v>
+        <v>532.7895</v>
       </c>
       <c r="X84" s="44" t="n">
         <v>45565</v>
       </c>
       <c r="Y84" s="37">
-        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="Z84" s="38" t="n">
-        <v>-25533.949</v>
+        <v>-27771.7253</v>
       </c>
       <c r="AA84" s="38" t="n">
-        <v>25896.5</v>
+        <v>28166.05</v>
       </c>
       <c r="AB84" s="39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC84" s="40">
-        <f>IF(B53="DIV", F53,"")</f>
+        <f>IF(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD84" s="36" t="n"/>
@@ -7507,94 +7434,106 @@
       </c>
       <c r="C85" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D85" s="27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E85" s="28" t="n">
-        <v>574.903</v>
+        <v>581.792</v>
       </c>
       <c r="F85" s="28" t="n">
-        <v>5759.03</v>
+        <v>2914.03</v>
       </c>
       <c r="G85" s="26" t="n"/>
       <c r="H85" s="27" t="n">
-        <v>4.27</v>
+        <v>2.155</v>
       </c>
       <c r="I85" s="27" t="n">
-        <v>5.7</v>
+        <v>2.925</v>
       </c>
       <c r="J85" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K85" s="30">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="L85" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M85" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N85" s="32">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O85" s="30">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="P85" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R85" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S85" s="33">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="T85" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="U85" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V85" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
-        <v/>
-      </c>
-      <c r="W85" s="45" t="n"/>
-      <c r="X85" s="34" t="n"/>
-      <c r="Y85" s="33" t="n">
-        <v>-0.3107992867727281</v>
-      </c>
-      <c r="Z85" s="34" t="n"/>
-      <c r="AA85" s="34" t="n"/>
-      <c r="AB85" s="35" t="n"/>
-      <c r="AC85" s="31">
-        <f>IF(B54="DIV", F54,"")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <v/>
+      </c>
+      <c r="W85" s="43" t="n">
+        <v>574.903</v>
+      </c>
+      <c r="X85" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y85" s="37">
+        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
+        <v/>
+      </c>
+      <c r="Z85" s="38" t="n">
+        <v>-25533.949</v>
+      </c>
+      <c r="AA85" s="38" t="n">
+        <v>25896.5</v>
+      </c>
+      <c r="AB85" s="39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC85" s="40">
+        <f>IF(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD85" s="36" t="n"/>
+      <c r="AE85" s="41" t="n"/>
     </row>
     <row r="86" ht="13" customHeight="1" s="68">
       <c r="A86" s="25" t="n">
-        <v>43812</v>
+        <v>43818</v>
       </c>
       <c r="B86" s="26" t="inlineStr">
         <is>
@@ -7607,91 +7546,90 @@
         </is>
       </c>
       <c r="D86" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E86" s="28" t="n">
-        <v>508.1195</v>
+        <v>574.903</v>
       </c>
       <c r="F86" s="28" t="n">
-        <v>10232.19</v>
+        <v>5759.03</v>
       </c>
       <c r="G86" s="26" t="n"/>
       <c r="H86" s="27" t="n">
-        <v>7.82</v>
+        <v>4.27</v>
       </c>
       <c r="I86" s="27" t="n">
-        <v>61.99</v>
+        <v>5.7</v>
       </c>
       <c r="J86" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K86" s="30">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="L86" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="M86" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
         <v/>
       </c>
       <c r="N86" s="32">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
         <v/>
       </c>
       <c r="O86" s="30">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="P86" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="Q86" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
         <v/>
       </c>
       <c r="R86" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="S86" s="33">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="T86" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="U86" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
         <v/>
       </c>
       <c r="V86" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="W86" s="45" t="n"/>
       <c r="X86" s="34" t="n"/>
-      <c r="Y86" s="33">
-        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
-        <v/>
+      <c r="Y86" s="33" t="n">
+        <v>-0.3107992867727281</v>
       </c>
       <c r="Z86" s="34" t="n"/>
       <c r="AA86" s="34" t="n"/>
       <c r="AB86" s="35" t="n"/>
       <c r="AC86" s="31">
-        <f>IF(B55="DIV", F55,"")</f>
+        <f>IF(B54="DIV", F54,"")</f>
         <v/>
       </c>
       <c r="AD86" s="36" t="n"/>
     </row>
     <row r="87" ht="13" customHeight="1" s="68">
       <c r="A87" s="25" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="B87" s="26" t="inlineStr">
         <is>
@@ -7704,91 +7642,91 @@
         </is>
       </c>
       <c r="D87" s="27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E87" s="28" t="n">
-        <v>501.9024</v>
+        <v>508.1195</v>
       </c>
       <c r="F87" s="28" t="n">
-        <v>12633.31</v>
+        <v>10232.19</v>
       </c>
       <c r="G87" s="26" t="n"/>
       <c r="H87" s="27" t="n">
-        <v>9.279999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="I87" s="27" t="n">
-        <v>76.41</v>
+        <v>61.99</v>
       </c>
       <c r="J87" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K87" s="30">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), L56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="L87" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="M87" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
         <v/>
       </c>
       <c r="N87" s="32">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
         <v/>
       </c>
       <c r="O87" s="30">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), P56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="P87" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
         <v/>
       </c>
       <c r="R87" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="S87" s="33">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), T56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="T87" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="U87" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
         <v/>
       </c>
       <c r="V87" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="W87" s="45" t="n"/>
       <c r="X87" s="34" t="n"/>
       <c r="Y87" s="33">
-        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="Z87" s="34" t="n"/>
       <c r="AA87" s="34" t="n"/>
       <c r="AB87" s="35" t="n"/>
       <c r="AC87" s="31">
-        <f>IF(B56="DIV", F56,"")</f>
+        <f>IF(B55="DIV", F55,"")</f>
         <v/>
       </c>
       <c r="AD87" s="36" t="n"/>
     </row>
     <row r="88" ht="13" customHeight="1" s="68">
       <c r="A88" s="25" t="n">
-        <v>43803</v>
+        <v>43811</v>
       </c>
       <c r="B88" s="26" t="inlineStr">
         <is>
@@ -7801,194 +7739,191 @@
         </is>
       </c>
       <c r="D88" s="27" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E88" s="28" t="n">
-        <v>511.707333</v>
+        <v>501.9024</v>
       </c>
       <c r="F88" s="28" t="n">
-        <v>15458.32</v>
+        <v>12633.31</v>
       </c>
       <c r="G88" s="26" t="n"/>
       <c r="H88" s="27" t="n">
-        <v>13.78</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="I88" s="27" t="n">
-        <v>93.40000000000001</v>
+        <v>76.41</v>
       </c>
       <c r="J88" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K88" s="30">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), L57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), L56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="L88" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M88" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N88" s="32">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O88" s="30">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), P57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), P56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="P88" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R88" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S88" s="33">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), T57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), T56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="T88" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="U88" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V88" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="W88" s="45" t="n"/>
       <c r="X88" s="34" t="n"/>
-      <c r="Y88" s="33" t="n">
-        <v>-1.063644189948785</v>
+      <c r="Y88" s="33">
+        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
+        <v/>
       </c>
       <c r="Z88" s="34" t="n"/>
       <c r="AA88" s="34" t="n"/>
       <c r="AB88" s="35" t="n"/>
       <c r="AC88" s="31">
-        <f>IF(B57="DIV", F57,"")</f>
+        <f>IF(B56="DIV", F56,"")</f>
         <v/>
       </c>
       <c r="AD88" s="36" t="n"/>
     </row>
     <row r="89" ht="13" customHeight="1" s="68">
       <c r="A89" s="25" t="n">
-        <v>43676</v>
+        <v>43803</v>
       </c>
       <c r="B89" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C89" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D89" s="27" t="n">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="E89" s="28" t="n">
-        <v>4</v>
+        <v>511.707333</v>
       </c>
       <c r="F89" s="28" t="n">
-        <v>700</v>
-      </c>
-      <c r="G89" s="26" t="inlineStr">
-        <is>
-          <t>Dividend of Rs.4.0000/- per share on 30-JUL-2019</t>
-        </is>
-      </c>
+        <v>15458.32</v>
+      </c>
+      <c r="G89" s="26" t="n"/>
       <c r="H89" s="27" t="n">
-        <v>0</v>
+        <v>13.78</v>
       </c>
       <c r="I89" s="27" t="n">
-        <v>0</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="J89" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K89" s="30">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), L58/SUM(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), L57/SUM(F57:I57), "")</f>
         <v/>
       </c>
       <c r="L89" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="M89" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
         <v/>
       </c>
       <c r="N89" s="32">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
         <v/>
       </c>
       <c r="O89" s="30">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), P58/SUM(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), P57/SUM(F57:I57), "")</f>
         <v/>
       </c>
       <c r="P89" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="Q89" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
         <v/>
       </c>
       <c r="R89" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="S89" s="33">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), T58/SUM(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), T57/SUM(F57:I57), "")</f>
         <v/>
       </c>
       <c r="T89" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="U89" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
         <v/>
       </c>
       <c r="V89" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="W89" s="45" t="n"/>
       <c r="X89" s="34" t="n"/>
       <c r="Y89" s="33" t="n">
-        <v>0.4878458011453852</v>
+        <v>-1.063644189948785</v>
       </c>
       <c r="Z89" s="34" t="n"/>
       <c r="AA89" s="34" t="n"/>
       <c r="AB89" s="35" t="n"/>
       <c r="AC89" s="31">
-        <f>IF(B58="DIV", F58,"")</f>
+        <f>IF(B57="DIV", F57,"")</f>
         <v/>
       </c>
       <c r="AD89" s="36" t="n"/>
     </row>
     <row r="90" ht="13" customHeight="1" s="68">
       <c r="A90" s="25" t="n">
-        <v>43647</v>
+        <v>43676</v>
       </c>
       <c r="B90" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C90" s="26" t="inlineStr">
@@ -7997,101 +7932,94 @@
         </is>
       </c>
       <c r="D90" s="27" t="n">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="E90" s="28" t="n">
-        <v>351.349</v>
+        <v>4</v>
       </c>
       <c r="F90" s="28" t="n">
-        <v>3538.41</v>
-      </c>
-      <c r="G90" s="26" t="n"/>
+        <v>700</v>
+      </c>
+      <c r="G90" s="26" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.4.0000/- per share on 30-JUL-2019</t>
+        </is>
+      </c>
       <c r="H90" s="27" t="n">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="I90" s="27" t="n">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="J90" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K90" s="30">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), L59/SUM(F59:I59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), L58/SUM(F58:I58), "")</f>
         <v/>
       </c>
       <c r="L90" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="M90" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
         <v/>
       </c>
       <c r="N90" s="32">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
         <v/>
       </c>
       <c r="O90" s="30">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), P59/SUM(F59:I59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), P58/SUM(F58:I58), "")</f>
         <v/>
       </c>
       <c r="P90" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="Q90" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
         <v/>
       </c>
       <c r="R90" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="S90" s="33">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), T59/SUM(F59:I59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), T58/SUM(F58:I58), "")</f>
         <v/>
       </c>
       <c r="T90" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="U90" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
         <v/>
       </c>
       <c r="V90" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
-        <v/>
-      </c>
-      <c r="W90" s="43" t="n">
-        <v>574.903</v>
-      </c>
-      <c r="X90" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y90" s="37" t="n">
-        <v>0.5235867911722714</v>
-      </c>
-      <c r="Z90" s="38" t="n">
-        <v>410.9737627400002</v>
-      </c>
-      <c r="AA90" s="38" t="n">
-        <v>3244.466999999999</v>
-      </c>
-      <c r="AB90" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC90" s="40">
-        <f>IF(B59="DIV", F59,"")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <v/>
+      </c>
+      <c r="W90" s="45" t="n"/>
+      <c r="X90" s="34" t="n"/>
+      <c r="Y90" s="33" t="n">
+        <v>0.4878458011453852</v>
+      </c>
+      <c r="Z90" s="34" t="n"/>
+      <c r="AA90" s="34" t="n"/>
+      <c r="AB90" s="35" t="n"/>
+      <c r="AC90" s="31">
+        <f>IF(B58="DIV", F58,"")</f>
         <v/>
       </c>
       <c r="AD90" s="36" t="n"/>
-      <c r="AE90" s="41" t="n"/>
     </row>
     <row r="91" ht="13" customHeight="1" s="68">
       <c r="A91" s="25" t="n">
-        <v>43382</v>
+        <v>43647</v>
       </c>
       <c r="B91" s="26" t="inlineStr">
         <is>
@@ -8107,68 +8035,68 @@
         <v>10</v>
       </c>
       <c r="E91" s="28" t="n">
-        <v>370.404</v>
+        <v>351.349</v>
       </c>
       <c r="F91" s="28" t="n">
-        <v>3730.06</v>
+        <v>3538.41</v>
       </c>
       <c r="G91" s="26" t="n"/>
       <c r="H91" s="27" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="I91" s="27" t="n">
-        <v>22.38</v>
+        <v>21.4</v>
       </c>
       <c r="J91" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K91" s="30">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), L60/SUM(F60:I60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), L59/SUM(F59:I59), "")</f>
         <v/>
       </c>
       <c r="L91" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="M91" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
         <v/>
       </c>
       <c r="N91" s="32">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
         <v/>
       </c>
       <c r="O91" s="30">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), P60/SUM(F60:I60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), P59/SUM(F59:I59), "")</f>
         <v/>
       </c>
       <c r="P91" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="Q91" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
         <v/>
       </c>
       <c r="R91" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
         <v/>
       </c>
       <c r="S91" s="33">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), T60/SUM(F60:I60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), T59/SUM(F59:I59), "")</f>
         <v/>
       </c>
       <c r="T91" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="U91" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
         <v/>
       </c>
       <c r="V91" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
         <v/>
       </c>
       <c r="W91" s="43" t="n">
@@ -8177,20 +8105,20 @@
       <c r="X91" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y91" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y91" s="37" t="n">
+        <v>0.5235867911722714</v>
       </c>
       <c r="Z91" s="38" t="n">
-        <v>1004.35752548</v>
+        <v>410.9737627400002</v>
       </c>
       <c r="AA91" s="38" t="n">
-        <v>4852.4927</v>
+        <v>3244.466999999999</v>
       </c>
       <c r="AB91" s="39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC91" s="40">
-        <f>IF(B60="DIV", F60,"")</f>
+        <f>IF(B59="DIV", F59,"")</f>
         <v/>
       </c>
       <c r="AD91" s="36" t="n"/>
@@ -8198,7 +8126,7 @@
     </row>
     <row r="92" ht="13" customHeight="1" s="68">
       <c r="A92" s="25" t="n">
-        <v>43376</v>
+        <v>43382</v>
       </c>
       <c r="B92" s="26" t="inlineStr">
         <is>
@@ -8211,75 +8139,75 @@
         </is>
       </c>
       <c r="D92" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E92" s="28" t="n">
-        <v>367</v>
+        <v>370.404</v>
       </c>
       <c r="F92" s="28" t="n">
-        <v>7391.8</v>
+        <v>3730.06</v>
       </c>
       <c r="G92" s="26" t="n"/>
       <c r="H92" s="27" t="n">
-        <v>7.328</v>
+        <v>3.68</v>
       </c>
       <c r="I92" s="27" t="n">
-        <v>44.472</v>
+        <v>22.38</v>
       </c>
       <c r="J92" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K92" s="30">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), L61/SUM(F61:I61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), L60/SUM(F60:I60), "")</f>
         <v/>
       </c>
       <c r="L92" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
         <v/>
       </c>
       <c r="M92" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), ((E61*D61)+L61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
         <v/>
       </c>
       <c r="N92" s="32">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), D61, "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
         <v/>
       </c>
       <c r="O92" s="30">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), P61/SUM(F61:I61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), P60/SUM(F60:I60), "")</f>
         <v/>
       </c>
       <c r="P92" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
         <v/>
       </c>
       <c r="Q92" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), ((E61*D61)+P61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
         <v/>
       </c>
       <c r="R92" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), D61, "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
         <v/>
       </c>
       <c r="S92" s="33">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), T61/SUM(F61:I61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), T60/SUM(F60:I60), "")</f>
         <v/>
       </c>
       <c r="T92" s="34">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
         <v/>
       </c>
       <c r="U92" s="34">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), ((E61*D61)+T61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
         <v/>
       </c>
       <c r="V92" s="34">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), D61, "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
         <v/>
       </c>
       <c r="W92" s="43" t="n">
-        <v>577.2645</v>
+        <v>574.903</v>
       </c>
       <c r="X92" s="44" t="n">
         <v>45565</v>
@@ -8288,16 +8216,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z92" s="38" t="n">
-        <v>987.00392548</v>
+        <v>1004.35752548</v>
       </c>
       <c r="AA92" s="38" t="n">
-        <v>4560.301359999999</v>
+        <v>4852.4927</v>
       </c>
       <c r="AB92" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC92" s="40">
-        <f>IF(B61="DIV", F61,"")</f>
+        <f>IF(B60="DIV", F60,"")</f>
         <v/>
       </c>
       <c r="AD92" s="36" t="n"/>
@@ -8318,93 +8246,93 @@
         </is>
       </c>
       <c r="D93" s="27" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E93" s="28" t="n">
         <v>367</v>
       </c>
       <c r="F93" s="28" t="n">
-        <v>1847.95</v>
+        <v>7391.8</v>
       </c>
       <c r="G93" s="26" t="n"/>
       <c r="H93" s="27" t="n">
-        <v>1.832</v>
+        <v>7.328</v>
       </c>
       <c r="I93" s="27" t="n">
-        <v>11.118</v>
+        <v>44.472</v>
       </c>
       <c r="J93" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K93" s="30">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), L62/SUM(F62:I62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), L61/SUM(F61:I61), "")</f>
         <v/>
       </c>
       <c r="L93" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
         <v/>
       </c>
       <c r="M93" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), ((E62*D62)+L62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), ((E61*D61)+L61), "")</f>
         <v/>
       </c>
       <c r="N93" s="32">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), D61, "")</f>
         <v/>
       </c>
       <c r="O93" s="30">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), P62/SUM(F62:I62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), P61/SUM(F61:I61), "")</f>
         <v/>
       </c>
       <c r="P93" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
         <v/>
       </c>
       <c r="Q93" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), ((E62*D62)+P62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), ((E61*D61)+P61), "")</f>
         <v/>
       </c>
       <c r="R93" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), D61, "")</f>
         <v/>
       </c>
       <c r="S93" s="33">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), T62/SUM(F62:I62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), T61/SUM(F61:I61), "")</f>
         <v/>
       </c>
       <c r="T93" s="34">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
         <v/>
       </c>
       <c r="U93" s="34">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), ((E62*D62)+T62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), ((E61*D61)+T61), "")</f>
         <v/>
       </c>
       <c r="V93" s="34">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), D61, "")</f>
         <v/>
       </c>
       <c r="W93" s="43" t="n">
-        <v>580.9665</v>
+        <v>577.2645</v>
       </c>
       <c r="X93" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y93" s="37" t="n">
-        <v>-3.969633696710141</v>
+      <c r="Y93" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z93" s="38" t="n">
-        <v>982.0739254800001</v>
+        <v>987.00392548</v>
       </c>
       <c r="AA93" s="38" t="n">
-        <v>-12224.30664</v>
+        <v>4560.301359999999</v>
       </c>
       <c r="AB93" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC93" s="40">
-        <f>IF(B62="DIV", F62,"")</f>
+        <f>IF(B61="DIV", F61,"")</f>
         <v/>
       </c>
       <c r="AD93" s="36" t="n"/>
@@ -8412,7 +8340,7 @@
     </row>
     <row r="94" ht="13" customHeight="1" s="68">
       <c r="A94" s="25" t="n">
-        <v>43369</v>
+        <v>43376</v>
       </c>
       <c r="B94" s="26" t="inlineStr">
         <is>
@@ -8425,71 +8353,71 @@
         </is>
       </c>
       <c r="D94" s="27" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E94" s="28" t="n">
-        <v>414.058667</v>
+        <v>367</v>
       </c>
       <c r="F94" s="28" t="n">
-        <v>6254.418</v>
+        <v>1847.95</v>
       </c>
       <c r="G94" s="26" t="n"/>
       <c r="H94" s="27" t="n">
-        <v>6.22</v>
+        <v>1.832</v>
       </c>
       <c r="I94" s="27" t="n">
-        <v>37.296</v>
+        <v>11.118</v>
       </c>
       <c r="J94" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K94" s="30">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), L63/SUM(F63:I63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), L62/SUM(F62:I62), "")</f>
         <v/>
       </c>
       <c r="L94" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
         <v/>
       </c>
       <c r="M94" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), ((E63*D63)+L63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), ((E62*D62)+L62), "")</f>
         <v/>
       </c>
       <c r="N94" s="32">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), D62, "")</f>
         <v/>
       </c>
       <c r="O94" s="30">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), P63/SUM(F63:I63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), P62/SUM(F62:I62), "")</f>
         <v/>
       </c>
       <c r="P94" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
         <v/>
       </c>
       <c r="Q94" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), ((E63*D63)+P63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), ((E62*D62)+P62), "")</f>
         <v/>
       </c>
       <c r="R94" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), D62, "")</f>
         <v/>
       </c>
       <c r="S94" s="33">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), T63/SUM(F63:I63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), T62/SUM(F62:I62), "")</f>
         <v/>
       </c>
       <c r="T94" s="34">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
         <v/>
       </c>
       <c r="U94" s="34">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), ((E63*D63)+T63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), ((E62*D62)+T62), "")</f>
         <v/>
       </c>
       <c r="V94" s="34">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), D62, "")</f>
         <v/>
       </c>
       <c r="W94" s="43" t="n">
@@ -8498,20 +8426,20 @@
       <c r="X94" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y94" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y94" s="37" t="n">
+        <v>-3.969633696710141</v>
       </c>
       <c r="Z94" s="38" t="n">
-        <v>2195.027284</v>
+        <v>982.0739254800001</v>
       </c>
       <c r="AA94" s="38" t="n">
-        <v>3228.90984</v>
+        <v>-12224.30664</v>
       </c>
       <c r="AB94" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC94" s="40">
-        <f>IF(B63="DIV", F63,"")</f>
+        <f>IF(B62="DIV", F62,"")</f>
         <v/>
       </c>
       <c r="AD94" s="36" t="n"/>
@@ -8532,75 +8460,75 @@
         </is>
       </c>
       <c r="D95" s="27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E95" s="28" t="n">
-        <v>414.059</v>
+        <v>414.058667</v>
       </c>
       <c r="F95" s="28" t="n">
-        <v>4169.612</v>
+        <v>6254.418</v>
       </c>
       <c r="G95" s="26" t="n"/>
       <c r="H95" s="27" t="n">
-        <v>4.148</v>
+        <v>6.22</v>
       </c>
       <c r="I95" s="27" t="n">
-        <v>24.864</v>
+        <v>37.296</v>
       </c>
       <c r="J95" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K95" s="30">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), L64/SUM(F64:I64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), L63/SUM(F63:I63), "")</f>
         <v/>
       </c>
       <c r="L95" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
         <v/>
       </c>
       <c r="M95" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), ((E64*D64)+L64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), ((E63*D63)+L63), "")</f>
         <v/>
       </c>
       <c r="N95" s="32">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), D63, "")</f>
         <v/>
       </c>
       <c r="O95" s="30">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), P64/SUM(F64:I64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), P63/SUM(F63:I63), "")</f>
         <v/>
       </c>
       <c r="P95" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
         <v/>
       </c>
       <c r="Q95" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), ((E64*D64)+P64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), ((E63*D63)+P63), "")</f>
         <v/>
       </c>
       <c r="R95" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), D63, "")</f>
         <v/>
       </c>
       <c r="S95" s="33">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), T64/SUM(F64:I64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), T63/SUM(F63:I63), "")</f>
         <v/>
       </c>
       <c r="T95" s="34">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
         <v/>
       </c>
       <c r="U95" s="34">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), ((E64*D64)+T64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), ((E63*D63)+T63), "")</f>
         <v/>
       </c>
       <c r="V95" s="34">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), D63, "")</f>
         <v/>
       </c>
       <c r="W95" s="43" t="n">
-        <v>570.971</v>
+        <v>580.9665</v>
       </c>
       <c r="X95" s="44" t="n">
         <v>45565</v>
@@ -8609,16 +8537,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z95" s="38" t="n">
-        <v>2233.678484</v>
+        <v>2195.027284</v>
       </c>
       <c r="AA95" s="38" t="n">
-        <v>3554.2932</v>
+        <v>3228.90984</v>
       </c>
       <c r="AB95" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC95" s="40">
-        <f>IF(B64="DIV", F64,"")</f>
+        <f>IF(B63="DIV", F63,"")</f>
         <v/>
       </c>
       <c r="AD95" s="36" t="n"/>
@@ -8626,7 +8554,7 @@
     </row>
     <row r="96" ht="13" customHeight="1" s="68">
       <c r="A96" s="25" t="n">
-        <v>43354</v>
+        <v>43369</v>
       </c>
       <c r="B96" s="26" t="inlineStr">
         <is>
@@ -8639,71 +8567,71 @@
         </is>
       </c>
       <c r="D96" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E96" s="28" t="n">
-        <v>416.0965</v>
+        <v>414.059</v>
       </c>
       <c r="F96" s="28" t="n">
-        <v>8380.073329999999</v>
+        <v>4169.612</v>
       </c>
       <c r="G96" s="26" t="n"/>
       <c r="H96" s="27" t="n">
-        <v>8</v>
+        <v>4.148</v>
       </c>
       <c r="I96" s="27" t="n">
-        <v>50.07333</v>
+        <v>24.864</v>
       </c>
       <c r="J96" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K96" s="30">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), L65/SUM(F65:I65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), L64/SUM(F64:I64), "")</f>
         <v/>
       </c>
       <c r="L96" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
         <v/>
       </c>
       <c r="M96" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), ((E65*D65)+L65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), ((E64*D64)+L64), "")</f>
         <v/>
       </c>
       <c r="N96" s="32">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), D64, "")</f>
         <v/>
       </c>
       <c r="O96" s="30">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), P65/SUM(F65:I65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), P64/SUM(F64:I64), "")</f>
         <v/>
       </c>
       <c r="P96" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
         <v/>
       </c>
       <c r="Q96" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), ((E65*D65)+P65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), ((E64*D64)+P64), "")</f>
         <v/>
       </c>
       <c r="R96" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), D64, "")</f>
         <v/>
       </c>
       <c r="S96" s="33">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), T65/SUM(F65:I65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), T64/SUM(F64:I64), "")</f>
         <v/>
       </c>
       <c r="T96" s="34">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
         <v/>
       </c>
       <c r="U96" s="34">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), ((E65*D65)+T65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), ((E64*D64)+T64), "")</f>
         <v/>
       </c>
       <c r="V96" s="34">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), D64, "")</f>
         <v/>
       </c>
       <c r="W96" s="43" t="n">
@@ -8716,16 +8644,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z96" s="38" t="n">
-        <v>2011.828484</v>
+        <v>2233.678484</v>
       </c>
       <c r="AA96" s="38" t="n">
-        <v>3497.1493</v>
+        <v>3554.2932</v>
       </c>
       <c r="AB96" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC96" s="40">
-        <f>IF(B65="DIV", F65,"")</f>
+        <f>IF(B64="DIV", F64,"")</f>
         <v/>
       </c>
       <c r="AD96" s="36" t="n"/>
@@ -8746,93 +8674,93 @@
         </is>
       </c>
       <c r="D97" s="27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E97" s="28" t="n">
-        <v>416.096</v>
+        <v>416.0965</v>
       </c>
       <c r="F97" s="28" t="n">
-        <v>4190.0366</v>
+        <v>8380.073329999999</v>
       </c>
       <c r="G97" s="26" t="n"/>
       <c r="H97" s="27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I97" s="27" t="n">
-        <v>25.03666</v>
+        <v>50.07333</v>
       </c>
       <c r="J97" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K97" s="30">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), L66/SUM(F66:I66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), L65/SUM(F65:I65), "")</f>
         <v/>
       </c>
       <c r="L97" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
         <v/>
       </c>
       <c r="M97" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), ((E66*D66)+L66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), ((E65*D65)+L65), "")</f>
         <v/>
       </c>
       <c r="N97" s="32">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), D65, "")</f>
         <v/>
       </c>
       <c r="O97" s="30">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), P66/SUM(F66:I66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), P65/SUM(F65:I65), "")</f>
         <v/>
       </c>
       <c r="P97" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
         <v/>
       </c>
       <c r="Q97" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), ((E66*D66)+P66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), ((E65*D65)+P65), "")</f>
         <v/>
       </c>
       <c r="R97" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), D65, "")</f>
         <v/>
       </c>
       <c r="S97" s="33">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), T66/SUM(F66:I66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), T65/SUM(F65:I65), "")</f>
         <v/>
       </c>
       <c r="T97" s="34">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
         <v/>
       </c>
       <c r="U97" s="34">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), ((E66*D66)+T66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), ((E65*D65)+T65), "")</f>
         <v/>
       </c>
       <c r="V97" s="34">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), D65, "")</f>
         <v/>
       </c>
       <c r="W97" s="43" t="n">
-        <v>574.903</v>
+        <v>570.971</v>
       </c>
       <c r="X97" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y97" s="37" t="n">
-        <v>-0.01674401291156987</v>
+      <c r="Y97" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z97" s="38" t="n">
-        <v>1467.260684</v>
+        <v>2011.828484</v>
       </c>
       <c r="AA97" s="38" t="n">
-        <v>3593.375</v>
+        <v>3497.1493</v>
       </c>
       <c r="AB97" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC97" s="40">
-        <f>IF(B66="DIV", F66,"")</f>
+        <f>IF(B65="DIV", F65,"")</f>
         <v/>
       </c>
       <c r="AD97" s="36" t="n"/>
@@ -8840,7 +8768,7 @@
     </row>
     <row r="98" ht="13" customHeight="1" s="68">
       <c r="A98" s="25" t="n">
-        <v>43312</v>
+        <v>43354</v>
       </c>
       <c r="B98" s="26" t="inlineStr">
         <is>
@@ -8853,93 +8781,93 @@
         </is>
       </c>
       <c r="D98" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E98" s="28" t="n">
-        <v>464.205</v>
+        <v>416.096</v>
       </c>
       <c r="F98" s="28" t="n">
-        <v>9348.911099999999</v>
+        <v>4190.0366</v>
       </c>
       <c r="G98" s="26" t="n"/>
       <c r="H98" s="27" t="n">
-        <v>9.2133</v>
+        <v>4</v>
       </c>
       <c r="I98" s="27" t="n">
-        <v>55.6933</v>
+        <v>25.03666</v>
       </c>
       <c r="J98" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K98" s="30">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), L67/SUM(F67:I67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), L66/SUM(F66:I66), "")</f>
         <v/>
       </c>
       <c r="L98" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
         <v/>
       </c>
       <c r="M98" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), ((E67*D67)+L67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), ((E66*D66)+L66), "")</f>
         <v/>
       </c>
       <c r="N98" s="32">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), D66, "")</f>
         <v/>
       </c>
       <c r="O98" s="30">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), P67/SUM(F67:I67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), P66/SUM(F66:I66), "")</f>
         <v/>
       </c>
       <c r="P98" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
         <v/>
       </c>
       <c r="Q98" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), ((E67*D67)+P67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), ((E66*D66)+P66), "")</f>
         <v/>
       </c>
       <c r="R98" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), D66, "")</f>
         <v/>
       </c>
       <c r="S98" s="33">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), T67/SUM(F67:I67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), T66/SUM(F66:I66), "")</f>
         <v/>
       </c>
       <c r="T98" s="34">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
         <v/>
       </c>
       <c r="U98" s="34">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), ((E67*D67)+T67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), ((E66*D66)+T66), "")</f>
         <v/>
       </c>
       <c r="V98" s="34">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), D66, "")</f>
         <v/>
       </c>
       <c r="W98" s="43" t="n">
-        <v>508.1195</v>
+        <v>574.903</v>
       </c>
       <c r="X98" s="44" t="n">
         <v>45565</v>
       </c>
       <c r="Y98" s="37" t="n">
-        <v>-0.04012004086497532</v>
+        <v>-0.01674401291156987</v>
       </c>
       <c r="Z98" s="38" t="n">
-        <v>1160.614684</v>
+        <v>1467.260684</v>
       </c>
       <c r="AA98" s="38" t="n">
-        <v>3805.775</v>
+        <v>3593.375</v>
       </c>
       <c r="AB98" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC98" s="40">
-        <f>IF(B67="DIV", F67,"")</f>
+        <f>IF(B66="DIV", F66,"")</f>
         <v/>
       </c>
       <c r="AD98" s="36" t="n"/>
@@ -8960,93 +8888,93 @@
         </is>
       </c>
       <c r="D99" s="27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E99" s="28" t="n">
-        <v>464.2044</v>
+        <v>464.205</v>
       </c>
       <c r="F99" s="28" t="n">
-        <v>11686.1388</v>
+        <v>9348.911099999999</v>
       </c>
       <c r="G99" s="26" t="n"/>
       <c r="H99" s="27" t="n">
-        <v>11.51666</v>
+        <v>9.2133</v>
       </c>
       <c r="I99" s="27" t="n">
-        <v>69.61660000000001</v>
+        <v>55.6933</v>
       </c>
       <c r="J99" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K99" s="30">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), L68/SUM(F68:I68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), L67/SUM(F67:I67), "")</f>
         <v/>
       </c>
       <c r="L99" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
         <v/>
       </c>
       <c r="M99" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), ((E68*D68)+L68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), ((E67*D67)+L67), "")</f>
         <v/>
       </c>
       <c r="N99" s="32">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), D67, "")</f>
         <v/>
       </c>
       <c r="O99" s="30">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), P68/SUM(F68:I68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), P67/SUM(F67:I67), "")</f>
         <v/>
       </c>
       <c r="P99" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
         <v/>
       </c>
       <c r="Q99" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), ((E68*D68)+P68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), ((E67*D67)+P67), "")</f>
         <v/>
       </c>
       <c r="R99" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), D67, "")</f>
         <v/>
       </c>
       <c r="S99" s="33">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), T68/SUM(F68:I68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), T67/SUM(F67:I67), "")</f>
         <v/>
       </c>
       <c r="T99" s="34">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
         <v/>
       </c>
       <c r="U99" s="34">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), ((E68*D68)+T68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), ((E67*D67)+T67), "")</f>
         <v/>
       </c>
       <c r="V99" s="34">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), D67, "")</f>
         <v/>
       </c>
       <c r="W99" s="43" t="n">
-        <v>501.9024</v>
+        <v>508.1195</v>
       </c>
       <c r="X99" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y99" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y99" s="37" t="n">
+        <v>-0.04012004086497532</v>
       </c>
       <c r="Z99" s="38" t="n">
-        <v>1102.83607</v>
+        <v>1160.614684</v>
       </c>
       <c r="AA99" s="38" t="n">
-        <v>4412.879723567999</v>
+        <v>3805.775</v>
       </c>
       <c r="AB99" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC99" s="40">
-        <f>IF(B68="DIV", F68,"")</f>
+        <f>IF(B67="DIV", F67,"")</f>
         <v/>
       </c>
       <c r="AD99" s="36" t="n"/>
@@ -9067,94 +8995,93 @@
         </is>
       </c>
       <c r="D100" s="27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E100" s="28" t="n">
-        <v>464.204</v>
+        <v>464.2044</v>
       </c>
       <c r="F100" s="28" t="n">
-        <v>4674.45454</v>
+        <v>11686.1388</v>
       </c>
       <c r="G100" s="26" t="n"/>
       <c r="H100" s="27" t="n">
-        <v>4.60727</v>
+        <v>11.51666</v>
       </c>
       <c r="I100" s="27" t="n">
-        <v>27.8472</v>
+        <v>69.61660000000001</v>
       </c>
       <c r="J100" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K100" s="30">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), L69/SUM(F69:I69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), L68/SUM(F68:I68), "")</f>
         <v/>
       </c>
       <c r="L100" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
         <v/>
       </c>
       <c r="M100" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), ((E69*D69)+L69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), ((E68*D68)+L68), "")</f>
         <v/>
       </c>
       <c r="N100" s="32">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), D68, "")</f>
         <v/>
       </c>
       <c r="O100" s="30">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), P69/SUM(F69:I69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), P68/SUM(F68:I68), "")</f>
         <v/>
       </c>
       <c r="P100" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
         <v/>
       </c>
       <c r="Q100" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), ((E69*D69)+P69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), ((E68*D68)+P68), "")</f>
         <v/>
       </c>
       <c r="R100" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), D68, "")</f>
         <v/>
       </c>
       <c r="S100" s="33">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), T69/SUM(F69:I69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), T68/SUM(F68:I68), "")</f>
         <v/>
       </c>
       <c r="T100" s="34">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
         <v/>
       </c>
       <c r="U100" s="34">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), ((E69*D69)+T69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), ((E68*D68)+T68), "")</f>
         <v/>
       </c>
       <c r="V100" s="34">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), D68, "")</f>
         <v/>
       </c>
       <c r="W100" s="43" t="n">
-        <v>511.707333</v>
+        <v>501.9024</v>
       </c>
       <c r="X100" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y100" s="37">
-        <f>IF(AND( C69="Buy", W69&lt;&gt;"", AA69&lt;&gt;"", B69&lt;&gt;"DIV"), Z69/SUM(F69:I69), "")</f>
-        <v/>
+      <c r="Y100" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z100" s="38" t="n">
-        <v>-49.3</v>
+        <v>1102.83607</v>
       </c>
       <c r="AA100" s="38" t="n">
-        <v>50</v>
+        <v>4412.879723567999</v>
       </c>
       <c r="AB100" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC100" s="40">
-        <f>IF(B69="DIV", F69,"")</f>
+        <f>IF(B68="DIV", F68,"")</f>
         <v/>
       </c>
       <c r="AD100" s="36" t="n"/>
@@ -9162,11 +9089,11 @@
     </row>
     <row r="101" ht="13" customHeight="1" s="68">
       <c r="A101" s="25" t="n">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B101" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C101" s="26" t="inlineStr">
@@ -9175,98 +9102,106 @@
         </is>
       </c>
       <c r="D101" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E101" s="28" t="n">
-        <v>6</v>
+        <v>464.204</v>
       </c>
       <c r="F101" s="28" t="n">
-        <v>120</v>
-      </c>
-      <c r="G101" s="26" t="inlineStr">
-        <is>
-          <t>Dividend of Rs.6.0000/- per share on 30-JUL-2018</t>
-        </is>
-      </c>
+        <v>4674.45454</v>
+      </c>
+      <c r="G101" s="26" t="n"/>
       <c r="H101" s="27" t="n">
-        <v>0</v>
+        <v>4.60727</v>
       </c>
       <c r="I101" s="27" t="n">
-        <v>0</v>
+        <v>27.8472</v>
       </c>
       <c r="J101" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K101" s="30">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), L70/SUM(F70:I70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), L69/SUM(F69:I69), "")</f>
         <v/>
       </c>
       <c r="L101" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
         <v/>
       </c>
       <c r="M101" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), ((E70*D70)+L70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), ((E69*D69)+L69), "")</f>
         <v/>
       </c>
       <c r="N101" s="32">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), D70, "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), D69, "")</f>
         <v/>
       </c>
       <c r="O101" s="30">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), P70/SUM(F70:I70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), P69/SUM(F69:I69), "")</f>
         <v/>
       </c>
       <c r="P101" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
         <v/>
       </c>
       <c r="Q101" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), ((E70*D70)+P70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), ((E69*D69)+P69), "")</f>
         <v/>
       </c>
       <c r="R101" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), D70, "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), D69, "")</f>
         <v/>
       </c>
       <c r="S101" s="33">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), T70/SUM(F70:I70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), T69/SUM(F69:I69), "")</f>
         <v/>
       </c>
       <c r="T101" s="34">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
         <v/>
       </c>
       <c r="U101" s="34">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), ((E70*D70)+T70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), ((E69*D69)+T69), "")</f>
         <v/>
       </c>
       <c r="V101" s="34">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), D70, "")</f>
-        <v/>
-      </c>
-      <c r="W101" s="45" t="n"/>
-      <c r="X101" s="34" t="n"/>
-      <c r="Y101" s="33" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z101" s="34" t="n"/>
-      <c r="AA101" s="34" t="n"/>
-      <c r="AB101" s="35" t="n"/>
-      <c r="AC101" s="31">
-        <f>IF(B70="DIV", F70,"")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), D69, "")</f>
+        <v/>
+      </c>
+      <c r="W101" s="43" t="n">
+        <v>511.707333</v>
+      </c>
+      <c r="X101" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y101" s="37">
+        <f>IF(AND( C69="Buy", W69&lt;&gt;"", AA69&lt;&gt;"", B69&lt;&gt;"DIV"), Z69/SUM(F69:I69), "")</f>
+        <v/>
+      </c>
+      <c r="Z101" s="38" t="n">
+        <v>-49.3</v>
+      </c>
+      <c r="AA101" s="38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB101" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC101" s="40">
+        <f>IF(B69="DIV", F69,"")</f>
         <v/>
       </c>
       <c r="AD101" s="36" t="n"/>
+      <c r="AE101" s="41" t="n"/>
     </row>
     <row r="102" ht="13" customHeight="1" s="68">
       <c r="A102" s="25" t="n">
-        <v>43307</v>
+        <v>43311</v>
       </c>
       <c r="B102" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C102" s="26" t="inlineStr">
@@ -9278,111 +9213,195 @@
         <v>20</v>
       </c>
       <c r="E102" s="28" t="n">
-        <v>455.113</v>
+        <v>6</v>
       </c>
       <c r="F102" s="28" t="n">
-        <v>9166.440000000001</v>
-      </c>
-      <c r="G102" s="26" t="n"/>
+        <v>120</v>
+      </c>
+      <c r="G102" s="26" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.6.0000/- per share on 30-JUL-2018</t>
+        </is>
+      </c>
       <c r="H102" s="27" t="n">
-        <v>9.17</v>
+        <v>0</v>
       </c>
       <c r="I102" s="27" t="n">
-        <v>54.97</v>
+        <v>0</v>
       </c>
       <c r="J102" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K102" s="30">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), L70/SUM(F70:I70), "")</f>
+        <v/>
+      </c>
+      <c r="L102" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <v/>
+      </c>
+      <c r="M102" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), ((E70*D70)+L70), "")</f>
+        <v/>
+      </c>
+      <c r="N102" s="32">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), D70, "")</f>
+        <v/>
+      </c>
+      <c r="O102" s="30">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), P70/SUM(F70:I70), "")</f>
+        <v/>
+      </c>
+      <c r="P102" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <v/>
+      </c>
+      <c r="Q102" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), ((E70*D70)+P70), "")</f>
+        <v/>
+      </c>
+      <c r="R102" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), D70, "")</f>
+        <v/>
+      </c>
+      <c r="S102" s="33">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), T70/SUM(F70:I70), "")</f>
+        <v/>
+      </c>
+      <c r="T102" s="34">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <v/>
+      </c>
+      <c r="U102" s="34">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), ((E70*D70)+T70), "")</f>
+        <v/>
+      </c>
+      <c r="V102" s="34">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), D70, "")</f>
+        <v/>
+      </c>
+      <c r="W102" s="45" t="n"/>
+      <c r="X102" s="34" t="n"/>
+      <c r="Y102" s="33" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z102" s="34" t="n"/>
+      <c r="AA102" s="34" t="n"/>
+      <c r="AB102" s="35" t="n"/>
+      <c r="AC102" s="31">
+        <f>IF(B70="DIV", F70,"")</f>
+        <v/>
+      </c>
+      <c r="AD102" s="36" t="n"/>
+    </row>
+    <row r="103" ht="13" customHeight="1" s="68">
+      <c r="A103" s="25" t="n">
+        <v>43307</v>
+      </c>
+      <c r="B103" s="26" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C103" s="26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D103" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E103" s="28" t="n">
+        <v>455.113</v>
+      </c>
+      <c r="F103" s="28" t="n">
+        <v>9166.440000000001</v>
+      </c>
+      <c r="G103" s="26" t="n"/>
+      <c r="H103" s="27" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="I103" s="27" t="n">
+        <v>54.97</v>
+      </c>
+      <c r="J103" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K103" s="30">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), L71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="L102" s="31">
+      <c r="L103" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
         <v/>
       </c>
-      <c r="M102" s="31">
+      <c r="M103" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), ((E71*D71)+L71), "")</f>
         <v/>
       </c>
-      <c r="N102" s="32">
+      <c r="N103" s="32">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), D71, "")</f>
         <v/>
       </c>
-      <c r="O102" s="30">
+      <c r="O103" s="30">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), P71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="P102" s="31">
+      <c r="P103" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
         <v/>
       </c>
-      <c r="Q102" s="31">
+      <c r="Q103" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), ((E71*D71)+P71), "")</f>
         <v/>
       </c>
-      <c r="R102" s="31">
+      <c r="R103" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), D71, "")</f>
         <v/>
       </c>
-      <c r="S102" s="33">
+      <c r="S103" s="33">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), T71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="T102" s="34">
+      <c r="T103" s="34">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
         <v/>
       </c>
-      <c r="U102" s="34">
+      <c r="U103" s="34">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), ((E71*D71)+T71), "")</f>
         <v/>
       </c>
-      <c r="V102" s="34">
+      <c r="V103" s="34">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), D71, "")</f>
         <v/>
       </c>
-      <c r="W102" s="43" t="n">
+      <c r="W103" s="43" t="n">
         <v>511.707333</v>
       </c>
-      <c r="X102" s="44" t="n">
+      <c r="X103" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y102" s="37">
+      <c r="Y103" s="37">
         <f>IF(AND( C71="Buy", W71&lt;&gt;"", AA71&lt;&gt;"", B71&lt;&gt;"DIV"), Z71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="Z102" s="38" t="n">
+      <c r="Z103" s="38" t="n">
         <v>-14711.8595</v>
       </c>
-      <c r="AA102" s="38" t="n">
+      <c r="AA103" s="38" t="n">
         <v>14920.75</v>
       </c>
-      <c r="AB102" s="39" t="n">
+      <c r="AB103" s="39" t="n">
         <v>25</v>
       </c>
-      <c r="AC102" s="40">
+      <c r="AC103" s="40">
         <f>IF(B71="DIV", F71,"")</f>
         <v/>
       </c>
-      <c r="AD102" s="36" t="n"/>
-      <c r="AE102" s="41" t="n"/>
-    </row>
-    <row r="103" ht="13" customHeight="1" s="68">
-      <c r="E103" s="48" t="n"/>
-      <c r="F103" s="48" t="n"/>
-      <c r="G103" s="49" t="n"/>
-      <c r="J103" s="48" t="n"/>
-      <c r="K103" s="48" t="n"/>
-      <c r="L103" s="48" t="n"/>
-      <c r="M103" s="1" t="n"/>
-      <c r="W103" s="48" t="n"/>
-      <c r="X103" s="48" t="n"/>
-      <c r="Y103" s="48" t="n"/>
-      <c r="Z103" s="48" t="n"/>
-      <c r="AA103" s="48" t="n"/>
-      <c r="AB103" s="48" t="n"/>
-      <c r="AC103" s="48" t="n"/>
+      <c r="AD103" s="36" t="n"/>
+      <c r="AE103" s="41" t="n"/>
     </row>
     <row r="104" ht="13" customHeight="1" s="68">
       <c r="E104" s="48" t="n"/>
@@ -23439,6 +23458,7 @@
       <c r="J982" s="48" t="n"/>
       <c r="K982" s="48" t="n"/>
       <c r="L982" s="48" t="n"/>
+      <c r="M982" s="1" t="n"/>
       <c r="W982" s="48" t="n"/>
       <c r="X982" s="48" t="n"/>
       <c r="Y982" s="48" t="n"/>
@@ -23686,6 +23706,21 @@
       <c r="AA998" s="48" t="n"/>
       <c r="AB998" s="48" t="n"/>
       <c r="AC998" s="48" t="n"/>
+    </row>
+    <row r="999">
+      <c r="E999" s="48" t="n"/>
+      <c r="F999" s="48" t="n"/>
+      <c r="G999" s="49" t="n"/>
+      <c r="J999" s="48" t="n"/>
+      <c r="K999" s="48" t="n"/>
+      <c r="L999" s="48" t="n"/>
+      <c r="W999" s="48" t="n"/>
+      <c r="X999" s="48" t="n"/>
+      <c r="Y999" s="48" t="n"/>
+      <c r="Z999" s="48" t="n"/>
+      <c r="AA999" s="48" t="n"/>
+      <c r="AB999" s="48" t="n"/>
+      <c r="AC999" s="48" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO49"/>

--- a/dumps/Stocks/Avanti Feeds.xlsx
+++ b/dumps/Stocks/Avanti Feeds.xlsx
@@ -739,7 +739,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP999"/>
+  <dimension ref="A1:AP1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="68">
       <c r="A5" s="79" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1102,29 +1102,29 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>1076.4808</v>
+        <v>1129.6785</v>
       </c>
       <c r="F5" t="n">
-        <v>53824.04</v>
+        <v>22593.57</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>54.13</v>
+        <v>22.73</v>
       </c>
       <c r="I5" t="n">
-        <v>321.83</v>
+        <v>135.15</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="68">
       <c r="A6" s="79" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1137,18 +1137,24 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>1008.15</v>
+        <v>1076.4808</v>
       </c>
       <c r="F6" t="n">
-        <v>10081.5</v>
+        <v>53824.04</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252611665409</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="I6" t="n">
+        <v>321.83</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="68">
@@ -1157,7 +1163,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1186,7 +1192,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1195,13 +1201,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v>1008.15</v>
       </c>
       <c r="F8" t="n">
-        <v>5040.75</v>
+        <v>10081.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1244,7 +1250,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1253,13 +1259,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v>1008.15</v>
       </c>
       <c r="F10" t="n">
-        <v>10081.5</v>
+        <v>5040.75</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1273,7 +1279,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1282,13 +1288,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
         <v>1008.15</v>
       </c>
       <c r="F11" t="n">
-        <v>1008.15</v>
+        <v>10081.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1314,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1108.25</v>
+        <v>1008.15</v>
       </c>
       <c r="F12" t="n">
-        <v>1108.25</v>
+        <v>1008.15</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1340,53 +1346,47 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1108.25</v>
       </c>
       <c r="F13" t="n">
+        <v>1108.25</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" s="68">
+      <c r="A14" s="79" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1108.25</v>
+      </c>
+      <c r="F14" t="n">
         <v>8866</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>~</t>
         </is>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="68">
-      <c r="A14" s="66" t="n">
-        <v>46049</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>777.55</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2349.2</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14.22</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="68">
@@ -1404,13 +1404,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>777.55</v>
       </c>
       <c r="F15" t="n">
-        <v>1566.12</v>
+        <v>2349.2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1418,15 +1418,15 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.56</v>
+        <v>2.33</v>
       </c>
       <c r="I15" t="n">
-        <v>9.460000000000001</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="68">
       <c r="A16" s="66" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>794.9</v>
+        <v>777.55</v>
       </c>
       <c r="F16" t="n">
-        <v>4002.64</v>
+        <v>1566.12</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1453,15 +1453,15 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3.98</v>
+        <v>1.56</v>
       </c>
       <c r="I16" t="n">
-        <v>24.16</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="68">
       <c r="A17" s="66" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1477,10 +1477,10 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>807.2</v>
+        <v>794.9</v>
       </c>
       <c r="F17" t="n">
-        <v>4064.61</v>
+        <v>4002.64</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4.02</v>
+        <v>3.98</v>
       </c>
       <c r="I17" t="n">
-        <v>24.59</v>
+        <v>24.16</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="68">
       <c r="A18" s="66" t="n">
-        <v>46002</v>
+        <v>46030</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1509,13 +1509,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>809.55</v>
+        <v>807.2</v>
       </c>
       <c r="F18" t="n">
-        <v>3261.19</v>
+        <v>4064.61</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>4.02</v>
       </c>
       <c r="I18" t="n">
-        <v>19.74</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="68">
@@ -1544,13 +1544,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>809.5</v>
+        <v>809.55</v>
       </c>
       <c r="F19" t="n">
-        <v>815.23</v>
+        <v>3261.19</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>4.92</v>
+        <v>19.74</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="68">
       <c r="A20" s="66" t="n">
-        <v>45961</v>
+        <v>46002</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1579,13 +1579,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>703.85</v>
+        <v>809.5</v>
       </c>
       <c r="F20" t="n">
-        <v>2126.52</v>
+        <v>815.23</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1593,10 +1593,10 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>12.87</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="68">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>703.8</v>
+        <v>703.85</v>
       </c>
       <c r="F21" t="n">
-        <v>1417.56</v>
+        <v>2126.52</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="I21" t="n">
-        <v>8.550000000000001</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="68">
       <c r="A22" s="66" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1649,13 +1649,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>717.8</v>
+        <v>703.8</v>
       </c>
       <c r="F22" t="n">
-        <v>722.89</v>
+        <v>1417.56</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.72</v>
+        <v>1.41</v>
       </c>
       <c r="I22" t="n">
-        <v>4.37</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="68">
@@ -1684,13 +1684,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>717.95</v>
+        <v>717.8</v>
       </c>
       <c r="F23" t="n">
-        <v>2892.14</v>
+        <v>722.89</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1698,19 +1698,19 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2.86</v>
+        <v>0.72</v>
       </c>
       <c r="I23" t="n">
-        <v>17.48</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="68">
       <c r="A24" s="66" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>719.5</v>
+        <v>717.95</v>
       </c>
       <c r="F24" t="n">
-        <v>3623.02</v>
+        <v>2892.14</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1733,15 +1733,15 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.61</v>
+        <v>2.86</v>
       </c>
       <c r="I24" t="n">
-        <v>21.91</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="68">
       <c r="A25" s="66" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1757,10 +1757,10 @@
         <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>723.9</v>
+        <v>719.5</v>
       </c>
       <c r="F25" t="n">
-        <v>3645.15</v>
+        <v>3623.02</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1768,15 +1768,15 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="I25" t="n">
-        <v>22.03</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="68">
       <c r="A26" s="66" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1789,13 +1789,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>731</v>
+        <v>723.9</v>
       </c>
       <c r="F26" t="n">
-        <v>6625.67</v>
+        <v>3645.15</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6.56</v>
+        <v>3.62</v>
       </c>
       <c r="I26" t="n">
-        <v>40.11</v>
+        <v>22.03</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="68">
@@ -1824,13 +1824,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
-        <v>730.85</v>
+        <v>731</v>
       </c>
       <c r="F27" t="n">
-        <v>736.02</v>
+        <v>6625.67</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1838,15 +1838,15 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.73</v>
+        <v>6.56</v>
       </c>
       <c r="I27" t="n">
-        <v>4.44</v>
+        <v>40.11</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="68">
       <c r="A28" s="66" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1862,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>672.55</v>
+        <v>730.85</v>
       </c>
       <c r="F28" t="n">
-        <v>677.3</v>
+        <v>736.02</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1873,28 +1873,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="I28" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1008.15</v>
-      </c>
-      <c r="X28" s="79" t="n">
-        <v>46059</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0.485155</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>330.9</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1003.45</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="68">
@@ -1912,13 +1894,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>672.55</v>
       </c>
       <c r="F29" t="n">
-        <v>6095.84</v>
+        <v>677.3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1926,10 +1908,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6.05</v>
+        <v>0.67</v>
       </c>
       <c r="I29" t="n">
-        <v>36.84</v>
+        <v>4.08</v>
       </c>
       <c r="W29" t="n">
         <v>1008.15</v>
@@ -1938,25 +1920,25 @@
         <v>46059</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.485135</v>
+        <v>0.485155</v>
       </c>
       <c r="Z29" t="n">
-        <v>2978.11</v>
+        <v>330.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>9031.059999999999</v>
+        <v>1003.45</v>
       </c>
       <c r="AB29" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="68">
       <c r="A30" s="66" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1965,13 +1947,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>690.85</v>
+        <v>672.55</v>
       </c>
       <c r="F30" t="n">
-        <v>4870.24</v>
+        <v>6095.84</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1979,10 +1961,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4.85</v>
+        <v>6.05</v>
       </c>
       <c r="I30" t="n">
-        <v>29.44</v>
+        <v>36.84</v>
       </c>
       <c r="W30" t="n">
         <v>1008.15</v>
@@ -1991,16 +1973,16 @@
         <v>46059</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.446526</v>
+        <v>0.485135</v>
       </c>
       <c r="Z30" t="n">
-        <v>2190</v>
+        <v>2978.11</v>
       </c>
       <c r="AA30" t="n">
-        <v>7025.95</v>
+        <v>9031.059999999999</v>
       </c>
       <c r="AB30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="68">
@@ -2018,13 +2000,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>690.8</v>
+        <v>690.85</v>
       </c>
       <c r="F31" t="n">
-        <v>2087.09</v>
+        <v>4870.24</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2032,10 +2014,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2.07</v>
+        <v>4.85</v>
       </c>
       <c r="I31" t="n">
-        <v>12.62</v>
+        <v>29.44</v>
       </c>
       <c r="W31" t="n">
         <v>1008.15</v>
@@ -2044,25 +2026,25 @@
         <v>46059</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.446631</v>
+        <v>0.446526</v>
       </c>
       <c r="Z31" t="n">
-        <v>938.72</v>
+        <v>2190</v>
       </c>
       <c r="AA31" t="n">
-        <v>3011.12</v>
+        <v>7025.95</v>
       </c>
       <c r="AB31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="68">
       <c r="A32" s="66" t="n">
-        <v>45924</v>
+        <v>45947</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2071,13 +2053,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>678.95</v>
+        <v>690.8</v>
       </c>
       <c r="F32" t="n">
-        <v>6837.55</v>
+        <v>2087.09</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2085,10 +2067,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6.76</v>
+        <v>2.07</v>
       </c>
       <c r="I32" t="n">
-        <v>41.29</v>
+        <v>12.62</v>
       </c>
       <c r="W32" t="n">
         <v>1008.15</v>
@@ -2097,25 +2079,25 @@
         <v>46059</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.235703</v>
+        <v>0.446631</v>
       </c>
       <c r="Z32" t="n">
-        <v>1622.96</v>
+        <v>938.72</v>
       </c>
       <c r="AA32" t="n">
-        <v>5017.71</v>
+        <v>3011.12</v>
       </c>
       <c r="AB32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="68">
       <c r="A33" s="66" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2127,10 +2109,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>677.75</v>
+        <v>678.95</v>
       </c>
       <c r="F33" t="n">
-        <v>6825.62</v>
+        <v>6837.55</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2138,10 +2120,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6.8</v>
+        <v>6.76</v>
       </c>
       <c r="I33" t="n">
-        <v>41.32</v>
+        <v>41.29</v>
       </c>
       <c r="W33" t="n">
         <v>1008.15</v>
@@ -2150,13 +2132,13 @@
         <v>46059</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.23697</v>
+        <v>0.235703</v>
       </c>
       <c r="Z33" t="n">
-        <v>1628.87</v>
+        <v>1622.96</v>
       </c>
       <c r="AA33" t="n">
-        <v>5017.62</v>
+        <v>5017.71</v>
       </c>
       <c r="AB33" t="n">
         <v>5</v>
@@ -2164,11 +2146,11 @@
     </row>
     <row r="34" ht="15.75" customHeight="1" s="68">
       <c r="A34" s="66" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2177,13 +2159,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>625.8</v>
+        <v>677.75</v>
       </c>
       <c r="F34" t="n">
-        <v>3151.23</v>
+        <v>6825.62</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2191,10 +2173,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3.13</v>
+        <v>6.8</v>
       </c>
       <c r="I34" t="n">
-        <v>19.1</v>
+        <v>41.32</v>
       </c>
       <c r="W34" t="n">
         <v>1008.15</v>
@@ -2203,13 +2185,13 @@
         <v>46059</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.593986</v>
+        <v>0.23697</v>
       </c>
       <c r="Z34" t="n">
-        <v>1884.99</v>
+        <v>1628.87</v>
       </c>
       <c r="AA34" t="n">
-        <v>5013.99</v>
+        <v>5017.62</v>
       </c>
       <c r="AB34" t="n">
         <v>5</v>
@@ -2217,11 +2199,11 @@
     </row>
     <row r="35" ht="15.75" customHeight="1" s="68">
       <c r="A35" s="66" t="n">
-        <v>45876</v>
+        <v>45897</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2230,196 +2212,139 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>625.8</v>
       </c>
       <c r="F35" t="n">
-        <v>225</v>
+        <v>3151.23</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025  Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>19.1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1008.15</v>
+      </c>
+      <c r="X35" s="79" t="n">
+        <v>46059</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.593986</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1884.99</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>5013.99</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="68">
       <c r="A36" s="66" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>25</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9</v>
+      </c>
+      <c r="F36" t="n">
+        <v>225</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025  Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" s="68">
+      <c r="A37" s="66" t="n">
         <v>45873</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D37" t="n">
         <v>5</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E37" t="n">
         <v>665.2</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F37" t="n">
         <v>3349.66</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>3.37</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I37" t="n">
         <v>20.29</v>
       </c>
-      <c r="W36" t="n">
+      <c r="W37" t="n">
         <v>1008.15</v>
       </c>
-      <c r="X36" s="79" t="n">
+      <c r="X37" s="79" t="n">
         <v>46059</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Y37" t="n">
         <v>0.501209</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="Z37" t="n">
         <v>1690.74</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AA37" t="n">
         <v>5016.74</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AB37" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1" s="68">
-      <c r="A37" s="25" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B37" s="26" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C37" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="E37" s="28" t="n">
-        <v>741.22</v>
-      </c>
-      <c r="F37" s="28" t="n">
-        <v>7412.23</v>
-      </c>
-      <c r="G37" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H37" s="27" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="I37" s="27" t="n">
-        <v>44.87</v>
-      </c>
-      <c r="J37" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K37" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="L37" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="M37" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
-        <v/>
-      </c>
-      <c r="N37" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
-        <v/>
-      </c>
-      <c r="O37" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="P37" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="Q37" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
-        <v/>
-      </c>
-      <c r="R37" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="S37" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="T37" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="U37" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
-        <v/>
-      </c>
-      <c r="V37" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="W37" s="34" t="n">
-        <v>1008.15</v>
-      </c>
-      <c r="X37" s="80" t="n">
-        <v>46059</v>
-      </c>
-      <c r="Y37" s="33" t="n">
-        <v>0.035259</v>
-      </c>
-      <c r="Z37" s="34" t="n">
-        <v>263.19</v>
-      </c>
-      <c r="AA37" s="34" t="n">
-        <v>1004.41</v>
-      </c>
-      <c r="AB37" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="31">
-        <f>IF(B19="DIV", F19,"")</f>
-        <v/>
-      </c>
-      <c r="AD37" s="36" t="n"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="68">
       <c r="A38" s="25" t="n">
-        <v>45812</v>
+        <v>45855</v>
       </c>
       <c r="B38" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C38" s="26" t="inlineStr">
@@ -2428,13 +2353,13 @@
         </is>
       </c>
       <c r="D38" s="27" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E38" s="28" t="n">
-        <v>774.3</v>
+        <v>741.22</v>
       </c>
       <c r="F38" s="28" t="n">
-        <v>774.3</v>
+        <v>7412.23</v>
       </c>
       <c r="G38" s="26" t="inlineStr">
         <is>
@@ -2442,83 +2367,83 @@
         </is>
       </c>
       <c r="H38" s="27" t="n">
-        <v>0.77</v>
+        <v>7.36</v>
       </c>
       <c r="I38" s="27" t="n">
-        <v>4.68</v>
+        <v>44.87</v>
       </c>
       <c r="J38" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L38" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M38" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N38" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O38" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P38" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R38" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S38" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T38" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U38" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V38" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W38" s="34" t="n">
-        <v>1108.25</v>
+        <v>1008.15</v>
       </c>
       <c r="X38" s="80" t="n">
         <v>46059</v>
       </c>
       <c r="Y38" s="33" t="n">
-        <v>0.422276</v>
+        <v>0.035259</v>
       </c>
       <c r="Z38" s="34" t="n">
-        <v>329.27</v>
+        <v>263.19</v>
       </c>
       <c r="AA38" s="34" t="n">
-        <v>1103.57</v>
+        <v>1004.41</v>
       </c>
       <c r="AB38" s="35" t="n">
         <v>1</v>
       </c>
       <c r="AC38" s="31">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD38" s="36" t="n"/>
@@ -2538,13 +2463,13 @@
         </is>
       </c>
       <c r="D39" s="27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E39" s="28" t="n">
         <v>774.3</v>
       </c>
       <c r="F39" s="28" t="n">
-        <v>6194.39</v>
+        <v>774.3</v>
       </c>
       <c r="G39" s="26" t="inlineStr">
         <is>
@@ -2552,61 +2477,61 @@
         </is>
       </c>
       <c r="H39" s="27" t="n">
-        <v>6.2</v>
+        <v>0.77</v>
       </c>
       <c r="I39" s="27" t="n">
-        <v>37.39</v>
+        <v>4.68</v>
       </c>
       <c r="J39" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L39" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M39" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N39" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O39" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P39" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R39" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S39" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T39" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U39" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V39" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W39" s="34" t="n">
@@ -2616,19 +2541,19 @@
         <v>46059</v>
       </c>
       <c r="Y39" s="33" t="n">
-        <v>0.369498</v>
+        <v>0.422276</v>
       </c>
       <c r="Z39" s="34" t="n">
-        <v>2304.92</v>
+        <v>329.27</v>
       </c>
       <c r="AA39" s="34" t="n">
-        <v>7725.02</v>
+        <v>1103.57</v>
       </c>
       <c r="AB39" s="35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC39" s="31">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD39" s="36" t="n"/>
@@ -2648,13 +2573,13 @@
         </is>
       </c>
       <c r="D40" s="27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E40" s="28" t="n">
         <v>774.3</v>
       </c>
       <c r="F40" s="28" t="n">
-        <v>774.3</v>
+        <v>6194.39</v>
       </c>
       <c r="G40" s="26" t="inlineStr">
         <is>
@@ -2662,61 +2587,61 @@
         </is>
       </c>
       <c r="H40" s="27" t="n">
-        <v>0.77</v>
+        <v>6.2</v>
       </c>
       <c r="I40" s="27" t="n">
-        <v>4.68</v>
+        <v>37.39</v>
       </c>
       <c r="J40" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L40" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M40" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N40" s="32">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O40" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P40" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R40" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S40" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T40" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U40" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V40" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W40" s="34" t="n">
@@ -2726,26 +2651,26 @@
         <v>46059</v>
       </c>
       <c r="Y40" s="33" t="n">
-        <v>0.422276</v>
+        <v>0.369498</v>
       </c>
       <c r="Z40" s="34" t="n">
-        <v>329.27</v>
+        <v>2304.92</v>
       </c>
       <c r="AA40" s="34" t="n">
-        <v>1103.57</v>
+        <v>7725.02</v>
       </c>
       <c r="AB40" s="35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC40" s="31">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD40" s="36" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="68">
       <c r="A41" s="25" t="n">
-        <v>45306</v>
+        <v>45812</v>
       </c>
       <c r="B41" s="26" t="inlineStr">
         <is>
@@ -2754,17 +2679,17 @@
       </c>
       <c r="C41" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D41" s="27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E41" s="28" t="n">
-        <v>554.28</v>
+        <v>774.3</v>
       </c>
       <c r="F41" s="28" t="n">
-        <v>5542.84</v>
+        <v>774.3</v>
       </c>
       <c r="G41" s="26" t="inlineStr">
         <is>
@@ -2772,81 +2697,90 @@
         </is>
       </c>
       <c r="H41" s="27" t="n">
-        <v>6</v>
+        <v>0.77</v>
       </c>
       <c r="I41" s="27" t="n">
-        <v>33.16</v>
+        <v>4.68</v>
       </c>
       <c r="J41" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L41" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M41" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N41" s="32">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O41" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P41" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R41" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S41" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T41" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U41" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V41" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="W41" s="34" t="n"/>
-      <c r="X41" s="34" t="n"/>
-      <c r="Y41" s="33">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
-        <v/>
-      </c>
-      <c r="Z41" s="34" t="n"/>
-      <c r="AA41" s="34" t="n"/>
-      <c r="AB41" s="35" t="n"/>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W41" s="34" t="n">
+        <v>1108.25</v>
+      </c>
+      <c r="X41" s="80" t="n">
+        <v>46059</v>
+      </c>
+      <c r="Y41" s="33" t="n">
+        <v>0.422276</v>
+      </c>
+      <c r="Z41" s="34" t="n">
+        <v>329.27</v>
+      </c>
+      <c r="AA41" s="34" t="n">
+        <v>1103.57</v>
+      </c>
+      <c r="AB41" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="AC41" s="31">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD41" s="36" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="68">
       <c r="A42" s="25" t="n">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B42" s="26" t="inlineStr">
         <is>
@@ -2859,13 +2793,13 @@
         </is>
       </c>
       <c r="D42" s="27" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E42" s="28" t="n">
-        <v>492.45</v>
+        <v>554.28</v>
       </c>
       <c r="F42" s="28" t="n">
-        <v>14773.61</v>
+        <v>5542.84</v>
       </c>
       <c r="G42" s="26" t="inlineStr">
         <is>
@@ -2873,74 +2807,74 @@
         </is>
       </c>
       <c r="H42" s="27" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I42" s="27" t="n">
-        <v>88.39</v>
+        <v>33.16</v>
       </c>
       <c r="J42" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L42" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M42" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N42" s="32">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O42" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P42" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R42" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S42" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T42" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U42" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V42" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W42" s="34" t="n"/>
       <c r="X42" s="34" t="n"/>
       <c r="Y42" s="33">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z42" s="34" t="n"/>
       <c r="AA42" s="34" t="n"/>
       <c r="AB42" s="35" t="n"/>
       <c r="AC42" s="31">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD42" s="36" t="n"/>
@@ -2960,13 +2894,13 @@
         </is>
       </c>
       <c r="D43" s="27" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E43" s="28" t="n">
         <v>492.45</v>
       </c>
       <c r="F43" s="28" t="n">
-        <v>4924.53</v>
+        <v>14773.61</v>
       </c>
       <c r="G43" s="26" t="inlineStr">
         <is>
@@ -2974,81 +2908,81 @@
         </is>
       </c>
       <c r="H43" s="27" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I43" s="27" t="n">
-        <v>29.47</v>
+        <v>88.39</v>
       </c>
       <c r="J43" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L43" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M43" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N43" s="32">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O43" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P43" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R43" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S43" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T43" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U43" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V43" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W43" s="34" t="n"/>
       <c r="X43" s="34" t="n"/>
       <c r="Y43" s="33">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z43" s="34" t="n"/>
       <c r="AA43" s="34" t="n"/>
       <c r="AB43" s="35" t="n"/>
       <c r="AC43" s="31">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD43" s="36" t="n"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="68">
       <c r="A44" s="25" t="n">
-        <v>45282</v>
+        <v>45303</v>
       </c>
       <c r="B44" s="26" t="inlineStr">
         <is>
@@ -3057,17 +2991,17 @@
       </c>
       <c r="C44" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D44" s="27" t="n">
         <v>10</v>
       </c>
       <c r="E44" s="28" t="n">
-        <v>402.13</v>
+        <v>492.45</v>
       </c>
       <c r="F44" s="28" t="n">
-        <v>4021.34</v>
+        <v>4924.53</v>
       </c>
       <c r="G44" s="26" t="inlineStr">
         <is>
@@ -3075,103 +3009,81 @@
         </is>
       </c>
       <c r="H44" s="27" t="n">
-        <v>3.99</v>
+        <v>5</v>
       </c>
       <c r="I44" s="27" t="n">
-        <v>24.35</v>
+        <v>29.47</v>
       </c>
       <c r="J44" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L44" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M44" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N44" s="32">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O44" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P44" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R44" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S44" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T44" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U44" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V44" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W44" s="34" t="n">
-        <v>513.0599999999999</v>
-      </c>
-      <c r="X44" s="25" t="n">
-        <v>45306</v>
-      </c>
-      <c r="Y44" s="37">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z44" s="38" t="n">
-        <v>-221.85</v>
-      </c>
-      <c r="AA44" s="38" t="n">
-        <v>225</v>
-      </c>
-      <c r="AB44" s="39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC44" s="40">
-        <f>IF(B26="DIV", F26,"")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W44" s="34" t="n"/>
+      <c r="X44" s="34" t="n"/>
+      <c r="Y44" s="33">
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z44" s="34" t="n"/>
+      <c r="AA44" s="34" t="n"/>
+      <c r="AB44" s="35" t="n"/>
+      <c r="AC44" s="31">
+        <f>IF(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD44" s="36" t="n"/>
-      <c r="AE44" s="41" t="n"/>
-      <c r="AF44" s="41" t="n"/>
-      <c r="AG44" s="41" t="n"/>
-      <c r="AH44" s="41" t="n"/>
-      <c r="AI44" s="41" t="n"/>
-      <c r="AJ44" s="41" t="n"/>
-      <c r="AK44" s="41" t="n"/>
-      <c r="AL44" s="41" t="n"/>
-      <c r="AM44" s="41" t="n"/>
-      <c r="AN44" s="41" t="n"/>
-      <c r="AO44" s="41" t="n"/>
-      <c r="AP44" s="41" t="n"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="68">
       <c r="A45" s="25" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B45" s="26" t="inlineStr">
         <is>
@@ -3187,10 +3099,10 @@
         <v>10</v>
       </c>
       <c r="E45" s="28" t="n">
-        <v>399.61</v>
+        <v>402.13</v>
       </c>
       <c r="F45" s="28" t="n">
-        <v>3996.05</v>
+        <v>4021.34</v>
       </c>
       <c r="G45" s="26" t="inlineStr">
         <is>
@@ -3198,61 +3110,61 @@
         </is>
       </c>
       <c r="H45" s="27" t="n">
-        <v>3.96</v>
+        <v>3.99</v>
       </c>
       <c r="I45" s="27" t="n">
-        <v>24.09</v>
+        <v>24.35</v>
       </c>
       <c r="J45" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="30">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L45" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M45" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N45" s="32">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O45" s="30">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P45" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R45" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S45" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T45" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U45" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V45" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W45" s="34" t="n">
@@ -3262,20 +3174,20 @@
         <v>45306</v>
       </c>
       <c r="Y45" s="37">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z45" s="38" t="n">
-        <v>-3279.436</v>
+        <v>-221.85</v>
       </c>
       <c r="AA45" s="38" t="n">
-        <v>3326</v>
+        <v>225</v>
       </c>
       <c r="AB45" s="39" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AC45" s="40">
-        <f>IF(B27="DIV", F27,"")</f>
+        <f>IF(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD45" s="36" t="n"/>
@@ -3294,7 +3206,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1" s="68">
       <c r="A46" s="25" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B46" s="26" t="inlineStr">
         <is>
@@ -3307,13 +3219,13 @@
         </is>
       </c>
       <c r="D46" s="27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E46" s="28" t="n">
-        <v>399.21</v>
+        <v>399.61</v>
       </c>
       <c r="F46" s="28" t="n">
-        <v>2794.47</v>
+        <v>3996.05</v>
       </c>
       <c r="G46" s="26" t="inlineStr">
         <is>
@@ -3321,61 +3233,61 @@
         </is>
       </c>
       <c r="H46" s="27" t="n">
-        <v>2.77</v>
+        <v>3.96</v>
       </c>
       <c r="I46" s="27" t="n">
-        <v>16.9</v>
+        <v>24.09</v>
       </c>
       <c r="J46" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L46" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M46" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N46" s="32">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O46" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P46" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R46" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S46" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T46" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U46" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V46" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W46" s="34" t="n">
@@ -3384,20 +3296,21 @@
       <c r="X46" s="25" t="n">
         <v>45306</v>
       </c>
-      <c r="Y46" s="37" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z46" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA46" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB46" s="39" t="e">
-        <v>#REF!</v>
+      <c r="Y46" s="37">
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <v/>
+      </c>
+      <c r="Z46" s="38" t="n">
+        <v>-3279.436</v>
+      </c>
+      <c r="AA46" s="38" t="n">
+        <v>3326</v>
+      </c>
+      <c r="AB46" s="39" t="n">
+        <v>5</v>
       </c>
       <c r="AC46" s="40">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <f>IF(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD46" s="36" t="n"/>
@@ -3415,8 +3328,8 @@
       <c r="AP46" s="41" t="n"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="68">
-      <c r="A47" s="42" t="n">
-        <v>45225</v>
+      <c r="A47" s="25" t="n">
+        <v>45258</v>
       </c>
       <c r="B47" s="26" t="inlineStr">
         <is>
@@ -3429,13 +3342,13 @@
         </is>
       </c>
       <c r="D47" s="27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E47" s="28" t="n">
-        <v>392.37</v>
+        <v>399.21</v>
       </c>
       <c r="F47" s="28" t="n">
-        <v>1569.46</v>
+        <v>2794.47</v>
       </c>
       <c r="G47" s="26" t="inlineStr">
         <is>
@@ -3443,10 +3356,10 @@
         </is>
       </c>
       <c r="H47" s="27" t="n">
-        <v>1.57</v>
+        <v>2.77</v>
       </c>
       <c r="I47" s="27" t="n">
-        <v>9.49</v>
+        <v>16.9</v>
       </c>
       <c r="J47" s="29">
         <f>Index!$C$2</f>
@@ -3524,10 +3437,21 @@
       </c>
       <c r="AD47" s="36" t="n"/>
       <c r="AE47" s="41" t="n"/>
+      <c r="AF47" s="41" t="n"/>
+      <c r="AG47" s="41" t="n"/>
+      <c r="AH47" s="41" t="n"/>
+      <c r="AI47" s="41" t="n"/>
+      <c r="AJ47" s="41" t="n"/>
+      <c r="AK47" s="41" t="n"/>
+      <c r="AL47" s="41" t="n"/>
+      <c r="AM47" s="41" t="n"/>
+      <c r="AN47" s="41" t="n"/>
+      <c r="AO47" s="41" t="n"/>
+      <c r="AP47" s="41" t="n"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="68">
       <c r="A48" s="42" t="n">
-        <v>45183</v>
+        <v>45225</v>
       </c>
       <c r="B48" s="26" t="inlineStr">
         <is>
@@ -3536,17 +3460,17 @@
       </c>
       <c r="C48" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D48" s="27" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E48" s="28" t="n">
-        <v>459.59</v>
+        <v>392.37</v>
       </c>
       <c r="F48" s="28" t="n">
-        <v>16545.32</v>
+        <v>1569.46</v>
       </c>
       <c r="G48" s="26" t="inlineStr">
         <is>
@@ -3554,10 +3478,10 @@
         </is>
       </c>
       <c r="H48" s="27" t="n">
-        <v>16.68</v>
+        <v>1.57</v>
       </c>
       <c r="I48" s="27" t="n">
-        <v>98.8</v>
+        <v>9.49</v>
       </c>
       <c r="J48" s="29">
         <f>Index!$C$2</f>
@@ -3611,42 +3535,53 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W48" s="34" t="n"/>
-      <c r="X48" s="34" t="n"/>
-      <c r="Y48" s="33" t="e">
+      <c r="W48" s="34" t="n">
+        <v>513.0599999999999</v>
+      </c>
+      <c r="X48" s="25" t="n">
+        <v>45306</v>
+      </c>
+      <c r="Y48" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z48" s="34" t="n"/>
-      <c r="AA48" s="34" t="n"/>
-      <c r="AB48" s="35" t="n"/>
-      <c r="AC48" s="31">
+      <c r="Z48" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA48" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB48" s="39" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AC48" s="40">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD48" s="36" t="n"/>
+      <c r="AE48" s="41" t="n"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="68">
       <c r="A49" s="42" t="n">
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="B49" s="26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C49" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D49" s="27" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E49" s="28" t="n">
-        <v>433.95</v>
+        <v>459.59</v>
       </c>
       <c r="F49" s="28" t="n">
-        <v>1735.79</v>
+        <v>16545.32</v>
       </c>
       <c r="G49" s="26" t="inlineStr">
         <is>
@@ -3654,10 +3589,10 @@
         </is>
       </c>
       <c r="H49" s="27" t="n">
-        <v>1.72</v>
+        <v>16.68</v>
       </c>
       <c r="I49" s="27" t="n">
-        <v>10.47</v>
+        <v>98.8</v>
       </c>
       <c r="J49" s="29">
         <f>Index!$C$2</f>
@@ -3711,38 +3646,27 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W49" s="34" t="n">
-        <v>513.0599999999999</v>
-      </c>
-      <c r="X49" s="25" t="n">
-        <v>45306</v>
-      </c>
-      <c r="Y49" s="37" t="e">
+      <c r="W49" s="34" t="n"/>
+      <c r="X49" s="34" t="n"/>
+      <c r="Y49" s="33" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z49" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA49" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB49" s="39" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC49" s="40">
+      <c r="Z49" s="34" t="n"/>
+      <c r="AA49" s="34" t="n"/>
+      <c r="AB49" s="35" t="n"/>
+      <c r="AC49" s="31">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD49" s="36" t="n"/>
-      <c r="AE49" s="41" t="n"/>
     </row>
     <row r="50" ht="13" customHeight="1" s="68">
       <c r="A50" s="42" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B50" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C50" s="26" t="inlineStr">
@@ -3751,13 +3675,13 @@
         </is>
       </c>
       <c r="D50" s="27" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E50" s="28" t="n">
-        <v>444.44</v>
+        <v>433.95</v>
       </c>
       <c r="F50" s="28" t="n">
-        <v>4444.36</v>
+        <v>1735.79</v>
       </c>
       <c r="G50" s="26" t="inlineStr">
         <is>
@@ -3765,10 +3689,10 @@
         </is>
       </c>
       <c r="H50" s="27" t="n">
-        <v>4.4</v>
+        <v>1.72</v>
       </c>
       <c r="I50" s="27" t="n">
-        <v>26.96</v>
+        <v>10.47</v>
       </c>
       <c r="J50" s="29">
         <f>Index!$C$2</f>
@@ -3849,11 +3773,11 @@
     </row>
     <row r="51" ht="13" customHeight="1" s="68">
       <c r="A51" s="42" t="n">
-        <v>45162</v>
+        <v>45180</v>
       </c>
       <c r="B51" s="26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C51" s="26" t="inlineStr">
@@ -3862,13 +3786,13 @@
         </is>
       </c>
       <c r="D51" s="27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E51" s="28" t="n">
-        <v>433.05</v>
+        <v>444.44</v>
       </c>
       <c r="F51" s="28" t="n">
-        <v>2165.25</v>
+        <v>4444.36</v>
       </c>
       <c r="G51" s="26" t="inlineStr">
         <is>
@@ -3876,10 +3800,10 @@
         </is>
       </c>
       <c r="H51" s="27" t="n">
-        <v>2.13</v>
+        <v>4.4</v>
       </c>
       <c r="I51" s="27" t="n">
-        <v>13.12</v>
+        <v>26.96</v>
       </c>
       <c r="J51" s="29">
         <f>Index!$C$2</f>
@@ -3959,12 +3883,12 @@
       <c r="AE51" s="41" t="n"/>
     </row>
     <row r="52" ht="13" customHeight="1" s="68">
-      <c r="A52" s="25" t="n">
-        <v>45141</v>
+      <c r="A52" s="42" t="n">
+        <v>45162</v>
       </c>
       <c r="B52" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C52" s="26" t="inlineStr">
@@ -3973,24 +3897,24 @@
         </is>
       </c>
       <c r="D52" s="27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E52" s="28" t="n">
-        <v>6.25</v>
+        <v>433.05</v>
       </c>
       <c r="F52" s="28" t="n">
-        <v>62.5</v>
+        <v>2165.25</v>
       </c>
       <c r="G52" s="26" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.6.2500/- per share on Ex-Date: 03-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H52" s="27" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="I52" s="27" t="n">
-        <v>0</v>
+        <v>13.12</v>
       </c>
       <c r="J52" s="29">
         <f>Index!$C$2</f>
@@ -4044,19 +3968,30 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W52" s="34" t="n"/>
-      <c r="X52" s="34" t="n"/>
-      <c r="Y52" s="33" t="e">
+      <c r="W52" s="34" t="n">
+        <v>513.0599999999999</v>
+      </c>
+      <c r="X52" s="25" t="n">
+        <v>45306</v>
+      </c>
+      <c r="Y52" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z52" s="34" t="n"/>
-      <c r="AA52" s="34" t="n"/>
-      <c r="AB52" s="35" t="n"/>
-      <c r="AC52" s="31">
+      <c r="Z52" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA52" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB52" s="39" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AC52" s="40">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD52" s="36" t="n"/>
+      <c r="AE52" s="41" t="n"/>
     </row>
     <row r="53" ht="13" customHeight="1" s="68">
       <c r="A53" s="25" t="n">
@@ -4073,13 +4008,13 @@
         </is>
       </c>
       <c r="D53" s="27" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E53" s="28" t="n">
         <v>6.25</v>
       </c>
       <c r="F53" s="28" t="n">
-        <v>162.5</v>
+        <v>62.5</v>
       </c>
       <c r="G53" s="26" t="inlineStr">
         <is>
@@ -4159,12 +4094,12 @@
       <c r="AD53" s="36" t="n"/>
     </row>
     <row r="54" ht="13" customHeight="1" s="68">
-      <c r="A54" s="42" t="n">
-        <v>45131</v>
+      <c r="A54" s="25" t="n">
+        <v>45141</v>
       </c>
       <c r="B54" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C54" s="26" t="inlineStr">
@@ -4173,24 +4108,24 @@
         </is>
       </c>
       <c r="D54" s="27" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E54" s="28" t="n">
-        <v>404.79</v>
+        <v>6.25</v>
       </c>
       <c r="F54" s="28" t="n">
-        <v>1619.16</v>
+        <v>162.5</v>
       </c>
       <c r="G54" s="26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.6.2500/- per share on Ex-Date: 03-AUG-2023</t>
         </is>
       </c>
       <c r="H54" s="27" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I54" s="27" t="n">
-        <v>9.76</v>
+        <v>0</v>
       </c>
       <c r="J54" s="29">
         <f>Index!$C$2</f>
@@ -4244,30 +4179,19 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W54" s="43" t="n">
-        <v>456.382222</v>
-      </c>
-      <c r="X54" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y54" s="37" t="e">
+      <c r="W54" s="34" t="n"/>
+      <c r="X54" s="34" t="n"/>
+      <c r="Y54" s="33" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z54" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA54" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB54" s="39" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC54" s="40">
+      <c r="Z54" s="34" t="n"/>
+      <c r="AA54" s="34" t="n"/>
+      <c r="AB54" s="35" t="n"/>
+      <c r="AC54" s="31">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD54" s="36" t="n"/>
-      <c r="AE54" s="41" t="n"/>
     </row>
     <row r="55" ht="13" customHeight="1" s="68">
       <c r="A55" s="42" t="n">
@@ -4284,13 +4208,13 @@
         </is>
       </c>
       <c r="D55" s="27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E55" s="28" t="n">
-        <v>404.8</v>
+        <v>404.79</v>
       </c>
       <c r="F55" s="28" t="n">
-        <v>809.59</v>
+        <v>1619.16</v>
       </c>
       <c r="G55" s="26" t="inlineStr">
         <is>
@@ -4298,10 +4222,10 @@
         </is>
       </c>
       <c r="H55" s="27" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="I55" s="27" t="n">
-        <v>4.89</v>
+        <v>9.76</v>
       </c>
       <c r="J55" s="29">
         <f>Index!$C$2</f>
@@ -4382,11 +4306,11 @@
     </row>
     <row r="56" ht="13" customHeight="1" s="68">
       <c r="A56" s="42" t="n">
-        <v>45034</v>
+        <v>45131</v>
       </c>
       <c r="B56" s="26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C56" s="26" t="inlineStr">
@@ -4398,10 +4322,10 @@
         <v>2</v>
       </c>
       <c r="E56" s="28" t="n">
-        <v>364.03</v>
+        <v>404.8</v>
       </c>
       <c r="F56" s="28" t="n">
-        <v>728.0599999999999</v>
+        <v>809.59</v>
       </c>
       <c r="G56" s="26" t="inlineStr">
         <is>
@@ -4409,10 +4333,10 @@
         </is>
       </c>
       <c r="H56" s="27" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="I56" s="27" t="n">
-        <v>4.44</v>
+        <v>4.89</v>
       </c>
       <c r="J56" s="29">
         <f>Index!$C$2</f>
@@ -4506,13 +4430,13 @@
         </is>
       </c>
       <c r="D57" s="27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E57" s="28" t="n">
-        <v>363.87</v>
+        <v>364.03</v>
       </c>
       <c r="F57" s="28" t="n">
-        <v>2910.96</v>
+        <v>728.0599999999999</v>
       </c>
       <c r="G57" s="26" t="inlineStr">
         <is>
@@ -4520,10 +4444,10 @@
         </is>
       </c>
       <c r="H57" s="27" t="n">
-        <v>2.9</v>
+        <v>0.72</v>
       </c>
       <c r="I57" s="27" t="n">
-        <v>17.66</v>
+        <v>4.44</v>
       </c>
       <c r="J57" s="29">
         <f>Index!$C$2</f>
@@ -4604,11 +4528,11 @@
     </row>
     <row r="58" ht="13" customHeight="1" s="68">
       <c r="A58" s="42" t="n">
-        <v>44953</v>
+        <v>45034</v>
       </c>
       <c r="B58" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C58" s="26" t="inlineStr">
@@ -4617,13 +4541,13 @@
         </is>
       </c>
       <c r="D58" s="27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58" s="28" t="n">
-        <v>378.71</v>
+        <v>363.87</v>
       </c>
       <c r="F58" s="28" t="n">
-        <v>3408.42</v>
+        <v>2910.96</v>
       </c>
       <c r="G58" s="26" t="inlineStr">
         <is>
@@ -4631,10 +4555,10 @@
         </is>
       </c>
       <c r="H58" s="27" t="n">
-        <v>3.34</v>
+        <v>2.9</v>
       </c>
       <c r="I58" s="27" t="n">
-        <v>20.63</v>
+        <v>17.66</v>
       </c>
       <c r="J58" s="29">
         <f>Index!$C$2</f>
@@ -4728,13 +4652,13 @@
         </is>
       </c>
       <c r="D59" s="27" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E59" s="28" t="n">
-        <v>378.72</v>
+        <v>378.71</v>
       </c>
       <c r="F59" s="28" t="n">
-        <v>378.72</v>
+        <v>3408.42</v>
       </c>
       <c r="G59" s="26" t="inlineStr">
         <is>
@@ -4742,10 +4666,10 @@
         </is>
       </c>
       <c r="H59" s="27" t="n">
-        <v>0.38</v>
+        <v>3.34</v>
       </c>
       <c r="I59" s="27" t="n">
-        <v>2.29</v>
+        <v>20.63</v>
       </c>
       <c r="J59" s="29">
         <f>Index!$C$2</f>
@@ -4826,7 +4750,7 @@
     </row>
     <row r="60" ht="13" customHeight="1" s="68">
       <c r="A60" s="42" t="n">
-        <v>44950</v>
+        <v>44953</v>
       </c>
       <c r="B60" s="26" t="inlineStr">
         <is>
@@ -4839,13 +4763,13 @@
         </is>
       </c>
       <c r="D60" s="27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E60" s="28" t="n">
-        <v>390.75</v>
+        <v>378.72</v>
       </c>
       <c r="F60" s="28" t="n">
-        <v>3907.45</v>
+        <v>378.72</v>
       </c>
       <c r="G60" s="26" t="inlineStr">
         <is>
@@ -4853,61 +4777,61 @@
         </is>
       </c>
       <c r="H60" s="27" t="n">
-        <v>3.86</v>
+        <v>0.38</v>
       </c>
       <c r="I60" s="27" t="n">
-        <v>23.59</v>
+        <v>2.29</v>
       </c>
       <c r="J60" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K60" s="30">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="L60" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="M60" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="N60" s="32">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
       <c r="O60" s="30">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="P60" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="R60" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="S60" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="T60" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="U60" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="V60" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="W60" s="43" t="n">
@@ -4916,29 +4840,28 @@
       <c r="X60" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y60" s="37">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
-        <v/>
-      </c>
-      <c r="Z60" s="38" t="n">
-        <v>-7308.4292</v>
-      </c>
-      <c r="AA60" s="38" t="n">
-        <v>7412.200000000001</v>
-      </c>
-      <c r="AB60" s="39" t="n">
-        <v>10</v>
+      <c r="Y60" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z60" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA60" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB60" s="39" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AC60" s="40">
-        <f>IF(B28="DIV", F28,"")</f>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD60" s="36" t="n"/>
       <c r="AE60" s="41" t="n"/>
     </row>
     <row r="61" ht="13" customHeight="1" s="68">
-      <c r="A61" s="25" t="n">
-        <v>44232</v>
+      <c r="A61" s="42" t="n">
+        <v>44950</v>
       </c>
       <c r="B61" s="26" t="inlineStr">
         <is>
@@ -4947,95 +4870,110 @@
       </c>
       <c r="C61" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D61" s="27" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E61" s="28" t="n">
-        <v>512.11</v>
+        <v>390.75</v>
       </c>
       <c r="F61" s="28" t="n">
-        <v>28165.9</v>
-      </c>
-      <c r="G61" s="26" t="n"/>
+        <v>3907.45</v>
+      </c>
+      <c r="G61" s="26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
       <c r="H61" s="27" t="n">
-        <v>28.33</v>
+        <v>3.86</v>
       </c>
       <c r="I61" s="27" t="n">
-        <v>168.47</v>
+        <v>23.59</v>
       </c>
       <c r="J61" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K61" s="30">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L61" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M61" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N61" s="32">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O61" s="30">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P61" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R61" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S61" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T61" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U61" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V61" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
-        <v/>
-      </c>
-      <c r="W61" s="45" t="n"/>
-      <c r="X61" s="34" t="n"/>
-      <c r="Y61" s="33">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
-        <v/>
-      </c>
-      <c r="Z61" s="34" t="n"/>
-      <c r="AA61" s="34" t="n"/>
-      <c r="AB61" s="35" t="n"/>
-      <c r="AC61" s="31">
-        <f>IF(B29="DIV", F29,"")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <v/>
+      </c>
+      <c r="W61" s="43" t="n">
+        <v>456.382222</v>
+      </c>
+      <c r="X61" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y61" s="37">
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
+        <v/>
+      </c>
+      <c r="Z61" s="38" t="n">
+        <v>-7308.4292</v>
+      </c>
+      <c r="AA61" s="38" t="n">
+        <v>7412.200000000001</v>
+      </c>
+      <c r="AB61" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC61" s="40">
+        <f>IF(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD61" s="36" t="n"/>
+      <c r="AE61" s="41" t="n"/>
     </row>
     <row r="62" ht="13" customHeight="1" s="68">
       <c r="A62" s="25" t="n">
-        <v>44228</v>
+        <v>44232</v>
       </c>
       <c r="B62" s="26" t="inlineStr">
         <is>
@@ -5048,91 +4986,91 @@
         </is>
       </c>
       <c r="D62" s="27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E62" s="28" t="n">
-        <v>517.9299999999999</v>
+        <v>512.11</v>
       </c>
       <c r="F62" s="28" t="n">
-        <v>25896.47</v>
+        <v>28165.9</v>
       </c>
       <c r="G62" s="26" t="n"/>
       <c r="H62" s="27" t="n">
-        <v>26.08</v>
+        <v>28.33</v>
       </c>
       <c r="I62" s="27" t="n">
-        <v>154.95</v>
+        <v>168.47</v>
       </c>
       <c r="J62" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K62" s="30">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L62" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M62" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N62" s="32">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O62" s="30">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P62" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R62" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S62" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T62" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U62" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V62" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W62" s="45" t="n"/>
       <c r="X62" s="34" t="n"/>
       <c r="Y62" s="33">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z62" s="34" t="n"/>
       <c r="AA62" s="34" t="n"/>
       <c r="AB62" s="35" t="n"/>
       <c r="AC62" s="31">
-        <f>IF(B30="DIV", F30,"")</f>
+        <f>IF(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD62" s="36" t="n"/>
     </row>
     <row r="63" ht="13" customHeight="1" s="68">
-      <c r="A63" s="42" t="n">
-        <v>44152</v>
+      <c r="A63" s="25" t="n">
+        <v>44228</v>
       </c>
       <c r="B63" s="26" t="inlineStr">
         <is>
@@ -5141,106 +5079,95 @@
       </c>
       <c r="C63" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D63" s="27" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E63" s="28" t="n">
-        <v>487.94</v>
+        <v>517.9299999999999</v>
       </c>
       <c r="F63" s="28" t="n">
-        <v>2439.72</v>
+        <v>25896.47</v>
       </c>
       <c r="G63" s="26" t="n"/>
       <c r="H63" s="27" t="n">
-        <v>1.97</v>
+        <v>26.08</v>
       </c>
       <c r="I63" s="27" t="n">
-        <v>14.75</v>
+        <v>154.95</v>
       </c>
       <c r="J63" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K63" s="30">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L63" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M63" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N63" s="32">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O63" s="30">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P63" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R63" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S63" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T63" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U63" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V63" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
-        <v/>
-      </c>
-      <c r="W63" s="43" t="n">
-        <v>508.531818</v>
-      </c>
-      <c r="X63" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y63" s="37">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
-        <v/>
-      </c>
-      <c r="Z63" s="38" t="n">
-        <v>-763.4598</v>
-      </c>
-      <c r="AA63" s="38" t="n">
-        <v>774.3</v>
-      </c>
-      <c r="AB63" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC63" s="40">
-        <f>IF(B31="DIV", F31,"")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W63" s="45" t="n"/>
+      <c r="X63" s="34" t="n"/>
+      <c r="Y63" s="33">
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z63" s="34" t="n"/>
+      <c r="AA63" s="34" t="n"/>
+      <c r="AB63" s="35" t="n"/>
+      <c r="AC63" s="31">
+        <f>IF(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD63" s="36" t="n"/>
-      <c r="AE63" s="41" t="n"/>
     </row>
     <row r="64" ht="13" customHeight="1" s="68">
       <c r="A64" s="42" t="n">
-        <v>44089</v>
+        <v>44152</v>
       </c>
       <c r="B64" s="26" t="inlineStr">
         <is>
@@ -5249,200 +5176,207 @@
       </c>
       <c r="C64" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D64" s="27" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E64" s="28" t="n">
-        <v>536.5700000000001</v>
+        <v>487.94</v>
       </c>
       <c r="F64" s="28" t="n">
-        <v>10731.39</v>
+        <v>2439.72</v>
       </c>
       <c r="G64" s="26" t="n"/>
       <c r="H64" s="27" t="n">
-        <v>10.56</v>
+        <v>1.97</v>
       </c>
       <c r="I64" s="27" t="n">
-        <v>65.05</v>
+        <v>14.75</v>
       </c>
       <c r="J64" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K64" s="30">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L64" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M64" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N64" s="32">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O64" s="30">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P64" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R64" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S64" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T64" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U64" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V64" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
-        <v/>
-      </c>
-      <c r="W64" s="45" t="n"/>
-      <c r="X64" s="34" t="n"/>
-      <c r="Y64" s="33">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
-        <v/>
-      </c>
-      <c r="Z64" s="34" t="n"/>
-      <c r="AA64" s="34" t="n"/>
-      <c r="AB64" s="35" t="n"/>
-      <c r="AC64" s="31">
-        <f>IF(B32="DIV", F32,"")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <v/>
+      </c>
+      <c r="W64" s="43" t="n">
+        <v>508.531818</v>
+      </c>
+      <c r="X64" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y64" s="37">
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
+        <v/>
+      </c>
+      <c r="Z64" s="38" t="n">
+        <v>-763.4598</v>
+      </c>
+      <c r="AA64" s="38" t="n">
+        <v>774.3</v>
+      </c>
+      <c r="AB64" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="40">
+        <f>IF(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD64" s="36" t="n"/>
+      <c r="AE64" s="41" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1" s="68">
       <c r="A65" s="42" t="n">
-        <v>44063</v>
+        <v>44089</v>
       </c>
       <c r="B65" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C65" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D65" s="27" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E65" s="28" t="n">
-        <v>0.09</v>
+        <v>536.5700000000001</v>
       </c>
       <c r="F65" s="28" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="G65" s="26" t="inlineStr">
-        <is>
-          <t>Dividend of Rs.0.0925/- per share on 20-AUG-2020 Final-Dividend of Rs.0.1000/- per share on Ex-Date: 20-AUG-2020</t>
-        </is>
-      </c>
+        <v>10731.39</v>
+      </c>
+      <c r="G65" s="26" t="n"/>
       <c r="H65" s="27" t="n">
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="I65" s="27" t="n">
-        <v>0</v>
+        <v>65.05</v>
       </c>
       <c r="J65" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K65" s="30">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L65" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M65" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N65" s="32">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O65" s="30">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P65" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R65" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S65" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T65" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U65" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V65" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W65" s="45" t="n"/>
       <c r="X65" s="34" t="n"/>
       <c r="Y65" s="33">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z65" s="34" t="n"/>
       <c r="AA65" s="34" t="n"/>
       <c r="AB65" s="35" t="n"/>
       <c r="AC65" s="31">
-        <f>IF(B33="DIV", F33,"")</f>
+        <f>IF(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD65" s="36" t="n"/>
     </row>
     <row r="66" ht="13" customHeight="1" s="68">
       <c r="A66" s="42" t="n">
-        <v>44043</v>
+        <v>44063</v>
       </c>
       <c r="B66" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C66" s="26" t="inlineStr">
@@ -5451,102 +5385,95 @@
         </is>
       </c>
       <c r="D66" s="27" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E66" s="28" t="n">
-        <v>453.3</v>
+        <v>0.09</v>
       </c>
       <c r="F66" s="28" t="n">
-        <v>4533.01</v>
-      </c>
-      <c r="G66" s="26" t="n"/>
+        <v>11.1</v>
+      </c>
+      <c r="G66" s="26" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.0.0925/- per share on 20-AUG-2020 Final-Dividend of Rs.0.1000/- per share on Ex-Date: 20-AUG-2020</t>
+        </is>
+      </c>
       <c r="H66" s="27" t="n">
-        <v>4.57</v>
+        <v>0</v>
       </c>
       <c r="I66" s="27" t="n">
-        <v>27.44</v>
+        <v>0</v>
       </c>
       <c r="J66" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K66" s="30">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L66" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M66" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N66" s="32">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O66" s="30">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P66" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R66" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S66" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T66" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U66" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V66" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
-        <v/>
-      </c>
-      <c r="W66" s="43" t="n">
-        <v>508.531818</v>
-      </c>
-      <c r="X66" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y66" s="37">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
-        <v/>
-      </c>
-      <c r="Z66" s="38" t="n">
-        <v>-4855.557</v>
-      </c>
-      <c r="AA66" s="38" t="n">
-        <v>4924.5</v>
-      </c>
-      <c r="AB66" s="39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC66" s="40">
-        <f>IF(B34="DIV", F34,"")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="W66" s="45" t="n"/>
+      <c r="X66" s="34" t="n"/>
+      <c r="Y66" s="33">
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <v/>
+      </c>
+      <c r="Z66" s="34" t="n"/>
+      <c r="AA66" s="34" t="n"/>
+      <c r="AB66" s="35" t="n"/>
+      <c r="AC66" s="31">
+        <f>IF(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD66" s="36" t="n"/>
-      <c r="AE66" s="41" t="n"/>
     </row>
     <row r="67" ht="13" customHeight="1" s="68">
       <c r="A67" s="42" t="n">
-        <v>44036</v>
+        <v>44043</v>
       </c>
       <c r="B67" s="26" t="inlineStr">
         <is>
@@ -5559,71 +5486,71 @@
         </is>
       </c>
       <c r="D67" s="27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E67" s="28" t="n">
-        <v>445.3</v>
+        <v>453.3</v>
       </c>
       <c r="F67" s="28" t="n">
-        <v>2226.52</v>
+        <v>4533.01</v>
       </c>
       <c r="G67" s="26" t="n"/>
       <c r="H67" s="27" t="n">
-        <v>2.23</v>
+        <v>4.57</v>
       </c>
       <c r="I67" s="27" t="n">
-        <v>13.29</v>
+        <v>27.44</v>
       </c>
       <c r="J67" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="30">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L67" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M67" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N67" s="32">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O67" s="30">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P67" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R67" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S67" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T67" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U67" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V67" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W67" s="43" t="n">
@@ -5632,28 +5559,29 @@
       <c r="X67" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y67" s="37" t="n">
-        <v>-0.05478210624049307</v>
+      <c r="Y67" s="37">
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
+        <v/>
       </c>
       <c r="Z67" s="38" t="n">
-        <v>1093.769799999999</v>
+        <v>-4855.557</v>
       </c>
       <c r="AA67" s="38" t="n">
-        <v>3799.45</v>
+        <v>4924.5</v>
       </c>
       <c r="AB67" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC67" s="40">
-        <f>IF(B35="DIV", F35,"")</f>
+        <f>IF(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD67" s="36" t="n"/>
       <c r="AE67" s="41" t="n"/>
     </row>
     <row r="68" ht="13" customHeight="1" s="68">
-      <c r="A68" s="46" t="n">
-        <v>43966</v>
+      <c r="A68" s="42" t="n">
+        <v>44036</v>
       </c>
       <c r="B68" s="26" t="inlineStr">
         <is>
@@ -5669,68 +5597,68 @@
         <v>5</v>
       </c>
       <c r="E68" s="28" t="n">
-        <v>425.17</v>
+        <v>445.3</v>
       </c>
       <c r="F68" s="28" t="n">
-        <v>2125.85</v>
+        <v>2226.52</v>
       </c>
       <c r="G68" s="26" t="n"/>
       <c r="H68" s="27" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="I68" s="27" t="n">
-        <v>10.6</v>
+        <v>13.29</v>
       </c>
       <c r="J68" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="30">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="L68" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M68" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N68" s="32">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O68" s="30">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="P68" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R68" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S68" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="T68" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="U68" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V68" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W68" s="43" t="n">
@@ -5740,27 +5668,27 @@
         <v>45565</v>
       </c>
       <c r="Y68" s="37" t="n">
-        <v>-0.8149489326805993</v>
+        <v>-0.05478210624049307</v>
       </c>
       <c r="Z68" s="38" t="n">
-        <v>1118.616999999999</v>
+        <v>1093.769799999999</v>
       </c>
       <c r="AA68" s="38" t="n">
-        <v>716.6640000000002</v>
+        <v>3799.45</v>
       </c>
       <c r="AB68" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC68" s="40">
-        <f>IF(B36="DIV", F36,"")</f>
+        <f>IF(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD68" s="36" t="n"/>
       <c r="AE68" s="41" t="n"/>
     </row>
     <row r="69" ht="13" customHeight="1" s="68">
-      <c r="A69" s="47" t="n">
-        <v>43959</v>
+      <c r="A69" s="46" t="n">
+        <v>43966</v>
       </c>
       <c r="B69" s="26" t="inlineStr">
         <is>
@@ -5773,71 +5701,71 @@
         </is>
       </c>
       <c r="D69" s="27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E69" s="28" t="n">
-        <v>406.67</v>
+        <v>425.17</v>
       </c>
       <c r="F69" s="28" t="n">
-        <v>4066.7</v>
+        <v>2125.85</v>
       </c>
       <c r="G69" s="26" t="n"/>
       <c r="H69" s="27" t="n">
         <v>0</v>
       </c>
       <c r="I69" s="27" t="n">
-        <v>20.2</v>
+        <v>10.6</v>
       </c>
       <c r="J69" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="30">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="L69" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M69" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N69" s="32">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O69" s="30">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="P69" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R69" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S69" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="T69" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="U69" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V69" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W69" s="43" t="n">
@@ -5846,20 +5774,20 @@
       <c r="X69" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y69" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y69" s="37" t="n">
+        <v>-0.8149489326805993</v>
       </c>
       <c r="Z69" s="38" t="n">
-        <v>785.7926999999999</v>
-      </c>
-      <c r="AA69" s="38" t="e">
-        <v>#REF!</v>
+        <v>1118.616999999999</v>
+      </c>
+      <c r="AA69" s="38" t="n">
+        <v>716.6640000000002</v>
       </c>
       <c r="AB69" s="39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC69" s="40">
-        <f>IF(B37="DIV", F37,"")</f>
+        <f>IF(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD69" s="36" t="n"/>
@@ -5867,7 +5795,7 @@
     </row>
     <row r="70" ht="13" customHeight="1" s="68">
       <c r="A70" s="47" t="n">
-        <v>43956</v>
+        <v>43959</v>
       </c>
       <c r="B70" s="26" t="inlineStr">
         <is>
@@ -5883,68 +5811,68 @@
         <v>10</v>
       </c>
       <c r="E70" s="28" t="n">
-        <v>408.43</v>
+        <v>406.67</v>
       </c>
       <c r="F70" s="28" t="n">
-        <v>4084.3</v>
+        <v>4066.7</v>
       </c>
       <c r="G70" s="26" t="n"/>
       <c r="H70" s="27" t="n">
         <v>0</v>
       </c>
       <c r="I70" s="27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="J70" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K70" s="30">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="L70" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M70" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N70" s="32">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O70" s="30">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="P70" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R70" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S70" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="T70" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="U70" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V70" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W70" s="43" t="n">
@@ -5957,24 +5885,24 @@
         <v>#REF!</v>
       </c>
       <c r="Z70" s="38" t="n">
-        <v>476.0013599999997</v>
+        <v>785.7926999999999</v>
       </c>
       <c r="AA70" s="38" t="e">
         <v>#REF!</v>
       </c>
       <c r="AB70" s="39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC70" s="40">
-        <f>IF(B38="DIV", F38,"")</f>
+        <f>IF(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD70" s="36" t="n"/>
       <c r="AE70" s="41" t="n"/>
     </row>
     <row r="71" ht="13" customHeight="1" s="68">
-      <c r="A71" s="42" t="n">
-        <v>43944</v>
+      <c r="A71" s="47" t="n">
+        <v>43956</v>
       </c>
       <c r="B71" s="26" t="inlineStr">
         <is>
@@ -5990,10 +5918,10 @@
         <v>10</v>
       </c>
       <c r="E71" s="28" t="n">
-        <v>408.93</v>
+        <v>408.43</v>
       </c>
       <c r="F71" s="28" t="n">
-        <v>4089.3</v>
+        <v>4084.3</v>
       </c>
       <c r="G71" s="26" t="n"/>
       <c r="H71" s="27" t="n">
@@ -6007,51 +5935,51 @@
         <v/>
       </c>
       <c r="K71" s="30">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="L71" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M71" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N71" s="32">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O71" s="30">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="P71" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R71" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S71" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="T71" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="U71" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V71" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W71" s="43" t="n">
@@ -6060,21 +5988,20 @@
       <c r="X71" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y71" s="37">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
-        <v/>
+      <c r="Y71" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z71" s="38" t="n">
-        <v>-16313.60664</v>
-      </c>
-      <c r="AA71" s="38" t="n">
-        <v>16545.24</v>
+        <v>476.0013599999997</v>
+      </c>
+      <c r="AA71" s="38" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AB71" s="39" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="AC71" s="40">
-        <f>IF(B39="DIV", F39,"")</f>
+        <f>IF(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD71" s="36" t="n"/>
@@ -6082,7 +6009,7 @@
     </row>
     <row r="72" ht="13" customHeight="1" s="68">
       <c r="A72" s="42" t="n">
-        <v>43921</v>
+        <v>43944</v>
       </c>
       <c r="B72" s="26" t="inlineStr">
         <is>
@@ -6098,90 +6025,91 @@
         <v>10</v>
       </c>
       <c r="E72" s="28" t="n">
-        <v>291.69</v>
+        <v>408.93</v>
       </c>
       <c r="F72" s="28" t="n">
-        <v>2916.95</v>
+        <v>4089.3</v>
       </c>
       <c r="G72" s="26" t="n"/>
       <c r="H72" s="27" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="I72" s="27" t="n">
-        <v>17.53</v>
+        <v>20.3</v>
       </c>
       <c r="J72" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K72" s="30">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="L72" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M72" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N72" s="32">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O72" s="30">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="P72" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R72" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S72" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="T72" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="U72" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V72" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W72" s="43" t="n">
-        <v>514.3094</v>
+        <v>508.531818</v>
       </c>
       <c r="X72" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y72" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y72" s="37">
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
+        <v/>
       </c>
       <c r="Z72" s="38" t="n">
-        <v>312.0098399999998</v>
-      </c>
-      <c r="AA72" s="38" t="e">
-        <v>#REF!</v>
+        <v>-16313.60664</v>
+      </c>
+      <c r="AA72" s="38" t="n">
+        <v>16545.24</v>
       </c>
       <c r="AB72" s="39" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="AC72" s="40">
-        <f>IF(B40="DIV", F40,"")</f>
+        <f>IF(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD72" s="36" t="n"/>
@@ -6189,7 +6117,7 @@
     </row>
     <row r="73" ht="13" customHeight="1" s="68">
       <c r="A73" s="42" t="n">
-        <v>43909</v>
+        <v>43921</v>
       </c>
       <c r="B73" s="26" t="inlineStr">
         <is>
@@ -6205,68 +6133,68 @@
         <v>10</v>
       </c>
       <c r="E73" s="28" t="n">
-        <v>287.77</v>
+        <v>291.69</v>
       </c>
       <c r="F73" s="28" t="n">
-        <v>2877.67</v>
+        <v>2916.95</v>
       </c>
       <c r="G73" s="26" t="n"/>
       <c r="H73" s="27" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="I73" s="27" t="n">
-        <v>17.29</v>
+        <v>17.53</v>
       </c>
       <c r="J73" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K73" s="30">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="L73" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M73" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N73" s="32">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O73" s="30">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="P73" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R73" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S73" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="T73" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="U73" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V73" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W73" s="43" t="n">
@@ -6279,16 +6207,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z73" s="38" t="n">
-        <v>676.5931999999998</v>
+        <v>312.0098399999998</v>
       </c>
       <c r="AA73" s="38" t="e">
         <v>#REF!</v>
       </c>
       <c r="AB73" s="39" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC73" s="40">
-        <f>IF(B41="DIV", F41,"")</f>
+        <f>IF(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD73" s="36" t="n"/>
@@ -6296,7 +6224,7 @@
     </row>
     <row r="74" ht="13" customHeight="1" s="68">
       <c r="A74" s="42" t="n">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="B74" s="26" t="inlineStr">
         <is>
@@ -6312,68 +6240,68 @@
         <v>10</v>
       </c>
       <c r="E74" s="28" t="n">
-        <v>310.27</v>
+        <v>287.77</v>
       </c>
       <c r="F74" s="28" t="n">
-        <v>3102.71</v>
+        <v>2877.67</v>
       </c>
       <c r="G74" s="26" t="n"/>
       <c r="H74" s="27" t="n">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="I74" s="27" t="n">
-        <v>18.53</v>
+        <v>17.29</v>
       </c>
       <c r="J74" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K74" s="30">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="L74" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M74" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N74" s="32">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O74" s="30">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="P74" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R74" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S74" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="T74" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="U74" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V74" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W74" s="43" t="n">
@@ -6386,16 +6314,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z74" s="38" t="n">
-        <v>394.4492999999997</v>
+        <v>676.5931999999998</v>
       </c>
       <c r="AA74" s="38" t="e">
         <v>#REF!</v>
       </c>
       <c r="AB74" s="39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC74" s="40">
-        <f>IF(B42="DIV", F42,"")</f>
+        <f>IF(B41="DIV", F41,"")</f>
         <v/>
       </c>
       <c r="AD74" s="36" t="n"/>
@@ -6403,7 +6331,7 @@
     </row>
     <row r="75" ht="13" customHeight="1" s="68">
       <c r="A75" s="42" t="n">
-        <v>43901</v>
+        <v>43906</v>
       </c>
       <c r="B75" s="26" t="inlineStr">
         <is>
@@ -6419,68 +6347,68 @@
         <v>10</v>
       </c>
       <c r="E75" s="28" t="n">
-        <v>365.5</v>
+        <v>310.27</v>
       </c>
       <c r="F75" s="28" t="n">
-        <v>3654.96</v>
+        <v>3102.71</v>
       </c>
       <c r="G75" s="26" t="n"/>
       <c r="H75" s="27" t="n">
-        <v>3.63</v>
+        <v>3.18</v>
       </c>
       <c r="I75" s="27" t="n">
-        <v>21.83</v>
+        <v>18.53</v>
       </c>
       <c r="J75" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K75" s="30">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="L75" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M75" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N75" s="32">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O75" s="30">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="P75" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R75" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S75" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="T75" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="U75" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V75" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W75" s="43" t="n">
@@ -6489,29 +6417,28 @@
       <c r="X75" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y75" s="37">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
-        <v/>
+      <c r="Y75" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z75" s="38" t="n">
-        <v>-61.625</v>
-      </c>
-      <c r="AA75" s="38" t="n">
-        <v>62.5</v>
+        <v>394.4492999999997</v>
+      </c>
+      <c r="AA75" s="38" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AB75" s="39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC75" s="40">
-        <f>IF(B43="DIV", F43,"")</f>
+        <f>IF(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD75" s="36" t="n"/>
       <c r="AE75" s="41" t="n"/>
     </row>
     <row r="76" ht="13" customHeight="1" s="68">
-      <c r="A76" s="25" t="n">
-        <v>43896</v>
+      <c r="A76" s="42" t="n">
+        <v>43901</v>
       </c>
       <c r="B76" s="26" t="inlineStr">
         <is>
@@ -6527,68 +6454,68 @@
         <v>10</v>
       </c>
       <c r="E76" s="28" t="n">
-        <v>396.6</v>
+        <v>365.5</v>
       </c>
       <c r="F76" s="28" t="n">
-        <v>3965.97</v>
+        <v>3654.96</v>
       </c>
       <c r="G76" s="26" t="n"/>
       <c r="H76" s="27" t="n">
-        <v>3.99</v>
+        <v>3.63</v>
       </c>
       <c r="I76" s="27" t="n">
-        <v>23.68</v>
+        <v>21.83</v>
       </c>
       <c r="J76" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K76" s="30">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="L76" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M76" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N76" s="32">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O76" s="30">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="P76" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R76" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S76" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="T76" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="U76" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V76" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W76" s="43" t="n">
@@ -6598,20 +6525,20 @@
         <v>45565</v>
       </c>
       <c r="Y76" s="37">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z76" s="38" t="n">
-        <v>-160.225</v>
+        <v>-61.625</v>
       </c>
       <c r="AA76" s="38" t="n">
-        <v>162.5</v>
+        <v>62.5</v>
       </c>
       <c r="AB76" s="39" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AC76" s="40">
-        <f>IF(B44="DIV", F44,"")</f>
+        <f>IF(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD76" s="36" t="n"/>
@@ -6619,7 +6546,7 @@
     </row>
     <row r="77" ht="13" customHeight="1" s="68">
       <c r="A77" s="25" t="n">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B77" s="26" t="inlineStr">
         <is>
@@ -6635,90 +6562,91 @@
         <v>10</v>
       </c>
       <c r="E77" s="28" t="n">
-        <v>420.94</v>
+        <v>396.6</v>
       </c>
       <c r="F77" s="28" t="n">
-        <v>4209.36</v>
+        <v>3965.97</v>
       </c>
       <c r="G77" s="26" t="n"/>
       <c r="H77" s="27" t="n">
-        <v>4.16</v>
+        <v>3.99</v>
       </c>
       <c r="I77" s="27" t="n">
-        <v>25.2</v>
+        <v>23.68</v>
       </c>
       <c r="J77" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K77" s="30">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="L77" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M77" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N77" s="32">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O77" s="30">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="P77" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R77" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S77" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="T77" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="U77" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V77" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W77" s="43" t="n">
-        <v>532.7895</v>
+        <v>514.3094</v>
       </c>
       <c r="X77" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y77" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y77" s="37">
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <v/>
       </c>
       <c r="Z77" s="38" t="n">
-        <v>203.479723568</v>
-      </c>
-      <c r="AA77" s="38" t="e">
-        <v>#REF!</v>
+        <v>-160.225</v>
+      </c>
+      <c r="AA77" s="38" t="n">
+        <v>162.5</v>
       </c>
       <c r="AB77" s="39" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="AC77" s="40">
-        <f>IF(B45="DIV", F45,"")</f>
+        <f>IF(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD77" s="36" t="n"/>
@@ -6730,7 +6658,7 @@
       </c>
       <c r="B78" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C78" s="26" t="inlineStr">
@@ -6742,95 +6670,102 @@
         <v>10</v>
       </c>
       <c r="E78" s="28" t="n">
-        <v>5</v>
+        <v>420.94</v>
       </c>
       <c r="F78" s="28" t="n">
-        <v>50</v>
-      </c>
-      <c r="G78" s="26" t="inlineStr">
-        <is>
-          <t>Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 05-MAR-2020</t>
-        </is>
-      </c>
+        <v>4209.36</v>
+      </c>
+      <c r="G78" s="26" t="n"/>
       <c r="H78" s="27" t="n">
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="I78" s="27" t="n">
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="J78" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K78" s="30">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="L78" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M78" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N78" s="32">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O78" s="30">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="P78" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R78" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S78" s="33">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="T78" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="U78" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V78" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
-        <v/>
-      </c>
-      <c r="W78" s="45" t="n"/>
-      <c r="X78" s="34" t="n"/>
-      <c r="Y78" s="33" t="e">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <v/>
+      </c>
+      <c r="W78" s="43" t="n">
+        <v>532.7895</v>
+      </c>
+      <c r="X78" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y78" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z78" s="34" t="n"/>
-      <c r="AA78" s="34" t="n"/>
-      <c r="AB78" s="35" t="n"/>
-      <c r="AC78" s="31">
-        <f>IF(B46="DIV", F46,"")</f>
+      <c r="Z78" s="38" t="n">
+        <v>203.479723568</v>
+      </c>
+      <c r="AA78" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB78" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC78" s="40">
+        <f>IF(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD78" s="36" t="n"/>
+      <c r="AE78" s="41" t="n"/>
     </row>
     <row r="79" ht="13" customHeight="1" s="68">
       <c r="A79" s="25" t="n">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="B79" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C79" s="26" t="inlineStr">
@@ -6839,101 +6774,94 @@
         </is>
       </c>
       <c r="D79" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="E79" s="28" t="n">
-        <v>481.4</v>
-      </c>
       <c r="F79" s="28" t="n">
-        <v>2407.02</v>
-      </c>
-      <c r="G79" s="26" t="n"/>
+        <v>50</v>
+      </c>
+      <c r="G79" s="26" t="inlineStr">
+        <is>
+          <t>Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 05-MAR-2020</t>
+        </is>
+      </c>
       <c r="H79" s="27" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="I79" s="27" t="n">
-        <v>14.38</v>
+        <v>0</v>
       </c>
       <c r="J79" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K79" s="30">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="L79" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M79" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N79" s="32">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O79" s="30">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="P79" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R79" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S79" s="33">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="T79" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="U79" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V79" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
-        <v/>
-      </c>
-      <c r="W79" s="43" t="n">
-        <v>532.7895</v>
-      </c>
-      <c r="X79" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y79" s="37" t="e">
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <v/>
+      </c>
+      <c r="W79" s="45" t="n"/>
+      <c r="X79" s="34" t="n"/>
+      <c r="Y79" s="33" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z79" s="38" t="n">
-        <v>182.1185817840001</v>
-      </c>
-      <c r="AA79" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB79" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC79" s="40">
-        <f>IF(B47="DIV", F47,"")</f>
+      <c r="Z79" s="34" t="n"/>
+      <c r="AA79" s="34" t="n"/>
+      <c r="AB79" s="35" t="n"/>
+      <c r="AC79" s="31">
+        <f>IF(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD79" s="36" t="n"/>
-      <c r="AE79" s="41" t="n"/>
     </row>
     <row r="80" ht="13" customHeight="1" s="68">
       <c r="A80" s="25" t="n">
-        <v>43831</v>
+        <v>43892</v>
       </c>
       <c r="B80" s="26" t="inlineStr">
         <is>
@@ -6942,94 +6870,105 @@
       </c>
       <c r="C80" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D80" s="27" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E80" s="28" t="n">
-        <v>596.83</v>
+        <v>481.4</v>
       </c>
       <c r="F80" s="28" t="n">
-        <v>14920.76</v>
+        <v>2407.02</v>
       </c>
       <c r="G80" s="26" t="n"/>
       <c r="H80" s="27" t="n">
-        <v>15.11</v>
+        <v>2.39</v>
       </c>
       <c r="I80" s="27" t="n">
-        <v>90.38</v>
+        <v>14.38</v>
       </c>
       <c r="J80" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K80" s="30">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="L80" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M80" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N80" s="32">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O80" s="30">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="P80" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R80" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S80" s="33">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="T80" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="U80" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V80" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
-        <v/>
-      </c>
-      <c r="W80" s="45" t="n"/>
-      <c r="X80" s="34" t="n"/>
-      <c r="Y80" s="33" t="e">
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <v/>
+      </c>
+      <c r="W80" s="43" t="n">
+        <v>532.7895</v>
+      </c>
+      <c r="X80" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y80" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z80" s="34" t="n"/>
-      <c r="AA80" s="34" t="n"/>
-      <c r="AB80" s="35" t="n"/>
-      <c r="AC80" s="31">
-        <f>IF(B48="DIV", F48,"")</f>
+      <c r="Z80" s="38" t="n">
+        <v>182.1185817840001</v>
+      </c>
+      <c r="AA80" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB80" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC80" s="40">
+        <f>IF(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD80" s="36" t="n"/>
+      <c r="AE80" s="41" t="n"/>
     </row>
     <row r="81" ht="13" customHeight="1" s="68">
       <c r="A81" s="25" t="n">
-        <v>43823</v>
+        <v>43831</v>
       </c>
       <c r="B81" s="26" t="inlineStr">
         <is>
@@ -7042,71 +6981,71 @@
         </is>
       </c>
       <c r="D81" s="27" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E81" s="28" t="n">
-        <v>581.38</v>
+        <v>596.83</v>
       </c>
       <c r="F81" s="28" t="n">
-        <v>11627.69</v>
+        <v>14920.76</v>
       </c>
       <c r="G81" s="26" t="n"/>
       <c r="H81" s="27" t="n">
-        <v>11.74</v>
+        <v>15.11</v>
       </c>
       <c r="I81" s="27" t="n">
-        <v>70.56999999999999</v>
+        <v>90.38</v>
       </c>
       <c r="J81" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K81" s="30">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="L81" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M81" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N81" s="32">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O81" s="30">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="P81" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R81" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S81" s="33">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="T81" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="U81" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V81" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W81" s="45" t="n"/>
@@ -7118,14 +7057,14 @@
       <c r="AA81" s="34" t="n"/>
       <c r="AB81" s="35" t="n"/>
       <c r="AC81" s="31">
-        <f>IF(B49="DIV", F49,"")</f>
+        <f>IF(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD81" s="36" t="n"/>
     </row>
     <row r="82" ht="13" customHeight="1" s="68">
       <c r="A82" s="25" t="n">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="B82" s="26" t="inlineStr">
         <is>
@@ -7141,68 +7080,68 @@
         <v>20</v>
       </c>
       <c r="E82" s="28" t="n">
-        <v>580.9665</v>
+        <v>581.38</v>
       </c>
       <c r="F82" s="28" t="n">
-        <v>11702.13</v>
+        <v>11627.69</v>
       </c>
       <c r="G82" s="26" t="n"/>
       <c r="H82" s="27" t="n">
-        <v>11.88</v>
+        <v>11.74</v>
       </c>
       <c r="I82" s="27" t="n">
-        <v>70.98999999999999</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="J82" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K82" s="30">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="L82" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M82" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N82" s="32">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O82" s="30">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="P82" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R82" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S82" s="33">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="T82" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="U82" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V82" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W82" s="45" t="n"/>
@@ -7214,14 +7153,14 @@
       <c r="AA82" s="34" t="n"/>
       <c r="AB82" s="35" t="n"/>
       <c r="AC82" s="31">
-        <f>IF(B50="DIV", F50,"")</f>
+        <f>IF(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD82" s="36" t="n"/>
     </row>
     <row r="83" ht="13" customHeight="1" s="68">
       <c r="A83" s="25" t="n">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="B83" s="26" t="inlineStr">
         <is>
@@ -7234,90 +7173,90 @@
         </is>
       </c>
       <c r="D83" s="27" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E83" s="28" t="n">
-        <v>570.971</v>
+        <v>580.9665</v>
       </c>
       <c r="F83" s="28" t="n">
-        <v>17251.48</v>
+        <v>11702.13</v>
       </c>
       <c r="G83" s="26" t="n"/>
       <c r="H83" s="27" t="n">
-        <v>17.54</v>
+        <v>11.88</v>
       </c>
       <c r="I83" s="27" t="n">
-        <v>104.83</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="J83" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K83" s="30">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="L83" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M83" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N83" s="32">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O83" s="30">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="P83" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R83" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S83" s="33">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="T83" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="U83" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V83" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W83" s="45" t="n"/>
       <c r="X83" s="34" t="n"/>
-      <c r="Y83" s="33" t="n">
-        <v>-1.857335434191466</v>
+      <c r="Y83" s="33" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z83" s="34" t="n"/>
       <c r="AA83" s="34" t="n"/>
       <c r="AB83" s="35" t="n"/>
       <c r="AC83" s="31">
-        <f>IF(B51="DIV", F51,"")</f>
+        <f>IF(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD83" s="36" t="n"/>
     </row>
     <row r="84" ht="13" customHeight="1" s="68">
       <c r="A84" s="25" t="n">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="B84" s="26" t="inlineStr">
         <is>
@@ -7326,102 +7265,90 @@
       </c>
       <c r="C84" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D84" s="27" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E84" s="28" t="n">
-        <v>581.792</v>
+        <v>570.971</v>
       </c>
       <c r="F84" s="28" t="n">
-        <v>2914.03</v>
+        <v>17251.48</v>
       </c>
       <c r="G84" s="26" t="n"/>
       <c r="H84" s="27" t="n">
-        <v>2.155</v>
+        <v>17.54</v>
       </c>
       <c r="I84" s="27" t="n">
-        <v>2.925</v>
+        <v>104.83</v>
       </c>
       <c r="J84" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K84" s="30">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="L84" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M84" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N84" s="32">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O84" s="30">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="P84" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R84" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S84" s="33">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="T84" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="U84" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V84" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
-        <v/>
-      </c>
-      <c r="W84" s="43" t="n">
-        <v>532.7895</v>
-      </c>
-      <c r="X84" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y84" s="37">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
-        <v/>
-      </c>
-      <c r="Z84" s="38" t="n">
-        <v>-27771.7253</v>
-      </c>
-      <c r="AA84" s="38" t="n">
-        <v>28166.05</v>
-      </c>
-      <c r="AB84" s="39" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC84" s="40">
-        <f>IF(B52="DIV", F52,"")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <v/>
+      </c>
+      <c r="W84" s="45" t="n"/>
+      <c r="X84" s="34" t="n"/>
+      <c r="Y84" s="33" t="n">
+        <v>-1.857335434191466</v>
+      </c>
+      <c r="Z84" s="34" t="n"/>
+      <c r="AA84" s="34" t="n"/>
+      <c r="AB84" s="35" t="n"/>
+      <c r="AC84" s="31">
+        <f>IF(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD84" s="36" t="n"/>
-      <c r="AE84" s="41" t="n"/>
     </row>
     <row r="85" ht="13" customHeight="1" s="68">
       <c r="A85" s="25" t="n">
@@ -7458,74 +7385,74 @@
         <v/>
       </c>
       <c r="K85" s="30">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="L85" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M85" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N85" s="32">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O85" s="30">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="P85" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R85" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S85" s="33">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="T85" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="U85" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V85" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W85" s="43" t="n">
-        <v>574.903</v>
+        <v>532.7895</v>
       </c>
       <c r="X85" s="44" t="n">
         <v>45565</v>
       </c>
       <c r="Y85" s="37">
-        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="Z85" s="38" t="n">
-        <v>-25533.949</v>
+        <v>-27771.7253</v>
       </c>
       <c r="AA85" s="38" t="n">
-        <v>25896.5</v>
+        <v>28166.05</v>
       </c>
       <c r="AB85" s="39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC85" s="40">
-        <f>IF(B53="DIV", F53,"")</f>
+        <f>IF(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD85" s="36" t="n"/>
@@ -7542,94 +7469,106 @@
       </c>
       <c r="C86" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D86" s="27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E86" s="28" t="n">
-        <v>574.903</v>
+        <v>581.792</v>
       </c>
       <c r="F86" s="28" t="n">
-        <v>5759.03</v>
+        <v>2914.03</v>
       </c>
       <c r="G86" s="26" t="n"/>
       <c r="H86" s="27" t="n">
-        <v>4.27</v>
+        <v>2.155</v>
       </c>
       <c r="I86" s="27" t="n">
-        <v>5.7</v>
+        <v>2.925</v>
       </c>
       <c r="J86" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K86" s="30">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="L86" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M86" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N86" s="32">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O86" s="30">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="P86" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q86" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R86" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S86" s="33">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="T86" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="U86" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V86" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
-        <v/>
-      </c>
-      <c r="W86" s="45" t="n"/>
-      <c r="X86" s="34" t="n"/>
-      <c r="Y86" s="33" t="n">
-        <v>-0.3107992867727281</v>
-      </c>
-      <c r="Z86" s="34" t="n"/>
-      <c r="AA86" s="34" t="n"/>
-      <c r="AB86" s="35" t="n"/>
-      <c r="AC86" s="31">
-        <f>IF(B54="DIV", F54,"")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <v/>
+      </c>
+      <c r="W86" s="43" t="n">
+        <v>574.903</v>
+      </c>
+      <c r="X86" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y86" s="37">
+        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
+        <v/>
+      </c>
+      <c r="Z86" s="38" t="n">
+        <v>-25533.949</v>
+      </c>
+      <c r="AA86" s="38" t="n">
+        <v>25896.5</v>
+      </c>
+      <c r="AB86" s="39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC86" s="40">
+        <f>IF(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD86" s="36" t="n"/>
+      <c r="AE86" s="41" t="n"/>
     </row>
     <row r="87" ht="13" customHeight="1" s="68">
       <c r="A87" s="25" t="n">
-        <v>43812</v>
+        <v>43818</v>
       </c>
       <c r="B87" s="26" t="inlineStr">
         <is>
@@ -7642,91 +7581,90 @@
         </is>
       </c>
       <c r="D87" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E87" s="28" t="n">
-        <v>508.1195</v>
+        <v>574.903</v>
       </c>
       <c r="F87" s="28" t="n">
-        <v>10232.19</v>
+        <v>5759.03</v>
       </c>
       <c r="G87" s="26" t="n"/>
       <c r="H87" s="27" t="n">
-        <v>7.82</v>
+        <v>4.27</v>
       </c>
       <c r="I87" s="27" t="n">
-        <v>61.99</v>
+        <v>5.7</v>
       </c>
       <c r="J87" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K87" s="30">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="L87" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="M87" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
         <v/>
       </c>
       <c r="N87" s="32">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
         <v/>
       </c>
       <c r="O87" s="30">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="P87" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
         <v/>
       </c>
       <c r="R87" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="S87" s="33">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="T87" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="U87" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
         <v/>
       </c>
       <c r="V87" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="W87" s="45" t="n"/>
       <c r="X87" s="34" t="n"/>
-      <c r="Y87" s="33">
-        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
-        <v/>
+      <c r="Y87" s="33" t="n">
+        <v>-0.3107992867727281</v>
       </c>
       <c r="Z87" s="34" t="n"/>
       <c r="AA87" s="34" t="n"/>
       <c r="AB87" s="35" t="n"/>
       <c r="AC87" s="31">
-        <f>IF(B55="DIV", F55,"")</f>
+        <f>IF(B54="DIV", F54,"")</f>
         <v/>
       </c>
       <c r="AD87" s="36" t="n"/>
     </row>
     <row r="88" ht="13" customHeight="1" s="68">
       <c r="A88" s="25" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="B88" s="26" t="inlineStr">
         <is>
@@ -7739,91 +7677,91 @@
         </is>
       </c>
       <c r="D88" s="27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E88" s="28" t="n">
-        <v>501.9024</v>
+        <v>508.1195</v>
       </c>
       <c r="F88" s="28" t="n">
-        <v>12633.31</v>
+        <v>10232.19</v>
       </c>
       <c r="G88" s="26" t="n"/>
       <c r="H88" s="27" t="n">
-        <v>9.279999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="I88" s="27" t="n">
-        <v>76.41</v>
+        <v>61.99</v>
       </c>
       <c r="J88" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K88" s="30">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), L56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="L88" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="M88" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
         <v/>
       </c>
       <c r="N88" s="32">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
         <v/>
       </c>
       <c r="O88" s="30">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), P56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="P88" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
         <v/>
       </c>
       <c r="R88" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="S88" s="33">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), T56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="T88" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="U88" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
         <v/>
       </c>
       <c r="V88" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="W88" s="45" t="n"/>
       <c r="X88" s="34" t="n"/>
       <c r="Y88" s="33">
-        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="Z88" s="34" t="n"/>
       <c r="AA88" s="34" t="n"/>
       <c r="AB88" s="35" t="n"/>
       <c r="AC88" s="31">
-        <f>IF(B56="DIV", F56,"")</f>
+        <f>IF(B55="DIV", F55,"")</f>
         <v/>
       </c>
       <c r="AD88" s="36" t="n"/>
     </row>
     <row r="89" ht="13" customHeight="1" s="68">
       <c r="A89" s="25" t="n">
-        <v>43803</v>
+        <v>43811</v>
       </c>
       <c r="B89" s="26" t="inlineStr">
         <is>
@@ -7836,194 +7774,191 @@
         </is>
       </c>
       <c r="D89" s="27" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E89" s="28" t="n">
-        <v>511.707333</v>
+        <v>501.9024</v>
       </c>
       <c r="F89" s="28" t="n">
-        <v>15458.32</v>
+        <v>12633.31</v>
       </c>
       <c r="G89" s="26" t="n"/>
       <c r="H89" s="27" t="n">
-        <v>13.78</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="I89" s="27" t="n">
-        <v>93.40000000000001</v>
+        <v>76.41</v>
       </c>
       <c r="J89" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K89" s="30">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), L57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), L56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="L89" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M89" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N89" s="32">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O89" s="30">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), P57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), P56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="P89" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q89" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R89" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S89" s="33">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), T57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), T56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="T89" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="U89" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V89" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="W89" s="45" t="n"/>
       <c r="X89" s="34" t="n"/>
-      <c r="Y89" s="33" t="n">
-        <v>-1.063644189948785</v>
+      <c r="Y89" s="33">
+        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
+        <v/>
       </c>
       <c r="Z89" s="34" t="n"/>
       <c r="AA89" s="34" t="n"/>
       <c r="AB89" s="35" t="n"/>
       <c r="AC89" s="31">
-        <f>IF(B57="DIV", F57,"")</f>
+        <f>IF(B56="DIV", F56,"")</f>
         <v/>
       </c>
       <c r="AD89" s="36" t="n"/>
     </row>
     <row r="90" ht="13" customHeight="1" s="68">
       <c r="A90" s="25" t="n">
-        <v>43676</v>
+        <v>43803</v>
       </c>
       <c r="B90" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C90" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D90" s="27" t="n">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="E90" s="28" t="n">
-        <v>4</v>
+        <v>511.707333</v>
       </c>
       <c r="F90" s="28" t="n">
-        <v>700</v>
-      </c>
-      <c r="G90" s="26" t="inlineStr">
-        <is>
-          <t>Dividend of Rs.4.0000/- per share on 30-JUL-2019</t>
-        </is>
-      </c>
+        <v>15458.32</v>
+      </c>
+      <c r="G90" s="26" t="n"/>
       <c r="H90" s="27" t="n">
-        <v>0</v>
+        <v>13.78</v>
       </c>
       <c r="I90" s="27" t="n">
-        <v>0</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="J90" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K90" s="30">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), L58/SUM(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), L57/SUM(F57:I57), "")</f>
         <v/>
       </c>
       <c r="L90" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="M90" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
         <v/>
       </c>
       <c r="N90" s="32">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
         <v/>
       </c>
       <c r="O90" s="30">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), P58/SUM(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), P57/SUM(F57:I57), "")</f>
         <v/>
       </c>
       <c r="P90" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="Q90" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
         <v/>
       </c>
       <c r="R90" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="S90" s="33">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), T58/SUM(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), T57/SUM(F57:I57), "")</f>
         <v/>
       </c>
       <c r="T90" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="U90" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
         <v/>
       </c>
       <c r="V90" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="W90" s="45" t="n"/>
       <c r="X90" s="34" t="n"/>
       <c r="Y90" s="33" t="n">
-        <v>0.4878458011453852</v>
+        <v>-1.063644189948785</v>
       </c>
       <c r="Z90" s="34" t="n"/>
       <c r="AA90" s="34" t="n"/>
       <c r="AB90" s="35" t="n"/>
       <c r="AC90" s="31">
-        <f>IF(B58="DIV", F58,"")</f>
+        <f>IF(B57="DIV", F57,"")</f>
         <v/>
       </c>
       <c r="AD90" s="36" t="n"/>
     </row>
     <row r="91" ht="13" customHeight="1" s="68">
       <c r="A91" s="25" t="n">
-        <v>43647</v>
+        <v>43676</v>
       </c>
       <c r="B91" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C91" s="26" t="inlineStr">
@@ -8032,101 +7967,94 @@
         </is>
       </c>
       <c r="D91" s="27" t="n">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="E91" s="28" t="n">
-        <v>351.349</v>
+        <v>4</v>
       </c>
       <c r="F91" s="28" t="n">
-        <v>3538.41</v>
-      </c>
-      <c r="G91" s="26" t="n"/>
+        <v>700</v>
+      </c>
+      <c r="G91" s="26" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.4.0000/- per share on 30-JUL-2019</t>
+        </is>
+      </c>
       <c r="H91" s="27" t="n">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="I91" s="27" t="n">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="J91" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K91" s="30">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), L59/SUM(F59:I59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), L58/SUM(F58:I58), "")</f>
         <v/>
       </c>
       <c r="L91" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="M91" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
         <v/>
       </c>
       <c r="N91" s="32">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
         <v/>
       </c>
       <c r="O91" s="30">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), P59/SUM(F59:I59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), P58/SUM(F58:I58), "")</f>
         <v/>
       </c>
       <c r="P91" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="Q91" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
         <v/>
       </c>
       <c r="R91" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="S91" s="33">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), T59/SUM(F59:I59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), T58/SUM(F58:I58), "")</f>
         <v/>
       </c>
       <c r="T91" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="U91" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
         <v/>
       </c>
       <c r="V91" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
-        <v/>
-      </c>
-      <c r="W91" s="43" t="n">
-        <v>574.903</v>
-      </c>
-      <c r="X91" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y91" s="37" t="n">
-        <v>0.5235867911722714</v>
-      </c>
-      <c r="Z91" s="38" t="n">
-        <v>410.9737627400002</v>
-      </c>
-      <c r="AA91" s="38" t="n">
-        <v>3244.466999999999</v>
-      </c>
-      <c r="AB91" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC91" s="40">
-        <f>IF(B59="DIV", F59,"")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <v/>
+      </c>
+      <c r="W91" s="45" t="n"/>
+      <c r="X91" s="34" t="n"/>
+      <c r="Y91" s="33" t="n">
+        <v>0.4878458011453852</v>
+      </c>
+      <c r="Z91" s="34" t="n"/>
+      <c r="AA91" s="34" t="n"/>
+      <c r="AB91" s="35" t="n"/>
+      <c r="AC91" s="31">
+        <f>IF(B58="DIV", F58,"")</f>
         <v/>
       </c>
       <c r="AD91" s="36" t="n"/>
-      <c r="AE91" s="41" t="n"/>
     </row>
     <row r="92" ht="13" customHeight="1" s="68">
       <c r="A92" s="25" t="n">
-        <v>43382</v>
+        <v>43647</v>
       </c>
       <c r="B92" s="26" t="inlineStr">
         <is>
@@ -8142,68 +8070,68 @@
         <v>10</v>
       </c>
       <c r="E92" s="28" t="n">
-        <v>370.404</v>
+        <v>351.349</v>
       </c>
       <c r="F92" s="28" t="n">
-        <v>3730.06</v>
+        <v>3538.41</v>
       </c>
       <c r="G92" s="26" t="n"/>
       <c r="H92" s="27" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="I92" s="27" t="n">
-        <v>22.38</v>
+        <v>21.4</v>
       </c>
       <c r="J92" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K92" s="30">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), L60/SUM(F60:I60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), L59/SUM(F59:I59), "")</f>
         <v/>
       </c>
       <c r="L92" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="M92" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
         <v/>
       </c>
       <c r="N92" s="32">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
         <v/>
       </c>
       <c r="O92" s="30">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), P60/SUM(F60:I60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), P59/SUM(F59:I59), "")</f>
         <v/>
       </c>
       <c r="P92" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="Q92" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
         <v/>
       </c>
       <c r="R92" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
         <v/>
       </c>
       <c r="S92" s="33">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), T60/SUM(F60:I60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), T59/SUM(F59:I59), "")</f>
         <v/>
       </c>
       <c r="T92" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="U92" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
         <v/>
       </c>
       <c r="V92" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
         <v/>
       </c>
       <c r="W92" s="43" t="n">
@@ -8212,20 +8140,20 @@
       <c r="X92" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y92" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y92" s="37" t="n">
+        <v>0.5235867911722714</v>
       </c>
       <c r="Z92" s="38" t="n">
-        <v>1004.35752548</v>
+        <v>410.9737627400002</v>
       </c>
       <c r="AA92" s="38" t="n">
-        <v>4852.4927</v>
+        <v>3244.466999999999</v>
       </c>
       <c r="AB92" s="39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC92" s="40">
-        <f>IF(B60="DIV", F60,"")</f>
+        <f>IF(B59="DIV", F59,"")</f>
         <v/>
       </c>
       <c r="AD92" s="36" t="n"/>
@@ -8233,7 +8161,7 @@
     </row>
     <row r="93" ht="13" customHeight="1" s="68">
       <c r="A93" s="25" t="n">
-        <v>43376</v>
+        <v>43382</v>
       </c>
       <c r="B93" s="26" t="inlineStr">
         <is>
@@ -8246,75 +8174,75 @@
         </is>
       </c>
       <c r="D93" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E93" s="28" t="n">
-        <v>367</v>
+        <v>370.404</v>
       </c>
       <c r="F93" s="28" t="n">
-        <v>7391.8</v>
+        <v>3730.06</v>
       </c>
       <c r="G93" s="26" t="n"/>
       <c r="H93" s="27" t="n">
-        <v>7.328</v>
+        <v>3.68</v>
       </c>
       <c r="I93" s="27" t="n">
-        <v>44.472</v>
+        <v>22.38</v>
       </c>
       <c r="J93" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K93" s="30">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), L61/SUM(F61:I61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), L60/SUM(F60:I60), "")</f>
         <v/>
       </c>
       <c r="L93" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
         <v/>
       </c>
       <c r="M93" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), ((E61*D61)+L61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
         <v/>
       </c>
       <c r="N93" s="32">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), D61, "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
         <v/>
       </c>
       <c r="O93" s="30">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), P61/SUM(F61:I61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), P60/SUM(F60:I60), "")</f>
         <v/>
       </c>
       <c r="P93" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
         <v/>
       </c>
       <c r="Q93" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), ((E61*D61)+P61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
         <v/>
       </c>
       <c r="R93" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), D61, "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
         <v/>
       </c>
       <c r="S93" s="33">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), T61/SUM(F61:I61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), T60/SUM(F60:I60), "")</f>
         <v/>
       </c>
       <c r="T93" s="34">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
         <v/>
       </c>
       <c r="U93" s="34">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), ((E61*D61)+T61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
         <v/>
       </c>
       <c r="V93" s="34">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), D61, "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
         <v/>
       </c>
       <c r="W93" s="43" t="n">
-        <v>577.2645</v>
+        <v>574.903</v>
       </c>
       <c r="X93" s="44" t="n">
         <v>45565</v>
@@ -8323,16 +8251,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z93" s="38" t="n">
-        <v>987.00392548</v>
+        <v>1004.35752548</v>
       </c>
       <c r="AA93" s="38" t="n">
-        <v>4560.301359999999</v>
+        <v>4852.4927</v>
       </c>
       <c r="AB93" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC93" s="40">
-        <f>IF(B61="DIV", F61,"")</f>
+        <f>IF(B60="DIV", F60,"")</f>
         <v/>
       </c>
       <c r="AD93" s="36" t="n"/>
@@ -8353,93 +8281,93 @@
         </is>
       </c>
       <c r="D94" s="27" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E94" s="28" t="n">
         <v>367</v>
       </c>
       <c r="F94" s="28" t="n">
-        <v>1847.95</v>
+        <v>7391.8</v>
       </c>
       <c r="G94" s="26" t="n"/>
       <c r="H94" s="27" t="n">
-        <v>1.832</v>
+        <v>7.328</v>
       </c>
       <c r="I94" s="27" t="n">
-        <v>11.118</v>
+        <v>44.472</v>
       </c>
       <c r="J94" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K94" s="30">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), L62/SUM(F62:I62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), L61/SUM(F61:I61), "")</f>
         <v/>
       </c>
       <c r="L94" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
         <v/>
       </c>
       <c r="M94" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), ((E62*D62)+L62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), ((E61*D61)+L61), "")</f>
         <v/>
       </c>
       <c r="N94" s="32">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), D61, "")</f>
         <v/>
       </c>
       <c r="O94" s="30">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), P62/SUM(F62:I62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), P61/SUM(F61:I61), "")</f>
         <v/>
       </c>
       <c r="P94" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
         <v/>
       </c>
       <c r="Q94" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), ((E62*D62)+P62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), ((E61*D61)+P61), "")</f>
         <v/>
       </c>
       <c r="R94" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), D61, "")</f>
         <v/>
       </c>
       <c r="S94" s="33">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), T62/SUM(F62:I62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), T61/SUM(F61:I61), "")</f>
         <v/>
       </c>
       <c r="T94" s="34">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
         <v/>
       </c>
       <c r="U94" s="34">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), ((E62*D62)+T62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), ((E61*D61)+T61), "")</f>
         <v/>
       </c>
       <c r="V94" s="34">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), D61, "")</f>
         <v/>
       </c>
       <c r="W94" s="43" t="n">
-        <v>580.9665</v>
+        <v>577.2645</v>
       </c>
       <c r="X94" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y94" s="37" t="n">
-        <v>-3.969633696710141</v>
+      <c r="Y94" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z94" s="38" t="n">
-        <v>982.0739254800001</v>
+        <v>987.00392548</v>
       </c>
       <c r="AA94" s="38" t="n">
-        <v>-12224.30664</v>
+        <v>4560.301359999999</v>
       </c>
       <c r="AB94" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC94" s="40">
-        <f>IF(B62="DIV", F62,"")</f>
+        <f>IF(B61="DIV", F61,"")</f>
         <v/>
       </c>
       <c r="AD94" s="36" t="n"/>
@@ -8447,7 +8375,7 @@
     </row>
     <row r="95" ht="13" customHeight="1" s="68">
       <c r="A95" s="25" t="n">
-        <v>43369</v>
+        <v>43376</v>
       </c>
       <c r="B95" s="26" t="inlineStr">
         <is>
@@ -8460,71 +8388,71 @@
         </is>
       </c>
       <c r="D95" s="27" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E95" s="28" t="n">
-        <v>414.058667</v>
+        <v>367</v>
       </c>
       <c r="F95" s="28" t="n">
-        <v>6254.418</v>
+        <v>1847.95</v>
       </c>
       <c r="G95" s="26" t="n"/>
       <c r="H95" s="27" t="n">
-        <v>6.22</v>
+        <v>1.832</v>
       </c>
       <c r="I95" s="27" t="n">
-        <v>37.296</v>
+        <v>11.118</v>
       </c>
       <c r="J95" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K95" s="30">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), L63/SUM(F63:I63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), L62/SUM(F62:I62), "")</f>
         <v/>
       </c>
       <c r="L95" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
         <v/>
       </c>
       <c r="M95" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), ((E63*D63)+L63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), ((E62*D62)+L62), "")</f>
         <v/>
       </c>
       <c r="N95" s="32">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), D62, "")</f>
         <v/>
       </c>
       <c r="O95" s="30">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), P63/SUM(F63:I63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), P62/SUM(F62:I62), "")</f>
         <v/>
       </c>
       <c r="P95" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
         <v/>
       </c>
       <c r="Q95" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), ((E63*D63)+P63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), ((E62*D62)+P62), "")</f>
         <v/>
       </c>
       <c r="R95" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), D62, "")</f>
         <v/>
       </c>
       <c r="S95" s="33">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), T63/SUM(F63:I63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), T62/SUM(F62:I62), "")</f>
         <v/>
       </c>
       <c r="T95" s="34">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
         <v/>
       </c>
       <c r="U95" s="34">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), ((E63*D63)+T63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), ((E62*D62)+T62), "")</f>
         <v/>
       </c>
       <c r="V95" s="34">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), D62, "")</f>
         <v/>
       </c>
       <c r="W95" s="43" t="n">
@@ -8533,20 +8461,20 @@
       <c r="X95" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y95" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y95" s="37" t="n">
+        <v>-3.969633696710141</v>
       </c>
       <c r="Z95" s="38" t="n">
-        <v>2195.027284</v>
+        <v>982.0739254800001</v>
       </c>
       <c r="AA95" s="38" t="n">
-        <v>3228.90984</v>
+        <v>-12224.30664</v>
       </c>
       <c r="AB95" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC95" s="40">
-        <f>IF(B63="DIV", F63,"")</f>
+        <f>IF(B62="DIV", F62,"")</f>
         <v/>
       </c>
       <c r="AD95" s="36" t="n"/>
@@ -8567,75 +8495,75 @@
         </is>
       </c>
       <c r="D96" s="27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E96" s="28" t="n">
-        <v>414.059</v>
+        <v>414.058667</v>
       </c>
       <c r="F96" s="28" t="n">
-        <v>4169.612</v>
+        <v>6254.418</v>
       </c>
       <c r="G96" s="26" t="n"/>
       <c r="H96" s="27" t="n">
-        <v>4.148</v>
+        <v>6.22</v>
       </c>
       <c r="I96" s="27" t="n">
-        <v>24.864</v>
+        <v>37.296</v>
       </c>
       <c r="J96" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K96" s="30">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), L64/SUM(F64:I64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), L63/SUM(F63:I63), "")</f>
         <v/>
       </c>
       <c r="L96" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
         <v/>
       </c>
       <c r="M96" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), ((E64*D64)+L64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), ((E63*D63)+L63), "")</f>
         <v/>
       </c>
       <c r="N96" s="32">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), D63, "")</f>
         <v/>
       </c>
       <c r="O96" s="30">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), P64/SUM(F64:I64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), P63/SUM(F63:I63), "")</f>
         <v/>
       </c>
       <c r="P96" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
         <v/>
       </c>
       <c r="Q96" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), ((E64*D64)+P64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), ((E63*D63)+P63), "")</f>
         <v/>
       </c>
       <c r="R96" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), D63, "")</f>
         <v/>
       </c>
       <c r="S96" s="33">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), T64/SUM(F64:I64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), T63/SUM(F63:I63), "")</f>
         <v/>
       </c>
       <c r="T96" s="34">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
         <v/>
       </c>
       <c r="U96" s="34">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), ((E64*D64)+T64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), ((E63*D63)+T63), "")</f>
         <v/>
       </c>
       <c r="V96" s="34">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), D63, "")</f>
         <v/>
       </c>
       <c r="W96" s="43" t="n">
-        <v>570.971</v>
+        <v>580.9665</v>
       </c>
       <c r="X96" s="44" t="n">
         <v>45565</v>
@@ -8644,16 +8572,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z96" s="38" t="n">
-        <v>2233.678484</v>
+        <v>2195.027284</v>
       </c>
       <c r="AA96" s="38" t="n">
-        <v>3554.2932</v>
+        <v>3228.90984</v>
       </c>
       <c r="AB96" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC96" s="40">
-        <f>IF(B64="DIV", F64,"")</f>
+        <f>IF(B63="DIV", F63,"")</f>
         <v/>
       </c>
       <c r="AD96" s="36" t="n"/>
@@ -8661,7 +8589,7 @@
     </row>
     <row r="97" ht="13" customHeight="1" s="68">
       <c r="A97" s="25" t="n">
-        <v>43354</v>
+        <v>43369</v>
       </c>
       <c r="B97" s="26" t="inlineStr">
         <is>
@@ -8674,71 +8602,71 @@
         </is>
       </c>
       <c r="D97" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E97" s="28" t="n">
-        <v>416.0965</v>
+        <v>414.059</v>
       </c>
       <c r="F97" s="28" t="n">
-        <v>8380.073329999999</v>
+        <v>4169.612</v>
       </c>
       <c r="G97" s="26" t="n"/>
       <c r="H97" s="27" t="n">
-        <v>8</v>
+        <v>4.148</v>
       </c>
       <c r="I97" s="27" t="n">
-        <v>50.07333</v>
+        <v>24.864</v>
       </c>
       <c r="J97" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K97" s="30">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), L65/SUM(F65:I65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), L64/SUM(F64:I64), "")</f>
         <v/>
       </c>
       <c r="L97" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
         <v/>
       </c>
       <c r="M97" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), ((E65*D65)+L65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), ((E64*D64)+L64), "")</f>
         <v/>
       </c>
       <c r="N97" s="32">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), D64, "")</f>
         <v/>
       </c>
       <c r="O97" s="30">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), P65/SUM(F65:I65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), P64/SUM(F64:I64), "")</f>
         <v/>
       </c>
       <c r="P97" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
         <v/>
       </c>
       <c r="Q97" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), ((E65*D65)+P65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), ((E64*D64)+P64), "")</f>
         <v/>
       </c>
       <c r="R97" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), D64, "")</f>
         <v/>
       </c>
       <c r="S97" s="33">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), T65/SUM(F65:I65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), T64/SUM(F64:I64), "")</f>
         <v/>
       </c>
       <c r="T97" s="34">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
         <v/>
       </c>
       <c r="U97" s="34">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), ((E65*D65)+T65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), ((E64*D64)+T64), "")</f>
         <v/>
       </c>
       <c r="V97" s="34">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), D64, "")</f>
         <v/>
       </c>
       <c r="W97" s="43" t="n">
@@ -8751,16 +8679,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z97" s="38" t="n">
-        <v>2011.828484</v>
+        <v>2233.678484</v>
       </c>
       <c r="AA97" s="38" t="n">
-        <v>3497.1493</v>
+        <v>3554.2932</v>
       </c>
       <c r="AB97" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC97" s="40">
-        <f>IF(B65="DIV", F65,"")</f>
+        <f>IF(B64="DIV", F64,"")</f>
         <v/>
       </c>
       <c r="AD97" s="36" t="n"/>
@@ -8781,93 +8709,93 @@
         </is>
       </c>
       <c r="D98" s="27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E98" s="28" t="n">
-        <v>416.096</v>
+        <v>416.0965</v>
       </c>
       <c r="F98" s="28" t="n">
-        <v>4190.0366</v>
+        <v>8380.073329999999</v>
       </c>
       <c r="G98" s="26" t="n"/>
       <c r="H98" s="27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I98" s="27" t="n">
-        <v>25.03666</v>
+        <v>50.07333</v>
       </c>
       <c r="J98" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K98" s="30">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), L66/SUM(F66:I66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), L65/SUM(F65:I65), "")</f>
         <v/>
       </c>
       <c r="L98" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
         <v/>
       </c>
       <c r="M98" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), ((E66*D66)+L66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), ((E65*D65)+L65), "")</f>
         <v/>
       </c>
       <c r="N98" s="32">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), D65, "")</f>
         <v/>
       </c>
       <c r="O98" s="30">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), P66/SUM(F66:I66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), P65/SUM(F65:I65), "")</f>
         <v/>
       </c>
       <c r="P98" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
         <v/>
       </c>
       <c r="Q98" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), ((E66*D66)+P66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), ((E65*D65)+P65), "")</f>
         <v/>
       </c>
       <c r="R98" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), D65, "")</f>
         <v/>
       </c>
       <c r="S98" s="33">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), T66/SUM(F66:I66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), T65/SUM(F65:I65), "")</f>
         <v/>
       </c>
       <c r="T98" s="34">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
         <v/>
       </c>
       <c r="U98" s="34">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), ((E66*D66)+T66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), ((E65*D65)+T65), "")</f>
         <v/>
       </c>
       <c r="V98" s="34">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), D65, "")</f>
         <v/>
       </c>
       <c r="W98" s="43" t="n">
-        <v>574.903</v>
+        <v>570.971</v>
       </c>
       <c r="X98" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y98" s="37" t="n">
-        <v>-0.01674401291156987</v>
+      <c r="Y98" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z98" s="38" t="n">
-        <v>1467.260684</v>
+        <v>2011.828484</v>
       </c>
       <c r="AA98" s="38" t="n">
-        <v>3593.375</v>
+        <v>3497.1493</v>
       </c>
       <c r="AB98" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC98" s="40">
-        <f>IF(B66="DIV", F66,"")</f>
+        <f>IF(B65="DIV", F65,"")</f>
         <v/>
       </c>
       <c r="AD98" s="36" t="n"/>
@@ -8875,7 +8803,7 @@
     </row>
     <row r="99" ht="13" customHeight="1" s="68">
       <c r="A99" s="25" t="n">
-        <v>43312</v>
+        <v>43354</v>
       </c>
       <c r="B99" s="26" t="inlineStr">
         <is>
@@ -8888,93 +8816,93 @@
         </is>
       </c>
       <c r="D99" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E99" s="28" t="n">
-        <v>464.205</v>
+        <v>416.096</v>
       </c>
       <c r="F99" s="28" t="n">
-        <v>9348.911099999999</v>
+        <v>4190.0366</v>
       </c>
       <c r="G99" s="26" t="n"/>
       <c r="H99" s="27" t="n">
-        <v>9.2133</v>
+        <v>4</v>
       </c>
       <c r="I99" s="27" t="n">
-        <v>55.6933</v>
+        <v>25.03666</v>
       </c>
       <c r="J99" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K99" s="30">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), L67/SUM(F67:I67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), L66/SUM(F66:I66), "")</f>
         <v/>
       </c>
       <c r="L99" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
         <v/>
       </c>
       <c r="M99" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), ((E67*D67)+L67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), ((E66*D66)+L66), "")</f>
         <v/>
       </c>
       <c r="N99" s="32">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), D66, "")</f>
         <v/>
       </c>
       <c r="O99" s="30">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), P67/SUM(F67:I67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), P66/SUM(F66:I66), "")</f>
         <v/>
       </c>
       <c r="P99" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
         <v/>
       </c>
       <c r="Q99" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), ((E67*D67)+P67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), ((E66*D66)+P66), "")</f>
         <v/>
       </c>
       <c r="R99" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), D66, "")</f>
         <v/>
       </c>
       <c r="S99" s="33">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), T67/SUM(F67:I67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), T66/SUM(F66:I66), "")</f>
         <v/>
       </c>
       <c r="T99" s="34">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
         <v/>
       </c>
       <c r="U99" s="34">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), ((E67*D67)+T67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), ((E66*D66)+T66), "")</f>
         <v/>
       </c>
       <c r="V99" s="34">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), D66, "")</f>
         <v/>
       </c>
       <c r="W99" s="43" t="n">
-        <v>508.1195</v>
+        <v>574.903</v>
       </c>
       <c r="X99" s="44" t="n">
         <v>45565</v>
       </c>
       <c r="Y99" s="37" t="n">
-        <v>-0.04012004086497532</v>
+        <v>-0.01674401291156987</v>
       </c>
       <c r="Z99" s="38" t="n">
-        <v>1160.614684</v>
+        <v>1467.260684</v>
       </c>
       <c r="AA99" s="38" t="n">
-        <v>3805.775</v>
+        <v>3593.375</v>
       </c>
       <c r="AB99" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC99" s="40">
-        <f>IF(B67="DIV", F67,"")</f>
+        <f>IF(B66="DIV", F66,"")</f>
         <v/>
       </c>
       <c r="AD99" s="36" t="n"/>
@@ -8995,93 +8923,93 @@
         </is>
       </c>
       <c r="D100" s="27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E100" s="28" t="n">
-        <v>464.2044</v>
+        <v>464.205</v>
       </c>
       <c r="F100" s="28" t="n">
-        <v>11686.1388</v>
+        <v>9348.911099999999</v>
       </c>
       <c r="G100" s="26" t="n"/>
       <c r="H100" s="27" t="n">
-        <v>11.51666</v>
+        <v>9.2133</v>
       </c>
       <c r="I100" s="27" t="n">
-        <v>69.61660000000001</v>
+        <v>55.6933</v>
       </c>
       <c r="J100" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K100" s="30">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), L68/SUM(F68:I68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), L67/SUM(F67:I67), "")</f>
         <v/>
       </c>
       <c r="L100" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
         <v/>
       </c>
       <c r="M100" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), ((E68*D68)+L68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), ((E67*D67)+L67), "")</f>
         <v/>
       </c>
       <c r="N100" s="32">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), D67, "")</f>
         <v/>
       </c>
       <c r="O100" s="30">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), P68/SUM(F68:I68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), P67/SUM(F67:I67), "")</f>
         <v/>
       </c>
       <c r="P100" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
         <v/>
       </c>
       <c r="Q100" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), ((E68*D68)+P68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), ((E67*D67)+P67), "")</f>
         <v/>
       </c>
       <c r="R100" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), D67, "")</f>
         <v/>
       </c>
       <c r="S100" s="33">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), T68/SUM(F68:I68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), T67/SUM(F67:I67), "")</f>
         <v/>
       </c>
       <c r="T100" s="34">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
         <v/>
       </c>
       <c r="U100" s="34">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), ((E68*D68)+T68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), ((E67*D67)+T67), "")</f>
         <v/>
       </c>
       <c r="V100" s="34">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), D67, "")</f>
         <v/>
       </c>
       <c r="W100" s="43" t="n">
-        <v>501.9024</v>
+        <v>508.1195</v>
       </c>
       <c r="X100" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y100" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y100" s="37" t="n">
+        <v>-0.04012004086497532</v>
       </c>
       <c r="Z100" s="38" t="n">
-        <v>1102.83607</v>
+        <v>1160.614684</v>
       </c>
       <c r="AA100" s="38" t="n">
-        <v>4412.879723567999</v>
+        <v>3805.775</v>
       </c>
       <c r="AB100" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC100" s="40">
-        <f>IF(B68="DIV", F68,"")</f>
+        <f>IF(B67="DIV", F67,"")</f>
         <v/>
       </c>
       <c r="AD100" s="36" t="n"/>
@@ -9102,94 +9030,93 @@
         </is>
       </c>
       <c r="D101" s="27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E101" s="28" t="n">
-        <v>464.204</v>
+        <v>464.2044</v>
       </c>
       <c r="F101" s="28" t="n">
-        <v>4674.45454</v>
+        <v>11686.1388</v>
       </c>
       <c r="G101" s="26" t="n"/>
       <c r="H101" s="27" t="n">
-        <v>4.60727</v>
+        <v>11.51666</v>
       </c>
       <c r="I101" s="27" t="n">
-        <v>27.8472</v>
+        <v>69.61660000000001</v>
       </c>
       <c r="J101" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K101" s="30">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), L69/SUM(F69:I69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), L68/SUM(F68:I68), "")</f>
         <v/>
       </c>
       <c r="L101" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
         <v/>
       </c>
       <c r="M101" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), ((E69*D69)+L69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), ((E68*D68)+L68), "")</f>
         <v/>
       </c>
       <c r="N101" s="32">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), D68, "")</f>
         <v/>
       </c>
       <c r="O101" s="30">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), P69/SUM(F69:I69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), P68/SUM(F68:I68), "")</f>
         <v/>
       </c>
       <c r="P101" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
         <v/>
       </c>
       <c r="Q101" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), ((E69*D69)+P69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), ((E68*D68)+P68), "")</f>
         <v/>
       </c>
       <c r="R101" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), D68, "")</f>
         <v/>
       </c>
       <c r="S101" s="33">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), T69/SUM(F69:I69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), T68/SUM(F68:I68), "")</f>
         <v/>
       </c>
       <c r="T101" s="34">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
         <v/>
       </c>
       <c r="U101" s="34">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), ((E69*D69)+T69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), ((E68*D68)+T68), "")</f>
         <v/>
       </c>
       <c r="V101" s="34">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), D68, "")</f>
         <v/>
       </c>
       <c r="W101" s="43" t="n">
-        <v>511.707333</v>
+        <v>501.9024</v>
       </c>
       <c r="X101" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y101" s="37">
-        <f>IF(AND( C69="Buy", W69&lt;&gt;"", AA69&lt;&gt;"", B69&lt;&gt;"DIV"), Z69/SUM(F69:I69), "")</f>
-        <v/>
+      <c r="Y101" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z101" s="38" t="n">
-        <v>-49.3</v>
+        <v>1102.83607</v>
       </c>
       <c r="AA101" s="38" t="n">
-        <v>50</v>
+        <v>4412.879723567999</v>
       </c>
       <c r="AB101" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC101" s="40">
-        <f>IF(B69="DIV", F69,"")</f>
+        <f>IF(B68="DIV", F68,"")</f>
         <v/>
       </c>
       <c r="AD101" s="36" t="n"/>
@@ -9197,11 +9124,11 @@
     </row>
     <row r="102" ht="13" customHeight="1" s="68">
       <c r="A102" s="25" t="n">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B102" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C102" s="26" t="inlineStr">
@@ -9210,98 +9137,106 @@
         </is>
       </c>
       <c r="D102" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E102" s="28" t="n">
-        <v>6</v>
+        <v>464.204</v>
       </c>
       <c r="F102" s="28" t="n">
-        <v>120</v>
-      </c>
-      <c r="G102" s="26" t="inlineStr">
-        <is>
-          <t>Dividend of Rs.6.0000/- per share on 30-JUL-2018</t>
-        </is>
-      </c>
+        <v>4674.45454</v>
+      </c>
+      <c r="G102" s="26" t="n"/>
       <c r="H102" s="27" t="n">
-        <v>0</v>
+        <v>4.60727</v>
       </c>
       <c r="I102" s="27" t="n">
-        <v>0</v>
+        <v>27.8472</v>
       </c>
       <c r="J102" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K102" s="30">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), L70/SUM(F70:I70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), L69/SUM(F69:I69), "")</f>
         <v/>
       </c>
       <c r="L102" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
         <v/>
       </c>
       <c r="M102" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), ((E70*D70)+L70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), ((E69*D69)+L69), "")</f>
         <v/>
       </c>
       <c r="N102" s="32">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), D70, "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), D69, "")</f>
         <v/>
       </c>
       <c r="O102" s="30">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), P70/SUM(F70:I70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), P69/SUM(F69:I69), "")</f>
         <v/>
       </c>
       <c r="P102" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
         <v/>
       </c>
       <c r="Q102" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), ((E70*D70)+P70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), ((E69*D69)+P69), "")</f>
         <v/>
       </c>
       <c r="R102" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), D70, "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), D69, "")</f>
         <v/>
       </c>
       <c r="S102" s="33">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), T70/SUM(F70:I70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), T69/SUM(F69:I69), "")</f>
         <v/>
       </c>
       <c r="T102" s="34">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
         <v/>
       </c>
       <c r="U102" s="34">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), ((E70*D70)+T70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), ((E69*D69)+T69), "")</f>
         <v/>
       </c>
       <c r="V102" s="34">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), D70, "")</f>
-        <v/>
-      </c>
-      <c r="W102" s="45" t="n"/>
-      <c r="X102" s="34" t="n"/>
-      <c r="Y102" s="33" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z102" s="34" t="n"/>
-      <c r="AA102" s="34" t="n"/>
-      <c r="AB102" s="35" t="n"/>
-      <c r="AC102" s="31">
-        <f>IF(B70="DIV", F70,"")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), D69, "")</f>
+        <v/>
+      </c>
+      <c r="W102" s="43" t="n">
+        <v>511.707333</v>
+      </c>
+      <c r="X102" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y102" s="37">
+        <f>IF(AND( C69="Buy", W69&lt;&gt;"", AA69&lt;&gt;"", B69&lt;&gt;"DIV"), Z69/SUM(F69:I69), "")</f>
+        <v/>
+      </c>
+      <c r="Z102" s="38" t="n">
+        <v>-49.3</v>
+      </c>
+      <c r="AA102" s="38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB102" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC102" s="40">
+        <f>IF(B69="DIV", F69,"")</f>
         <v/>
       </c>
       <c r="AD102" s="36" t="n"/>
+      <c r="AE102" s="41" t="n"/>
     </row>
     <row r="103" ht="13" customHeight="1" s="68">
       <c r="A103" s="25" t="n">
-        <v>43307</v>
+        <v>43311</v>
       </c>
       <c r="B103" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C103" s="26" t="inlineStr">
@@ -9313,111 +9248,195 @@
         <v>20</v>
       </c>
       <c r="E103" s="28" t="n">
-        <v>455.113</v>
+        <v>6</v>
       </c>
       <c r="F103" s="28" t="n">
-        <v>9166.440000000001</v>
-      </c>
-      <c r="G103" s="26" t="n"/>
+        <v>120</v>
+      </c>
+      <c r="G103" s="26" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.6.0000/- per share on 30-JUL-2018</t>
+        </is>
+      </c>
       <c r="H103" s="27" t="n">
-        <v>9.17</v>
+        <v>0</v>
       </c>
       <c r="I103" s="27" t="n">
-        <v>54.97</v>
+        <v>0</v>
       </c>
       <c r="J103" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K103" s="30">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), L70/SUM(F70:I70), "")</f>
+        <v/>
+      </c>
+      <c r="L103" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <v/>
+      </c>
+      <c r="M103" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), ((E70*D70)+L70), "")</f>
+        <v/>
+      </c>
+      <c r="N103" s="32">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), D70, "")</f>
+        <v/>
+      </c>
+      <c r="O103" s="30">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), P70/SUM(F70:I70), "")</f>
+        <v/>
+      </c>
+      <c r="P103" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <v/>
+      </c>
+      <c r="Q103" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), ((E70*D70)+P70), "")</f>
+        <v/>
+      </c>
+      <c r="R103" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), D70, "")</f>
+        <v/>
+      </c>
+      <c r="S103" s="33">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), T70/SUM(F70:I70), "")</f>
+        <v/>
+      </c>
+      <c r="T103" s="34">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <v/>
+      </c>
+      <c r="U103" s="34">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), ((E70*D70)+T70), "")</f>
+        <v/>
+      </c>
+      <c r="V103" s="34">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), D70, "")</f>
+        <v/>
+      </c>
+      <c r="W103" s="45" t="n"/>
+      <c r="X103" s="34" t="n"/>
+      <c r="Y103" s="33" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z103" s="34" t="n"/>
+      <c r="AA103" s="34" t="n"/>
+      <c r="AB103" s="35" t="n"/>
+      <c r="AC103" s="31">
+        <f>IF(B70="DIV", F70,"")</f>
+        <v/>
+      </c>
+      <c r="AD103" s="36" t="n"/>
+    </row>
+    <row r="104" ht="13" customHeight="1" s="68">
+      <c r="A104" s="25" t="n">
+        <v>43307</v>
+      </c>
+      <c r="B104" s="26" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C104" s="26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D104" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E104" s="28" t="n">
+        <v>455.113</v>
+      </c>
+      <c r="F104" s="28" t="n">
+        <v>9166.440000000001</v>
+      </c>
+      <c r="G104" s="26" t="n"/>
+      <c r="H104" s="27" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="I104" s="27" t="n">
+        <v>54.97</v>
+      </c>
+      <c r="J104" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K104" s="30">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), L71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="L103" s="31">
+      <c r="L104" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
         <v/>
       </c>
-      <c r="M103" s="31">
+      <c r="M104" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), ((E71*D71)+L71), "")</f>
         <v/>
       </c>
-      <c r="N103" s="32">
+      <c r="N104" s="32">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), D71, "")</f>
         <v/>
       </c>
-      <c r="O103" s="30">
+      <c r="O104" s="30">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), P71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="P103" s="31">
+      <c r="P104" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
         <v/>
       </c>
-      <c r="Q103" s="31">
+      <c r="Q104" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), ((E71*D71)+P71), "")</f>
         <v/>
       </c>
-      <c r="R103" s="31">
+      <c r="R104" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), D71, "")</f>
         <v/>
       </c>
-      <c r="S103" s="33">
+      <c r="S104" s="33">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), T71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="T103" s="34">
+      <c r="T104" s="34">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
         <v/>
       </c>
-      <c r="U103" s="34">
+      <c r="U104" s="34">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), ((E71*D71)+T71), "")</f>
         <v/>
       </c>
-      <c r="V103" s="34">
+      <c r="V104" s="34">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), D71, "")</f>
         <v/>
       </c>
-      <c r="W103" s="43" t="n">
+      <c r="W104" s="43" t="n">
         <v>511.707333</v>
       </c>
-      <c r="X103" s="44" t="n">
+      <c r="X104" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y103" s="37">
+      <c r="Y104" s="37">
         <f>IF(AND( C71="Buy", W71&lt;&gt;"", AA71&lt;&gt;"", B71&lt;&gt;"DIV"), Z71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="Z103" s="38" t="n">
+      <c r="Z104" s="38" t="n">
         <v>-14711.8595</v>
       </c>
-      <c r="AA103" s="38" t="n">
+      <c r="AA104" s="38" t="n">
         <v>14920.75</v>
       </c>
-      <c r="AB103" s="39" t="n">
+      <c r="AB104" s="39" t="n">
         <v>25</v>
       </c>
-      <c r="AC103" s="40">
+      <c r="AC104" s="40">
         <f>IF(B71="DIV", F71,"")</f>
         <v/>
       </c>
-      <c r="AD103" s="36" t="n"/>
-      <c r="AE103" s="41" t="n"/>
-    </row>
-    <row r="104" ht="13" customHeight="1" s="68">
-      <c r="E104" s="48" t="n"/>
-      <c r="F104" s="48" t="n"/>
-      <c r="G104" s="49" t="n"/>
-      <c r="J104" s="48" t="n"/>
-      <c r="K104" s="48" t="n"/>
-      <c r="L104" s="48" t="n"/>
-      <c r="M104" s="1" t="n"/>
-      <c r="W104" s="48" t="n"/>
-      <c r="X104" s="48" t="n"/>
-      <c r="Y104" s="48" t="n"/>
-      <c r="Z104" s="48" t="n"/>
-      <c r="AA104" s="48" t="n"/>
-      <c r="AB104" s="48" t="n"/>
-      <c r="AC104" s="48" t="n"/>
+      <c r="AD104" s="36" t="n"/>
+      <c r="AE104" s="41" t="n"/>
     </row>
     <row r="105" ht="13" customHeight="1" s="68">
       <c r="E105" s="48" t="n"/>
@@ -23474,6 +23493,7 @@
       <c r="J983" s="48" t="n"/>
       <c r="K983" s="48" t="n"/>
       <c r="L983" s="48" t="n"/>
+      <c r="M983" s="1" t="n"/>
       <c r="W983" s="48" t="n"/>
       <c r="X983" s="48" t="n"/>
       <c r="Y983" s="48" t="n"/>
@@ -23721,6 +23741,21 @@
       <c r="AA999" s="48" t="n"/>
       <c r="AB999" s="48" t="n"/>
       <c r="AC999" s="48" t="n"/>
+    </row>
+    <row r="1000">
+      <c r="E1000" s="48" t="n"/>
+      <c r="F1000" s="48" t="n"/>
+      <c r="G1000" s="49" t="n"/>
+      <c r="J1000" s="48" t="n"/>
+      <c r="K1000" s="48" t="n"/>
+      <c r="L1000" s="48" t="n"/>
+      <c r="W1000" s="48" t="n"/>
+      <c r="X1000" s="48" t="n"/>
+      <c r="Y1000" s="48" t="n"/>
+      <c r="Z1000" s="48" t="n"/>
+      <c r="AA1000" s="48" t="n"/>
+      <c r="AB1000" s="48" t="n"/>
+      <c r="AC1000" s="48" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO49"/>

--- a/dumps/Stocks/Avanti Feeds.xlsx
+++ b/dumps/Stocks/Avanti Feeds.xlsx
@@ -739,7 +739,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1000"/>
+  <dimension ref="A1:AP1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1089,42 +1089,43 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="68">
       <c r="A5" s="79" t="n">
-        <v>46063</v>
+        <v>45959</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>1129.6785</v>
+        <v>717.92</v>
       </c>
       <c r="F5" t="n">
-        <v>22593.57</v>
+        <v>3607.55</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>22.73</v>
+          <t>CN#252607497001</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>135.15</v>
+        <v>17.95</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="68">
       <c r="A6" s="79" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1137,29 +1138,29 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>1076.4808</v>
+        <v>1129.6785</v>
       </c>
       <c r="F6" t="n">
-        <v>53824.04</v>
+        <v>22593.57</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>54.13</v>
+        <v>22.73</v>
       </c>
       <c r="I6" t="n">
-        <v>321.83</v>
+        <v>135.15</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="68">
       <c r="A7" s="79" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1172,18 +1173,24 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>1008.15</v>
+        <v>1076.4808</v>
       </c>
       <c r="F7" t="n">
-        <v>10081.5</v>
+        <v>53824.04</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252611665409</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="I7" t="n">
+        <v>321.83</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="68">
@@ -1192,7 +1199,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1221,7 +1228,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1230,13 +1237,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
         <v>1008.15</v>
       </c>
       <c r="F9" t="n">
-        <v>5040.75</v>
+        <v>10081.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1279,7 +1286,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1288,13 +1295,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
         <v>1008.15</v>
       </c>
       <c r="F11" t="n">
-        <v>10081.5</v>
+        <v>5040.75</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1308,7 +1315,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1317,13 +1324,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v>1008.15</v>
       </c>
       <c r="F12" t="n">
-        <v>1008.15</v>
+        <v>10081.5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1349,10 +1356,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1108.25</v>
+        <v>1008.15</v>
       </c>
       <c r="F13" t="n">
-        <v>1108.25</v>
+        <v>1008.15</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1375,53 +1382,47 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1108.25</v>
       </c>
       <c r="F14" t="n">
+        <v>1108.25</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="68">
+      <c r="A15" s="79" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1108.25</v>
+      </c>
+      <c r="F15" t="n">
         <v>8866</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>~</t>
         </is>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="68">
-      <c r="A15" s="66" t="n">
-        <v>46049</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>777.55</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2349.2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14.22</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="68">
@@ -1439,13 +1440,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v>777.55</v>
       </c>
       <c r="F16" t="n">
-        <v>1566.12</v>
+        <v>2349.2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1453,15 +1454,15 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.56</v>
+        <v>2.33</v>
       </c>
       <c r="I16" t="n">
-        <v>9.460000000000001</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="68">
       <c r="A17" s="66" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1474,13 +1475,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>794.9</v>
+        <v>777.55</v>
       </c>
       <c r="F17" t="n">
-        <v>4002.64</v>
+        <v>1566.12</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1488,15 +1489,15 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.98</v>
+        <v>1.56</v>
       </c>
       <c r="I17" t="n">
-        <v>24.16</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="68">
       <c r="A18" s="66" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1512,10 +1513,10 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>807.2</v>
+        <v>794.9</v>
       </c>
       <c r="F18" t="n">
-        <v>4064.61</v>
+        <v>4002.64</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1523,19 +1524,19 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4.02</v>
+        <v>3.98</v>
       </c>
       <c r="I18" t="n">
-        <v>24.59</v>
+        <v>24.16</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="68">
       <c r="A19" s="66" t="n">
-        <v>46002</v>
+        <v>46030</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1544,13 +1545,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>809.55</v>
+        <v>807.2</v>
       </c>
       <c r="F19" t="n">
-        <v>3261.19</v>
+        <v>4064.61</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1558,10 +1559,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>4.02</v>
       </c>
       <c r="I19" t="n">
-        <v>19.74</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="68">
@@ -1579,13 +1580,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>809.5</v>
+        <v>809.55</v>
       </c>
       <c r="F20" t="n">
-        <v>815.23</v>
+        <v>3261.19</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1593,19 +1594,19 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>4.92</v>
+        <v>19.74</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="68">
       <c r="A21" s="66" t="n">
-        <v>45961</v>
+        <v>46002</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1614,13 +1615,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>703.85</v>
+        <v>809.5</v>
       </c>
       <c r="F21" t="n">
-        <v>2126.52</v>
+        <v>815.23</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1628,10 +1629,10 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>12.87</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="68">
@@ -1649,13 +1650,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>703.8</v>
+        <v>703.85</v>
       </c>
       <c r="F22" t="n">
-        <v>1417.56</v>
+        <v>2126.52</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1663,19 +1664,19 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="I22" t="n">
-        <v>8.550000000000001</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="68">
       <c r="A23" s="66" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1684,13 +1685,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>717.8</v>
+        <v>703.8</v>
       </c>
       <c r="F23" t="n">
-        <v>722.89</v>
+        <v>1417.56</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1698,10 +1699,10 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.72</v>
+        <v>1.41</v>
       </c>
       <c r="I23" t="n">
-        <v>4.37</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="68">
@@ -1719,13 +1720,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>717.95</v>
+        <v>717.8</v>
       </c>
       <c r="F24" t="n">
-        <v>2892.14</v>
+        <v>722.89</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1733,19 +1734,19 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2.86</v>
+        <v>0.72</v>
       </c>
       <c r="I24" t="n">
-        <v>17.48</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="68">
       <c r="A25" s="66" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1754,13 +1755,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>719.5</v>
+        <v>717.95</v>
       </c>
       <c r="F25" t="n">
-        <v>3623.02</v>
+        <v>2892.14</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1768,15 +1769,15 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3.61</v>
+        <v>2.86</v>
       </c>
       <c r="I25" t="n">
-        <v>21.91</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="68">
       <c r="A26" s="66" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1792,10 +1793,10 @@
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>723.9</v>
+        <v>719.5</v>
       </c>
       <c r="F26" t="n">
-        <v>3645.15</v>
+        <v>3623.02</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1803,15 +1804,15 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="I26" t="n">
-        <v>22.03</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="68">
       <c r="A27" s="66" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1824,13 +1825,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>731</v>
+        <v>723.9</v>
       </c>
       <c r="F27" t="n">
-        <v>6625.67</v>
+        <v>3645.15</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1838,10 +1839,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6.56</v>
+        <v>3.62</v>
       </c>
       <c r="I27" t="n">
-        <v>40.11</v>
+        <v>22.03</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="68">
@@ -1859,13 +1860,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>730.85</v>
+        <v>731</v>
       </c>
       <c r="F28" t="n">
-        <v>736.02</v>
+        <v>6625.67</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1873,15 +1874,15 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.73</v>
+        <v>6.56</v>
       </c>
       <c r="I28" t="n">
-        <v>4.44</v>
+        <v>40.11</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="68">
       <c r="A29" s="66" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1897,10 +1898,10 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>672.55</v>
+        <v>730.85</v>
       </c>
       <c r="F29" t="n">
-        <v>677.3</v>
+        <v>736.02</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1908,28 +1909,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="I29" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1008.15</v>
-      </c>
-      <c r="X29" s="79" t="n">
-        <v>46059</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0.485155</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>330.9</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1003.45</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="68">
@@ -1947,13 +1930,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>672.55</v>
       </c>
       <c r="F30" t="n">
-        <v>6095.84</v>
+        <v>677.3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1961,10 +1944,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6.05</v>
+        <v>0.67</v>
       </c>
       <c r="I30" t="n">
-        <v>36.84</v>
+        <v>4.08</v>
       </c>
       <c r="W30" t="n">
         <v>1008.15</v>
@@ -1973,25 +1956,25 @@
         <v>46059</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.485135</v>
+        <v>0.485155</v>
       </c>
       <c r="Z30" t="n">
-        <v>2978.11</v>
+        <v>330.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>9031.059999999999</v>
+        <v>1003.45</v>
       </c>
       <c r="AB30" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="68">
       <c r="A31" s="66" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2000,13 +1983,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>690.85</v>
+        <v>672.55</v>
       </c>
       <c r="F31" t="n">
-        <v>4870.24</v>
+        <v>6095.84</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2014,10 +1997,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>4.85</v>
+        <v>6.05</v>
       </c>
       <c r="I31" t="n">
-        <v>29.44</v>
+        <v>36.84</v>
       </c>
       <c r="W31" t="n">
         <v>1008.15</v>
@@ -2026,16 +2009,16 @@
         <v>46059</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.446526</v>
+        <v>0.485135</v>
       </c>
       <c r="Z31" t="n">
-        <v>2190</v>
+        <v>2978.11</v>
       </c>
       <c r="AA31" t="n">
-        <v>7025.95</v>
+        <v>9031.059999999999</v>
       </c>
       <c r="AB31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="68">
@@ -2053,13 +2036,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>690.8</v>
+        <v>690.85</v>
       </c>
       <c r="F32" t="n">
-        <v>2087.09</v>
+        <v>4870.24</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2067,10 +2050,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2.07</v>
+        <v>4.85</v>
       </c>
       <c r="I32" t="n">
-        <v>12.62</v>
+        <v>29.44</v>
       </c>
       <c r="W32" t="n">
         <v>1008.15</v>
@@ -2079,25 +2062,25 @@
         <v>46059</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.446631</v>
+        <v>0.446526</v>
       </c>
       <c r="Z32" t="n">
-        <v>938.72</v>
+        <v>2190</v>
       </c>
       <c r="AA32" t="n">
-        <v>3011.12</v>
+        <v>7025.95</v>
       </c>
       <c r="AB32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="68">
       <c r="A33" s="66" t="n">
-        <v>45924</v>
+        <v>45947</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2106,13 +2089,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>678.95</v>
+        <v>690.8</v>
       </c>
       <c r="F33" t="n">
-        <v>6837.55</v>
+        <v>2087.09</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2120,10 +2103,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6.76</v>
+        <v>2.07</v>
       </c>
       <c r="I33" t="n">
-        <v>41.29</v>
+        <v>12.62</v>
       </c>
       <c r="W33" t="n">
         <v>1008.15</v>
@@ -2132,25 +2115,25 @@
         <v>46059</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.235703</v>
+        <v>0.446631</v>
       </c>
       <c r="Z33" t="n">
-        <v>1622.96</v>
+        <v>938.72</v>
       </c>
       <c r="AA33" t="n">
-        <v>5017.71</v>
+        <v>3011.12</v>
       </c>
       <c r="AB33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="68">
       <c r="A34" s="66" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2162,10 +2145,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>677.75</v>
+        <v>678.95</v>
       </c>
       <c r="F34" t="n">
-        <v>6825.62</v>
+        <v>6837.55</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2173,10 +2156,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6.8</v>
+        <v>6.76</v>
       </c>
       <c r="I34" t="n">
-        <v>41.32</v>
+        <v>41.29</v>
       </c>
       <c r="W34" t="n">
         <v>1008.15</v>
@@ -2185,13 +2168,13 @@
         <v>46059</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.23697</v>
+        <v>0.235703</v>
       </c>
       <c r="Z34" t="n">
-        <v>1628.87</v>
+        <v>1622.96</v>
       </c>
       <c r="AA34" t="n">
-        <v>5017.62</v>
+        <v>5017.71</v>
       </c>
       <c r="AB34" t="n">
         <v>5</v>
@@ -2199,11 +2182,11 @@
     </row>
     <row r="35" ht="15.75" customHeight="1" s="68">
       <c r="A35" s="66" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2212,13 +2195,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>625.8</v>
+        <v>677.75</v>
       </c>
       <c r="F35" t="n">
-        <v>3151.23</v>
+        <v>6825.62</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2226,10 +2209,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3.13</v>
+        <v>6.8</v>
       </c>
       <c r="I35" t="n">
-        <v>19.1</v>
+        <v>41.32</v>
       </c>
       <c r="W35" t="n">
         <v>1008.15</v>
@@ -2238,13 +2221,13 @@
         <v>46059</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.593986</v>
+        <v>0.23697</v>
       </c>
       <c r="Z35" t="n">
-        <v>1884.99</v>
+        <v>1628.87</v>
       </c>
       <c r="AA35" t="n">
-        <v>5013.99</v>
+        <v>5017.62</v>
       </c>
       <c r="AB35" t="n">
         <v>5</v>
@@ -2252,11 +2235,11 @@
     </row>
     <row r="36" ht="15.75" customHeight="1" s="68">
       <c r="A36" s="66" t="n">
-        <v>45876</v>
+        <v>45897</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2265,196 +2248,139 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>9</v>
+        <v>625.8</v>
       </c>
       <c r="F36" t="n">
-        <v>225</v>
+        <v>3151.23</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025  Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.1</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1008.15</v>
+      </c>
+      <c r="X36" s="79" t="n">
+        <v>46059</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.593986</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1884.99</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>5013.99</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="68">
       <c r="A37" s="66" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>25</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9</v>
+      </c>
+      <c r="F37" t="n">
+        <v>225</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025  Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" s="68">
+      <c r="A38" s="66" t="n">
         <v>45873</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>5</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E38" t="n">
         <v>665.2</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F38" t="n">
         <v>3349.66</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H38" t="n">
         <v>3.37</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I38" t="n">
         <v>20.29</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W38" t="n">
         <v>1008.15</v>
       </c>
-      <c r="X37" s="79" t="n">
+      <c r="X38" s="79" t="n">
         <v>46059</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Y38" t="n">
         <v>0.501209</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="Z38" t="n">
         <v>1690.74</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AA38" t="n">
         <v>5016.74</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AB38" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1" s="68">
-      <c r="A38" s="25" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B38" s="26" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C38" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="E38" s="28" t="n">
-        <v>741.22</v>
-      </c>
-      <c r="F38" s="28" t="n">
-        <v>7412.23</v>
-      </c>
-      <c r="G38" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H38" s="27" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="I38" s="27" t="n">
-        <v>44.87</v>
-      </c>
-      <c r="J38" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K38" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="L38" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="M38" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
-        <v/>
-      </c>
-      <c r="N38" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
-        <v/>
-      </c>
-      <c r="O38" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="P38" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="Q38" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
-        <v/>
-      </c>
-      <c r="R38" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="S38" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="T38" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="U38" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
-        <v/>
-      </c>
-      <c r="V38" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="W38" s="34" t="n">
-        <v>1008.15</v>
-      </c>
-      <c r="X38" s="80" t="n">
-        <v>46059</v>
-      </c>
-      <c r="Y38" s="33" t="n">
-        <v>0.035259</v>
-      </c>
-      <c r="Z38" s="34" t="n">
-        <v>263.19</v>
-      </c>
-      <c r="AA38" s="34" t="n">
-        <v>1004.41</v>
-      </c>
-      <c r="AB38" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="31">
-        <f>IF(B19="DIV", F19,"")</f>
-        <v/>
-      </c>
-      <c r="AD38" s="36" t="n"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="68">
       <c r="A39" s="25" t="n">
-        <v>45812</v>
+        <v>45855</v>
       </c>
       <c r="B39" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C39" s="26" t="inlineStr">
@@ -2463,13 +2389,13 @@
         </is>
       </c>
       <c r="D39" s="27" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E39" s="28" t="n">
-        <v>774.3</v>
+        <v>741.22</v>
       </c>
       <c r="F39" s="28" t="n">
-        <v>774.3</v>
+        <v>7412.23</v>
       </c>
       <c r="G39" s="26" t="inlineStr">
         <is>
@@ -2477,83 +2403,83 @@
         </is>
       </c>
       <c r="H39" s="27" t="n">
-        <v>0.77</v>
+        <v>7.36</v>
       </c>
       <c r="I39" s="27" t="n">
-        <v>4.68</v>
+        <v>44.87</v>
       </c>
       <c r="J39" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L39" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M39" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N39" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O39" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P39" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R39" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S39" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T39" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U39" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V39" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W39" s="34" t="n">
-        <v>1108.25</v>
+        <v>1008.15</v>
       </c>
       <c r="X39" s="80" t="n">
         <v>46059</v>
       </c>
       <c r="Y39" s="33" t="n">
-        <v>0.422276</v>
+        <v>0.035259</v>
       </c>
       <c r="Z39" s="34" t="n">
-        <v>329.27</v>
+        <v>263.19</v>
       </c>
       <c r="AA39" s="34" t="n">
-        <v>1103.57</v>
+        <v>1004.41</v>
       </c>
       <c r="AB39" s="35" t="n">
         <v>1</v>
       </c>
       <c r="AC39" s="31">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD39" s="36" t="n"/>
@@ -2573,13 +2499,13 @@
         </is>
       </c>
       <c r="D40" s="27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E40" s="28" t="n">
         <v>774.3</v>
       </c>
       <c r="F40" s="28" t="n">
-        <v>6194.39</v>
+        <v>774.3</v>
       </c>
       <c r="G40" s="26" t="inlineStr">
         <is>
@@ -2587,61 +2513,61 @@
         </is>
       </c>
       <c r="H40" s="27" t="n">
-        <v>6.2</v>
+        <v>0.77</v>
       </c>
       <c r="I40" s="27" t="n">
-        <v>37.39</v>
+        <v>4.68</v>
       </c>
       <c r="J40" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L40" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M40" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N40" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O40" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P40" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R40" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S40" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T40" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U40" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V40" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W40" s="34" t="n">
@@ -2651,19 +2577,19 @@
         <v>46059</v>
       </c>
       <c r="Y40" s="33" t="n">
-        <v>0.369498</v>
+        <v>0.422276</v>
       </c>
       <c r="Z40" s="34" t="n">
-        <v>2304.92</v>
+        <v>329.27</v>
       </c>
       <c r="AA40" s="34" t="n">
-        <v>7725.02</v>
+        <v>1103.57</v>
       </c>
       <c r="AB40" s="35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC40" s="31">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD40" s="36" t="n"/>
@@ -2683,13 +2609,13 @@
         </is>
       </c>
       <c r="D41" s="27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E41" s="28" t="n">
         <v>774.3</v>
       </c>
       <c r="F41" s="28" t="n">
-        <v>774.3</v>
+        <v>6194.39</v>
       </c>
       <c r="G41" s="26" t="inlineStr">
         <is>
@@ -2697,61 +2623,61 @@
         </is>
       </c>
       <c r="H41" s="27" t="n">
-        <v>0.77</v>
+        <v>6.2</v>
       </c>
       <c r="I41" s="27" t="n">
-        <v>4.68</v>
+        <v>37.39</v>
       </c>
       <c r="J41" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L41" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M41" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N41" s="32">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O41" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P41" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R41" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S41" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T41" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U41" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V41" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W41" s="34" t="n">
@@ -2761,26 +2687,26 @@
         <v>46059</v>
       </c>
       <c r="Y41" s="33" t="n">
-        <v>0.422276</v>
+        <v>0.369498</v>
       </c>
       <c r="Z41" s="34" t="n">
-        <v>329.27</v>
+        <v>2304.92</v>
       </c>
       <c r="AA41" s="34" t="n">
-        <v>1103.57</v>
+        <v>7725.02</v>
       </c>
       <c r="AB41" s="35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC41" s="31">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD41" s="36" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="68">
       <c r="A42" s="25" t="n">
-        <v>45306</v>
+        <v>45812</v>
       </c>
       <c r="B42" s="26" t="inlineStr">
         <is>
@@ -2789,17 +2715,17 @@
       </c>
       <c r="C42" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D42" s="27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E42" s="28" t="n">
-        <v>554.28</v>
+        <v>774.3</v>
       </c>
       <c r="F42" s="28" t="n">
-        <v>5542.84</v>
+        <v>774.3</v>
       </c>
       <c r="G42" s="26" t="inlineStr">
         <is>
@@ -2807,81 +2733,90 @@
         </is>
       </c>
       <c r="H42" s="27" t="n">
-        <v>6</v>
+        <v>0.77</v>
       </c>
       <c r="I42" s="27" t="n">
-        <v>33.16</v>
+        <v>4.68</v>
       </c>
       <c r="J42" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L42" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M42" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N42" s="32">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O42" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P42" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R42" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S42" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T42" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U42" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V42" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="W42" s="34" t="n"/>
-      <c r="X42" s="34" t="n"/>
-      <c r="Y42" s="33">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
-        <v/>
-      </c>
-      <c r="Z42" s="34" t="n"/>
-      <c r="AA42" s="34" t="n"/>
-      <c r="AB42" s="35" t="n"/>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W42" s="34" t="n">
+        <v>1108.25</v>
+      </c>
+      <c r="X42" s="80" t="n">
+        <v>46059</v>
+      </c>
+      <c r="Y42" s="33" t="n">
+        <v>0.422276</v>
+      </c>
+      <c r="Z42" s="34" t="n">
+        <v>329.27</v>
+      </c>
+      <c r="AA42" s="34" t="n">
+        <v>1103.57</v>
+      </c>
+      <c r="AB42" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="AC42" s="31">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD42" s="36" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="68">
       <c r="A43" s="25" t="n">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B43" s="26" t="inlineStr">
         <is>
@@ -2894,13 +2829,13 @@
         </is>
       </c>
       <c r="D43" s="27" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E43" s="28" t="n">
-        <v>492.45</v>
+        <v>554.28</v>
       </c>
       <c r="F43" s="28" t="n">
-        <v>14773.61</v>
+        <v>5542.84</v>
       </c>
       <c r="G43" s="26" t="inlineStr">
         <is>
@@ -2908,74 +2843,74 @@
         </is>
       </c>
       <c r="H43" s="27" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I43" s="27" t="n">
-        <v>88.39</v>
+        <v>33.16</v>
       </c>
       <c r="J43" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L43" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M43" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N43" s="32">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O43" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P43" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R43" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S43" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T43" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U43" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V43" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W43" s="34" t="n"/>
       <c r="X43" s="34" t="n"/>
       <c r="Y43" s="33">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z43" s="34" t="n"/>
       <c r="AA43" s="34" t="n"/>
       <c r="AB43" s="35" t="n"/>
       <c r="AC43" s="31">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD43" s="36" t="n"/>
@@ -2995,13 +2930,13 @@
         </is>
       </c>
       <c r="D44" s="27" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E44" s="28" t="n">
         <v>492.45</v>
       </c>
       <c r="F44" s="28" t="n">
-        <v>4924.53</v>
+        <v>14773.61</v>
       </c>
       <c r="G44" s="26" t="inlineStr">
         <is>
@@ -3009,81 +2944,81 @@
         </is>
       </c>
       <c r="H44" s="27" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I44" s="27" t="n">
-        <v>29.47</v>
+        <v>88.39</v>
       </c>
       <c r="J44" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L44" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M44" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N44" s="32">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O44" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P44" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R44" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S44" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T44" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U44" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V44" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W44" s="34" t="n"/>
       <c r="X44" s="34" t="n"/>
       <c r="Y44" s="33">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z44" s="34" t="n"/>
       <c r="AA44" s="34" t="n"/>
       <c r="AB44" s="35" t="n"/>
       <c r="AC44" s="31">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD44" s="36" t="n"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="68">
       <c r="A45" s="25" t="n">
-        <v>45282</v>
+        <v>45303</v>
       </c>
       <c r="B45" s="26" t="inlineStr">
         <is>
@@ -3092,17 +3027,17 @@
       </c>
       <c r="C45" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D45" s="27" t="n">
         <v>10</v>
       </c>
       <c r="E45" s="28" t="n">
-        <v>402.13</v>
+        <v>492.45</v>
       </c>
       <c r="F45" s="28" t="n">
-        <v>4021.34</v>
+        <v>4924.53</v>
       </c>
       <c r="G45" s="26" t="inlineStr">
         <is>
@@ -3110,103 +3045,81 @@
         </is>
       </c>
       <c r="H45" s="27" t="n">
-        <v>3.99</v>
+        <v>5</v>
       </c>
       <c r="I45" s="27" t="n">
-        <v>24.35</v>
+        <v>29.47</v>
       </c>
       <c r="J45" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L45" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M45" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N45" s="32">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O45" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P45" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R45" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S45" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T45" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U45" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V45" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W45" s="34" t="n">
-        <v>513.0599999999999</v>
-      </c>
-      <c r="X45" s="25" t="n">
-        <v>45306</v>
-      </c>
-      <c r="Y45" s="37">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z45" s="38" t="n">
-        <v>-221.85</v>
-      </c>
-      <c r="AA45" s="38" t="n">
-        <v>225</v>
-      </c>
-      <c r="AB45" s="39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC45" s="40">
-        <f>IF(B26="DIV", F26,"")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W45" s="34" t="n"/>
+      <c r="X45" s="34" t="n"/>
+      <c r="Y45" s="33">
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z45" s="34" t="n"/>
+      <c r="AA45" s="34" t="n"/>
+      <c r="AB45" s="35" t="n"/>
+      <c r="AC45" s="31">
+        <f>IF(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD45" s="36" t="n"/>
-      <c r="AE45" s="41" t="n"/>
-      <c r="AF45" s="41" t="n"/>
-      <c r="AG45" s="41" t="n"/>
-      <c r="AH45" s="41" t="n"/>
-      <c r="AI45" s="41" t="n"/>
-      <c r="AJ45" s="41" t="n"/>
-      <c r="AK45" s="41" t="n"/>
-      <c r="AL45" s="41" t="n"/>
-      <c r="AM45" s="41" t="n"/>
-      <c r="AN45" s="41" t="n"/>
-      <c r="AO45" s="41" t="n"/>
-      <c r="AP45" s="41" t="n"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="68">
       <c r="A46" s="25" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B46" s="26" t="inlineStr">
         <is>
@@ -3222,10 +3135,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="28" t="n">
-        <v>399.61</v>
+        <v>402.13</v>
       </c>
       <c r="F46" s="28" t="n">
-        <v>3996.05</v>
+        <v>4021.34</v>
       </c>
       <c r="G46" s="26" t="inlineStr">
         <is>
@@ -3233,61 +3146,61 @@
         </is>
       </c>
       <c r="H46" s="27" t="n">
-        <v>3.96</v>
+        <v>3.99</v>
       </c>
       <c r="I46" s="27" t="n">
-        <v>24.09</v>
+        <v>24.35</v>
       </c>
       <c r="J46" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="30">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L46" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M46" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N46" s="32">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O46" s="30">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P46" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R46" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S46" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T46" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U46" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V46" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W46" s="34" t="n">
@@ -3297,20 +3210,20 @@
         <v>45306</v>
       </c>
       <c r="Y46" s="37">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z46" s="38" t="n">
-        <v>-3279.436</v>
+        <v>-221.85</v>
       </c>
       <c r="AA46" s="38" t="n">
-        <v>3326</v>
+        <v>225</v>
       </c>
       <c r="AB46" s="39" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AC46" s="40">
-        <f>IF(B27="DIV", F27,"")</f>
+        <f>IF(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD46" s="36" t="n"/>
@@ -3329,7 +3242,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1" s="68">
       <c r="A47" s="25" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B47" s="26" t="inlineStr">
         <is>
@@ -3342,13 +3255,13 @@
         </is>
       </c>
       <c r="D47" s="27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E47" s="28" t="n">
-        <v>399.21</v>
+        <v>399.61</v>
       </c>
       <c r="F47" s="28" t="n">
-        <v>2794.47</v>
+        <v>3996.05</v>
       </c>
       <c r="G47" s="26" t="inlineStr">
         <is>
@@ -3356,61 +3269,61 @@
         </is>
       </c>
       <c r="H47" s="27" t="n">
-        <v>2.77</v>
+        <v>3.96</v>
       </c>
       <c r="I47" s="27" t="n">
-        <v>16.9</v>
+        <v>24.09</v>
       </c>
       <c r="J47" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L47" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M47" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N47" s="32">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O47" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P47" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R47" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S47" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T47" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U47" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V47" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W47" s="34" t="n">
@@ -3419,20 +3332,21 @@
       <c r="X47" s="25" t="n">
         <v>45306</v>
       </c>
-      <c r="Y47" s="37" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z47" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA47" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB47" s="39" t="e">
-        <v>#REF!</v>
+      <c r="Y47" s="37">
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <v/>
+      </c>
+      <c r="Z47" s="38" t="n">
+        <v>-3279.436</v>
+      </c>
+      <c r="AA47" s="38" t="n">
+        <v>3326</v>
+      </c>
+      <c r="AB47" s="39" t="n">
+        <v>5</v>
       </c>
       <c r="AC47" s="40">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <f>IF(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD47" s="36" t="n"/>
@@ -3450,8 +3364,8 @@
       <c r="AP47" s="41" t="n"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="68">
-      <c r="A48" s="42" t="n">
-        <v>45225</v>
+      <c r="A48" s="25" t="n">
+        <v>45258</v>
       </c>
       <c r="B48" s="26" t="inlineStr">
         <is>
@@ -3464,13 +3378,13 @@
         </is>
       </c>
       <c r="D48" s="27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E48" s="28" t="n">
-        <v>392.37</v>
+        <v>399.21</v>
       </c>
       <c r="F48" s="28" t="n">
-        <v>1569.46</v>
+        <v>2794.47</v>
       </c>
       <c r="G48" s="26" t="inlineStr">
         <is>
@@ -3478,10 +3392,10 @@
         </is>
       </c>
       <c r="H48" s="27" t="n">
-        <v>1.57</v>
+        <v>2.77</v>
       </c>
       <c r="I48" s="27" t="n">
-        <v>9.49</v>
+        <v>16.9</v>
       </c>
       <c r="J48" s="29">
         <f>Index!$C$2</f>
@@ -3559,10 +3473,21 @@
       </c>
       <c r="AD48" s="36" t="n"/>
       <c r="AE48" s="41" t="n"/>
+      <c r="AF48" s="41" t="n"/>
+      <c r="AG48" s="41" t="n"/>
+      <c r="AH48" s="41" t="n"/>
+      <c r="AI48" s="41" t="n"/>
+      <c r="AJ48" s="41" t="n"/>
+      <c r="AK48" s="41" t="n"/>
+      <c r="AL48" s="41" t="n"/>
+      <c r="AM48" s="41" t="n"/>
+      <c r="AN48" s="41" t="n"/>
+      <c r="AO48" s="41" t="n"/>
+      <c r="AP48" s="41" t="n"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="68">
       <c r="A49" s="42" t="n">
-        <v>45183</v>
+        <v>45225</v>
       </c>
       <c r="B49" s="26" t="inlineStr">
         <is>
@@ -3571,17 +3496,17 @@
       </c>
       <c r="C49" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D49" s="27" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E49" s="28" t="n">
-        <v>459.59</v>
+        <v>392.37</v>
       </c>
       <c r="F49" s="28" t="n">
-        <v>16545.32</v>
+        <v>1569.46</v>
       </c>
       <c r="G49" s="26" t="inlineStr">
         <is>
@@ -3589,10 +3514,10 @@
         </is>
       </c>
       <c r="H49" s="27" t="n">
-        <v>16.68</v>
+        <v>1.57</v>
       </c>
       <c r="I49" s="27" t="n">
-        <v>98.8</v>
+        <v>9.49</v>
       </c>
       <c r="J49" s="29">
         <f>Index!$C$2</f>
@@ -3646,42 +3571,53 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W49" s="34" t="n"/>
-      <c r="X49" s="34" t="n"/>
-      <c r="Y49" s="33" t="e">
+      <c r="W49" s="34" t="n">
+        <v>513.0599999999999</v>
+      </c>
+      <c r="X49" s="25" t="n">
+        <v>45306</v>
+      </c>
+      <c r="Y49" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z49" s="34" t="n"/>
-      <c r="AA49" s="34" t="n"/>
-      <c r="AB49" s="35" t="n"/>
-      <c r="AC49" s="31">
+      <c r="Z49" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA49" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB49" s="39" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AC49" s="40">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD49" s="36" t="n"/>
+      <c r="AE49" s="41" t="n"/>
     </row>
     <row r="50" ht="13" customHeight="1" s="68">
       <c r="A50" s="42" t="n">
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="B50" s="26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C50" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D50" s="27" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E50" s="28" t="n">
-        <v>433.95</v>
+        <v>459.59</v>
       </c>
       <c r="F50" s="28" t="n">
-        <v>1735.79</v>
+        <v>16545.32</v>
       </c>
       <c r="G50" s="26" t="inlineStr">
         <is>
@@ -3689,10 +3625,10 @@
         </is>
       </c>
       <c r="H50" s="27" t="n">
-        <v>1.72</v>
+        <v>16.68</v>
       </c>
       <c r="I50" s="27" t="n">
-        <v>10.47</v>
+        <v>98.8</v>
       </c>
       <c r="J50" s="29">
         <f>Index!$C$2</f>
@@ -3746,38 +3682,27 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W50" s="34" t="n">
-        <v>513.0599999999999</v>
-      </c>
-      <c r="X50" s="25" t="n">
-        <v>45306</v>
-      </c>
-      <c r="Y50" s="37" t="e">
+      <c r="W50" s="34" t="n"/>
+      <c r="X50" s="34" t="n"/>
+      <c r="Y50" s="33" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z50" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA50" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB50" s="39" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC50" s="40">
+      <c r="Z50" s="34" t="n"/>
+      <c r="AA50" s="34" t="n"/>
+      <c r="AB50" s="35" t="n"/>
+      <c r="AC50" s="31">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD50" s="36" t="n"/>
-      <c r="AE50" s="41" t="n"/>
     </row>
     <row r="51" ht="13" customHeight="1" s="68">
       <c r="A51" s="42" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B51" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C51" s="26" t="inlineStr">
@@ -3786,13 +3711,13 @@
         </is>
       </c>
       <c r="D51" s="27" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E51" s="28" t="n">
-        <v>444.44</v>
+        <v>433.95</v>
       </c>
       <c r="F51" s="28" t="n">
-        <v>4444.36</v>
+        <v>1735.79</v>
       </c>
       <c r="G51" s="26" t="inlineStr">
         <is>
@@ -3800,10 +3725,10 @@
         </is>
       </c>
       <c r="H51" s="27" t="n">
-        <v>4.4</v>
+        <v>1.72</v>
       </c>
       <c r="I51" s="27" t="n">
-        <v>26.96</v>
+        <v>10.47</v>
       </c>
       <c r="J51" s="29">
         <f>Index!$C$2</f>
@@ -3884,11 +3809,11 @@
     </row>
     <row r="52" ht="13" customHeight="1" s="68">
       <c r="A52" s="42" t="n">
-        <v>45162</v>
+        <v>45180</v>
       </c>
       <c r="B52" s="26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C52" s="26" t="inlineStr">
@@ -3897,13 +3822,13 @@
         </is>
       </c>
       <c r="D52" s="27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E52" s="28" t="n">
-        <v>433.05</v>
+        <v>444.44</v>
       </c>
       <c r="F52" s="28" t="n">
-        <v>2165.25</v>
+        <v>4444.36</v>
       </c>
       <c r="G52" s="26" t="inlineStr">
         <is>
@@ -3911,10 +3836,10 @@
         </is>
       </c>
       <c r="H52" s="27" t="n">
-        <v>2.13</v>
+        <v>4.4</v>
       </c>
       <c r="I52" s="27" t="n">
-        <v>13.12</v>
+        <v>26.96</v>
       </c>
       <c r="J52" s="29">
         <f>Index!$C$2</f>
@@ -3994,12 +3919,12 @@
       <c r="AE52" s="41" t="n"/>
     </row>
     <row r="53" ht="13" customHeight="1" s="68">
-      <c r="A53" s="25" t="n">
-        <v>45141</v>
+      <c r="A53" s="42" t="n">
+        <v>45162</v>
       </c>
       <c r="B53" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C53" s="26" t="inlineStr">
@@ -4008,24 +3933,24 @@
         </is>
       </c>
       <c r="D53" s="27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E53" s="28" t="n">
-        <v>6.25</v>
+        <v>433.05</v>
       </c>
       <c r="F53" s="28" t="n">
-        <v>62.5</v>
+        <v>2165.25</v>
       </c>
       <c r="G53" s="26" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.6.2500/- per share on Ex-Date: 03-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H53" s="27" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="I53" s="27" t="n">
-        <v>0</v>
+        <v>13.12</v>
       </c>
       <c r="J53" s="29">
         <f>Index!$C$2</f>
@@ -4079,19 +4004,30 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W53" s="34" t="n"/>
-      <c r="X53" s="34" t="n"/>
-      <c r="Y53" s="33" t="e">
+      <c r="W53" s="34" t="n">
+        <v>513.0599999999999</v>
+      </c>
+      <c r="X53" s="25" t="n">
+        <v>45306</v>
+      </c>
+      <c r="Y53" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z53" s="34" t="n"/>
-      <c r="AA53" s="34" t="n"/>
-      <c r="AB53" s="35" t="n"/>
-      <c r="AC53" s="31">
+      <c r="Z53" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA53" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB53" s="39" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AC53" s="40">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD53" s="36" t="n"/>
+      <c r="AE53" s="41" t="n"/>
     </row>
     <row r="54" ht="13" customHeight="1" s="68">
       <c r="A54" s="25" t="n">
@@ -4108,13 +4044,13 @@
         </is>
       </c>
       <c r="D54" s="27" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E54" s="28" t="n">
         <v>6.25</v>
       </c>
       <c r="F54" s="28" t="n">
-        <v>162.5</v>
+        <v>62.5</v>
       </c>
       <c r="G54" s="26" t="inlineStr">
         <is>
@@ -4194,12 +4130,12 @@
       <c r="AD54" s="36" t="n"/>
     </row>
     <row r="55" ht="13" customHeight="1" s="68">
-      <c r="A55" s="42" t="n">
-        <v>45131</v>
+      <c r="A55" s="25" t="n">
+        <v>45141</v>
       </c>
       <c r="B55" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C55" s="26" t="inlineStr">
@@ -4208,24 +4144,24 @@
         </is>
       </c>
       <c r="D55" s="27" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E55" s="28" t="n">
-        <v>404.79</v>
+        <v>6.25</v>
       </c>
       <c r="F55" s="28" t="n">
-        <v>1619.16</v>
+        <v>162.5</v>
       </c>
       <c r="G55" s="26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.6.2500/- per share on Ex-Date: 03-AUG-2023</t>
         </is>
       </c>
       <c r="H55" s="27" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I55" s="27" t="n">
-        <v>9.76</v>
+        <v>0</v>
       </c>
       <c r="J55" s="29">
         <f>Index!$C$2</f>
@@ -4279,30 +4215,19 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W55" s="43" t="n">
-        <v>456.382222</v>
-      </c>
-      <c r="X55" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y55" s="37" t="e">
+      <c r="W55" s="34" t="n"/>
+      <c r="X55" s="34" t="n"/>
+      <c r="Y55" s="33" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z55" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA55" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB55" s="39" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC55" s="40">
+      <c r="Z55" s="34" t="n"/>
+      <c r="AA55" s="34" t="n"/>
+      <c r="AB55" s="35" t="n"/>
+      <c r="AC55" s="31">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD55" s="36" t="n"/>
-      <c r="AE55" s="41" t="n"/>
     </row>
     <row r="56" ht="13" customHeight="1" s="68">
       <c r="A56" s="42" t="n">
@@ -4319,13 +4244,13 @@
         </is>
       </c>
       <c r="D56" s="27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56" s="28" t="n">
-        <v>404.8</v>
+        <v>404.79</v>
       </c>
       <c r="F56" s="28" t="n">
-        <v>809.59</v>
+        <v>1619.16</v>
       </c>
       <c r="G56" s="26" t="inlineStr">
         <is>
@@ -4333,10 +4258,10 @@
         </is>
       </c>
       <c r="H56" s="27" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="I56" s="27" t="n">
-        <v>4.89</v>
+        <v>9.76</v>
       </c>
       <c r="J56" s="29">
         <f>Index!$C$2</f>
@@ -4417,11 +4342,11 @@
     </row>
     <row r="57" ht="13" customHeight="1" s="68">
       <c r="A57" s="42" t="n">
-        <v>45034</v>
+        <v>45131</v>
       </c>
       <c r="B57" s="26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C57" s="26" t="inlineStr">
@@ -4433,10 +4358,10 @@
         <v>2</v>
       </c>
       <c r="E57" s="28" t="n">
-        <v>364.03</v>
+        <v>404.8</v>
       </c>
       <c r="F57" s="28" t="n">
-        <v>728.0599999999999</v>
+        <v>809.59</v>
       </c>
       <c r="G57" s="26" t="inlineStr">
         <is>
@@ -4444,10 +4369,10 @@
         </is>
       </c>
       <c r="H57" s="27" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="I57" s="27" t="n">
-        <v>4.44</v>
+        <v>4.89</v>
       </c>
       <c r="J57" s="29">
         <f>Index!$C$2</f>
@@ -4541,13 +4466,13 @@
         </is>
       </c>
       <c r="D58" s="27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E58" s="28" t="n">
-        <v>363.87</v>
+        <v>364.03</v>
       </c>
       <c r="F58" s="28" t="n">
-        <v>2910.96</v>
+        <v>728.0599999999999</v>
       </c>
       <c r="G58" s="26" t="inlineStr">
         <is>
@@ -4555,10 +4480,10 @@
         </is>
       </c>
       <c r="H58" s="27" t="n">
-        <v>2.9</v>
+        <v>0.72</v>
       </c>
       <c r="I58" s="27" t="n">
-        <v>17.66</v>
+        <v>4.44</v>
       </c>
       <c r="J58" s="29">
         <f>Index!$C$2</f>
@@ -4639,11 +4564,11 @@
     </row>
     <row r="59" ht="13" customHeight="1" s="68">
       <c r="A59" s="42" t="n">
-        <v>44953</v>
+        <v>45034</v>
       </c>
       <c r="B59" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C59" s="26" t="inlineStr">
@@ -4652,13 +4577,13 @@
         </is>
       </c>
       <c r="D59" s="27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" s="28" t="n">
-        <v>378.71</v>
+        <v>363.87</v>
       </c>
       <c r="F59" s="28" t="n">
-        <v>3408.42</v>
+        <v>2910.96</v>
       </c>
       <c r="G59" s="26" t="inlineStr">
         <is>
@@ -4666,10 +4591,10 @@
         </is>
       </c>
       <c r="H59" s="27" t="n">
-        <v>3.34</v>
+        <v>2.9</v>
       </c>
       <c r="I59" s="27" t="n">
-        <v>20.63</v>
+        <v>17.66</v>
       </c>
       <c r="J59" s="29">
         <f>Index!$C$2</f>
@@ -4763,13 +4688,13 @@
         </is>
       </c>
       <c r="D60" s="27" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E60" s="28" t="n">
-        <v>378.72</v>
+        <v>378.71</v>
       </c>
       <c r="F60" s="28" t="n">
-        <v>378.72</v>
+        <v>3408.42</v>
       </c>
       <c r="G60" s="26" t="inlineStr">
         <is>
@@ -4777,10 +4702,10 @@
         </is>
       </c>
       <c r="H60" s="27" t="n">
-        <v>0.38</v>
+        <v>3.34</v>
       </c>
       <c r="I60" s="27" t="n">
-        <v>2.29</v>
+        <v>20.63</v>
       </c>
       <c r="J60" s="29">
         <f>Index!$C$2</f>
@@ -4861,7 +4786,7 @@
     </row>
     <row r="61" ht="13" customHeight="1" s="68">
       <c r="A61" s="42" t="n">
-        <v>44950</v>
+        <v>44953</v>
       </c>
       <c r="B61" s="26" t="inlineStr">
         <is>
@@ -4874,13 +4799,13 @@
         </is>
       </c>
       <c r="D61" s="27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E61" s="28" t="n">
-        <v>390.75</v>
+        <v>378.72</v>
       </c>
       <c r="F61" s="28" t="n">
-        <v>3907.45</v>
+        <v>378.72</v>
       </c>
       <c r="G61" s="26" t="inlineStr">
         <is>
@@ -4888,61 +4813,61 @@
         </is>
       </c>
       <c r="H61" s="27" t="n">
-        <v>3.86</v>
+        <v>0.38</v>
       </c>
       <c r="I61" s="27" t="n">
-        <v>23.59</v>
+        <v>2.29</v>
       </c>
       <c r="J61" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K61" s="30">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="L61" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="M61" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="N61" s="32">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
       <c r="O61" s="30">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="P61" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="R61" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="S61" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="T61" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="U61" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="V61" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="W61" s="43" t="n">
@@ -4951,29 +4876,28 @@
       <c r="X61" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y61" s="37">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
-        <v/>
-      </c>
-      <c r="Z61" s="38" t="n">
-        <v>-7308.4292</v>
-      </c>
-      <c r="AA61" s="38" t="n">
-        <v>7412.200000000001</v>
-      </c>
-      <c r="AB61" s="39" t="n">
-        <v>10</v>
+      <c r="Y61" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z61" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA61" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB61" s="39" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AC61" s="40">
-        <f>IF(B28="DIV", F28,"")</f>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD61" s="36" t="n"/>
       <c r="AE61" s="41" t="n"/>
     </row>
     <row r="62" ht="13" customHeight="1" s="68">
-      <c r="A62" s="25" t="n">
-        <v>44232</v>
+      <c r="A62" s="42" t="n">
+        <v>44950</v>
       </c>
       <c r="B62" s="26" t="inlineStr">
         <is>
@@ -4982,95 +4906,110 @@
       </c>
       <c r="C62" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D62" s="27" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E62" s="28" t="n">
-        <v>512.11</v>
+        <v>390.75</v>
       </c>
       <c r="F62" s="28" t="n">
-        <v>28165.9</v>
-      </c>
-      <c r="G62" s="26" t="n"/>
+        <v>3907.45</v>
+      </c>
+      <c r="G62" s="26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
       <c r="H62" s="27" t="n">
-        <v>28.33</v>
+        <v>3.86</v>
       </c>
       <c r="I62" s="27" t="n">
-        <v>168.47</v>
+        <v>23.59</v>
       </c>
       <c r="J62" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K62" s="30">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L62" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M62" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N62" s="32">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O62" s="30">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P62" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R62" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S62" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T62" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U62" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V62" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
-        <v/>
-      </c>
-      <c r="W62" s="45" t="n"/>
-      <c r="X62" s="34" t="n"/>
-      <c r="Y62" s="33">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
-        <v/>
-      </c>
-      <c r="Z62" s="34" t="n"/>
-      <c r="AA62" s="34" t="n"/>
-      <c r="AB62" s="35" t="n"/>
-      <c r="AC62" s="31">
-        <f>IF(B29="DIV", F29,"")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <v/>
+      </c>
+      <c r="W62" s="43" t="n">
+        <v>456.382222</v>
+      </c>
+      <c r="X62" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y62" s="37">
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
+        <v/>
+      </c>
+      <c r="Z62" s="38" t="n">
+        <v>-7308.4292</v>
+      </c>
+      <c r="AA62" s="38" t="n">
+        <v>7412.200000000001</v>
+      </c>
+      <c r="AB62" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC62" s="40">
+        <f>IF(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD62" s="36" t="n"/>
+      <c r="AE62" s="41" t="n"/>
     </row>
     <row r="63" ht="13" customHeight="1" s="68">
       <c r="A63" s="25" t="n">
-        <v>44228</v>
+        <v>44232</v>
       </c>
       <c r="B63" s="26" t="inlineStr">
         <is>
@@ -5083,91 +5022,91 @@
         </is>
       </c>
       <c r="D63" s="27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E63" s="28" t="n">
-        <v>517.9299999999999</v>
+        <v>512.11</v>
       </c>
       <c r="F63" s="28" t="n">
-        <v>25896.47</v>
+        <v>28165.9</v>
       </c>
       <c r="G63" s="26" t="n"/>
       <c r="H63" s="27" t="n">
-        <v>26.08</v>
+        <v>28.33</v>
       </c>
       <c r="I63" s="27" t="n">
-        <v>154.95</v>
+        <v>168.47</v>
       </c>
       <c r="J63" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K63" s="30">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L63" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M63" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N63" s="32">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O63" s="30">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P63" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R63" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S63" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T63" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U63" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V63" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W63" s="45" t="n"/>
       <c r="X63" s="34" t="n"/>
       <c r="Y63" s="33">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z63" s="34" t="n"/>
       <c r="AA63" s="34" t="n"/>
       <c r="AB63" s="35" t="n"/>
       <c r="AC63" s="31">
-        <f>IF(B30="DIV", F30,"")</f>
+        <f>IF(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD63" s="36" t="n"/>
     </row>
     <row r="64" ht="13" customHeight="1" s="68">
-      <c r="A64" s="42" t="n">
-        <v>44152</v>
+      <c r="A64" s="25" t="n">
+        <v>44228</v>
       </c>
       <c r="B64" s="26" t="inlineStr">
         <is>
@@ -5176,106 +5115,95 @@
       </c>
       <c r="C64" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D64" s="27" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E64" s="28" t="n">
-        <v>487.94</v>
+        <v>517.9299999999999</v>
       </c>
       <c r="F64" s="28" t="n">
-        <v>2439.72</v>
+        <v>25896.47</v>
       </c>
       <c r="G64" s="26" t="n"/>
       <c r="H64" s="27" t="n">
-        <v>1.97</v>
+        <v>26.08</v>
       </c>
       <c r="I64" s="27" t="n">
-        <v>14.75</v>
+        <v>154.95</v>
       </c>
       <c r="J64" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K64" s="30">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L64" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M64" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N64" s="32">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O64" s="30">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P64" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R64" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S64" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T64" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U64" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V64" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
-        <v/>
-      </c>
-      <c r="W64" s="43" t="n">
-        <v>508.531818</v>
-      </c>
-      <c r="X64" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y64" s="37">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
-        <v/>
-      </c>
-      <c r="Z64" s="38" t="n">
-        <v>-763.4598</v>
-      </c>
-      <c r="AA64" s="38" t="n">
-        <v>774.3</v>
-      </c>
-      <c r="AB64" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC64" s="40">
-        <f>IF(B31="DIV", F31,"")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W64" s="45" t="n"/>
+      <c r="X64" s="34" t="n"/>
+      <c r="Y64" s="33">
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z64" s="34" t="n"/>
+      <c r="AA64" s="34" t="n"/>
+      <c r="AB64" s="35" t="n"/>
+      <c r="AC64" s="31">
+        <f>IF(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD64" s="36" t="n"/>
-      <c r="AE64" s="41" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1" s="68">
       <c r="A65" s="42" t="n">
-        <v>44089</v>
+        <v>44152</v>
       </c>
       <c r="B65" s="26" t="inlineStr">
         <is>
@@ -5284,200 +5212,207 @@
       </c>
       <c r="C65" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D65" s="27" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E65" s="28" t="n">
-        <v>536.5700000000001</v>
+        <v>487.94</v>
       </c>
       <c r="F65" s="28" t="n">
-        <v>10731.39</v>
+        <v>2439.72</v>
       </c>
       <c r="G65" s="26" t="n"/>
       <c r="H65" s="27" t="n">
-        <v>10.56</v>
+        <v>1.97</v>
       </c>
       <c r="I65" s="27" t="n">
-        <v>65.05</v>
+        <v>14.75</v>
       </c>
       <c r="J65" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K65" s="30">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L65" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M65" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N65" s="32">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O65" s="30">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P65" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R65" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S65" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T65" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U65" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V65" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
-        <v/>
-      </c>
-      <c r="W65" s="45" t="n"/>
-      <c r="X65" s="34" t="n"/>
-      <c r="Y65" s="33">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
-        <v/>
-      </c>
-      <c r="Z65" s="34" t="n"/>
-      <c r="AA65" s="34" t="n"/>
-      <c r="AB65" s="35" t="n"/>
-      <c r="AC65" s="31">
-        <f>IF(B32="DIV", F32,"")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <v/>
+      </c>
+      <c r="W65" s="43" t="n">
+        <v>508.531818</v>
+      </c>
+      <c r="X65" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y65" s="37">
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
+        <v/>
+      </c>
+      <c r="Z65" s="38" t="n">
+        <v>-763.4598</v>
+      </c>
+      <c r="AA65" s="38" t="n">
+        <v>774.3</v>
+      </c>
+      <c r="AB65" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="40">
+        <f>IF(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD65" s="36" t="n"/>
+      <c r="AE65" s="41" t="n"/>
     </row>
     <row r="66" ht="13" customHeight="1" s="68">
       <c r="A66" s="42" t="n">
-        <v>44063</v>
+        <v>44089</v>
       </c>
       <c r="B66" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C66" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D66" s="27" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E66" s="28" t="n">
-        <v>0.09</v>
+        <v>536.5700000000001</v>
       </c>
       <c r="F66" s="28" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="G66" s="26" t="inlineStr">
-        <is>
-          <t>Dividend of Rs.0.0925/- per share on 20-AUG-2020 Final-Dividend of Rs.0.1000/- per share on Ex-Date: 20-AUG-2020</t>
-        </is>
-      </c>
+        <v>10731.39</v>
+      </c>
+      <c r="G66" s="26" t="n"/>
       <c r="H66" s="27" t="n">
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="I66" s="27" t="n">
-        <v>0</v>
+        <v>65.05</v>
       </c>
       <c r="J66" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K66" s="30">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L66" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M66" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N66" s="32">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O66" s="30">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P66" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R66" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S66" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T66" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U66" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V66" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W66" s="45" t="n"/>
       <c r="X66" s="34" t="n"/>
       <c r="Y66" s="33">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z66" s="34" t="n"/>
       <c r="AA66" s="34" t="n"/>
       <c r="AB66" s="35" t="n"/>
       <c r="AC66" s="31">
-        <f>IF(B33="DIV", F33,"")</f>
+        <f>IF(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD66" s="36" t="n"/>
     </row>
     <row r="67" ht="13" customHeight="1" s="68">
       <c r="A67" s="42" t="n">
-        <v>44043</v>
+        <v>44063</v>
       </c>
       <c r="B67" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C67" s="26" t="inlineStr">
@@ -5486,102 +5421,95 @@
         </is>
       </c>
       <c r="D67" s="27" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E67" s="28" t="n">
-        <v>453.3</v>
+        <v>0.09</v>
       </c>
       <c r="F67" s="28" t="n">
-        <v>4533.01</v>
-      </c>
-      <c r="G67" s="26" t="n"/>
+        <v>11.1</v>
+      </c>
+      <c r="G67" s="26" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.0.0925/- per share on 20-AUG-2020 Final-Dividend of Rs.0.1000/- per share on Ex-Date: 20-AUG-2020</t>
+        </is>
+      </c>
       <c r="H67" s="27" t="n">
-        <v>4.57</v>
+        <v>0</v>
       </c>
       <c r="I67" s="27" t="n">
-        <v>27.44</v>
+        <v>0</v>
       </c>
       <c r="J67" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="30">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L67" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M67" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N67" s="32">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O67" s="30">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P67" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R67" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S67" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T67" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U67" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V67" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
-        <v/>
-      </c>
-      <c r="W67" s="43" t="n">
-        <v>508.531818</v>
-      </c>
-      <c r="X67" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y67" s="37">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
-        <v/>
-      </c>
-      <c r="Z67" s="38" t="n">
-        <v>-4855.557</v>
-      </c>
-      <c r="AA67" s="38" t="n">
-        <v>4924.5</v>
-      </c>
-      <c r="AB67" s="39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC67" s="40">
-        <f>IF(B34="DIV", F34,"")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="W67" s="45" t="n"/>
+      <c r="X67" s="34" t="n"/>
+      <c r="Y67" s="33">
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <v/>
+      </c>
+      <c r="Z67" s="34" t="n"/>
+      <c r="AA67" s="34" t="n"/>
+      <c r="AB67" s="35" t="n"/>
+      <c r="AC67" s="31">
+        <f>IF(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD67" s="36" t="n"/>
-      <c r="AE67" s="41" t="n"/>
     </row>
     <row r="68" ht="13" customHeight="1" s="68">
       <c r="A68" s="42" t="n">
-        <v>44036</v>
+        <v>44043</v>
       </c>
       <c r="B68" s="26" t="inlineStr">
         <is>
@@ -5594,71 +5522,71 @@
         </is>
       </c>
       <c r="D68" s="27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E68" s="28" t="n">
-        <v>445.3</v>
+        <v>453.3</v>
       </c>
       <c r="F68" s="28" t="n">
-        <v>2226.52</v>
+        <v>4533.01</v>
       </c>
       <c r="G68" s="26" t="n"/>
       <c r="H68" s="27" t="n">
-        <v>2.23</v>
+        <v>4.57</v>
       </c>
       <c r="I68" s="27" t="n">
-        <v>13.29</v>
+        <v>27.44</v>
       </c>
       <c r="J68" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="30">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L68" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M68" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N68" s="32">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O68" s="30">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P68" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R68" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S68" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T68" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U68" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V68" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W68" s="43" t="n">
@@ -5667,28 +5595,29 @@
       <c r="X68" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y68" s="37" t="n">
-        <v>-0.05478210624049307</v>
+      <c r="Y68" s="37">
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
+        <v/>
       </c>
       <c r="Z68" s="38" t="n">
-        <v>1093.769799999999</v>
+        <v>-4855.557</v>
       </c>
       <c r="AA68" s="38" t="n">
-        <v>3799.45</v>
+        <v>4924.5</v>
       </c>
       <c r="AB68" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC68" s="40">
-        <f>IF(B35="DIV", F35,"")</f>
+        <f>IF(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD68" s="36" t="n"/>
       <c r="AE68" s="41" t="n"/>
     </row>
     <row r="69" ht="13" customHeight="1" s="68">
-      <c r="A69" s="46" t="n">
-        <v>43966</v>
+      <c r="A69" s="42" t="n">
+        <v>44036</v>
       </c>
       <c r="B69" s="26" t="inlineStr">
         <is>
@@ -5704,68 +5633,68 @@
         <v>5</v>
       </c>
       <c r="E69" s="28" t="n">
-        <v>425.17</v>
+        <v>445.3</v>
       </c>
       <c r="F69" s="28" t="n">
-        <v>2125.85</v>
+        <v>2226.52</v>
       </c>
       <c r="G69" s="26" t="n"/>
       <c r="H69" s="27" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="I69" s="27" t="n">
-        <v>10.6</v>
+        <v>13.29</v>
       </c>
       <c r="J69" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="30">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="L69" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M69" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N69" s="32">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O69" s="30">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="P69" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R69" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S69" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="T69" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="U69" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V69" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W69" s="43" t="n">
@@ -5775,27 +5704,27 @@
         <v>45565</v>
       </c>
       <c r="Y69" s="37" t="n">
-        <v>-0.8149489326805993</v>
+        <v>-0.05478210624049307</v>
       </c>
       <c r="Z69" s="38" t="n">
-        <v>1118.616999999999</v>
+        <v>1093.769799999999</v>
       </c>
       <c r="AA69" s="38" t="n">
-        <v>716.6640000000002</v>
+        <v>3799.45</v>
       </c>
       <c r="AB69" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC69" s="40">
-        <f>IF(B36="DIV", F36,"")</f>
+        <f>IF(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD69" s="36" t="n"/>
       <c r="AE69" s="41" t="n"/>
     </row>
     <row r="70" ht="13" customHeight="1" s="68">
-      <c r="A70" s="47" t="n">
-        <v>43959</v>
+      <c r="A70" s="46" t="n">
+        <v>43966</v>
       </c>
       <c r="B70" s="26" t="inlineStr">
         <is>
@@ -5808,71 +5737,71 @@
         </is>
       </c>
       <c r="D70" s="27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E70" s="28" t="n">
-        <v>406.67</v>
+        <v>425.17</v>
       </c>
       <c r="F70" s="28" t="n">
-        <v>4066.7</v>
+        <v>2125.85</v>
       </c>
       <c r="G70" s="26" t="n"/>
       <c r="H70" s="27" t="n">
         <v>0</v>
       </c>
       <c r="I70" s="27" t="n">
-        <v>20.2</v>
+        <v>10.6</v>
       </c>
       <c r="J70" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K70" s="30">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="L70" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M70" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N70" s="32">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O70" s="30">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="P70" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R70" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S70" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="T70" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="U70" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V70" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W70" s="43" t="n">
@@ -5881,20 +5810,20 @@
       <c r="X70" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y70" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y70" s="37" t="n">
+        <v>-0.8149489326805993</v>
       </c>
       <c r="Z70" s="38" t="n">
-        <v>785.7926999999999</v>
-      </c>
-      <c r="AA70" s="38" t="e">
-        <v>#REF!</v>
+        <v>1118.616999999999</v>
+      </c>
+      <c r="AA70" s="38" t="n">
+        <v>716.6640000000002</v>
       </c>
       <c r="AB70" s="39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC70" s="40">
-        <f>IF(B37="DIV", F37,"")</f>
+        <f>IF(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD70" s="36" t="n"/>
@@ -5902,7 +5831,7 @@
     </row>
     <row r="71" ht="13" customHeight="1" s="68">
       <c r="A71" s="47" t="n">
-        <v>43956</v>
+        <v>43959</v>
       </c>
       <c r="B71" s="26" t="inlineStr">
         <is>
@@ -5918,68 +5847,68 @@
         <v>10</v>
       </c>
       <c r="E71" s="28" t="n">
-        <v>408.43</v>
+        <v>406.67</v>
       </c>
       <c r="F71" s="28" t="n">
-        <v>4084.3</v>
+        <v>4066.7</v>
       </c>
       <c r="G71" s="26" t="n"/>
       <c r="H71" s="27" t="n">
         <v>0</v>
       </c>
       <c r="I71" s="27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="J71" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K71" s="30">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="L71" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M71" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N71" s="32">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O71" s="30">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="P71" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R71" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S71" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="T71" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="U71" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V71" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W71" s="43" t="n">
@@ -5992,24 +5921,24 @@
         <v>#REF!</v>
       </c>
       <c r="Z71" s="38" t="n">
-        <v>476.0013599999997</v>
+        <v>785.7926999999999</v>
       </c>
       <c r="AA71" s="38" t="e">
         <v>#REF!</v>
       </c>
       <c r="AB71" s="39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC71" s="40">
-        <f>IF(B38="DIV", F38,"")</f>
+        <f>IF(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD71" s="36" t="n"/>
       <c r="AE71" s="41" t="n"/>
     </row>
     <row r="72" ht="13" customHeight="1" s="68">
-      <c r="A72" s="42" t="n">
-        <v>43944</v>
+      <c r="A72" s="47" t="n">
+        <v>43956</v>
       </c>
       <c r="B72" s="26" t="inlineStr">
         <is>
@@ -6025,10 +5954,10 @@
         <v>10</v>
       </c>
       <c r="E72" s="28" t="n">
-        <v>408.93</v>
+        <v>408.43</v>
       </c>
       <c r="F72" s="28" t="n">
-        <v>4089.3</v>
+        <v>4084.3</v>
       </c>
       <c r="G72" s="26" t="n"/>
       <c r="H72" s="27" t="n">
@@ -6042,51 +5971,51 @@
         <v/>
       </c>
       <c r="K72" s="30">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="L72" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M72" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N72" s="32">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O72" s="30">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="P72" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R72" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S72" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="T72" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="U72" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V72" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W72" s="43" t="n">
@@ -6095,21 +6024,20 @@
       <c r="X72" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y72" s="37">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
-        <v/>
+      <c r="Y72" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z72" s="38" t="n">
-        <v>-16313.60664</v>
-      </c>
-      <c r="AA72" s="38" t="n">
-        <v>16545.24</v>
+        <v>476.0013599999997</v>
+      </c>
+      <c r="AA72" s="38" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AB72" s="39" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="AC72" s="40">
-        <f>IF(B39="DIV", F39,"")</f>
+        <f>IF(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD72" s="36" t="n"/>
@@ -6117,7 +6045,7 @@
     </row>
     <row r="73" ht="13" customHeight="1" s="68">
       <c r="A73" s="42" t="n">
-        <v>43921</v>
+        <v>43944</v>
       </c>
       <c r="B73" s="26" t="inlineStr">
         <is>
@@ -6133,90 +6061,91 @@
         <v>10</v>
       </c>
       <c r="E73" s="28" t="n">
-        <v>291.69</v>
+        <v>408.93</v>
       </c>
       <c r="F73" s="28" t="n">
-        <v>2916.95</v>
+        <v>4089.3</v>
       </c>
       <c r="G73" s="26" t="n"/>
       <c r="H73" s="27" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="I73" s="27" t="n">
-        <v>17.53</v>
+        <v>20.3</v>
       </c>
       <c r="J73" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K73" s="30">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="L73" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M73" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N73" s="32">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O73" s="30">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="P73" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R73" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S73" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="T73" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="U73" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V73" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W73" s="43" t="n">
-        <v>514.3094</v>
+        <v>508.531818</v>
       </c>
       <c r="X73" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y73" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y73" s="37">
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
+        <v/>
       </c>
       <c r="Z73" s="38" t="n">
-        <v>312.0098399999998</v>
-      </c>
-      <c r="AA73" s="38" t="e">
-        <v>#REF!</v>
+        <v>-16313.60664</v>
+      </c>
+      <c r="AA73" s="38" t="n">
+        <v>16545.24</v>
       </c>
       <c r="AB73" s="39" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="AC73" s="40">
-        <f>IF(B40="DIV", F40,"")</f>
+        <f>IF(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD73" s="36" t="n"/>
@@ -6224,7 +6153,7 @@
     </row>
     <row r="74" ht="13" customHeight="1" s="68">
       <c r="A74" s="42" t="n">
-        <v>43909</v>
+        <v>43921</v>
       </c>
       <c r="B74" s="26" t="inlineStr">
         <is>
@@ -6240,68 +6169,68 @@
         <v>10</v>
       </c>
       <c r="E74" s="28" t="n">
-        <v>287.77</v>
+        <v>291.69</v>
       </c>
       <c r="F74" s="28" t="n">
-        <v>2877.67</v>
+        <v>2916.95</v>
       </c>
       <c r="G74" s="26" t="n"/>
       <c r="H74" s="27" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="I74" s="27" t="n">
-        <v>17.29</v>
+        <v>17.53</v>
       </c>
       <c r="J74" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K74" s="30">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="L74" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M74" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N74" s="32">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O74" s="30">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="P74" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R74" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S74" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="T74" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="U74" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V74" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W74" s="43" t="n">
@@ -6314,16 +6243,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z74" s="38" t="n">
-        <v>676.5931999999998</v>
+        <v>312.0098399999998</v>
       </c>
       <c r="AA74" s="38" t="e">
         <v>#REF!</v>
       </c>
       <c r="AB74" s="39" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC74" s="40">
-        <f>IF(B41="DIV", F41,"")</f>
+        <f>IF(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD74" s="36" t="n"/>
@@ -6331,7 +6260,7 @@
     </row>
     <row r="75" ht="13" customHeight="1" s="68">
       <c r="A75" s="42" t="n">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="B75" s="26" t="inlineStr">
         <is>
@@ -6347,68 +6276,68 @@
         <v>10</v>
       </c>
       <c r="E75" s="28" t="n">
-        <v>310.27</v>
+        <v>287.77</v>
       </c>
       <c r="F75" s="28" t="n">
-        <v>3102.71</v>
+        <v>2877.67</v>
       </c>
       <c r="G75" s="26" t="n"/>
       <c r="H75" s="27" t="n">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="I75" s="27" t="n">
-        <v>18.53</v>
+        <v>17.29</v>
       </c>
       <c r="J75" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K75" s="30">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="L75" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M75" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N75" s="32">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O75" s="30">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="P75" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R75" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S75" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="T75" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="U75" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V75" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W75" s="43" t="n">
@@ -6421,16 +6350,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z75" s="38" t="n">
-        <v>394.4492999999997</v>
+        <v>676.5931999999998</v>
       </c>
       <c r="AA75" s="38" t="e">
         <v>#REF!</v>
       </c>
       <c r="AB75" s="39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC75" s="40">
-        <f>IF(B42="DIV", F42,"")</f>
+        <f>IF(B41="DIV", F41,"")</f>
         <v/>
       </c>
       <c r="AD75" s="36" t="n"/>
@@ -6438,7 +6367,7 @@
     </row>
     <row r="76" ht="13" customHeight="1" s="68">
       <c r="A76" s="42" t="n">
-        <v>43901</v>
+        <v>43906</v>
       </c>
       <c r="B76" s="26" t="inlineStr">
         <is>
@@ -6454,68 +6383,68 @@
         <v>10</v>
       </c>
       <c r="E76" s="28" t="n">
-        <v>365.5</v>
+        <v>310.27</v>
       </c>
       <c r="F76" s="28" t="n">
-        <v>3654.96</v>
+        <v>3102.71</v>
       </c>
       <c r="G76" s="26" t="n"/>
       <c r="H76" s="27" t="n">
-        <v>3.63</v>
+        <v>3.18</v>
       </c>
       <c r="I76" s="27" t="n">
-        <v>21.83</v>
+        <v>18.53</v>
       </c>
       <c r="J76" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K76" s="30">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="L76" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M76" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N76" s="32">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O76" s="30">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="P76" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R76" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S76" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="T76" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="U76" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V76" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W76" s="43" t="n">
@@ -6524,29 +6453,28 @@
       <c r="X76" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y76" s="37">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
-        <v/>
+      <c r="Y76" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z76" s="38" t="n">
-        <v>-61.625</v>
-      </c>
-      <c r="AA76" s="38" t="n">
-        <v>62.5</v>
+        <v>394.4492999999997</v>
+      </c>
+      <c r="AA76" s="38" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AB76" s="39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC76" s="40">
-        <f>IF(B43="DIV", F43,"")</f>
+        <f>IF(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD76" s="36" t="n"/>
       <c r="AE76" s="41" t="n"/>
     </row>
     <row r="77" ht="13" customHeight="1" s="68">
-      <c r="A77" s="25" t="n">
-        <v>43896</v>
+      <c r="A77" s="42" t="n">
+        <v>43901</v>
       </c>
       <c r="B77" s="26" t="inlineStr">
         <is>
@@ -6562,68 +6490,68 @@
         <v>10</v>
       </c>
       <c r="E77" s="28" t="n">
-        <v>396.6</v>
+        <v>365.5</v>
       </c>
       <c r="F77" s="28" t="n">
-        <v>3965.97</v>
+        <v>3654.96</v>
       </c>
       <c r="G77" s="26" t="n"/>
       <c r="H77" s="27" t="n">
-        <v>3.99</v>
+        <v>3.63</v>
       </c>
       <c r="I77" s="27" t="n">
-        <v>23.68</v>
+        <v>21.83</v>
       </c>
       <c r="J77" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K77" s="30">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="L77" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M77" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N77" s="32">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O77" s="30">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="P77" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R77" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S77" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="T77" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="U77" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V77" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W77" s="43" t="n">
@@ -6633,20 +6561,20 @@
         <v>45565</v>
       </c>
       <c r="Y77" s="37">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z77" s="38" t="n">
-        <v>-160.225</v>
+        <v>-61.625</v>
       </c>
       <c r="AA77" s="38" t="n">
-        <v>162.5</v>
+        <v>62.5</v>
       </c>
       <c r="AB77" s="39" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AC77" s="40">
-        <f>IF(B44="DIV", F44,"")</f>
+        <f>IF(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD77" s="36" t="n"/>
@@ -6654,7 +6582,7 @@
     </row>
     <row r="78" ht="13" customHeight="1" s="68">
       <c r="A78" s="25" t="n">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B78" s="26" t="inlineStr">
         <is>
@@ -6670,90 +6598,91 @@
         <v>10</v>
       </c>
       <c r="E78" s="28" t="n">
-        <v>420.94</v>
+        <v>396.6</v>
       </c>
       <c r="F78" s="28" t="n">
-        <v>4209.36</v>
+        <v>3965.97</v>
       </c>
       <c r="G78" s="26" t="n"/>
       <c r="H78" s="27" t="n">
-        <v>4.16</v>
+        <v>3.99</v>
       </c>
       <c r="I78" s="27" t="n">
-        <v>25.2</v>
+        <v>23.68</v>
       </c>
       <c r="J78" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K78" s="30">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="L78" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M78" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N78" s="32">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O78" s="30">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="P78" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R78" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S78" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="T78" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="U78" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V78" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W78" s="43" t="n">
-        <v>532.7895</v>
+        <v>514.3094</v>
       </c>
       <c r="X78" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y78" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y78" s="37">
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <v/>
       </c>
       <c r="Z78" s="38" t="n">
-        <v>203.479723568</v>
-      </c>
-      <c r="AA78" s="38" t="e">
-        <v>#REF!</v>
+        <v>-160.225</v>
+      </c>
+      <c r="AA78" s="38" t="n">
+        <v>162.5</v>
       </c>
       <c r="AB78" s="39" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="AC78" s="40">
-        <f>IF(B45="DIV", F45,"")</f>
+        <f>IF(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD78" s="36" t="n"/>
@@ -6765,7 +6694,7 @@
       </c>
       <c r="B79" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C79" s="26" t="inlineStr">
@@ -6777,95 +6706,102 @@
         <v>10</v>
       </c>
       <c r="E79" s="28" t="n">
-        <v>5</v>
+        <v>420.94</v>
       </c>
       <c r="F79" s="28" t="n">
-        <v>50</v>
-      </c>
-      <c r="G79" s="26" t="inlineStr">
-        <is>
-          <t>Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 05-MAR-2020</t>
-        </is>
-      </c>
+        <v>4209.36</v>
+      </c>
+      <c r="G79" s="26" t="n"/>
       <c r="H79" s="27" t="n">
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="I79" s="27" t="n">
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="J79" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K79" s="30">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="L79" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M79" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N79" s="32">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O79" s="30">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="P79" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R79" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S79" s="33">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="T79" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="U79" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V79" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
-        <v/>
-      </c>
-      <c r="W79" s="45" t="n"/>
-      <c r="X79" s="34" t="n"/>
-      <c r="Y79" s="33" t="e">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <v/>
+      </c>
+      <c r="W79" s="43" t="n">
+        <v>532.7895</v>
+      </c>
+      <c r="X79" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y79" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z79" s="34" t="n"/>
-      <c r="AA79" s="34" t="n"/>
-      <c r="AB79" s="35" t="n"/>
-      <c r="AC79" s="31">
-        <f>IF(B46="DIV", F46,"")</f>
+      <c r="Z79" s="38" t="n">
+        <v>203.479723568</v>
+      </c>
+      <c r="AA79" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB79" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC79" s="40">
+        <f>IF(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD79" s="36" t="n"/>
+      <c r="AE79" s="41" t="n"/>
     </row>
     <row r="80" ht="13" customHeight="1" s="68">
       <c r="A80" s="25" t="n">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="B80" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C80" s="26" t="inlineStr">
@@ -6874,101 +6810,94 @@
         </is>
       </c>
       <c r="D80" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E80" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="E80" s="28" t="n">
-        <v>481.4</v>
-      </c>
       <c r="F80" s="28" t="n">
-        <v>2407.02</v>
-      </c>
-      <c r="G80" s="26" t="n"/>
+        <v>50</v>
+      </c>
+      <c r="G80" s="26" t="inlineStr">
+        <is>
+          <t>Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 05-MAR-2020</t>
+        </is>
+      </c>
       <c r="H80" s="27" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="I80" s="27" t="n">
-        <v>14.38</v>
+        <v>0</v>
       </c>
       <c r="J80" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K80" s="30">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="L80" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M80" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N80" s="32">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O80" s="30">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="P80" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R80" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S80" s="33">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="T80" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="U80" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V80" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
-        <v/>
-      </c>
-      <c r="W80" s="43" t="n">
-        <v>532.7895</v>
-      </c>
-      <c r="X80" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y80" s="37" t="e">
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <v/>
+      </c>
+      <c r="W80" s="45" t="n"/>
+      <c r="X80" s="34" t="n"/>
+      <c r="Y80" s="33" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z80" s="38" t="n">
-        <v>182.1185817840001</v>
-      </c>
-      <c r="AA80" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB80" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC80" s="40">
-        <f>IF(B47="DIV", F47,"")</f>
+      <c r="Z80" s="34" t="n"/>
+      <c r="AA80" s="34" t="n"/>
+      <c r="AB80" s="35" t="n"/>
+      <c r="AC80" s="31">
+        <f>IF(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD80" s="36" t="n"/>
-      <c r="AE80" s="41" t="n"/>
     </row>
     <row r="81" ht="13" customHeight="1" s="68">
       <c r="A81" s="25" t="n">
-        <v>43831</v>
+        <v>43892</v>
       </c>
       <c r="B81" s="26" t="inlineStr">
         <is>
@@ -6977,94 +6906,105 @@
       </c>
       <c r="C81" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D81" s="27" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E81" s="28" t="n">
-        <v>596.83</v>
+        <v>481.4</v>
       </c>
       <c r="F81" s="28" t="n">
-        <v>14920.76</v>
+        <v>2407.02</v>
       </c>
       <c r="G81" s="26" t="n"/>
       <c r="H81" s="27" t="n">
-        <v>15.11</v>
+        <v>2.39</v>
       </c>
       <c r="I81" s="27" t="n">
-        <v>90.38</v>
+        <v>14.38</v>
       </c>
       <c r="J81" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K81" s="30">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="L81" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M81" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N81" s="32">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O81" s="30">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="P81" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R81" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S81" s="33">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="T81" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="U81" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V81" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
-        <v/>
-      </c>
-      <c r="W81" s="45" t="n"/>
-      <c r="X81" s="34" t="n"/>
-      <c r="Y81" s="33" t="e">
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <v/>
+      </c>
+      <c r="W81" s="43" t="n">
+        <v>532.7895</v>
+      </c>
+      <c r="X81" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y81" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z81" s="34" t="n"/>
-      <c r="AA81" s="34" t="n"/>
-      <c r="AB81" s="35" t="n"/>
-      <c r="AC81" s="31">
-        <f>IF(B48="DIV", F48,"")</f>
+      <c r="Z81" s="38" t="n">
+        <v>182.1185817840001</v>
+      </c>
+      <c r="AA81" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB81" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC81" s="40">
+        <f>IF(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD81" s="36" t="n"/>
+      <c r="AE81" s="41" t="n"/>
     </row>
     <row r="82" ht="13" customHeight="1" s="68">
       <c r="A82" s="25" t="n">
-        <v>43823</v>
+        <v>43831</v>
       </c>
       <c r="B82" s="26" t="inlineStr">
         <is>
@@ -7077,71 +7017,71 @@
         </is>
       </c>
       <c r="D82" s="27" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E82" s="28" t="n">
-        <v>581.38</v>
+        <v>596.83</v>
       </c>
       <c r="F82" s="28" t="n">
-        <v>11627.69</v>
+        <v>14920.76</v>
       </c>
       <c r="G82" s="26" t="n"/>
       <c r="H82" s="27" t="n">
-        <v>11.74</v>
+        <v>15.11</v>
       </c>
       <c r="I82" s="27" t="n">
-        <v>70.56999999999999</v>
+        <v>90.38</v>
       </c>
       <c r="J82" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K82" s="30">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="L82" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M82" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N82" s="32">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O82" s="30">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="P82" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R82" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S82" s="33">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="T82" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="U82" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V82" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W82" s="45" t="n"/>
@@ -7153,14 +7093,14 @@
       <c r="AA82" s="34" t="n"/>
       <c r="AB82" s="35" t="n"/>
       <c r="AC82" s="31">
-        <f>IF(B49="DIV", F49,"")</f>
+        <f>IF(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD82" s="36" t="n"/>
     </row>
     <row r="83" ht="13" customHeight="1" s="68">
       <c r="A83" s="25" t="n">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="B83" s="26" t="inlineStr">
         <is>
@@ -7176,68 +7116,68 @@
         <v>20</v>
       </c>
       <c r="E83" s="28" t="n">
-        <v>580.9665</v>
+        <v>581.38</v>
       </c>
       <c r="F83" s="28" t="n">
-        <v>11702.13</v>
+        <v>11627.69</v>
       </c>
       <c r="G83" s="26" t="n"/>
       <c r="H83" s="27" t="n">
-        <v>11.88</v>
+        <v>11.74</v>
       </c>
       <c r="I83" s="27" t="n">
-        <v>70.98999999999999</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="J83" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K83" s="30">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="L83" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M83" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N83" s="32">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O83" s="30">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="P83" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R83" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S83" s="33">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="T83" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="U83" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V83" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W83" s="45" t="n"/>
@@ -7249,14 +7189,14 @@
       <c r="AA83" s="34" t="n"/>
       <c r="AB83" s="35" t="n"/>
       <c r="AC83" s="31">
-        <f>IF(B50="DIV", F50,"")</f>
+        <f>IF(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD83" s="36" t="n"/>
     </row>
     <row r="84" ht="13" customHeight="1" s="68">
       <c r="A84" s="25" t="n">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="B84" s="26" t="inlineStr">
         <is>
@@ -7269,90 +7209,90 @@
         </is>
       </c>
       <c r="D84" s="27" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E84" s="28" t="n">
-        <v>570.971</v>
+        <v>580.9665</v>
       </c>
       <c r="F84" s="28" t="n">
-        <v>17251.48</v>
+        <v>11702.13</v>
       </c>
       <c r="G84" s="26" t="n"/>
       <c r="H84" s="27" t="n">
-        <v>17.54</v>
+        <v>11.88</v>
       </c>
       <c r="I84" s="27" t="n">
-        <v>104.83</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="J84" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K84" s="30">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="L84" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M84" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N84" s="32">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O84" s="30">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="P84" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R84" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S84" s="33">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="T84" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="U84" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V84" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W84" s="45" t="n"/>
       <c r="X84" s="34" t="n"/>
-      <c r="Y84" s="33" t="n">
-        <v>-1.857335434191466</v>
+      <c r="Y84" s="33" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z84" s="34" t="n"/>
       <c r="AA84" s="34" t="n"/>
       <c r="AB84" s="35" t="n"/>
       <c r="AC84" s="31">
-        <f>IF(B51="DIV", F51,"")</f>
+        <f>IF(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD84" s="36" t="n"/>
     </row>
     <row r="85" ht="13" customHeight="1" s="68">
       <c r="A85" s="25" t="n">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="B85" s="26" t="inlineStr">
         <is>
@@ -7361,102 +7301,90 @@
       </c>
       <c r="C85" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D85" s="27" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E85" s="28" t="n">
-        <v>581.792</v>
+        <v>570.971</v>
       </c>
       <c r="F85" s="28" t="n">
-        <v>2914.03</v>
+        <v>17251.48</v>
       </c>
       <c r="G85" s="26" t="n"/>
       <c r="H85" s="27" t="n">
-        <v>2.155</v>
+        <v>17.54</v>
       </c>
       <c r="I85" s="27" t="n">
-        <v>2.925</v>
+        <v>104.83</v>
       </c>
       <c r="J85" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K85" s="30">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="L85" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M85" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N85" s="32">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O85" s="30">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="P85" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R85" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S85" s="33">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="T85" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="U85" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V85" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
-        <v/>
-      </c>
-      <c r="W85" s="43" t="n">
-        <v>532.7895</v>
-      </c>
-      <c r="X85" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y85" s="37">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
-        <v/>
-      </c>
-      <c r="Z85" s="38" t="n">
-        <v>-27771.7253</v>
-      </c>
-      <c r="AA85" s="38" t="n">
-        <v>28166.05</v>
-      </c>
-      <c r="AB85" s="39" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC85" s="40">
-        <f>IF(B52="DIV", F52,"")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <v/>
+      </c>
+      <c r="W85" s="45" t="n"/>
+      <c r="X85" s="34" t="n"/>
+      <c r="Y85" s="33" t="n">
+        <v>-1.857335434191466</v>
+      </c>
+      <c r="Z85" s="34" t="n"/>
+      <c r="AA85" s="34" t="n"/>
+      <c r="AB85" s="35" t="n"/>
+      <c r="AC85" s="31">
+        <f>IF(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD85" s="36" t="n"/>
-      <c r="AE85" s="41" t="n"/>
     </row>
     <row r="86" ht="13" customHeight="1" s="68">
       <c r="A86" s="25" t="n">
@@ -7493,74 +7421,74 @@
         <v/>
       </c>
       <c r="K86" s="30">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="L86" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M86" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N86" s="32">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O86" s="30">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="P86" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q86" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R86" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S86" s="33">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="T86" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="U86" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V86" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W86" s="43" t="n">
-        <v>574.903</v>
+        <v>532.7895</v>
       </c>
       <c r="X86" s="44" t="n">
         <v>45565</v>
       </c>
       <c r="Y86" s="37">
-        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="Z86" s="38" t="n">
-        <v>-25533.949</v>
+        <v>-27771.7253</v>
       </c>
       <c r="AA86" s="38" t="n">
-        <v>25896.5</v>
+        <v>28166.05</v>
       </c>
       <c r="AB86" s="39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC86" s="40">
-        <f>IF(B53="DIV", F53,"")</f>
+        <f>IF(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD86" s="36" t="n"/>
@@ -7577,94 +7505,106 @@
       </c>
       <c r="C87" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D87" s="27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E87" s="28" t="n">
-        <v>574.903</v>
+        <v>581.792</v>
       </c>
       <c r="F87" s="28" t="n">
-        <v>5759.03</v>
+        <v>2914.03</v>
       </c>
       <c r="G87" s="26" t="n"/>
       <c r="H87" s="27" t="n">
-        <v>4.27</v>
+        <v>2.155</v>
       </c>
       <c r="I87" s="27" t="n">
-        <v>5.7</v>
+        <v>2.925</v>
       </c>
       <c r="J87" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K87" s="30">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="L87" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M87" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N87" s="32">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O87" s="30">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="P87" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R87" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S87" s="33">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="T87" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="U87" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V87" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
-        <v/>
-      </c>
-      <c r="W87" s="45" t="n"/>
-      <c r="X87" s="34" t="n"/>
-      <c r="Y87" s="33" t="n">
-        <v>-0.3107992867727281</v>
-      </c>
-      <c r="Z87" s="34" t="n"/>
-      <c r="AA87" s="34" t="n"/>
-      <c r="AB87" s="35" t="n"/>
-      <c r="AC87" s="31">
-        <f>IF(B54="DIV", F54,"")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <v/>
+      </c>
+      <c r="W87" s="43" t="n">
+        <v>574.903</v>
+      </c>
+      <c r="X87" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y87" s="37">
+        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
+        <v/>
+      </c>
+      <c r="Z87" s="38" t="n">
+        <v>-25533.949</v>
+      </c>
+      <c r="AA87" s="38" t="n">
+        <v>25896.5</v>
+      </c>
+      <c r="AB87" s="39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC87" s="40">
+        <f>IF(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD87" s="36" t="n"/>
+      <c r="AE87" s="41" t="n"/>
     </row>
     <row r="88" ht="13" customHeight="1" s="68">
       <c r="A88" s="25" t="n">
-        <v>43812</v>
+        <v>43818</v>
       </c>
       <c r="B88" s="26" t="inlineStr">
         <is>
@@ -7677,91 +7617,90 @@
         </is>
       </c>
       <c r="D88" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E88" s="28" t="n">
-        <v>508.1195</v>
+        <v>574.903</v>
       </c>
       <c r="F88" s="28" t="n">
-        <v>10232.19</v>
+        <v>5759.03</v>
       </c>
       <c r="G88" s="26" t="n"/>
       <c r="H88" s="27" t="n">
-        <v>7.82</v>
+        <v>4.27</v>
       </c>
       <c r="I88" s="27" t="n">
-        <v>61.99</v>
+        <v>5.7</v>
       </c>
       <c r="J88" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K88" s="30">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="L88" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="M88" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
         <v/>
       </c>
       <c r="N88" s="32">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
         <v/>
       </c>
       <c r="O88" s="30">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="P88" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
         <v/>
       </c>
       <c r="R88" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="S88" s="33">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="T88" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="U88" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
         <v/>
       </c>
       <c r="V88" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="W88" s="45" t="n"/>
       <c r="X88" s="34" t="n"/>
-      <c r="Y88" s="33">
-        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
-        <v/>
+      <c r="Y88" s="33" t="n">
+        <v>-0.3107992867727281</v>
       </c>
       <c r="Z88" s="34" t="n"/>
       <c r="AA88" s="34" t="n"/>
       <c r="AB88" s="35" t="n"/>
       <c r="AC88" s="31">
-        <f>IF(B55="DIV", F55,"")</f>
+        <f>IF(B54="DIV", F54,"")</f>
         <v/>
       </c>
       <c r="AD88" s="36" t="n"/>
     </row>
     <row r="89" ht="13" customHeight="1" s="68">
       <c r="A89" s="25" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="B89" s="26" t="inlineStr">
         <is>
@@ -7774,91 +7713,91 @@
         </is>
       </c>
       <c r="D89" s="27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E89" s="28" t="n">
-        <v>501.9024</v>
+        <v>508.1195</v>
       </c>
       <c r="F89" s="28" t="n">
-        <v>12633.31</v>
+        <v>10232.19</v>
       </c>
       <c r="G89" s="26" t="n"/>
       <c r="H89" s="27" t="n">
-        <v>9.279999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="I89" s="27" t="n">
-        <v>76.41</v>
+        <v>61.99</v>
       </c>
       <c r="J89" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K89" s="30">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), L56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="L89" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="M89" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
         <v/>
       </c>
       <c r="N89" s="32">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
         <v/>
       </c>
       <c r="O89" s="30">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), P56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="P89" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="Q89" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
         <v/>
       </c>
       <c r="R89" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="S89" s="33">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), T56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="T89" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="U89" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
         <v/>
       </c>
       <c r="V89" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="W89" s="45" t="n"/>
       <c r="X89" s="34" t="n"/>
       <c r="Y89" s="33">
-        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="Z89" s="34" t="n"/>
       <c r="AA89" s="34" t="n"/>
       <c r="AB89" s="35" t="n"/>
       <c r="AC89" s="31">
-        <f>IF(B56="DIV", F56,"")</f>
+        <f>IF(B55="DIV", F55,"")</f>
         <v/>
       </c>
       <c r="AD89" s="36" t="n"/>
     </row>
     <row r="90" ht="13" customHeight="1" s="68">
       <c r="A90" s="25" t="n">
-        <v>43803</v>
+        <v>43811</v>
       </c>
       <c r="B90" s="26" t="inlineStr">
         <is>
@@ -7871,194 +7810,191 @@
         </is>
       </c>
       <c r="D90" s="27" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E90" s="28" t="n">
-        <v>511.707333</v>
+        <v>501.9024</v>
       </c>
       <c r="F90" s="28" t="n">
-        <v>15458.32</v>
+        <v>12633.31</v>
       </c>
       <c r="G90" s="26" t="n"/>
       <c r="H90" s="27" t="n">
-        <v>13.78</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="I90" s="27" t="n">
-        <v>93.40000000000001</v>
+        <v>76.41</v>
       </c>
       <c r="J90" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K90" s="30">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), L57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), L56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="L90" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M90" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N90" s="32">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O90" s="30">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), P57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), P56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="P90" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q90" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R90" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S90" s="33">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), T57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), T56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="T90" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="U90" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V90" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="W90" s="45" t="n"/>
       <c r="X90" s="34" t="n"/>
-      <c r="Y90" s="33" t="n">
-        <v>-1.063644189948785</v>
+      <c r="Y90" s="33">
+        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
+        <v/>
       </c>
       <c r="Z90" s="34" t="n"/>
       <c r="AA90" s="34" t="n"/>
       <c r="AB90" s="35" t="n"/>
       <c r="AC90" s="31">
-        <f>IF(B57="DIV", F57,"")</f>
+        <f>IF(B56="DIV", F56,"")</f>
         <v/>
       </c>
       <c r="AD90" s="36" t="n"/>
     </row>
     <row r="91" ht="13" customHeight="1" s="68">
       <c r="A91" s="25" t="n">
-        <v>43676</v>
+        <v>43803</v>
       </c>
       <c r="B91" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C91" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D91" s="27" t="n">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="E91" s="28" t="n">
-        <v>4</v>
+        <v>511.707333</v>
       </c>
       <c r="F91" s="28" t="n">
-        <v>700</v>
-      </c>
-      <c r="G91" s="26" t="inlineStr">
-        <is>
-          <t>Dividend of Rs.4.0000/- per share on 30-JUL-2019</t>
-        </is>
-      </c>
+        <v>15458.32</v>
+      </c>
+      <c r="G91" s="26" t="n"/>
       <c r="H91" s="27" t="n">
-        <v>0</v>
+        <v>13.78</v>
       </c>
       <c r="I91" s="27" t="n">
-        <v>0</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="J91" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K91" s="30">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), L58/SUM(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), L57/SUM(F57:I57), "")</f>
         <v/>
       </c>
       <c r="L91" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="M91" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
         <v/>
       </c>
       <c r="N91" s="32">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
         <v/>
       </c>
       <c r="O91" s="30">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), P58/SUM(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), P57/SUM(F57:I57), "")</f>
         <v/>
       </c>
       <c r="P91" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="Q91" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
         <v/>
       </c>
       <c r="R91" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="S91" s="33">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), T58/SUM(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), T57/SUM(F57:I57), "")</f>
         <v/>
       </c>
       <c r="T91" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="U91" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
         <v/>
       </c>
       <c r="V91" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="W91" s="45" t="n"/>
       <c r="X91" s="34" t="n"/>
       <c r="Y91" s="33" t="n">
-        <v>0.4878458011453852</v>
+        <v>-1.063644189948785</v>
       </c>
       <c r="Z91" s="34" t="n"/>
       <c r="AA91" s="34" t="n"/>
       <c r="AB91" s="35" t="n"/>
       <c r="AC91" s="31">
-        <f>IF(B58="DIV", F58,"")</f>
+        <f>IF(B57="DIV", F57,"")</f>
         <v/>
       </c>
       <c r="AD91" s="36" t="n"/>
     </row>
     <row r="92" ht="13" customHeight="1" s="68">
       <c r="A92" s="25" t="n">
-        <v>43647</v>
+        <v>43676</v>
       </c>
       <c r="B92" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C92" s="26" t="inlineStr">
@@ -8067,101 +8003,94 @@
         </is>
       </c>
       <c r="D92" s="27" t="n">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="E92" s="28" t="n">
-        <v>351.349</v>
+        <v>4</v>
       </c>
       <c r="F92" s="28" t="n">
-        <v>3538.41</v>
-      </c>
-      <c r="G92" s="26" t="n"/>
+        <v>700</v>
+      </c>
+      <c r="G92" s="26" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.4.0000/- per share on 30-JUL-2019</t>
+        </is>
+      </c>
       <c r="H92" s="27" t="n">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="I92" s="27" t="n">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="J92" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K92" s="30">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), L59/SUM(F59:I59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), L58/SUM(F58:I58), "")</f>
         <v/>
       </c>
       <c r="L92" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="M92" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
         <v/>
       </c>
       <c r="N92" s="32">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
         <v/>
       </c>
       <c r="O92" s="30">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), P59/SUM(F59:I59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), P58/SUM(F58:I58), "")</f>
         <v/>
       </c>
       <c r="P92" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="Q92" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
         <v/>
       </c>
       <c r="R92" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="S92" s="33">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), T59/SUM(F59:I59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), T58/SUM(F58:I58), "")</f>
         <v/>
       </c>
       <c r="T92" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="U92" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
         <v/>
       </c>
       <c r="V92" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
-        <v/>
-      </c>
-      <c r="W92" s="43" t="n">
-        <v>574.903</v>
-      </c>
-      <c r="X92" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y92" s="37" t="n">
-        <v>0.5235867911722714</v>
-      </c>
-      <c r="Z92" s="38" t="n">
-        <v>410.9737627400002</v>
-      </c>
-      <c r="AA92" s="38" t="n">
-        <v>3244.466999999999</v>
-      </c>
-      <c r="AB92" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC92" s="40">
-        <f>IF(B59="DIV", F59,"")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <v/>
+      </c>
+      <c r="W92" s="45" t="n"/>
+      <c r="X92" s="34" t="n"/>
+      <c r="Y92" s="33" t="n">
+        <v>0.4878458011453852</v>
+      </c>
+      <c r="Z92" s="34" t="n"/>
+      <c r="AA92" s="34" t="n"/>
+      <c r="AB92" s="35" t="n"/>
+      <c r="AC92" s="31">
+        <f>IF(B58="DIV", F58,"")</f>
         <v/>
       </c>
       <c r="AD92" s="36" t="n"/>
-      <c r="AE92" s="41" t="n"/>
     </row>
     <row r="93" ht="13" customHeight="1" s="68">
       <c r="A93" s="25" t="n">
-        <v>43382</v>
+        <v>43647</v>
       </c>
       <c r="B93" s="26" t="inlineStr">
         <is>
@@ -8177,68 +8106,68 @@
         <v>10</v>
       </c>
       <c r="E93" s="28" t="n">
-        <v>370.404</v>
+        <v>351.349</v>
       </c>
       <c r="F93" s="28" t="n">
-        <v>3730.06</v>
+        <v>3538.41</v>
       </c>
       <c r="G93" s="26" t="n"/>
       <c r="H93" s="27" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="I93" s="27" t="n">
-        <v>22.38</v>
+        <v>21.4</v>
       </c>
       <c r="J93" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K93" s="30">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), L60/SUM(F60:I60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), L59/SUM(F59:I59), "")</f>
         <v/>
       </c>
       <c r="L93" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="M93" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
         <v/>
       </c>
       <c r="N93" s="32">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
         <v/>
       </c>
       <c r="O93" s="30">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), P60/SUM(F60:I60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), P59/SUM(F59:I59), "")</f>
         <v/>
       </c>
       <c r="P93" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="Q93" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
         <v/>
       </c>
       <c r="R93" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
         <v/>
       </c>
       <c r="S93" s="33">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), T60/SUM(F60:I60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), T59/SUM(F59:I59), "")</f>
         <v/>
       </c>
       <c r="T93" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="U93" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
         <v/>
       </c>
       <c r="V93" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
         <v/>
       </c>
       <c r="W93" s="43" t="n">
@@ -8247,20 +8176,20 @@
       <c r="X93" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y93" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y93" s="37" t="n">
+        <v>0.5235867911722714</v>
       </c>
       <c r="Z93" s="38" t="n">
-        <v>1004.35752548</v>
+        <v>410.9737627400002</v>
       </c>
       <c r="AA93" s="38" t="n">
-        <v>4852.4927</v>
+        <v>3244.466999999999</v>
       </c>
       <c r="AB93" s="39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC93" s="40">
-        <f>IF(B60="DIV", F60,"")</f>
+        <f>IF(B59="DIV", F59,"")</f>
         <v/>
       </c>
       <c r="AD93" s="36" t="n"/>
@@ -8268,7 +8197,7 @@
     </row>
     <row r="94" ht="13" customHeight="1" s="68">
       <c r="A94" s="25" t="n">
-        <v>43376</v>
+        <v>43382</v>
       </c>
       <c r="B94" s="26" t="inlineStr">
         <is>
@@ -8281,75 +8210,75 @@
         </is>
       </c>
       <c r="D94" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E94" s="28" t="n">
-        <v>367</v>
+        <v>370.404</v>
       </c>
       <c r="F94" s="28" t="n">
-        <v>7391.8</v>
+        <v>3730.06</v>
       </c>
       <c r="G94" s="26" t="n"/>
       <c r="H94" s="27" t="n">
-        <v>7.328</v>
+        <v>3.68</v>
       </c>
       <c r="I94" s="27" t="n">
-        <v>44.472</v>
+        <v>22.38</v>
       </c>
       <c r="J94" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K94" s="30">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), L61/SUM(F61:I61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), L60/SUM(F60:I60), "")</f>
         <v/>
       </c>
       <c r="L94" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
         <v/>
       </c>
       <c r="M94" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), ((E61*D61)+L61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
         <v/>
       </c>
       <c r="N94" s="32">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), D61, "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
         <v/>
       </c>
       <c r="O94" s="30">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), P61/SUM(F61:I61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), P60/SUM(F60:I60), "")</f>
         <v/>
       </c>
       <c r="P94" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
         <v/>
       </c>
       <c r="Q94" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), ((E61*D61)+P61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
         <v/>
       </c>
       <c r="R94" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), D61, "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
         <v/>
       </c>
       <c r="S94" s="33">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), T61/SUM(F61:I61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), T60/SUM(F60:I60), "")</f>
         <v/>
       </c>
       <c r="T94" s="34">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
         <v/>
       </c>
       <c r="U94" s="34">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), ((E61*D61)+T61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
         <v/>
       </c>
       <c r="V94" s="34">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), D61, "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
         <v/>
       </c>
       <c r="W94" s="43" t="n">
-        <v>577.2645</v>
+        <v>574.903</v>
       </c>
       <c r="X94" s="44" t="n">
         <v>45565</v>
@@ -8358,16 +8287,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z94" s="38" t="n">
-        <v>987.00392548</v>
+        <v>1004.35752548</v>
       </c>
       <c r="AA94" s="38" t="n">
-        <v>4560.301359999999</v>
+        <v>4852.4927</v>
       </c>
       <c r="AB94" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC94" s="40">
-        <f>IF(B61="DIV", F61,"")</f>
+        <f>IF(B60="DIV", F60,"")</f>
         <v/>
       </c>
       <c r="AD94" s="36" t="n"/>
@@ -8388,93 +8317,93 @@
         </is>
       </c>
       <c r="D95" s="27" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E95" s="28" t="n">
         <v>367</v>
       </c>
       <c r="F95" s="28" t="n">
-        <v>1847.95</v>
+        <v>7391.8</v>
       </c>
       <c r="G95" s="26" t="n"/>
       <c r="H95" s="27" t="n">
-        <v>1.832</v>
+        <v>7.328</v>
       </c>
       <c r="I95" s="27" t="n">
-        <v>11.118</v>
+        <v>44.472</v>
       </c>
       <c r="J95" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K95" s="30">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), L62/SUM(F62:I62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), L61/SUM(F61:I61), "")</f>
         <v/>
       </c>
       <c r="L95" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
         <v/>
       </c>
       <c r="M95" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), ((E62*D62)+L62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), ((E61*D61)+L61), "")</f>
         <v/>
       </c>
       <c r="N95" s="32">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), D61, "")</f>
         <v/>
       </c>
       <c r="O95" s="30">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), P62/SUM(F62:I62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), P61/SUM(F61:I61), "")</f>
         <v/>
       </c>
       <c r="P95" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
         <v/>
       </c>
       <c r="Q95" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), ((E62*D62)+P62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), ((E61*D61)+P61), "")</f>
         <v/>
       </c>
       <c r="R95" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), D61, "")</f>
         <v/>
       </c>
       <c r="S95" s="33">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), T62/SUM(F62:I62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), T61/SUM(F61:I61), "")</f>
         <v/>
       </c>
       <c r="T95" s="34">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
         <v/>
       </c>
       <c r="U95" s="34">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), ((E62*D62)+T62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), ((E61*D61)+T61), "")</f>
         <v/>
       </c>
       <c r="V95" s="34">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), D61, "")</f>
         <v/>
       </c>
       <c r="W95" s="43" t="n">
-        <v>580.9665</v>
+        <v>577.2645</v>
       </c>
       <c r="X95" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y95" s="37" t="n">
-        <v>-3.969633696710141</v>
+      <c r="Y95" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z95" s="38" t="n">
-        <v>982.0739254800001</v>
+        <v>987.00392548</v>
       </c>
       <c r="AA95" s="38" t="n">
-        <v>-12224.30664</v>
+        <v>4560.301359999999</v>
       </c>
       <c r="AB95" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC95" s="40">
-        <f>IF(B62="DIV", F62,"")</f>
+        <f>IF(B61="DIV", F61,"")</f>
         <v/>
       </c>
       <c r="AD95" s="36" t="n"/>
@@ -8482,7 +8411,7 @@
     </row>
     <row r="96" ht="13" customHeight="1" s="68">
       <c r="A96" s="25" t="n">
-        <v>43369</v>
+        <v>43376</v>
       </c>
       <c r="B96" s="26" t="inlineStr">
         <is>
@@ -8495,71 +8424,71 @@
         </is>
       </c>
       <c r="D96" s="27" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E96" s="28" t="n">
-        <v>414.058667</v>
+        <v>367</v>
       </c>
       <c r="F96" s="28" t="n">
-        <v>6254.418</v>
+        <v>1847.95</v>
       </c>
       <c r="G96" s="26" t="n"/>
       <c r="H96" s="27" t="n">
-        <v>6.22</v>
+        <v>1.832</v>
       </c>
       <c r="I96" s="27" t="n">
-        <v>37.296</v>
+        <v>11.118</v>
       </c>
       <c r="J96" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K96" s="30">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), L63/SUM(F63:I63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), L62/SUM(F62:I62), "")</f>
         <v/>
       </c>
       <c r="L96" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
         <v/>
       </c>
       <c r="M96" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), ((E63*D63)+L63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), ((E62*D62)+L62), "")</f>
         <v/>
       </c>
       <c r="N96" s="32">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), D62, "")</f>
         <v/>
       </c>
       <c r="O96" s="30">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), P63/SUM(F63:I63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), P62/SUM(F62:I62), "")</f>
         <v/>
       </c>
       <c r="P96" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
         <v/>
       </c>
       <c r="Q96" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), ((E63*D63)+P63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), ((E62*D62)+P62), "")</f>
         <v/>
       </c>
       <c r="R96" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), D62, "")</f>
         <v/>
       </c>
       <c r="S96" s="33">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), T63/SUM(F63:I63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), T62/SUM(F62:I62), "")</f>
         <v/>
       </c>
       <c r="T96" s="34">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
         <v/>
       </c>
       <c r="U96" s="34">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), ((E63*D63)+T63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), ((E62*D62)+T62), "")</f>
         <v/>
       </c>
       <c r="V96" s="34">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), D62, "")</f>
         <v/>
       </c>
       <c r="W96" s="43" t="n">
@@ -8568,20 +8497,20 @@
       <c r="X96" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y96" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y96" s="37" t="n">
+        <v>-3.969633696710141</v>
       </c>
       <c r="Z96" s="38" t="n">
-        <v>2195.027284</v>
+        <v>982.0739254800001</v>
       </c>
       <c r="AA96" s="38" t="n">
-        <v>3228.90984</v>
+        <v>-12224.30664</v>
       </c>
       <c r="AB96" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC96" s="40">
-        <f>IF(B63="DIV", F63,"")</f>
+        <f>IF(B62="DIV", F62,"")</f>
         <v/>
       </c>
       <c r="AD96" s="36" t="n"/>
@@ -8602,75 +8531,75 @@
         </is>
       </c>
       <c r="D97" s="27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E97" s="28" t="n">
-        <v>414.059</v>
+        <v>414.058667</v>
       </c>
       <c r="F97" s="28" t="n">
-        <v>4169.612</v>
+        <v>6254.418</v>
       </c>
       <c r="G97" s="26" t="n"/>
       <c r="H97" s="27" t="n">
-        <v>4.148</v>
+        <v>6.22</v>
       </c>
       <c r="I97" s="27" t="n">
-        <v>24.864</v>
+        <v>37.296</v>
       </c>
       <c r="J97" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K97" s="30">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), L64/SUM(F64:I64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), L63/SUM(F63:I63), "")</f>
         <v/>
       </c>
       <c r="L97" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
         <v/>
       </c>
       <c r="M97" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), ((E64*D64)+L64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), ((E63*D63)+L63), "")</f>
         <v/>
       </c>
       <c r="N97" s="32">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), D63, "")</f>
         <v/>
       </c>
       <c r="O97" s="30">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), P64/SUM(F64:I64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), P63/SUM(F63:I63), "")</f>
         <v/>
       </c>
       <c r="P97" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
         <v/>
       </c>
       <c r="Q97" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), ((E64*D64)+P64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), ((E63*D63)+P63), "")</f>
         <v/>
       </c>
       <c r="R97" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), D63, "")</f>
         <v/>
       </c>
       <c r="S97" s="33">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), T64/SUM(F64:I64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), T63/SUM(F63:I63), "")</f>
         <v/>
       </c>
       <c r="T97" s="34">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
         <v/>
       </c>
       <c r="U97" s="34">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), ((E64*D64)+T64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), ((E63*D63)+T63), "")</f>
         <v/>
       </c>
       <c r="V97" s="34">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), D63, "")</f>
         <v/>
       </c>
       <c r="W97" s="43" t="n">
-        <v>570.971</v>
+        <v>580.9665</v>
       </c>
       <c r="X97" s="44" t="n">
         <v>45565</v>
@@ -8679,16 +8608,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z97" s="38" t="n">
-        <v>2233.678484</v>
+        <v>2195.027284</v>
       </c>
       <c r="AA97" s="38" t="n">
-        <v>3554.2932</v>
+        <v>3228.90984</v>
       </c>
       <c r="AB97" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC97" s="40">
-        <f>IF(B64="DIV", F64,"")</f>
+        <f>IF(B63="DIV", F63,"")</f>
         <v/>
       </c>
       <c r="AD97" s="36" t="n"/>
@@ -8696,7 +8625,7 @@
     </row>
     <row r="98" ht="13" customHeight="1" s="68">
       <c r="A98" s="25" t="n">
-        <v>43354</v>
+        <v>43369</v>
       </c>
       <c r="B98" s="26" t="inlineStr">
         <is>
@@ -8709,71 +8638,71 @@
         </is>
       </c>
       <c r="D98" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E98" s="28" t="n">
-        <v>416.0965</v>
+        <v>414.059</v>
       </c>
       <c r="F98" s="28" t="n">
-        <v>8380.073329999999</v>
+        <v>4169.612</v>
       </c>
       <c r="G98" s="26" t="n"/>
       <c r="H98" s="27" t="n">
-        <v>8</v>
+        <v>4.148</v>
       </c>
       <c r="I98" s="27" t="n">
-        <v>50.07333</v>
+        <v>24.864</v>
       </c>
       <c r="J98" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K98" s="30">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), L65/SUM(F65:I65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), L64/SUM(F64:I64), "")</f>
         <v/>
       </c>
       <c r="L98" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
         <v/>
       </c>
       <c r="M98" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), ((E65*D65)+L65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), ((E64*D64)+L64), "")</f>
         <v/>
       </c>
       <c r="N98" s="32">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), D64, "")</f>
         <v/>
       </c>
       <c r="O98" s="30">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), P65/SUM(F65:I65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), P64/SUM(F64:I64), "")</f>
         <v/>
       </c>
       <c r="P98" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
         <v/>
       </c>
       <c r="Q98" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), ((E65*D65)+P65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), ((E64*D64)+P64), "")</f>
         <v/>
       </c>
       <c r="R98" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), D64, "")</f>
         <v/>
       </c>
       <c r="S98" s="33">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), T65/SUM(F65:I65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), T64/SUM(F64:I64), "")</f>
         <v/>
       </c>
       <c r="T98" s="34">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
         <v/>
       </c>
       <c r="U98" s="34">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), ((E65*D65)+T65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), ((E64*D64)+T64), "")</f>
         <v/>
       </c>
       <c r="V98" s="34">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), D64, "")</f>
         <v/>
       </c>
       <c r="W98" s="43" t="n">
@@ -8786,16 +8715,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z98" s="38" t="n">
-        <v>2011.828484</v>
+        <v>2233.678484</v>
       </c>
       <c r="AA98" s="38" t="n">
-        <v>3497.1493</v>
+        <v>3554.2932</v>
       </c>
       <c r="AB98" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC98" s="40">
-        <f>IF(B65="DIV", F65,"")</f>
+        <f>IF(B64="DIV", F64,"")</f>
         <v/>
       </c>
       <c r="AD98" s="36" t="n"/>
@@ -8816,93 +8745,93 @@
         </is>
       </c>
       <c r="D99" s="27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E99" s="28" t="n">
-        <v>416.096</v>
+        <v>416.0965</v>
       </c>
       <c r="F99" s="28" t="n">
-        <v>4190.0366</v>
+        <v>8380.073329999999</v>
       </c>
       <c r="G99" s="26" t="n"/>
       <c r="H99" s="27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I99" s="27" t="n">
-        <v>25.03666</v>
+        <v>50.07333</v>
       </c>
       <c r="J99" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K99" s="30">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), L66/SUM(F66:I66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), L65/SUM(F65:I65), "")</f>
         <v/>
       </c>
       <c r="L99" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
         <v/>
       </c>
       <c r="M99" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), ((E66*D66)+L66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), ((E65*D65)+L65), "")</f>
         <v/>
       </c>
       <c r="N99" s="32">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), D65, "")</f>
         <v/>
       </c>
       <c r="O99" s="30">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), P66/SUM(F66:I66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), P65/SUM(F65:I65), "")</f>
         <v/>
       </c>
       <c r="P99" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
         <v/>
       </c>
       <c r="Q99" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), ((E66*D66)+P66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), ((E65*D65)+P65), "")</f>
         <v/>
       </c>
       <c r="R99" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), D65, "")</f>
         <v/>
       </c>
       <c r="S99" s="33">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), T66/SUM(F66:I66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), T65/SUM(F65:I65), "")</f>
         <v/>
       </c>
       <c r="T99" s="34">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
         <v/>
       </c>
       <c r="U99" s="34">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), ((E66*D66)+T66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), ((E65*D65)+T65), "")</f>
         <v/>
       </c>
       <c r="V99" s="34">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), D65, "")</f>
         <v/>
       </c>
       <c r="W99" s="43" t="n">
-        <v>574.903</v>
+        <v>570.971</v>
       </c>
       <c r="X99" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y99" s="37" t="n">
-        <v>-0.01674401291156987</v>
+      <c r="Y99" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z99" s="38" t="n">
-        <v>1467.260684</v>
+        <v>2011.828484</v>
       </c>
       <c r="AA99" s="38" t="n">
-        <v>3593.375</v>
+        <v>3497.1493</v>
       </c>
       <c r="AB99" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC99" s="40">
-        <f>IF(B66="DIV", F66,"")</f>
+        <f>IF(B65="DIV", F65,"")</f>
         <v/>
       </c>
       <c r="AD99" s="36" t="n"/>
@@ -8910,7 +8839,7 @@
     </row>
     <row r="100" ht="13" customHeight="1" s="68">
       <c r="A100" s="25" t="n">
-        <v>43312</v>
+        <v>43354</v>
       </c>
       <c r="B100" s="26" t="inlineStr">
         <is>
@@ -8923,93 +8852,93 @@
         </is>
       </c>
       <c r="D100" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E100" s="28" t="n">
-        <v>464.205</v>
+        <v>416.096</v>
       </c>
       <c r="F100" s="28" t="n">
-        <v>9348.911099999999</v>
+        <v>4190.0366</v>
       </c>
       <c r="G100" s="26" t="n"/>
       <c r="H100" s="27" t="n">
-        <v>9.2133</v>
+        <v>4</v>
       </c>
       <c r="I100" s="27" t="n">
-        <v>55.6933</v>
+        <v>25.03666</v>
       </c>
       <c r="J100" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K100" s="30">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), L67/SUM(F67:I67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), L66/SUM(F66:I66), "")</f>
         <v/>
       </c>
       <c r="L100" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
         <v/>
       </c>
       <c r="M100" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), ((E67*D67)+L67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), ((E66*D66)+L66), "")</f>
         <v/>
       </c>
       <c r="N100" s="32">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), D66, "")</f>
         <v/>
       </c>
       <c r="O100" s="30">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), P67/SUM(F67:I67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), P66/SUM(F66:I66), "")</f>
         <v/>
       </c>
       <c r="P100" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
         <v/>
       </c>
       <c r="Q100" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), ((E67*D67)+P67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), ((E66*D66)+P66), "")</f>
         <v/>
       </c>
       <c r="R100" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), D66, "")</f>
         <v/>
       </c>
       <c r="S100" s="33">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), T67/SUM(F67:I67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), T66/SUM(F66:I66), "")</f>
         <v/>
       </c>
       <c r="T100" s="34">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
         <v/>
       </c>
       <c r="U100" s="34">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), ((E67*D67)+T67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), ((E66*D66)+T66), "")</f>
         <v/>
       </c>
       <c r="V100" s="34">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), D66, "")</f>
         <v/>
       </c>
       <c r="W100" s="43" t="n">
-        <v>508.1195</v>
+        <v>574.903</v>
       </c>
       <c r="X100" s="44" t="n">
         <v>45565</v>
       </c>
       <c r="Y100" s="37" t="n">
-        <v>-0.04012004086497532</v>
+        <v>-0.01674401291156987</v>
       </c>
       <c r="Z100" s="38" t="n">
-        <v>1160.614684</v>
+        <v>1467.260684</v>
       </c>
       <c r="AA100" s="38" t="n">
-        <v>3805.775</v>
+        <v>3593.375</v>
       </c>
       <c r="AB100" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC100" s="40">
-        <f>IF(B67="DIV", F67,"")</f>
+        <f>IF(B66="DIV", F66,"")</f>
         <v/>
       </c>
       <c r="AD100" s="36" t="n"/>
@@ -9030,93 +8959,93 @@
         </is>
       </c>
       <c r="D101" s="27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E101" s="28" t="n">
-        <v>464.2044</v>
+        <v>464.205</v>
       </c>
       <c r="F101" s="28" t="n">
-        <v>11686.1388</v>
+        <v>9348.911099999999</v>
       </c>
       <c r="G101" s="26" t="n"/>
       <c r="H101" s="27" t="n">
-        <v>11.51666</v>
+        <v>9.2133</v>
       </c>
       <c r="I101" s="27" t="n">
-        <v>69.61660000000001</v>
+        <v>55.6933</v>
       </c>
       <c r="J101" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K101" s="30">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), L68/SUM(F68:I68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), L67/SUM(F67:I67), "")</f>
         <v/>
       </c>
       <c r="L101" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
         <v/>
       </c>
       <c r="M101" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), ((E68*D68)+L68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), ((E67*D67)+L67), "")</f>
         <v/>
       </c>
       <c r="N101" s="32">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), D67, "")</f>
         <v/>
       </c>
       <c r="O101" s="30">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), P68/SUM(F68:I68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), P67/SUM(F67:I67), "")</f>
         <v/>
       </c>
       <c r="P101" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
         <v/>
       </c>
       <c r="Q101" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), ((E68*D68)+P68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), ((E67*D67)+P67), "")</f>
         <v/>
       </c>
       <c r="R101" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), D67, "")</f>
         <v/>
       </c>
       <c r="S101" s="33">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), T68/SUM(F68:I68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), T67/SUM(F67:I67), "")</f>
         <v/>
       </c>
       <c r="T101" s="34">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
         <v/>
       </c>
       <c r="U101" s="34">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), ((E68*D68)+T68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), ((E67*D67)+T67), "")</f>
         <v/>
       </c>
       <c r="V101" s="34">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), D67, "")</f>
         <v/>
       </c>
       <c r="W101" s="43" t="n">
-        <v>501.9024</v>
+        <v>508.1195</v>
       </c>
       <c r="X101" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y101" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y101" s="37" t="n">
+        <v>-0.04012004086497532</v>
       </c>
       <c r="Z101" s="38" t="n">
-        <v>1102.83607</v>
+        <v>1160.614684</v>
       </c>
       <c r="AA101" s="38" t="n">
-        <v>4412.879723567999</v>
+        <v>3805.775</v>
       </c>
       <c r="AB101" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC101" s="40">
-        <f>IF(B68="DIV", F68,"")</f>
+        <f>IF(B67="DIV", F67,"")</f>
         <v/>
       </c>
       <c r="AD101" s="36" t="n"/>
@@ -9137,94 +9066,93 @@
         </is>
       </c>
       <c r="D102" s="27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E102" s="28" t="n">
-        <v>464.204</v>
+        <v>464.2044</v>
       </c>
       <c r="F102" s="28" t="n">
-        <v>4674.45454</v>
+        <v>11686.1388</v>
       </c>
       <c r="G102" s="26" t="n"/>
       <c r="H102" s="27" t="n">
-        <v>4.60727</v>
+        <v>11.51666</v>
       </c>
       <c r="I102" s="27" t="n">
-        <v>27.8472</v>
+        <v>69.61660000000001</v>
       </c>
       <c r="J102" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K102" s="30">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), L69/SUM(F69:I69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), L68/SUM(F68:I68), "")</f>
         <v/>
       </c>
       <c r="L102" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
         <v/>
       </c>
       <c r="M102" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), ((E69*D69)+L69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), ((E68*D68)+L68), "")</f>
         <v/>
       </c>
       <c r="N102" s="32">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), D68, "")</f>
         <v/>
       </c>
       <c r="O102" s="30">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), P69/SUM(F69:I69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), P68/SUM(F68:I68), "")</f>
         <v/>
       </c>
       <c r="P102" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
         <v/>
       </c>
       <c r="Q102" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), ((E69*D69)+P69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), ((E68*D68)+P68), "")</f>
         <v/>
       </c>
       <c r="R102" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), D68, "")</f>
         <v/>
       </c>
       <c r="S102" s="33">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), T69/SUM(F69:I69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), T68/SUM(F68:I68), "")</f>
         <v/>
       </c>
       <c r="T102" s="34">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
         <v/>
       </c>
       <c r="U102" s="34">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), ((E69*D69)+T69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), ((E68*D68)+T68), "")</f>
         <v/>
       </c>
       <c r="V102" s="34">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), D68, "")</f>
         <v/>
       </c>
       <c r="W102" s="43" t="n">
-        <v>511.707333</v>
+        <v>501.9024</v>
       </c>
       <c r="X102" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y102" s="37">
-        <f>IF(AND( C69="Buy", W69&lt;&gt;"", AA69&lt;&gt;"", B69&lt;&gt;"DIV"), Z69/SUM(F69:I69), "")</f>
-        <v/>
+      <c r="Y102" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z102" s="38" t="n">
-        <v>-49.3</v>
+        <v>1102.83607</v>
       </c>
       <c r="AA102" s="38" t="n">
-        <v>50</v>
+        <v>4412.879723567999</v>
       </c>
       <c r="AB102" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC102" s="40">
-        <f>IF(B69="DIV", F69,"")</f>
+        <f>IF(B68="DIV", F68,"")</f>
         <v/>
       </c>
       <c r="AD102" s="36" t="n"/>
@@ -9232,11 +9160,11 @@
     </row>
     <row r="103" ht="13" customHeight="1" s="68">
       <c r="A103" s="25" t="n">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B103" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C103" s="26" t="inlineStr">
@@ -9245,98 +9173,106 @@
         </is>
       </c>
       <c r="D103" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E103" s="28" t="n">
-        <v>6</v>
+        <v>464.204</v>
       </c>
       <c r="F103" s="28" t="n">
-        <v>120</v>
-      </c>
-      <c r="G103" s="26" t="inlineStr">
-        <is>
-          <t>Dividend of Rs.6.0000/- per share on 30-JUL-2018</t>
-        </is>
-      </c>
+        <v>4674.45454</v>
+      </c>
+      <c r="G103" s="26" t="n"/>
       <c r="H103" s="27" t="n">
-        <v>0</v>
+        <v>4.60727</v>
       </c>
       <c r="I103" s="27" t="n">
-        <v>0</v>
+        <v>27.8472</v>
       </c>
       <c r="J103" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K103" s="30">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), L70/SUM(F70:I70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), L69/SUM(F69:I69), "")</f>
         <v/>
       </c>
       <c r="L103" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
         <v/>
       </c>
       <c r="M103" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), ((E70*D70)+L70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), ((E69*D69)+L69), "")</f>
         <v/>
       </c>
       <c r="N103" s="32">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), D70, "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), D69, "")</f>
         <v/>
       </c>
       <c r="O103" s="30">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), P70/SUM(F70:I70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), P69/SUM(F69:I69), "")</f>
         <v/>
       </c>
       <c r="P103" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
         <v/>
       </c>
       <c r="Q103" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), ((E70*D70)+P70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), ((E69*D69)+P69), "")</f>
         <v/>
       </c>
       <c r="R103" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), D70, "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), D69, "")</f>
         <v/>
       </c>
       <c r="S103" s="33">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), T70/SUM(F70:I70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), T69/SUM(F69:I69), "")</f>
         <v/>
       </c>
       <c r="T103" s="34">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
         <v/>
       </c>
       <c r="U103" s="34">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), ((E70*D70)+T70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), ((E69*D69)+T69), "")</f>
         <v/>
       </c>
       <c r="V103" s="34">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), D70, "")</f>
-        <v/>
-      </c>
-      <c r="W103" s="45" t="n"/>
-      <c r="X103" s="34" t="n"/>
-      <c r="Y103" s="33" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z103" s="34" t="n"/>
-      <c r="AA103" s="34" t="n"/>
-      <c r="AB103" s="35" t="n"/>
-      <c r="AC103" s="31">
-        <f>IF(B70="DIV", F70,"")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), D69, "")</f>
+        <v/>
+      </c>
+      <c r="W103" s="43" t="n">
+        <v>511.707333</v>
+      </c>
+      <c r="X103" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y103" s="37">
+        <f>IF(AND( C69="Buy", W69&lt;&gt;"", AA69&lt;&gt;"", B69&lt;&gt;"DIV"), Z69/SUM(F69:I69), "")</f>
+        <v/>
+      </c>
+      <c r="Z103" s="38" t="n">
+        <v>-49.3</v>
+      </c>
+      <c r="AA103" s="38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB103" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC103" s="40">
+        <f>IF(B69="DIV", F69,"")</f>
         <v/>
       </c>
       <c r="AD103" s="36" t="n"/>
+      <c r="AE103" s="41" t="n"/>
     </row>
     <row r="104" ht="13" customHeight="1" s="68">
       <c r="A104" s="25" t="n">
-        <v>43307</v>
+        <v>43311</v>
       </c>
       <c r="B104" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C104" s="26" t="inlineStr">
@@ -9348,111 +9284,195 @@
         <v>20</v>
       </c>
       <c r="E104" s="28" t="n">
-        <v>455.113</v>
+        <v>6</v>
       </c>
       <c r="F104" s="28" t="n">
-        <v>9166.440000000001</v>
-      </c>
-      <c r="G104" s="26" t="n"/>
+        <v>120</v>
+      </c>
+      <c r="G104" s="26" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.6.0000/- per share on 30-JUL-2018</t>
+        </is>
+      </c>
       <c r="H104" s="27" t="n">
-        <v>9.17</v>
+        <v>0</v>
       </c>
       <c r="I104" s="27" t="n">
-        <v>54.97</v>
+        <v>0</v>
       </c>
       <c r="J104" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K104" s="30">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), L70/SUM(F70:I70), "")</f>
+        <v/>
+      </c>
+      <c r="L104" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <v/>
+      </c>
+      <c r="M104" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), ((E70*D70)+L70), "")</f>
+        <v/>
+      </c>
+      <c r="N104" s="32">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), D70, "")</f>
+        <v/>
+      </c>
+      <c r="O104" s="30">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), P70/SUM(F70:I70), "")</f>
+        <v/>
+      </c>
+      <c r="P104" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <v/>
+      </c>
+      <c r="Q104" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), ((E70*D70)+P70), "")</f>
+        <v/>
+      </c>
+      <c r="R104" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), D70, "")</f>
+        <v/>
+      </c>
+      <c r="S104" s="33">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), T70/SUM(F70:I70), "")</f>
+        <v/>
+      </c>
+      <c r="T104" s="34">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <v/>
+      </c>
+      <c r="U104" s="34">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), ((E70*D70)+T70), "")</f>
+        <v/>
+      </c>
+      <c r="V104" s="34">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), D70, "")</f>
+        <v/>
+      </c>
+      <c r="W104" s="45" t="n"/>
+      <c r="X104" s="34" t="n"/>
+      <c r="Y104" s="33" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z104" s="34" t="n"/>
+      <c r="AA104" s="34" t="n"/>
+      <c r="AB104" s="35" t="n"/>
+      <c r="AC104" s="31">
+        <f>IF(B70="DIV", F70,"")</f>
+        <v/>
+      </c>
+      <c r="AD104" s="36" t="n"/>
+    </row>
+    <row r="105" ht="13" customHeight="1" s="68">
+      <c r="A105" s="25" t="n">
+        <v>43307</v>
+      </c>
+      <c r="B105" s="26" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C105" s="26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D105" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E105" s="28" t="n">
+        <v>455.113</v>
+      </c>
+      <c r="F105" s="28" t="n">
+        <v>9166.440000000001</v>
+      </c>
+      <c r="G105" s="26" t="n"/>
+      <c r="H105" s="27" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="I105" s="27" t="n">
+        <v>54.97</v>
+      </c>
+      <c r="J105" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K105" s="30">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), L71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="L104" s="31">
+      <c r="L105" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
         <v/>
       </c>
-      <c r="M104" s="31">
+      <c r="M105" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), ((E71*D71)+L71), "")</f>
         <v/>
       </c>
-      <c r="N104" s="32">
+      <c r="N105" s="32">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), D71, "")</f>
         <v/>
       </c>
-      <c r="O104" s="30">
+      <c r="O105" s="30">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), P71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="P104" s="31">
+      <c r="P105" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
         <v/>
       </c>
-      <c r="Q104" s="31">
+      <c r="Q105" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), ((E71*D71)+P71), "")</f>
         <v/>
       </c>
-      <c r="R104" s="31">
+      <c r="R105" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), D71, "")</f>
         <v/>
       </c>
-      <c r="S104" s="33">
+      <c r="S105" s="33">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), T71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="T104" s="34">
+      <c r="T105" s="34">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
         <v/>
       </c>
-      <c r="U104" s="34">
+      <c r="U105" s="34">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), ((E71*D71)+T71), "")</f>
         <v/>
       </c>
-      <c r="V104" s="34">
+      <c r="V105" s="34">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), D71, "")</f>
         <v/>
       </c>
-      <c r="W104" s="43" t="n">
+      <c r="W105" s="43" t="n">
         <v>511.707333</v>
       </c>
-      <c r="X104" s="44" t="n">
+      <c r="X105" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y104" s="37">
+      <c r="Y105" s="37">
         <f>IF(AND( C71="Buy", W71&lt;&gt;"", AA71&lt;&gt;"", B71&lt;&gt;"DIV"), Z71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="Z104" s="38" t="n">
+      <c r="Z105" s="38" t="n">
         <v>-14711.8595</v>
       </c>
-      <c r="AA104" s="38" t="n">
+      <c r="AA105" s="38" t="n">
         <v>14920.75</v>
       </c>
-      <c r="AB104" s="39" t="n">
+      <c r="AB105" s="39" t="n">
         <v>25</v>
       </c>
-      <c r="AC104" s="40">
+      <c r="AC105" s="40">
         <f>IF(B71="DIV", F71,"")</f>
         <v/>
       </c>
-      <c r="AD104" s="36" t="n"/>
-      <c r="AE104" s="41" t="n"/>
-    </row>
-    <row r="105" ht="13" customHeight="1" s="68">
-      <c r="E105" s="48" t="n"/>
-      <c r="F105" s="48" t="n"/>
-      <c r="G105" s="49" t="n"/>
-      <c r="J105" s="48" t="n"/>
-      <c r="K105" s="48" t="n"/>
-      <c r="L105" s="48" t="n"/>
-      <c r="M105" s="1" t="n"/>
-      <c r="W105" s="48" t="n"/>
-      <c r="X105" s="48" t="n"/>
-      <c r="Y105" s="48" t="n"/>
-      <c r="Z105" s="48" t="n"/>
-      <c r="AA105" s="48" t="n"/>
-      <c r="AB105" s="48" t="n"/>
-      <c r="AC105" s="48" t="n"/>
+      <c r="AD105" s="36" t="n"/>
+      <c r="AE105" s="41" t="n"/>
     </row>
     <row r="106" ht="13" customHeight="1" s="68">
       <c r="E106" s="48" t="n"/>
@@ -23509,6 +23529,7 @@
       <c r="J984" s="48" t="n"/>
       <c r="K984" s="48" t="n"/>
       <c r="L984" s="48" t="n"/>
+      <c r="M984" s="1" t="n"/>
       <c r="W984" s="48" t="n"/>
       <c r="X984" s="48" t="n"/>
       <c r="Y984" s="48" t="n"/>
@@ -23756,6 +23777,21 @@
       <c r="AA1000" s="48" t="n"/>
       <c r="AB1000" s="48" t="n"/>
       <c r="AC1000" s="48" t="n"/>
+    </row>
+    <row r="1001">
+      <c r="E1001" s="48" t="n"/>
+      <c r="F1001" s="48" t="n"/>
+      <c r="G1001" s="49" t="n"/>
+      <c r="J1001" s="48" t="n"/>
+      <c r="K1001" s="48" t="n"/>
+      <c r="L1001" s="48" t="n"/>
+      <c r="W1001" s="48" t="n"/>
+      <c r="X1001" s="48" t="n"/>
+      <c r="Y1001" s="48" t="n"/>
+      <c r="Z1001" s="48" t="n"/>
+      <c r="AA1001" s="48" t="n"/>
+      <c r="AB1001" s="48" t="n"/>
+      <c r="AC1001" s="48" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO49"/>

--- a/dumps/Stocks/Avanti Feeds.xlsx
+++ b/dumps/Stocks/Avanti Feeds.xlsx
@@ -739,7 +739,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1001"/>
+  <dimension ref="A1:AP1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1089,11 +1089,11 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="68">
       <c r="A5" s="79" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1105,18 +1105,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>717.92</v>
+        <v>703.83</v>
       </c>
       <c r="F5" t="n">
-        <v>3607.55</v>
+        <v>3536.75</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>17.95</v>
+        <v>17.6</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1125,42 +1125,43 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" s="68">
       <c r="A6" s="79" t="n">
-        <v>46063</v>
+        <v>45959</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>1129.6785</v>
+        <v>717.92</v>
       </c>
       <c r="F6" t="n">
-        <v>22593.57</v>
+        <v>3607.55</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>22.73</v>
+          <t>CN#252607497001</t>
+        </is>
       </c>
       <c r="I6" t="n">
-        <v>135.15</v>
+        <v>17.95</v>
+      </c>
+      <c r="J6">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="68">
       <c r="A7" s="79" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1173,29 +1174,29 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>1076.4808</v>
+        <v>1129.6785</v>
       </c>
       <c r="F7" t="n">
-        <v>53824.04</v>
+        <v>22593.57</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>54.13</v>
+        <v>22.73</v>
       </c>
       <c r="I7" t="n">
-        <v>321.83</v>
+        <v>135.15</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="68">
       <c r="A8" s="79" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1208,18 +1209,24 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>1008.15</v>
+        <v>1076.4808</v>
       </c>
       <c r="F8" t="n">
-        <v>10081.5</v>
+        <v>53824.04</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252611665409</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="I8" t="n">
+        <v>321.83</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="68">
@@ -1228,7 +1235,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1257,7 +1264,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1266,13 +1273,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
         <v>1008.15</v>
       </c>
       <c r="F10" t="n">
-        <v>5040.75</v>
+        <v>10081.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1315,7 +1322,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1324,13 +1331,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v>1008.15</v>
       </c>
       <c r="F12" t="n">
-        <v>10081.5</v>
+        <v>5040.75</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1344,7 +1351,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1353,13 +1360,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
         <v>1008.15</v>
       </c>
       <c r="F13" t="n">
-        <v>1008.15</v>
+        <v>10081.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1385,10 +1392,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.25</v>
+        <v>1008.15</v>
       </c>
       <c r="F14" t="n">
-        <v>1108.25</v>
+        <v>1008.15</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1411,53 +1418,47 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1108.25</v>
       </c>
       <c r="F15" t="n">
+        <v>1108.25</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="68">
+      <c r="A16" s="79" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1108.25</v>
+      </c>
+      <c r="F16" t="n">
         <v>8866</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>~</t>
         </is>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" s="68">
-      <c r="A16" s="66" t="n">
-        <v>46049</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>777.55</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2349.2</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14.22</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="68">
@@ -1475,13 +1476,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>777.55</v>
       </c>
       <c r="F17" t="n">
-        <v>1566.12</v>
+        <v>2349.2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1489,15 +1490,15 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.56</v>
+        <v>2.33</v>
       </c>
       <c r="I17" t="n">
-        <v>9.460000000000001</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="68">
       <c r="A18" s="66" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1510,13 +1511,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>794.9</v>
+        <v>777.55</v>
       </c>
       <c r="F18" t="n">
-        <v>4002.64</v>
+        <v>1566.12</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1524,15 +1525,15 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3.98</v>
+        <v>1.56</v>
       </c>
       <c r="I18" t="n">
-        <v>24.16</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="68">
       <c r="A19" s="66" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1548,10 +1549,10 @@
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>807.2</v>
+        <v>794.9</v>
       </c>
       <c r="F19" t="n">
-        <v>4064.61</v>
+        <v>4002.64</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1559,19 +1560,19 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4.02</v>
+        <v>3.98</v>
       </c>
       <c r="I19" t="n">
-        <v>24.59</v>
+        <v>24.16</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="68">
       <c r="A20" s="66" t="n">
-        <v>46002</v>
+        <v>46030</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1580,13 +1581,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>809.55</v>
+        <v>807.2</v>
       </c>
       <c r="F20" t="n">
-        <v>3261.19</v>
+        <v>4064.61</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1594,10 +1595,10 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>4.02</v>
       </c>
       <c r="I20" t="n">
-        <v>19.74</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="68">
@@ -1615,13 +1616,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>809.5</v>
+        <v>809.55</v>
       </c>
       <c r="F21" t="n">
-        <v>815.23</v>
+        <v>3261.19</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1629,19 +1630,19 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>4.92</v>
+        <v>19.74</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="68">
       <c r="A22" s="66" t="n">
-        <v>45961</v>
+        <v>46002</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1650,13 +1651,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>703.85</v>
+        <v>809.5</v>
       </c>
       <c r="F22" t="n">
-        <v>2126.52</v>
+        <v>815.23</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1664,10 +1665,10 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>12.87</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="68">
@@ -1685,13 +1686,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>703.8</v>
+        <v>703.85</v>
       </c>
       <c r="F23" t="n">
-        <v>1417.56</v>
+        <v>2126.52</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1699,19 +1700,19 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="I23" t="n">
-        <v>8.550000000000001</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="68">
       <c r="A24" s="66" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1720,13 +1721,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>717.8</v>
+        <v>703.8</v>
       </c>
       <c r="F24" t="n">
-        <v>722.89</v>
+        <v>1417.56</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1734,10 +1735,10 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.72</v>
+        <v>1.41</v>
       </c>
       <c r="I24" t="n">
-        <v>4.37</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="68">
@@ -1755,13 +1756,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>717.95</v>
+        <v>717.8</v>
       </c>
       <c r="F25" t="n">
-        <v>2892.14</v>
+        <v>722.89</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1769,19 +1770,19 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2.86</v>
+        <v>0.72</v>
       </c>
       <c r="I25" t="n">
-        <v>17.48</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="68">
       <c r="A26" s="66" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1790,13 +1791,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>719.5</v>
+        <v>717.95</v>
       </c>
       <c r="F26" t="n">
-        <v>3623.02</v>
+        <v>2892.14</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1804,15 +1805,15 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3.61</v>
+        <v>2.86</v>
       </c>
       <c r="I26" t="n">
-        <v>21.91</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="68">
       <c r="A27" s="66" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1828,10 +1829,10 @@
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>723.9</v>
+        <v>719.5</v>
       </c>
       <c r="F27" t="n">
-        <v>3645.15</v>
+        <v>3623.02</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1839,15 +1840,15 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="I27" t="n">
-        <v>22.03</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="68">
       <c r="A28" s="66" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1860,13 +1861,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>731</v>
+        <v>723.9</v>
       </c>
       <c r="F28" t="n">
-        <v>6625.67</v>
+        <v>3645.15</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1874,10 +1875,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6.56</v>
+        <v>3.62</v>
       </c>
       <c r="I28" t="n">
-        <v>40.11</v>
+        <v>22.03</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="68">
@@ -1895,13 +1896,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
-        <v>730.85</v>
+        <v>731</v>
       </c>
       <c r="F29" t="n">
-        <v>736.02</v>
+        <v>6625.67</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1909,15 +1910,15 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.73</v>
+        <v>6.56</v>
       </c>
       <c r="I29" t="n">
-        <v>4.44</v>
+        <v>40.11</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="68">
       <c r="A30" s="66" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1933,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>672.55</v>
+        <v>730.85</v>
       </c>
       <c r="F30" t="n">
-        <v>677.3</v>
+        <v>736.02</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1944,28 +1945,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="I30" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1008.15</v>
-      </c>
-      <c r="X30" s="79" t="n">
-        <v>46059</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0.485155</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>330.9</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1003.45</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="68">
@@ -1983,13 +1966,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>672.55</v>
       </c>
       <c r="F31" t="n">
-        <v>6095.84</v>
+        <v>677.3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1997,10 +1980,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6.05</v>
+        <v>0.67</v>
       </c>
       <c r="I31" t="n">
-        <v>36.84</v>
+        <v>4.08</v>
       </c>
       <c r="W31" t="n">
         <v>1008.15</v>
@@ -2009,25 +1992,25 @@
         <v>46059</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.485135</v>
+        <v>0.485155</v>
       </c>
       <c r="Z31" t="n">
-        <v>2978.11</v>
+        <v>330.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>9031.059999999999</v>
+        <v>1003.45</v>
       </c>
       <c r="AB31" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="68">
       <c r="A32" s="66" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2036,13 +2019,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>690.85</v>
+        <v>672.55</v>
       </c>
       <c r="F32" t="n">
-        <v>4870.24</v>
+        <v>6095.84</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2050,10 +2033,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>4.85</v>
+        <v>6.05</v>
       </c>
       <c r="I32" t="n">
-        <v>29.44</v>
+        <v>36.84</v>
       </c>
       <c r="W32" t="n">
         <v>1008.15</v>
@@ -2062,16 +2045,16 @@
         <v>46059</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.446526</v>
+        <v>0.485135</v>
       </c>
       <c r="Z32" t="n">
-        <v>2190</v>
+        <v>2978.11</v>
       </c>
       <c r="AA32" t="n">
-        <v>7025.95</v>
+        <v>9031.059999999999</v>
       </c>
       <c r="AB32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="68">
@@ -2089,13 +2072,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>690.8</v>
+        <v>690.85</v>
       </c>
       <c r="F33" t="n">
-        <v>2087.09</v>
+        <v>4870.24</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2103,10 +2086,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2.07</v>
+        <v>4.85</v>
       </c>
       <c r="I33" t="n">
-        <v>12.62</v>
+        <v>29.44</v>
       </c>
       <c r="W33" t="n">
         <v>1008.15</v>
@@ -2115,25 +2098,25 @@
         <v>46059</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.446631</v>
+        <v>0.446526</v>
       </c>
       <c r="Z33" t="n">
-        <v>938.72</v>
+        <v>2190</v>
       </c>
       <c r="AA33" t="n">
-        <v>3011.12</v>
+        <v>7025.95</v>
       </c>
       <c r="AB33" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="68">
       <c r="A34" s="66" t="n">
-        <v>45924</v>
+        <v>45947</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2142,13 +2125,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>678.95</v>
+        <v>690.8</v>
       </c>
       <c r="F34" t="n">
-        <v>6837.55</v>
+        <v>2087.09</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2156,10 +2139,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6.76</v>
+        <v>2.07</v>
       </c>
       <c r="I34" t="n">
-        <v>41.29</v>
+        <v>12.62</v>
       </c>
       <c r="W34" t="n">
         <v>1008.15</v>
@@ -2168,25 +2151,25 @@
         <v>46059</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.235703</v>
+        <v>0.446631</v>
       </c>
       <c r="Z34" t="n">
-        <v>1622.96</v>
+        <v>938.72</v>
       </c>
       <c r="AA34" t="n">
-        <v>5017.71</v>
+        <v>3011.12</v>
       </c>
       <c r="AB34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="68">
       <c r="A35" s="66" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2198,10 +2181,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>677.75</v>
+        <v>678.95</v>
       </c>
       <c r="F35" t="n">
-        <v>6825.62</v>
+        <v>6837.55</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2209,10 +2192,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6.8</v>
+        <v>6.76</v>
       </c>
       <c r="I35" t="n">
-        <v>41.32</v>
+        <v>41.29</v>
       </c>
       <c r="W35" t="n">
         <v>1008.15</v>
@@ -2221,13 +2204,13 @@
         <v>46059</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.23697</v>
+        <v>0.235703</v>
       </c>
       <c r="Z35" t="n">
-        <v>1628.87</v>
+        <v>1622.96</v>
       </c>
       <c r="AA35" t="n">
-        <v>5017.62</v>
+        <v>5017.71</v>
       </c>
       <c r="AB35" t="n">
         <v>5</v>
@@ -2235,11 +2218,11 @@
     </row>
     <row r="36" ht="15.75" customHeight="1" s="68">
       <c r="A36" s="66" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2248,13 +2231,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>625.8</v>
+        <v>677.75</v>
       </c>
       <c r="F36" t="n">
-        <v>3151.23</v>
+        <v>6825.62</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2262,10 +2245,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3.13</v>
+        <v>6.8</v>
       </c>
       <c r="I36" t="n">
-        <v>19.1</v>
+        <v>41.32</v>
       </c>
       <c r="W36" t="n">
         <v>1008.15</v>
@@ -2274,13 +2257,13 @@
         <v>46059</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.593986</v>
+        <v>0.23697</v>
       </c>
       <c r="Z36" t="n">
-        <v>1884.99</v>
+        <v>1628.87</v>
       </c>
       <c r="AA36" t="n">
-        <v>5013.99</v>
+        <v>5017.62</v>
       </c>
       <c r="AB36" t="n">
         <v>5</v>
@@ -2288,11 +2271,11 @@
     </row>
     <row r="37" ht="15.75" customHeight="1" s="68">
       <c r="A37" s="66" t="n">
-        <v>45876</v>
+        <v>45897</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2301,196 +2284,139 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>625.8</v>
       </c>
       <c r="F37" t="n">
-        <v>225</v>
+        <v>3151.23</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025  Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>19.1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1008.15</v>
+      </c>
+      <c r="X37" s="79" t="n">
+        <v>46059</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.593986</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1884.99</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>5013.99</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="68">
       <c r="A38" s="66" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>25</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>225</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025  Annual-Dividend of Rs.9.0000/- per share on Ex-Date: 07-AUG-2025</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" s="68">
+      <c r="A39" s="66" t="n">
         <v>45873</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D39" t="n">
         <v>5</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E39" t="n">
         <v>665.2</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F39" t="n">
         <v>3349.66</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H39" t="n">
         <v>3.37</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I39" t="n">
         <v>20.29</v>
       </c>
-      <c r="W38" t="n">
+      <c r="W39" t="n">
         <v>1008.15</v>
       </c>
-      <c r="X38" s="79" t="n">
+      <c r="X39" s="79" t="n">
         <v>46059</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Y39" t="n">
         <v>0.501209</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="Z39" t="n">
         <v>1690.74</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AA39" t="n">
         <v>5016.74</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AB39" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" s="68">
-      <c r="A39" s="25" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B39" s="26" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C39" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D39" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="E39" s="28" t="n">
-        <v>741.22</v>
-      </c>
-      <c r="F39" s="28" t="n">
-        <v>7412.23</v>
-      </c>
-      <c r="G39" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H39" s="27" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="I39" s="27" t="n">
-        <v>44.87</v>
-      </c>
-      <c r="J39" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K39" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="L39" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="M39" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
-        <v/>
-      </c>
-      <c r="N39" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
-        <v/>
-      </c>
-      <c r="O39" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="P39" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="Q39" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
-        <v/>
-      </c>
-      <c r="R39" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="S39" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="T39" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="U39" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
-        <v/>
-      </c>
-      <c r="V39" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="W39" s="34" t="n">
-        <v>1008.15</v>
-      </c>
-      <c r="X39" s="80" t="n">
-        <v>46059</v>
-      </c>
-      <c r="Y39" s="33" t="n">
-        <v>0.035259</v>
-      </c>
-      <c r="Z39" s="34" t="n">
-        <v>263.19</v>
-      </c>
-      <c r="AA39" s="34" t="n">
-        <v>1004.41</v>
-      </c>
-      <c r="AB39" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="31">
-        <f>IF(B19="DIV", F19,"")</f>
-        <v/>
-      </c>
-      <c r="AD39" s="36" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="68">
       <c r="A40" s="25" t="n">
-        <v>45812</v>
+        <v>45855</v>
       </c>
       <c r="B40" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C40" s="26" t="inlineStr">
@@ -2499,13 +2425,13 @@
         </is>
       </c>
       <c r="D40" s="27" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E40" s="28" t="n">
-        <v>774.3</v>
+        <v>741.22</v>
       </c>
       <c r="F40" s="28" t="n">
-        <v>774.3</v>
+        <v>7412.23</v>
       </c>
       <c r="G40" s="26" t="inlineStr">
         <is>
@@ -2513,83 +2439,83 @@
         </is>
       </c>
       <c r="H40" s="27" t="n">
-        <v>0.77</v>
+        <v>7.36</v>
       </c>
       <c r="I40" s="27" t="n">
-        <v>4.68</v>
+        <v>44.87</v>
       </c>
       <c r="J40" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L40" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M40" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N40" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O40" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P40" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R40" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S40" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T40" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U40" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V40" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W40" s="34" t="n">
-        <v>1108.25</v>
+        <v>1008.15</v>
       </c>
       <c r="X40" s="80" t="n">
         <v>46059</v>
       </c>
       <c r="Y40" s="33" t="n">
-        <v>0.422276</v>
+        <v>0.035259</v>
       </c>
       <c r="Z40" s="34" t="n">
-        <v>329.27</v>
+        <v>263.19</v>
       </c>
       <c r="AA40" s="34" t="n">
-        <v>1103.57</v>
+        <v>1004.41</v>
       </c>
       <c r="AB40" s="35" t="n">
         <v>1</v>
       </c>
       <c r="AC40" s="31">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD40" s="36" t="n"/>
@@ -2609,13 +2535,13 @@
         </is>
       </c>
       <c r="D41" s="27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E41" s="28" t="n">
         <v>774.3</v>
       </c>
       <c r="F41" s="28" t="n">
-        <v>6194.39</v>
+        <v>774.3</v>
       </c>
       <c r="G41" s="26" t="inlineStr">
         <is>
@@ -2623,61 +2549,61 @@
         </is>
       </c>
       <c r="H41" s="27" t="n">
-        <v>6.2</v>
+        <v>0.77</v>
       </c>
       <c r="I41" s="27" t="n">
-        <v>37.39</v>
+        <v>4.68</v>
       </c>
       <c r="J41" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L41" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M41" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N41" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O41" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P41" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R41" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S41" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T41" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U41" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V41" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W41" s="34" t="n">
@@ -2687,19 +2613,19 @@
         <v>46059</v>
       </c>
       <c r="Y41" s="33" t="n">
-        <v>0.369498</v>
+        <v>0.422276</v>
       </c>
       <c r="Z41" s="34" t="n">
-        <v>2304.92</v>
+        <v>329.27</v>
       </c>
       <c r="AA41" s="34" t="n">
-        <v>7725.02</v>
+        <v>1103.57</v>
       </c>
       <c r="AB41" s="35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC41" s="31">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD41" s="36" t="n"/>
@@ -2719,13 +2645,13 @@
         </is>
       </c>
       <c r="D42" s="27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E42" s="28" t="n">
         <v>774.3</v>
       </c>
       <c r="F42" s="28" t="n">
-        <v>774.3</v>
+        <v>6194.39</v>
       </c>
       <c r="G42" s="26" t="inlineStr">
         <is>
@@ -2733,61 +2659,61 @@
         </is>
       </c>
       <c r="H42" s="27" t="n">
-        <v>0.77</v>
+        <v>6.2</v>
       </c>
       <c r="I42" s="27" t="n">
-        <v>4.68</v>
+        <v>37.39</v>
       </c>
       <c r="J42" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L42" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M42" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N42" s="32">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O42" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P42" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R42" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S42" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T42" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U42" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V42" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W42" s="34" t="n">
@@ -2797,26 +2723,26 @@
         <v>46059</v>
       </c>
       <c r="Y42" s="33" t="n">
-        <v>0.422276</v>
+        <v>0.369498</v>
       </c>
       <c r="Z42" s="34" t="n">
-        <v>329.27</v>
+        <v>2304.92</v>
       </c>
       <c r="AA42" s="34" t="n">
-        <v>1103.57</v>
+        <v>7725.02</v>
       </c>
       <c r="AB42" s="35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC42" s="31">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD42" s="36" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="68">
       <c r="A43" s="25" t="n">
-        <v>45306</v>
+        <v>45812</v>
       </c>
       <c r="B43" s="26" t="inlineStr">
         <is>
@@ -2825,17 +2751,17 @@
       </c>
       <c r="C43" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D43" s="27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E43" s="28" t="n">
-        <v>554.28</v>
+        <v>774.3</v>
       </c>
       <c r="F43" s="28" t="n">
-        <v>5542.84</v>
+        <v>774.3</v>
       </c>
       <c r="G43" s="26" t="inlineStr">
         <is>
@@ -2843,81 +2769,90 @@
         </is>
       </c>
       <c r="H43" s="27" t="n">
-        <v>6</v>
+        <v>0.77</v>
       </c>
       <c r="I43" s="27" t="n">
-        <v>33.16</v>
+        <v>4.68</v>
       </c>
       <c r="J43" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L43" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M43" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N43" s="32">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O43" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P43" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R43" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S43" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T43" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U43" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V43" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
-        <v/>
-      </c>
-      <c r="W43" s="34" t="n"/>
-      <c r="X43" s="34" t="n"/>
-      <c r="Y43" s="33">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
-        <v/>
-      </c>
-      <c r="Z43" s="34" t="n"/>
-      <c r="AA43" s="34" t="n"/>
-      <c r="AB43" s="35" t="n"/>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <v/>
+      </c>
+      <c r="W43" s="34" t="n">
+        <v>1108.25</v>
+      </c>
+      <c r="X43" s="80" t="n">
+        <v>46059</v>
+      </c>
+      <c r="Y43" s="33" t="n">
+        <v>0.422276</v>
+      </c>
+      <c r="Z43" s="34" t="n">
+        <v>329.27</v>
+      </c>
+      <c r="AA43" s="34" t="n">
+        <v>1103.57</v>
+      </c>
+      <c r="AB43" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="AC43" s="31">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD43" s="36" t="n"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="68">
       <c r="A44" s="25" t="n">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B44" s="26" t="inlineStr">
         <is>
@@ -2930,13 +2865,13 @@
         </is>
       </c>
       <c r="D44" s="27" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E44" s="28" t="n">
-        <v>492.45</v>
+        <v>554.28</v>
       </c>
       <c r="F44" s="28" t="n">
-        <v>14773.61</v>
+        <v>5542.84</v>
       </c>
       <c r="G44" s="26" t="inlineStr">
         <is>
@@ -2944,74 +2879,74 @@
         </is>
       </c>
       <c r="H44" s="27" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I44" s="27" t="n">
-        <v>88.39</v>
+        <v>33.16</v>
       </c>
       <c r="J44" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L44" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M44" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N44" s="32">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O44" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P44" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R44" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S44" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T44" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U44" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V44" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W44" s="34" t="n"/>
       <c r="X44" s="34" t="n"/>
       <c r="Y44" s="33">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z44" s="34" t="n"/>
       <c r="AA44" s="34" t="n"/>
       <c r="AB44" s="35" t="n"/>
       <c r="AC44" s="31">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD44" s="36" t="n"/>
@@ -3031,13 +2966,13 @@
         </is>
       </c>
       <c r="D45" s="27" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E45" s="28" t="n">
         <v>492.45</v>
       </c>
       <c r="F45" s="28" t="n">
-        <v>4924.53</v>
+        <v>14773.61</v>
       </c>
       <c r="G45" s="26" t="inlineStr">
         <is>
@@ -3045,81 +2980,81 @@
         </is>
       </c>
       <c r="H45" s="27" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I45" s="27" t="n">
-        <v>29.47</v>
+        <v>88.39</v>
       </c>
       <c r="J45" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L45" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M45" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N45" s="32">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O45" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P45" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R45" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S45" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T45" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U45" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V45" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W45" s="34" t="n"/>
       <c r="X45" s="34" t="n"/>
       <c r="Y45" s="33">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z45" s="34" t="n"/>
       <c r="AA45" s="34" t="n"/>
       <c r="AB45" s="35" t="n"/>
       <c r="AC45" s="31">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD45" s="36" t="n"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="68">
       <c r="A46" s="25" t="n">
-        <v>45282</v>
+        <v>45303</v>
       </c>
       <c r="B46" s="26" t="inlineStr">
         <is>
@@ -3128,17 +3063,17 @@
       </c>
       <c r="C46" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D46" s="27" t="n">
         <v>10</v>
       </c>
       <c r="E46" s="28" t="n">
-        <v>402.13</v>
+        <v>492.45</v>
       </c>
       <c r="F46" s="28" t="n">
-        <v>4021.34</v>
+        <v>4924.53</v>
       </c>
       <c r="G46" s="26" t="inlineStr">
         <is>
@@ -3146,103 +3081,81 @@
         </is>
       </c>
       <c r="H46" s="27" t="n">
-        <v>3.99</v>
+        <v>5</v>
       </c>
       <c r="I46" s="27" t="n">
-        <v>24.35</v>
+        <v>29.47</v>
       </c>
       <c r="J46" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L46" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M46" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N46" s="32">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O46" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P46" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R46" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S46" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T46" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U46" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V46" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
-        <v/>
-      </c>
-      <c r="W46" s="34" t="n">
-        <v>513.0599999999999</v>
-      </c>
-      <c r="X46" s="25" t="n">
-        <v>45306</v>
-      </c>
-      <c r="Y46" s="37">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
-        <v/>
-      </c>
-      <c r="Z46" s="38" t="n">
-        <v>-221.85</v>
-      </c>
-      <c r="AA46" s="38" t="n">
-        <v>225</v>
-      </c>
-      <c r="AB46" s="39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC46" s="40">
-        <f>IF(B26="DIV", F26,"")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <v/>
+      </c>
+      <c r="W46" s="34" t="n"/>
+      <c r="X46" s="34" t="n"/>
+      <c r="Y46" s="33">
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <v/>
+      </c>
+      <c r="Z46" s="34" t="n"/>
+      <c r="AA46" s="34" t="n"/>
+      <c r="AB46" s="35" t="n"/>
+      <c r="AC46" s="31">
+        <f>IF(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD46" s="36" t="n"/>
-      <c r="AE46" s="41" t="n"/>
-      <c r="AF46" s="41" t="n"/>
-      <c r="AG46" s="41" t="n"/>
-      <c r="AH46" s="41" t="n"/>
-      <c r="AI46" s="41" t="n"/>
-      <c r="AJ46" s="41" t="n"/>
-      <c r="AK46" s="41" t="n"/>
-      <c r="AL46" s="41" t="n"/>
-      <c r="AM46" s="41" t="n"/>
-      <c r="AN46" s="41" t="n"/>
-      <c r="AO46" s="41" t="n"/>
-      <c r="AP46" s="41" t="n"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="68">
       <c r="A47" s="25" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B47" s="26" t="inlineStr">
         <is>
@@ -3258,10 +3171,10 @@
         <v>10</v>
       </c>
       <c r="E47" s="28" t="n">
-        <v>399.61</v>
+        <v>402.13</v>
       </c>
       <c r="F47" s="28" t="n">
-        <v>3996.05</v>
+        <v>4021.34</v>
       </c>
       <c r="G47" s="26" t="inlineStr">
         <is>
@@ -3269,61 +3182,61 @@
         </is>
       </c>
       <c r="H47" s="27" t="n">
-        <v>3.96</v>
+        <v>3.99</v>
       </c>
       <c r="I47" s="27" t="n">
-        <v>24.09</v>
+        <v>24.35</v>
       </c>
       <c r="J47" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="30">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L47" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M47" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N47" s="32">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O47" s="30">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P47" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R47" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S47" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T47" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U47" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V47" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W47" s="34" t="n">
@@ -3333,20 +3246,20 @@
         <v>45306</v>
       </c>
       <c r="Y47" s="37">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z47" s="38" t="n">
-        <v>-3279.436</v>
+        <v>-221.85</v>
       </c>
       <c r="AA47" s="38" t="n">
-        <v>3326</v>
+        <v>225</v>
       </c>
       <c r="AB47" s="39" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AC47" s="40">
-        <f>IF(B27="DIV", F27,"")</f>
+        <f>IF(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD47" s="36" t="n"/>
@@ -3365,7 +3278,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1" s="68">
       <c r="A48" s="25" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B48" s="26" t="inlineStr">
         <is>
@@ -3378,13 +3291,13 @@
         </is>
       </c>
       <c r="D48" s="27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E48" s="28" t="n">
-        <v>399.21</v>
+        <v>399.61</v>
       </c>
       <c r="F48" s="28" t="n">
-        <v>2794.47</v>
+        <v>3996.05</v>
       </c>
       <c r="G48" s="26" t="inlineStr">
         <is>
@@ -3392,61 +3305,61 @@
         </is>
       </c>
       <c r="H48" s="27" t="n">
-        <v>2.77</v>
+        <v>3.96</v>
       </c>
       <c r="I48" s="27" t="n">
-        <v>16.9</v>
+        <v>24.09</v>
       </c>
       <c r="J48" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L48" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M48" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N48" s="32">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O48" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P48" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R48" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S48" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T48" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U48" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V48" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W48" s="34" t="n">
@@ -3455,20 +3368,21 @@
       <c r="X48" s="25" t="n">
         <v>45306</v>
       </c>
-      <c r="Y48" s="37" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z48" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA48" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB48" s="39" t="e">
-        <v>#REF!</v>
+      <c r="Y48" s="37">
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <v/>
+      </c>
+      <c r="Z48" s="38" t="n">
+        <v>-3279.436</v>
+      </c>
+      <c r="AA48" s="38" t="n">
+        <v>3326</v>
+      </c>
+      <c r="AB48" s="39" t="n">
+        <v>5</v>
       </c>
       <c r="AC48" s="40">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <f>IF(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD48" s="36" t="n"/>
@@ -3486,8 +3400,8 @@
       <c r="AP48" s="41" t="n"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="68">
-      <c r="A49" s="42" t="n">
-        <v>45225</v>
+      <c r="A49" s="25" t="n">
+        <v>45258</v>
       </c>
       <c r="B49" s="26" t="inlineStr">
         <is>
@@ -3500,13 +3414,13 @@
         </is>
       </c>
       <c r="D49" s="27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E49" s="28" t="n">
-        <v>392.37</v>
+        <v>399.21</v>
       </c>
       <c r="F49" s="28" t="n">
-        <v>1569.46</v>
+        <v>2794.47</v>
       </c>
       <c r="G49" s="26" t="inlineStr">
         <is>
@@ -3514,10 +3428,10 @@
         </is>
       </c>
       <c r="H49" s="27" t="n">
-        <v>1.57</v>
+        <v>2.77</v>
       </c>
       <c r="I49" s="27" t="n">
-        <v>9.49</v>
+        <v>16.9</v>
       </c>
       <c r="J49" s="29">
         <f>Index!$C$2</f>
@@ -3595,10 +3509,21 @@
       </c>
       <c r="AD49" s="36" t="n"/>
       <c r="AE49" s="41" t="n"/>
+      <c r="AF49" s="41" t="n"/>
+      <c r="AG49" s="41" t="n"/>
+      <c r="AH49" s="41" t="n"/>
+      <c r="AI49" s="41" t="n"/>
+      <c r="AJ49" s="41" t="n"/>
+      <c r="AK49" s="41" t="n"/>
+      <c r="AL49" s="41" t="n"/>
+      <c r="AM49" s="41" t="n"/>
+      <c r="AN49" s="41" t="n"/>
+      <c r="AO49" s="41" t="n"/>
+      <c r="AP49" s="41" t="n"/>
     </row>
     <row r="50" ht="13" customHeight="1" s="68">
       <c r="A50" s="42" t="n">
-        <v>45183</v>
+        <v>45225</v>
       </c>
       <c r="B50" s="26" t="inlineStr">
         <is>
@@ -3607,17 +3532,17 @@
       </c>
       <c r="C50" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D50" s="27" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E50" s="28" t="n">
-        <v>459.59</v>
+        <v>392.37</v>
       </c>
       <c r="F50" s="28" t="n">
-        <v>16545.32</v>
+        <v>1569.46</v>
       </c>
       <c r="G50" s="26" t="inlineStr">
         <is>
@@ -3625,10 +3550,10 @@
         </is>
       </c>
       <c r="H50" s="27" t="n">
-        <v>16.68</v>
+        <v>1.57</v>
       </c>
       <c r="I50" s="27" t="n">
-        <v>98.8</v>
+        <v>9.49</v>
       </c>
       <c r="J50" s="29">
         <f>Index!$C$2</f>
@@ -3682,42 +3607,53 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W50" s="34" t="n"/>
-      <c r="X50" s="34" t="n"/>
-      <c r="Y50" s="33" t="e">
+      <c r="W50" s="34" t="n">
+        <v>513.0599999999999</v>
+      </c>
+      <c r="X50" s="25" t="n">
+        <v>45306</v>
+      </c>
+      <c r="Y50" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z50" s="34" t="n"/>
-      <c r="AA50" s="34" t="n"/>
-      <c r="AB50" s="35" t="n"/>
-      <c r="AC50" s="31">
+      <c r="Z50" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA50" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB50" s="39" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AC50" s="40">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD50" s="36" t="n"/>
+      <c r="AE50" s="41" t="n"/>
     </row>
     <row r="51" ht="13" customHeight="1" s="68">
       <c r="A51" s="42" t="n">
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="B51" s="26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C51" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D51" s="27" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E51" s="28" t="n">
-        <v>433.95</v>
+        <v>459.59</v>
       </c>
       <c r="F51" s="28" t="n">
-        <v>1735.79</v>
+        <v>16545.32</v>
       </c>
       <c r="G51" s="26" t="inlineStr">
         <is>
@@ -3725,10 +3661,10 @@
         </is>
       </c>
       <c r="H51" s="27" t="n">
-        <v>1.72</v>
+        <v>16.68</v>
       </c>
       <c r="I51" s="27" t="n">
-        <v>10.47</v>
+        <v>98.8</v>
       </c>
       <c r="J51" s="29">
         <f>Index!$C$2</f>
@@ -3782,38 +3718,27 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W51" s="34" t="n">
-        <v>513.0599999999999</v>
-      </c>
-      <c r="X51" s="25" t="n">
-        <v>45306</v>
-      </c>
-      <c r="Y51" s="37" t="e">
+      <c r="W51" s="34" t="n"/>
+      <c r="X51" s="34" t="n"/>
+      <c r="Y51" s="33" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z51" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA51" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB51" s="39" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC51" s="40">
+      <c r="Z51" s="34" t="n"/>
+      <c r="AA51" s="34" t="n"/>
+      <c r="AB51" s="35" t="n"/>
+      <c r="AC51" s="31">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD51" s="36" t="n"/>
-      <c r="AE51" s="41" t="n"/>
     </row>
     <row r="52" ht="13" customHeight="1" s="68">
       <c r="A52" s="42" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B52" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C52" s="26" t="inlineStr">
@@ -3822,13 +3747,13 @@
         </is>
       </c>
       <c r="D52" s="27" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E52" s="28" t="n">
-        <v>444.44</v>
+        <v>433.95</v>
       </c>
       <c r="F52" s="28" t="n">
-        <v>4444.36</v>
+        <v>1735.79</v>
       </c>
       <c r="G52" s="26" t="inlineStr">
         <is>
@@ -3836,10 +3761,10 @@
         </is>
       </c>
       <c r="H52" s="27" t="n">
-        <v>4.4</v>
+        <v>1.72</v>
       </c>
       <c r="I52" s="27" t="n">
-        <v>26.96</v>
+        <v>10.47</v>
       </c>
       <c r="J52" s="29">
         <f>Index!$C$2</f>
@@ -3920,11 +3845,11 @@
     </row>
     <row r="53" ht="13" customHeight="1" s="68">
       <c r="A53" s="42" t="n">
-        <v>45162</v>
+        <v>45180</v>
       </c>
       <c r="B53" s="26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C53" s="26" t="inlineStr">
@@ -3933,13 +3858,13 @@
         </is>
       </c>
       <c r="D53" s="27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E53" s="28" t="n">
-        <v>433.05</v>
+        <v>444.44</v>
       </c>
       <c r="F53" s="28" t="n">
-        <v>2165.25</v>
+        <v>4444.36</v>
       </c>
       <c r="G53" s="26" t="inlineStr">
         <is>
@@ -3947,10 +3872,10 @@
         </is>
       </c>
       <c r="H53" s="27" t="n">
-        <v>2.13</v>
+        <v>4.4</v>
       </c>
       <c r="I53" s="27" t="n">
-        <v>13.12</v>
+        <v>26.96</v>
       </c>
       <c r="J53" s="29">
         <f>Index!$C$2</f>
@@ -4030,12 +3955,12 @@
       <c r="AE53" s="41" t="n"/>
     </row>
     <row r="54" ht="13" customHeight="1" s="68">
-      <c r="A54" s="25" t="n">
-        <v>45141</v>
+      <c r="A54" s="42" t="n">
+        <v>45162</v>
       </c>
       <c r="B54" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C54" s="26" t="inlineStr">
@@ -4044,24 +3969,24 @@
         </is>
       </c>
       <c r="D54" s="27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E54" s="28" t="n">
-        <v>6.25</v>
+        <v>433.05</v>
       </c>
       <c r="F54" s="28" t="n">
-        <v>62.5</v>
+        <v>2165.25</v>
       </c>
       <c r="G54" s="26" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.6.2500/- per share on Ex-Date: 03-AUG-2023</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H54" s="27" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="I54" s="27" t="n">
-        <v>0</v>
+        <v>13.12</v>
       </c>
       <c r="J54" s="29">
         <f>Index!$C$2</f>
@@ -4115,19 +4040,30 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W54" s="34" t="n"/>
-      <c r="X54" s="34" t="n"/>
-      <c r="Y54" s="33" t="e">
+      <c r="W54" s="34" t="n">
+        <v>513.0599999999999</v>
+      </c>
+      <c r="X54" s="25" t="n">
+        <v>45306</v>
+      </c>
+      <c r="Y54" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z54" s="34" t="n"/>
-      <c r="AA54" s="34" t="n"/>
-      <c r="AB54" s="35" t="n"/>
-      <c r="AC54" s="31">
+      <c r="Z54" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA54" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB54" s="39" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AC54" s="40">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD54" s="36" t="n"/>
+      <c r="AE54" s="41" t="n"/>
     </row>
     <row r="55" ht="13" customHeight="1" s="68">
       <c r="A55" s="25" t="n">
@@ -4144,13 +4080,13 @@
         </is>
       </c>
       <c r="D55" s="27" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E55" s="28" t="n">
         <v>6.25</v>
       </c>
       <c r="F55" s="28" t="n">
-        <v>162.5</v>
+        <v>62.5</v>
       </c>
       <c r="G55" s="26" t="inlineStr">
         <is>
@@ -4230,12 +4166,12 @@
       <c r="AD55" s="36" t="n"/>
     </row>
     <row r="56" ht="13" customHeight="1" s="68">
-      <c r="A56" s="42" t="n">
-        <v>45131</v>
+      <c r="A56" s="25" t="n">
+        <v>45141</v>
       </c>
       <c r="B56" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C56" s="26" t="inlineStr">
@@ -4244,24 +4180,24 @@
         </is>
       </c>
       <c r="D56" s="27" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E56" s="28" t="n">
-        <v>404.79</v>
+        <v>6.25</v>
       </c>
       <c r="F56" s="28" t="n">
-        <v>1619.16</v>
+        <v>162.5</v>
       </c>
       <c r="G56" s="26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.6.2500/- per share on Ex-Date: 03-AUG-2023</t>
         </is>
       </c>
       <c r="H56" s="27" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I56" s="27" t="n">
-        <v>9.76</v>
+        <v>0</v>
       </c>
       <c r="J56" s="29">
         <f>Index!$C$2</f>
@@ -4315,30 +4251,19 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W56" s="43" t="n">
-        <v>456.382222</v>
-      </c>
-      <c r="X56" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y56" s="37" t="e">
+      <c r="W56" s="34" t="n"/>
+      <c r="X56" s="34" t="n"/>
+      <c r="Y56" s="33" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z56" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA56" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB56" s="39" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC56" s="40">
+      <c r="Z56" s="34" t="n"/>
+      <c r="AA56" s="34" t="n"/>
+      <c r="AB56" s="35" t="n"/>
+      <c r="AC56" s="31">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD56" s="36" t="n"/>
-      <c r="AE56" s="41" t="n"/>
     </row>
     <row r="57" ht="13" customHeight="1" s="68">
       <c r="A57" s="42" t="n">
@@ -4355,13 +4280,13 @@
         </is>
       </c>
       <c r="D57" s="27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E57" s="28" t="n">
-        <v>404.8</v>
+        <v>404.79</v>
       </c>
       <c r="F57" s="28" t="n">
-        <v>809.59</v>
+        <v>1619.16</v>
       </c>
       <c r="G57" s="26" t="inlineStr">
         <is>
@@ -4369,10 +4294,10 @@
         </is>
       </c>
       <c r="H57" s="27" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="I57" s="27" t="n">
-        <v>4.89</v>
+        <v>9.76</v>
       </c>
       <c r="J57" s="29">
         <f>Index!$C$2</f>
@@ -4453,11 +4378,11 @@
     </row>
     <row r="58" ht="13" customHeight="1" s="68">
       <c r="A58" s="42" t="n">
-        <v>45034</v>
+        <v>45131</v>
       </c>
       <c r="B58" s="26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C58" s="26" t="inlineStr">
@@ -4469,10 +4394,10 @@
         <v>2</v>
       </c>
       <c r="E58" s="28" t="n">
-        <v>364.03</v>
+        <v>404.8</v>
       </c>
       <c r="F58" s="28" t="n">
-        <v>728.0599999999999</v>
+        <v>809.59</v>
       </c>
       <c r="G58" s="26" t="inlineStr">
         <is>
@@ -4480,10 +4405,10 @@
         </is>
       </c>
       <c r="H58" s="27" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="I58" s="27" t="n">
-        <v>4.44</v>
+        <v>4.89</v>
       </c>
       <c r="J58" s="29">
         <f>Index!$C$2</f>
@@ -4577,13 +4502,13 @@
         </is>
       </c>
       <c r="D59" s="27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E59" s="28" t="n">
-        <v>363.87</v>
+        <v>364.03</v>
       </c>
       <c r="F59" s="28" t="n">
-        <v>2910.96</v>
+        <v>728.0599999999999</v>
       </c>
       <c r="G59" s="26" t="inlineStr">
         <is>
@@ -4591,10 +4516,10 @@
         </is>
       </c>
       <c r="H59" s="27" t="n">
-        <v>2.9</v>
+        <v>0.72</v>
       </c>
       <c r="I59" s="27" t="n">
-        <v>17.66</v>
+        <v>4.44</v>
       </c>
       <c r="J59" s="29">
         <f>Index!$C$2</f>
@@ -4675,11 +4600,11 @@
     </row>
     <row r="60" ht="13" customHeight="1" s="68">
       <c r="A60" s="42" t="n">
-        <v>44953</v>
+        <v>45034</v>
       </c>
       <c r="B60" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C60" s="26" t="inlineStr">
@@ -4688,13 +4613,13 @@
         </is>
       </c>
       <c r="D60" s="27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" s="28" t="n">
-        <v>378.71</v>
+        <v>363.87</v>
       </c>
       <c r="F60" s="28" t="n">
-        <v>3408.42</v>
+        <v>2910.96</v>
       </c>
       <c r="G60" s="26" t="inlineStr">
         <is>
@@ -4702,10 +4627,10 @@
         </is>
       </c>
       <c r="H60" s="27" t="n">
-        <v>3.34</v>
+        <v>2.9</v>
       </c>
       <c r="I60" s="27" t="n">
-        <v>20.63</v>
+        <v>17.66</v>
       </c>
       <c r="J60" s="29">
         <f>Index!$C$2</f>
@@ -4799,13 +4724,13 @@
         </is>
       </c>
       <c r="D61" s="27" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E61" s="28" t="n">
-        <v>378.72</v>
+        <v>378.71</v>
       </c>
       <c r="F61" s="28" t="n">
-        <v>378.72</v>
+        <v>3408.42</v>
       </c>
       <c r="G61" s="26" t="inlineStr">
         <is>
@@ -4813,10 +4738,10 @@
         </is>
       </c>
       <c r="H61" s="27" t="n">
-        <v>0.38</v>
+        <v>3.34</v>
       </c>
       <c r="I61" s="27" t="n">
-        <v>2.29</v>
+        <v>20.63</v>
       </c>
       <c r="J61" s="29">
         <f>Index!$C$2</f>
@@ -4897,7 +4822,7 @@
     </row>
     <row r="62" ht="13" customHeight="1" s="68">
       <c r="A62" s="42" t="n">
-        <v>44950</v>
+        <v>44953</v>
       </c>
       <c r="B62" s="26" t="inlineStr">
         <is>
@@ -4910,13 +4835,13 @@
         </is>
       </c>
       <c r="D62" s="27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E62" s="28" t="n">
-        <v>390.75</v>
+        <v>378.72</v>
       </c>
       <c r="F62" s="28" t="n">
-        <v>3907.45</v>
+        <v>378.72</v>
       </c>
       <c r="G62" s="26" t="inlineStr">
         <is>
@@ -4924,61 +4849,61 @@
         </is>
       </c>
       <c r="H62" s="27" t="n">
-        <v>3.86</v>
+        <v>0.38</v>
       </c>
       <c r="I62" s="27" t="n">
-        <v>23.59</v>
+        <v>2.29</v>
       </c>
       <c r="J62" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K62" s="30">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="L62" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="M62" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="N62" s="32">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
       <c r="O62" s="30">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="P62" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="R62" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="S62" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
         <v/>
       </c>
       <c r="T62" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="U62" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="V62" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="W62" s="43" t="n">
@@ -4987,29 +4912,28 @@
       <c r="X62" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y62" s="37">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
-        <v/>
-      </c>
-      <c r="Z62" s="38" t="n">
-        <v>-7308.4292</v>
-      </c>
-      <c r="AA62" s="38" t="n">
-        <v>7412.200000000001</v>
-      </c>
-      <c r="AB62" s="39" t="n">
-        <v>10</v>
+      <c r="Y62" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z62" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA62" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB62" s="39" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AC62" s="40">
-        <f>IF(B28="DIV", F28,"")</f>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD62" s="36" t="n"/>
       <c r="AE62" s="41" t="n"/>
     </row>
     <row r="63" ht="13" customHeight="1" s="68">
-      <c r="A63" s="25" t="n">
-        <v>44232</v>
+      <c r="A63" s="42" t="n">
+        <v>44950</v>
       </c>
       <c r="B63" s="26" t="inlineStr">
         <is>
@@ -5018,95 +4942,110 @@
       </c>
       <c r="C63" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D63" s="27" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E63" s="28" t="n">
-        <v>512.11</v>
+        <v>390.75</v>
       </c>
       <c r="F63" s="28" t="n">
-        <v>28165.9</v>
-      </c>
-      <c r="G63" s="26" t="n"/>
+        <v>3907.45</v>
+      </c>
+      <c r="G63" s="26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
       <c r="H63" s="27" t="n">
-        <v>28.33</v>
+        <v>3.86</v>
       </c>
       <c r="I63" s="27" t="n">
-        <v>168.47</v>
+        <v>23.59</v>
       </c>
       <c r="J63" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K63" s="30">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L63" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M63" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N63" s="32">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O63" s="30">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P63" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R63" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S63" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T63" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U63" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V63" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
-        <v/>
-      </c>
-      <c r="W63" s="45" t="n"/>
-      <c r="X63" s="34" t="n"/>
-      <c r="Y63" s="33">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
-        <v/>
-      </c>
-      <c r="Z63" s="34" t="n"/>
-      <c r="AA63" s="34" t="n"/>
-      <c r="AB63" s="35" t="n"/>
-      <c r="AC63" s="31">
-        <f>IF(B29="DIV", F29,"")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <v/>
+      </c>
+      <c r="W63" s="43" t="n">
+        <v>456.382222</v>
+      </c>
+      <c r="X63" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y63" s="37">
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
+        <v/>
+      </c>
+      <c r="Z63" s="38" t="n">
+        <v>-7308.4292</v>
+      </c>
+      <c r="AA63" s="38" t="n">
+        <v>7412.200000000001</v>
+      </c>
+      <c r="AB63" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC63" s="40">
+        <f>IF(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD63" s="36" t="n"/>
+      <c r="AE63" s="41" t="n"/>
     </row>
     <row r="64" ht="13" customHeight="1" s="68">
       <c r="A64" s="25" t="n">
-        <v>44228</v>
+        <v>44232</v>
       </c>
       <c r="B64" s="26" t="inlineStr">
         <is>
@@ -5119,91 +5058,91 @@
         </is>
       </c>
       <c r="D64" s="27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E64" s="28" t="n">
-        <v>517.9299999999999</v>
+        <v>512.11</v>
       </c>
       <c r="F64" s="28" t="n">
-        <v>25896.47</v>
+        <v>28165.9</v>
       </c>
       <c r="G64" s="26" t="n"/>
       <c r="H64" s="27" t="n">
-        <v>26.08</v>
+        <v>28.33</v>
       </c>
       <c r="I64" s="27" t="n">
-        <v>154.95</v>
+        <v>168.47</v>
       </c>
       <c r="J64" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K64" s="30">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L64" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M64" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N64" s="32">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O64" s="30">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P64" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R64" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S64" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T64" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U64" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V64" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W64" s="45" t="n"/>
       <c r="X64" s="34" t="n"/>
       <c r="Y64" s="33">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z64" s="34" t="n"/>
       <c r="AA64" s="34" t="n"/>
       <c r="AB64" s="35" t="n"/>
       <c r="AC64" s="31">
-        <f>IF(B30="DIV", F30,"")</f>
+        <f>IF(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD64" s="36" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1" s="68">
-      <c r="A65" s="42" t="n">
-        <v>44152</v>
+      <c r="A65" s="25" t="n">
+        <v>44228</v>
       </c>
       <c r="B65" s="26" t="inlineStr">
         <is>
@@ -5212,106 +5151,95 @@
       </c>
       <c r="C65" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D65" s="27" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E65" s="28" t="n">
-        <v>487.94</v>
+        <v>517.9299999999999</v>
       </c>
       <c r="F65" s="28" t="n">
-        <v>2439.72</v>
+        <v>25896.47</v>
       </c>
       <c r="G65" s="26" t="n"/>
       <c r="H65" s="27" t="n">
-        <v>1.97</v>
+        <v>26.08</v>
       </c>
       <c r="I65" s="27" t="n">
-        <v>14.75</v>
+        <v>154.95</v>
       </c>
       <c r="J65" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K65" s="30">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L65" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M65" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N65" s="32">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O65" s="30">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P65" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R65" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S65" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T65" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U65" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V65" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
-        <v/>
-      </c>
-      <c r="W65" s="43" t="n">
-        <v>508.531818</v>
-      </c>
-      <c r="X65" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y65" s="37">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
-        <v/>
-      </c>
-      <c r="Z65" s="38" t="n">
-        <v>-763.4598</v>
-      </c>
-      <c r="AA65" s="38" t="n">
-        <v>774.3</v>
-      </c>
-      <c r="AB65" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC65" s="40">
-        <f>IF(B31="DIV", F31,"")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <v/>
+      </c>
+      <c r="W65" s="45" t="n"/>
+      <c r="X65" s="34" t="n"/>
+      <c r="Y65" s="33">
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <v/>
+      </c>
+      <c r="Z65" s="34" t="n"/>
+      <c r="AA65" s="34" t="n"/>
+      <c r="AB65" s="35" t="n"/>
+      <c r="AC65" s="31">
+        <f>IF(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD65" s="36" t="n"/>
-      <c r="AE65" s="41" t="n"/>
     </row>
     <row r="66" ht="13" customHeight="1" s="68">
       <c r="A66" s="42" t="n">
-        <v>44089</v>
+        <v>44152</v>
       </c>
       <c r="B66" s="26" t="inlineStr">
         <is>
@@ -5320,200 +5248,207 @@
       </c>
       <c r="C66" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D66" s="27" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E66" s="28" t="n">
-        <v>536.5700000000001</v>
+        <v>487.94</v>
       </c>
       <c r="F66" s="28" t="n">
-        <v>10731.39</v>
+        <v>2439.72</v>
       </c>
       <c r="G66" s="26" t="n"/>
       <c r="H66" s="27" t="n">
-        <v>10.56</v>
+        <v>1.97</v>
       </c>
       <c r="I66" s="27" t="n">
-        <v>65.05</v>
+        <v>14.75</v>
       </c>
       <c r="J66" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K66" s="30">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L66" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M66" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N66" s="32">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O66" s="30">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P66" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R66" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S66" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T66" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U66" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V66" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
-        <v/>
-      </c>
-      <c r="W66" s="45" t="n"/>
-      <c r="X66" s="34" t="n"/>
-      <c r="Y66" s="33">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
-        <v/>
-      </c>
-      <c r="Z66" s="34" t="n"/>
-      <c r="AA66" s="34" t="n"/>
-      <c r="AB66" s="35" t="n"/>
-      <c r="AC66" s="31">
-        <f>IF(B32="DIV", F32,"")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <v/>
+      </c>
+      <c r="W66" s="43" t="n">
+        <v>508.531818</v>
+      </c>
+      <c r="X66" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y66" s="37">
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
+        <v/>
+      </c>
+      <c r="Z66" s="38" t="n">
+        <v>-763.4598</v>
+      </c>
+      <c r="AA66" s="38" t="n">
+        <v>774.3</v>
+      </c>
+      <c r="AB66" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="40">
+        <f>IF(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD66" s="36" t="n"/>
+      <c r="AE66" s="41" t="n"/>
     </row>
     <row r="67" ht="13" customHeight="1" s="68">
       <c r="A67" s="42" t="n">
-        <v>44063</v>
+        <v>44089</v>
       </c>
       <c r="B67" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C67" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D67" s="27" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E67" s="28" t="n">
-        <v>0.09</v>
+        <v>536.5700000000001</v>
       </c>
       <c r="F67" s="28" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="G67" s="26" t="inlineStr">
-        <is>
-          <t>Dividend of Rs.0.0925/- per share on 20-AUG-2020 Final-Dividend of Rs.0.1000/- per share on Ex-Date: 20-AUG-2020</t>
-        </is>
-      </c>
+        <v>10731.39</v>
+      </c>
+      <c r="G67" s="26" t="n"/>
       <c r="H67" s="27" t="n">
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="I67" s="27" t="n">
-        <v>0</v>
+        <v>65.05</v>
       </c>
       <c r="J67" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="30">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L67" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M67" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N67" s="32">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O67" s="30">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P67" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R67" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S67" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T67" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U67" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V67" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W67" s="45" t="n"/>
       <c r="X67" s="34" t="n"/>
       <c r="Y67" s="33">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z67" s="34" t="n"/>
       <c r="AA67" s="34" t="n"/>
       <c r="AB67" s="35" t="n"/>
       <c r="AC67" s="31">
-        <f>IF(B33="DIV", F33,"")</f>
+        <f>IF(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD67" s="36" t="n"/>
     </row>
     <row r="68" ht="13" customHeight="1" s="68">
       <c r="A68" s="42" t="n">
-        <v>44043</v>
+        <v>44063</v>
       </c>
       <c r="B68" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C68" s="26" t="inlineStr">
@@ -5522,102 +5457,95 @@
         </is>
       </c>
       <c r="D68" s="27" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E68" s="28" t="n">
-        <v>453.3</v>
+        <v>0.09</v>
       </c>
       <c r="F68" s="28" t="n">
-        <v>4533.01</v>
-      </c>
-      <c r="G68" s="26" t="n"/>
+        <v>11.1</v>
+      </c>
+      <c r="G68" s="26" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.0.0925/- per share on 20-AUG-2020 Final-Dividend of Rs.0.1000/- per share on Ex-Date: 20-AUG-2020</t>
+        </is>
+      </c>
       <c r="H68" s="27" t="n">
-        <v>4.57</v>
+        <v>0</v>
       </c>
       <c r="I68" s="27" t="n">
-        <v>27.44</v>
+        <v>0</v>
       </c>
       <c r="J68" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="30">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L68" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M68" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N68" s="32">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O68" s="30">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P68" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R68" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S68" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T68" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U68" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V68" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
-        <v/>
-      </c>
-      <c r="W68" s="43" t="n">
-        <v>508.531818</v>
-      </c>
-      <c r="X68" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y68" s="37">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
-        <v/>
-      </c>
-      <c r="Z68" s="38" t="n">
-        <v>-4855.557</v>
-      </c>
-      <c r="AA68" s="38" t="n">
-        <v>4924.5</v>
-      </c>
-      <c r="AB68" s="39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC68" s="40">
-        <f>IF(B34="DIV", F34,"")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <v/>
+      </c>
+      <c r="W68" s="45" t="n"/>
+      <c r="X68" s="34" t="n"/>
+      <c r="Y68" s="33">
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <v/>
+      </c>
+      <c r="Z68" s="34" t="n"/>
+      <c r="AA68" s="34" t="n"/>
+      <c r="AB68" s="35" t="n"/>
+      <c r="AC68" s="31">
+        <f>IF(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD68" s="36" t="n"/>
-      <c r="AE68" s="41" t="n"/>
     </row>
     <row r="69" ht="13" customHeight="1" s="68">
       <c r="A69" s="42" t="n">
-        <v>44036</v>
+        <v>44043</v>
       </c>
       <c r="B69" s="26" t="inlineStr">
         <is>
@@ -5630,71 +5558,71 @@
         </is>
       </c>
       <c r="D69" s="27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E69" s="28" t="n">
-        <v>445.3</v>
+        <v>453.3</v>
       </c>
       <c r="F69" s="28" t="n">
-        <v>2226.52</v>
+        <v>4533.01</v>
       </c>
       <c r="G69" s="26" t="n"/>
       <c r="H69" s="27" t="n">
-        <v>2.23</v>
+        <v>4.57</v>
       </c>
       <c r="I69" s="27" t="n">
-        <v>13.29</v>
+        <v>27.44</v>
       </c>
       <c r="J69" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="30">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L69" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M69" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N69" s="32">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O69" s="30">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P69" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R69" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S69" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T69" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U69" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V69" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W69" s="43" t="n">
@@ -5703,28 +5631,29 @@
       <c r="X69" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y69" s="37" t="n">
-        <v>-0.05478210624049307</v>
+      <c r="Y69" s="37">
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
+        <v/>
       </c>
       <c r="Z69" s="38" t="n">
-        <v>1093.769799999999</v>
+        <v>-4855.557</v>
       </c>
       <c r="AA69" s="38" t="n">
-        <v>3799.45</v>
+        <v>4924.5</v>
       </c>
       <c r="AB69" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC69" s="40">
-        <f>IF(B35="DIV", F35,"")</f>
+        <f>IF(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD69" s="36" t="n"/>
       <c r="AE69" s="41" t="n"/>
     </row>
     <row r="70" ht="13" customHeight="1" s="68">
-      <c r="A70" s="46" t="n">
-        <v>43966</v>
+      <c r="A70" s="42" t="n">
+        <v>44036</v>
       </c>
       <c r="B70" s="26" t="inlineStr">
         <is>
@@ -5740,68 +5669,68 @@
         <v>5</v>
       </c>
       <c r="E70" s="28" t="n">
-        <v>425.17</v>
+        <v>445.3</v>
       </c>
       <c r="F70" s="28" t="n">
-        <v>2125.85</v>
+        <v>2226.52</v>
       </c>
       <c r="G70" s="26" t="n"/>
       <c r="H70" s="27" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="I70" s="27" t="n">
-        <v>10.6</v>
+        <v>13.29</v>
       </c>
       <c r="J70" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K70" s="30">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="L70" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M70" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N70" s="32">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O70" s="30">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="P70" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R70" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S70" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="T70" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="U70" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V70" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W70" s="43" t="n">
@@ -5811,27 +5740,27 @@
         <v>45565</v>
       </c>
       <c r="Y70" s="37" t="n">
-        <v>-0.8149489326805993</v>
+        <v>-0.05478210624049307</v>
       </c>
       <c r="Z70" s="38" t="n">
-        <v>1118.616999999999</v>
+        <v>1093.769799999999</v>
       </c>
       <c r="AA70" s="38" t="n">
-        <v>716.6640000000002</v>
+        <v>3799.45</v>
       </c>
       <c r="AB70" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC70" s="40">
-        <f>IF(B36="DIV", F36,"")</f>
+        <f>IF(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD70" s="36" t="n"/>
       <c r="AE70" s="41" t="n"/>
     </row>
     <row r="71" ht="13" customHeight="1" s="68">
-      <c r="A71" s="47" t="n">
-        <v>43959</v>
+      <c r="A71" s="46" t="n">
+        <v>43966</v>
       </c>
       <c r="B71" s="26" t="inlineStr">
         <is>
@@ -5844,71 +5773,71 @@
         </is>
       </c>
       <c r="D71" s="27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E71" s="28" t="n">
-        <v>406.67</v>
+        <v>425.17</v>
       </c>
       <c r="F71" s="28" t="n">
-        <v>4066.7</v>
+        <v>2125.85</v>
       </c>
       <c r="G71" s="26" t="n"/>
       <c r="H71" s="27" t="n">
         <v>0</v>
       </c>
       <c r="I71" s="27" t="n">
-        <v>20.2</v>
+        <v>10.6</v>
       </c>
       <c r="J71" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K71" s="30">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="L71" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M71" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N71" s="32">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O71" s="30">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="P71" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R71" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S71" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="T71" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="U71" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V71" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W71" s="43" t="n">
@@ -5917,20 +5846,20 @@
       <c r="X71" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y71" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y71" s="37" t="n">
+        <v>-0.8149489326805993</v>
       </c>
       <c r="Z71" s="38" t="n">
-        <v>785.7926999999999</v>
-      </c>
-      <c r="AA71" s="38" t="e">
-        <v>#REF!</v>
+        <v>1118.616999999999</v>
+      </c>
+      <c r="AA71" s="38" t="n">
+        <v>716.6640000000002</v>
       </c>
       <c r="AB71" s="39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC71" s="40">
-        <f>IF(B37="DIV", F37,"")</f>
+        <f>IF(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD71" s="36" t="n"/>
@@ -5938,7 +5867,7 @@
     </row>
     <row r="72" ht="13" customHeight="1" s="68">
       <c r="A72" s="47" t="n">
-        <v>43956</v>
+        <v>43959</v>
       </c>
       <c r="B72" s="26" t="inlineStr">
         <is>
@@ -5954,68 +5883,68 @@
         <v>10</v>
       </c>
       <c r="E72" s="28" t="n">
-        <v>408.43</v>
+        <v>406.67</v>
       </c>
       <c r="F72" s="28" t="n">
-        <v>4084.3</v>
+        <v>4066.7</v>
       </c>
       <c r="G72" s="26" t="n"/>
       <c r="H72" s="27" t="n">
         <v>0</v>
       </c>
       <c r="I72" s="27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="J72" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K72" s="30">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="L72" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M72" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N72" s="32">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O72" s="30">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="P72" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R72" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S72" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="T72" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="U72" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V72" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W72" s="43" t="n">
@@ -6028,24 +5957,24 @@
         <v>#REF!</v>
       </c>
       <c r="Z72" s="38" t="n">
-        <v>476.0013599999997</v>
+        <v>785.7926999999999</v>
       </c>
       <c r="AA72" s="38" t="e">
         <v>#REF!</v>
       </c>
       <c r="AB72" s="39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC72" s="40">
-        <f>IF(B38="DIV", F38,"")</f>
+        <f>IF(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD72" s="36" t="n"/>
       <c r="AE72" s="41" t="n"/>
     </row>
     <row r="73" ht="13" customHeight="1" s="68">
-      <c r="A73" s="42" t="n">
-        <v>43944</v>
+      <c r="A73" s="47" t="n">
+        <v>43956</v>
       </c>
       <c r="B73" s="26" t="inlineStr">
         <is>
@@ -6061,10 +5990,10 @@
         <v>10</v>
       </c>
       <c r="E73" s="28" t="n">
-        <v>408.93</v>
+        <v>408.43</v>
       </c>
       <c r="F73" s="28" t="n">
-        <v>4089.3</v>
+        <v>4084.3</v>
       </c>
       <c r="G73" s="26" t="n"/>
       <c r="H73" s="27" t="n">
@@ -6078,51 +6007,51 @@
         <v/>
       </c>
       <c r="K73" s="30">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="L73" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M73" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N73" s="32">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O73" s="30">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="P73" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R73" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S73" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="T73" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="U73" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V73" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W73" s="43" t="n">
@@ -6131,21 +6060,20 @@
       <c r="X73" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y73" s="37">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
-        <v/>
+      <c r="Y73" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z73" s="38" t="n">
-        <v>-16313.60664</v>
-      </c>
-      <c r="AA73" s="38" t="n">
-        <v>16545.24</v>
+        <v>476.0013599999997</v>
+      </c>
+      <c r="AA73" s="38" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AB73" s="39" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="AC73" s="40">
-        <f>IF(B39="DIV", F39,"")</f>
+        <f>IF(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD73" s="36" t="n"/>
@@ -6153,7 +6081,7 @@
     </row>
     <row r="74" ht="13" customHeight="1" s="68">
       <c r="A74" s="42" t="n">
-        <v>43921</v>
+        <v>43944</v>
       </c>
       <c r="B74" s="26" t="inlineStr">
         <is>
@@ -6169,90 +6097,91 @@
         <v>10</v>
       </c>
       <c r="E74" s="28" t="n">
-        <v>291.69</v>
+        <v>408.93</v>
       </c>
       <c r="F74" s="28" t="n">
-        <v>2916.95</v>
+        <v>4089.3</v>
       </c>
       <c r="G74" s="26" t="n"/>
       <c r="H74" s="27" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="I74" s="27" t="n">
-        <v>17.53</v>
+        <v>20.3</v>
       </c>
       <c r="J74" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K74" s="30">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="L74" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M74" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N74" s="32">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O74" s="30">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="P74" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R74" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S74" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="T74" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="U74" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V74" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W74" s="43" t="n">
-        <v>514.3094</v>
+        <v>508.531818</v>
       </c>
       <c r="X74" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y74" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y74" s="37">
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
+        <v/>
       </c>
       <c r="Z74" s="38" t="n">
-        <v>312.0098399999998</v>
-      </c>
-      <c r="AA74" s="38" t="e">
-        <v>#REF!</v>
+        <v>-16313.60664</v>
+      </c>
+      <c r="AA74" s="38" t="n">
+        <v>16545.24</v>
       </c>
       <c r="AB74" s="39" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="AC74" s="40">
-        <f>IF(B40="DIV", F40,"")</f>
+        <f>IF(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD74" s="36" t="n"/>
@@ -6260,7 +6189,7 @@
     </row>
     <row r="75" ht="13" customHeight="1" s="68">
       <c r="A75" s="42" t="n">
-        <v>43909</v>
+        <v>43921</v>
       </c>
       <c r="B75" s="26" t="inlineStr">
         <is>
@@ -6276,68 +6205,68 @@
         <v>10</v>
       </c>
       <c r="E75" s="28" t="n">
-        <v>287.77</v>
+        <v>291.69</v>
       </c>
       <c r="F75" s="28" t="n">
-        <v>2877.67</v>
+        <v>2916.95</v>
       </c>
       <c r="G75" s="26" t="n"/>
       <c r="H75" s="27" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="I75" s="27" t="n">
-        <v>17.29</v>
+        <v>17.53</v>
       </c>
       <c r="J75" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K75" s="30">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="L75" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M75" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N75" s="32">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O75" s="30">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="P75" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R75" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S75" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="T75" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="U75" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V75" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W75" s="43" t="n">
@@ -6350,16 +6279,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z75" s="38" t="n">
-        <v>676.5931999999998</v>
+        <v>312.0098399999998</v>
       </c>
       <c r="AA75" s="38" t="e">
         <v>#REF!</v>
       </c>
       <c r="AB75" s="39" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC75" s="40">
-        <f>IF(B41="DIV", F41,"")</f>
+        <f>IF(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD75" s="36" t="n"/>
@@ -6367,7 +6296,7 @@
     </row>
     <row r="76" ht="13" customHeight="1" s="68">
       <c r="A76" s="42" t="n">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="B76" s="26" t="inlineStr">
         <is>
@@ -6383,68 +6312,68 @@
         <v>10</v>
       </c>
       <c r="E76" s="28" t="n">
-        <v>310.27</v>
+        <v>287.77</v>
       </c>
       <c r="F76" s="28" t="n">
-        <v>3102.71</v>
+        <v>2877.67</v>
       </c>
       <c r="G76" s="26" t="n"/>
       <c r="H76" s="27" t="n">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="I76" s="27" t="n">
-        <v>18.53</v>
+        <v>17.29</v>
       </c>
       <c r="J76" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K76" s="30">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="L76" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M76" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N76" s="32">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O76" s="30">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="P76" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R76" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S76" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="T76" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="U76" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V76" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W76" s="43" t="n">
@@ -6457,16 +6386,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z76" s="38" t="n">
-        <v>394.4492999999997</v>
+        <v>676.5931999999998</v>
       </c>
       <c r="AA76" s="38" t="e">
         <v>#REF!</v>
       </c>
       <c r="AB76" s="39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC76" s="40">
-        <f>IF(B42="DIV", F42,"")</f>
+        <f>IF(B41="DIV", F41,"")</f>
         <v/>
       </c>
       <c r="AD76" s="36" t="n"/>
@@ -6474,7 +6403,7 @@
     </row>
     <row r="77" ht="13" customHeight="1" s="68">
       <c r="A77" s="42" t="n">
-        <v>43901</v>
+        <v>43906</v>
       </c>
       <c r="B77" s="26" t="inlineStr">
         <is>
@@ -6490,68 +6419,68 @@
         <v>10</v>
       </c>
       <c r="E77" s="28" t="n">
-        <v>365.5</v>
+        <v>310.27</v>
       </c>
       <c r="F77" s="28" t="n">
-        <v>3654.96</v>
+        <v>3102.71</v>
       </c>
       <c r="G77" s="26" t="n"/>
       <c r="H77" s="27" t="n">
-        <v>3.63</v>
+        <v>3.18</v>
       </c>
       <c r="I77" s="27" t="n">
-        <v>21.83</v>
+        <v>18.53</v>
       </c>
       <c r="J77" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K77" s="30">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="L77" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M77" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N77" s="32">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O77" s="30">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="P77" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R77" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S77" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="T77" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="U77" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V77" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W77" s="43" t="n">
@@ -6560,29 +6489,28 @@
       <c r="X77" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y77" s="37">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
-        <v/>
+      <c r="Y77" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z77" s="38" t="n">
-        <v>-61.625</v>
-      </c>
-      <c r="AA77" s="38" t="n">
-        <v>62.5</v>
+        <v>394.4492999999997</v>
+      </c>
+      <c r="AA77" s="38" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AB77" s="39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC77" s="40">
-        <f>IF(B43="DIV", F43,"")</f>
+        <f>IF(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD77" s="36" t="n"/>
       <c r="AE77" s="41" t="n"/>
     </row>
     <row r="78" ht="13" customHeight="1" s="68">
-      <c r="A78" s="25" t="n">
-        <v>43896</v>
+      <c r="A78" s="42" t="n">
+        <v>43901</v>
       </c>
       <c r="B78" s="26" t="inlineStr">
         <is>
@@ -6598,68 +6526,68 @@
         <v>10</v>
       </c>
       <c r="E78" s="28" t="n">
-        <v>396.6</v>
+        <v>365.5</v>
       </c>
       <c r="F78" s="28" t="n">
-        <v>3965.97</v>
+        <v>3654.96</v>
       </c>
       <c r="G78" s="26" t="n"/>
       <c r="H78" s="27" t="n">
-        <v>3.99</v>
+        <v>3.63</v>
       </c>
       <c r="I78" s="27" t="n">
-        <v>23.68</v>
+        <v>21.83</v>
       </c>
       <c r="J78" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K78" s="30">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="L78" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M78" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N78" s="32">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O78" s="30">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="P78" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R78" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S78" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="T78" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="U78" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V78" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W78" s="43" t="n">
@@ -6669,20 +6597,20 @@
         <v>45565</v>
       </c>
       <c r="Y78" s="37">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z78" s="38" t="n">
-        <v>-160.225</v>
+        <v>-61.625</v>
       </c>
       <c r="AA78" s="38" t="n">
-        <v>162.5</v>
+        <v>62.5</v>
       </c>
       <c r="AB78" s="39" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AC78" s="40">
-        <f>IF(B44="DIV", F44,"")</f>
+        <f>IF(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD78" s="36" t="n"/>
@@ -6690,7 +6618,7 @@
     </row>
     <row r="79" ht="13" customHeight="1" s="68">
       <c r="A79" s="25" t="n">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B79" s="26" t="inlineStr">
         <is>
@@ -6706,90 +6634,91 @@
         <v>10</v>
       </c>
       <c r="E79" s="28" t="n">
-        <v>420.94</v>
+        <v>396.6</v>
       </c>
       <c r="F79" s="28" t="n">
-        <v>4209.36</v>
+        <v>3965.97</v>
       </c>
       <c r="G79" s="26" t="n"/>
       <c r="H79" s="27" t="n">
-        <v>4.16</v>
+        <v>3.99</v>
       </c>
       <c r="I79" s="27" t="n">
-        <v>25.2</v>
+        <v>23.68</v>
       </c>
       <c r="J79" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K79" s="30">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="L79" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M79" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N79" s="32">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O79" s="30">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="P79" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R79" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S79" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="T79" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="U79" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V79" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W79" s="43" t="n">
-        <v>532.7895</v>
+        <v>514.3094</v>
       </c>
       <c r="X79" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y79" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y79" s="37">
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <v/>
       </c>
       <c r="Z79" s="38" t="n">
-        <v>203.479723568</v>
-      </c>
-      <c r="AA79" s="38" t="e">
-        <v>#REF!</v>
+        <v>-160.225</v>
+      </c>
+      <c r="AA79" s="38" t="n">
+        <v>162.5</v>
       </c>
       <c r="AB79" s="39" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="AC79" s="40">
-        <f>IF(B45="DIV", F45,"")</f>
+        <f>IF(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD79" s="36" t="n"/>
@@ -6801,7 +6730,7 @@
       </c>
       <c r="B80" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C80" s="26" t="inlineStr">
@@ -6813,95 +6742,102 @@
         <v>10</v>
       </c>
       <c r="E80" s="28" t="n">
-        <v>5</v>
+        <v>420.94</v>
       </c>
       <c r="F80" s="28" t="n">
-        <v>50</v>
-      </c>
-      <c r="G80" s="26" t="inlineStr">
-        <is>
-          <t>Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 05-MAR-2020</t>
-        </is>
-      </c>
+        <v>4209.36</v>
+      </c>
+      <c r="G80" s="26" t="n"/>
       <c r="H80" s="27" t="n">
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="I80" s="27" t="n">
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="J80" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K80" s="30">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="L80" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M80" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N80" s="32">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O80" s="30">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="P80" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R80" s="31">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S80" s="33">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="T80" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="U80" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V80" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
-        <v/>
-      </c>
-      <c r="W80" s="45" t="n"/>
-      <c r="X80" s="34" t="n"/>
-      <c r="Y80" s="33" t="e">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <v/>
+      </c>
+      <c r="W80" s="43" t="n">
+        <v>532.7895</v>
+      </c>
+      <c r="X80" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y80" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z80" s="34" t="n"/>
-      <c r="AA80" s="34" t="n"/>
-      <c r="AB80" s="35" t="n"/>
-      <c r="AC80" s="31">
-        <f>IF(B46="DIV", F46,"")</f>
+      <c r="Z80" s="38" t="n">
+        <v>203.479723568</v>
+      </c>
+      <c r="AA80" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB80" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC80" s="40">
+        <f>IF(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD80" s="36" t="n"/>
+      <c r="AE80" s="41" t="n"/>
     </row>
     <row r="81" ht="13" customHeight="1" s="68">
       <c r="A81" s="25" t="n">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="B81" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C81" s="26" t="inlineStr">
@@ -6910,101 +6846,94 @@
         </is>
       </c>
       <c r="D81" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="E81" s="28" t="n">
-        <v>481.4</v>
-      </c>
       <c r="F81" s="28" t="n">
-        <v>2407.02</v>
-      </c>
-      <c r="G81" s="26" t="n"/>
+        <v>50</v>
+      </c>
+      <c r="G81" s="26" t="inlineStr">
+        <is>
+          <t>Interim-Dividend of Rs.5.0000/- per share on Ex-Date: 05-MAR-2020</t>
+        </is>
+      </c>
       <c r="H81" s="27" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="I81" s="27" t="n">
-        <v>14.38</v>
+        <v>0</v>
       </c>
       <c r="J81" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K81" s="30">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="L81" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M81" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N81" s="32">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O81" s="30">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="P81" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R81" s="31">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S81" s="33">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="T81" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="U81" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V81" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
-        <v/>
-      </c>
-      <c r="W81" s="43" t="n">
-        <v>532.7895</v>
-      </c>
-      <c r="X81" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y81" s="37" t="e">
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <v/>
+      </c>
+      <c r="W81" s="45" t="n"/>
+      <c r="X81" s="34" t="n"/>
+      <c r="Y81" s="33" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z81" s="38" t="n">
-        <v>182.1185817840001</v>
-      </c>
-      <c r="AA81" s="38" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB81" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC81" s="40">
-        <f>IF(B47="DIV", F47,"")</f>
+      <c r="Z81" s="34" t="n"/>
+      <c r="AA81" s="34" t="n"/>
+      <c r="AB81" s="35" t="n"/>
+      <c r="AC81" s="31">
+        <f>IF(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD81" s="36" t="n"/>
-      <c r="AE81" s="41" t="n"/>
     </row>
     <row r="82" ht="13" customHeight="1" s="68">
       <c r="A82" s="25" t="n">
-        <v>43831</v>
+        <v>43892</v>
       </c>
       <c r="B82" s="26" t="inlineStr">
         <is>
@@ -7013,94 +6942,105 @@
       </c>
       <c r="C82" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D82" s="27" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E82" s="28" t="n">
-        <v>596.83</v>
+        <v>481.4</v>
       </c>
       <c r="F82" s="28" t="n">
-        <v>14920.76</v>
+        <v>2407.02</v>
       </c>
       <c r="G82" s="26" t="n"/>
       <c r="H82" s="27" t="n">
-        <v>15.11</v>
+        <v>2.39</v>
       </c>
       <c r="I82" s="27" t="n">
-        <v>90.38</v>
+        <v>14.38</v>
       </c>
       <c r="J82" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K82" s="30">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="L82" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M82" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N82" s="32">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O82" s="30">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="P82" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R82" s="31">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S82" s="33">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="T82" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="U82" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V82" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
-        <v/>
-      </c>
-      <c r="W82" s="45" t="n"/>
-      <c r="X82" s="34" t="n"/>
-      <c r="Y82" s="33" t="e">
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <v/>
+      </c>
+      <c r="W82" s="43" t="n">
+        <v>532.7895</v>
+      </c>
+      <c r="X82" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y82" s="37" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z82" s="34" t="n"/>
-      <c r="AA82" s="34" t="n"/>
-      <c r="AB82" s="35" t="n"/>
-      <c r="AC82" s="31">
-        <f>IF(B48="DIV", F48,"")</f>
+      <c r="Z82" s="38" t="n">
+        <v>182.1185817840001</v>
+      </c>
+      <c r="AA82" s="38" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB82" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC82" s="40">
+        <f>IF(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD82" s="36" t="n"/>
+      <c r="AE82" s="41" t="n"/>
     </row>
     <row r="83" ht="13" customHeight="1" s="68">
       <c r="A83" s="25" t="n">
-        <v>43823</v>
+        <v>43831</v>
       </c>
       <c r="B83" s="26" t="inlineStr">
         <is>
@@ -7113,71 +7053,71 @@
         </is>
       </c>
       <c r="D83" s="27" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E83" s="28" t="n">
-        <v>581.38</v>
+        <v>596.83</v>
       </c>
       <c r="F83" s="28" t="n">
-        <v>11627.69</v>
+        <v>14920.76</v>
       </c>
       <c r="G83" s="26" t="n"/>
       <c r="H83" s="27" t="n">
-        <v>11.74</v>
+        <v>15.11</v>
       </c>
       <c r="I83" s="27" t="n">
-        <v>70.56999999999999</v>
+        <v>90.38</v>
       </c>
       <c r="J83" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K83" s="30">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="L83" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M83" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N83" s="32">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O83" s="30">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="P83" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R83" s="31">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S83" s="33">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="T83" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="U83" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V83" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W83" s="45" t="n"/>
@@ -7189,14 +7129,14 @@
       <c r="AA83" s="34" t="n"/>
       <c r="AB83" s="35" t="n"/>
       <c r="AC83" s="31">
-        <f>IF(B49="DIV", F49,"")</f>
+        <f>IF(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD83" s="36" t="n"/>
     </row>
     <row r="84" ht="13" customHeight="1" s="68">
       <c r="A84" s="25" t="n">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="B84" s="26" t="inlineStr">
         <is>
@@ -7212,68 +7152,68 @@
         <v>20</v>
       </c>
       <c r="E84" s="28" t="n">
-        <v>580.9665</v>
+        <v>581.38</v>
       </c>
       <c r="F84" s="28" t="n">
-        <v>11702.13</v>
+        <v>11627.69</v>
       </c>
       <c r="G84" s="26" t="n"/>
       <c r="H84" s="27" t="n">
-        <v>11.88</v>
+        <v>11.74</v>
       </c>
       <c r="I84" s="27" t="n">
-        <v>70.98999999999999</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="J84" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K84" s="30">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="L84" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M84" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N84" s="32">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O84" s="30">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="P84" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R84" s="31">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S84" s="33">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="T84" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="U84" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V84" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W84" s="45" t="n"/>
@@ -7285,14 +7225,14 @@
       <c r="AA84" s="34" t="n"/>
       <c r="AB84" s="35" t="n"/>
       <c r="AC84" s="31">
-        <f>IF(B50="DIV", F50,"")</f>
+        <f>IF(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD84" s="36" t="n"/>
     </row>
     <row r="85" ht="13" customHeight="1" s="68">
       <c r="A85" s="25" t="n">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="B85" s="26" t="inlineStr">
         <is>
@@ -7305,90 +7245,90 @@
         </is>
       </c>
       <c r="D85" s="27" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E85" s="28" t="n">
-        <v>570.971</v>
+        <v>580.9665</v>
       </c>
       <c r="F85" s="28" t="n">
-        <v>17251.48</v>
+        <v>11702.13</v>
       </c>
       <c r="G85" s="26" t="n"/>
       <c r="H85" s="27" t="n">
-        <v>17.54</v>
+        <v>11.88</v>
       </c>
       <c r="I85" s="27" t="n">
-        <v>104.83</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="J85" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K85" s="30">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="L85" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M85" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N85" s="32">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O85" s="30">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="P85" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R85" s="31">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S85" s="33">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="T85" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="U85" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V85" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W85" s="45" t="n"/>
       <c r="X85" s="34" t="n"/>
-      <c r="Y85" s="33" t="n">
-        <v>-1.857335434191466</v>
+      <c r="Y85" s="33" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z85" s="34" t="n"/>
       <c r="AA85" s="34" t="n"/>
       <c r="AB85" s="35" t="n"/>
       <c r="AC85" s="31">
-        <f>IF(B51="DIV", F51,"")</f>
+        <f>IF(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD85" s="36" t="n"/>
     </row>
     <row r="86" ht="13" customHeight="1" s="68">
       <c r="A86" s="25" t="n">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="B86" s="26" t="inlineStr">
         <is>
@@ -7397,102 +7337,90 @@
       </c>
       <c r="C86" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D86" s="27" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E86" s="28" t="n">
-        <v>581.792</v>
+        <v>570.971</v>
       </c>
       <c r="F86" s="28" t="n">
-        <v>2914.03</v>
+        <v>17251.48</v>
       </c>
       <c r="G86" s="26" t="n"/>
       <c r="H86" s="27" t="n">
-        <v>2.155</v>
+        <v>17.54</v>
       </c>
       <c r="I86" s="27" t="n">
-        <v>2.925</v>
+        <v>104.83</v>
       </c>
       <c r="J86" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K86" s="30">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="L86" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M86" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N86" s="32">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O86" s="30">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="P86" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q86" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R86" s="31">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S86" s="33">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="T86" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="U86" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V86" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
-        <v/>
-      </c>
-      <c r="W86" s="43" t="n">
-        <v>532.7895</v>
-      </c>
-      <c r="X86" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y86" s="37">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
-        <v/>
-      </c>
-      <c r="Z86" s="38" t="n">
-        <v>-27771.7253</v>
-      </c>
-      <c r="AA86" s="38" t="n">
-        <v>28166.05</v>
-      </c>
-      <c r="AB86" s="39" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC86" s="40">
-        <f>IF(B52="DIV", F52,"")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <v/>
+      </c>
+      <c r="W86" s="45" t="n"/>
+      <c r="X86" s="34" t="n"/>
+      <c r="Y86" s="33" t="n">
+        <v>-1.857335434191466</v>
+      </c>
+      <c r="Z86" s="34" t="n"/>
+      <c r="AA86" s="34" t="n"/>
+      <c r="AB86" s="35" t="n"/>
+      <c r="AC86" s="31">
+        <f>IF(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD86" s="36" t="n"/>
-      <c r="AE86" s="41" t="n"/>
     </row>
     <row r="87" ht="13" customHeight="1" s="68">
       <c r="A87" s="25" t="n">
@@ -7529,74 +7457,74 @@
         <v/>
       </c>
       <c r="K87" s="30">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="L87" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M87" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N87" s="32">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O87" s="30">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="P87" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R87" s="31">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S87" s="33">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="T87" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="U87" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V87" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W87" s="43" t="n">
-        <v>574.903</v>
+        <v>532.7895</v>
       </c>
       <c r="X87" s="44" t="n">
         <v>45565</v>
       </c>
       <c r="Y87" s="37">
-        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="Z87" s="38" t="n">
-        <v>-25533.949</v>
+        <v>-27771.7253</v>
       </c>
       <c r="AA87" s="38" t="n">
-        <v>25896.5</v>
+        <v>28166.05</v>
       </c>
       <c r="AB87" s="39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC87" s="40">
-        <f>IF(B53="DIV", F53,"")</f>
+        <f>IF(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD87" s="36" t="n"/>
@@ -7613,94 +7541,106 @@
       </c>
       <c r="C88" s="26" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D88" s="27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E88" s="28" t="n">
-        <v>574.903</v>
+        <v>581.792</v>
       </c>
       <c r="F88" s="28" t="n">
-        <v>5759.03</v>
+        <v>2914.03</v>
       </c>
       <c r="G88" s="26" t="n"/>
       <c r="H88" s="27" t="n">
-        <v>4.27</v>
+        <v>2.155</v>
       </c>
       <c r="I88" s="27" t="n">
-        <v>5.7</v>
+        <v>2.925</v>
       </c>
       <c r="J88" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K88" s="30">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="L88" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M88" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N88" s="32">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O88" s="30">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="P88" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R88" s="31">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S88" s="33">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="T88" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="U88" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V88" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
-        <v/>
-      </c>
-      <c r="W88" s="45" t="n"/>
-      <c r="X88" s="34" t="n"/>
-      <c r="Y88" s="33" t="n">
-        <v>-0.3107992867727281</v>
-      </c>
-      <c r="Z88" s="34" t="n"/>
-      <c r="AA88" s="34" t="n"/>
-      <c r="AB88" s="35" t="n"/>
-      <c r="AC88" s="31">
-        <f>IF(B54="DIV", F54,"")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <v/>
+      </c>
+      <c r="W88" s="43" t="n">
+        <v>574.903</v>
+      </c>
+      <c r="X88" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y88" s="37">
+        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
+        <v/>
+      </c>
+      <c r="Z88" s="38" t="n">
+        <v>-25533.949</v>
+      </c>
+      <c r="AA88" s="38" t="n">
+        <v>25896.5</v>
+      </c>
+      <c r="AB88" s="39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC88" s="40">
+        <f>IF(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD88" s="36" t="n"/>
+      <c r="AE88" s="41" t="n"/>
     </row>
     <row r="89" ht="13" customHeight="1" s="68">
       <c r="A89" s="25" t="n">
-        <v>43812</v>
+        <v>43818</v>
       </c>
       <c r="B89" s="26" t="inlineStr">
         <is>
@@ -7713,91 +7653,90 @@
         </is>
       </c>
       <c r="D89" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E89" s="28" t="n">
-        <v>508.1195</v>
+        <v>574.903</v>
       </c>
       <c r="F89" s="28" t="n">
-        <v>10232.19</v>
+        <v>5759.03</v>
       </c>
       <c r="G89" s="26" t="n"/>
       <c r="H89" s="27" t="n">
-        <v>7.82</v>
+        <v>4.27</v>
       </c>
       <c r="I89" s="27" t="n">
-        <v>61.99</v>
+        <v>5.7</v>
       </c>
       <c r="J89" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K89" s="30">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="L89" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="M89" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
         <v/>
       </c>
       <c r="N89" s="32">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
         <v/>
       </c>
       <c r="O89" s="30">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="P89" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="Q89" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
         <v/>
       </c>
       <c r="R89" s="31">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="S89" s="33">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="T89" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="U89" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
         <v/>
       </c>
       <c r="V89" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="W89" s="45" t="n"/>
       <c r="X89" s="34" t="n"/>
-      <c r="Y89" s="33">
-        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
-        <v/>
+      <c r="Y89" s="33" t="n">
+        <v>-0.3107992867727281</v>
       </c>
       <c r="Z89" s="34" t="n"/>
       <c r="AA89" s="34" t="n"/>
       <c r="AB89" s="35" t="n"/>
       <c r="AC89" s="31">
-        <f>IF(B55="DIV", F55,"")</f>
+        <f>IF(B54="DIV", F54,"")</f>
         <v/>
       </c>
       <c r="AD89" s="36" t="n"/>
     </row>
     <row r="90" ht="13" customHeight="1" s="68">
       <c r="A90" s="25" t="n">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="B90" s="26" t="inlineStr">
         <is>
@@ -7810,91 +7749,91 @@
         </is>
       </c>
       <c r="D90" s="27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E90" s="28" t="n">
-        <v>501.9024</v>
+        <v>508.1195</v>
       </c>
       <c r="F90" s="28" t="n">
-        <v>12633.31</v>
+        <v>10232.19</v>
       </c>
       <c r="G90" s="26" t="n"/>
       <c r="H90" s="27" t="n">
-        <v>9.279999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="I90" s="27" t="n">
-        <v>76.41</v>
+        <v>61.99</v>
       </c>
       <c r="J90" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K90" s="30">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), L56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="L90" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="M90" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
         <v/>
       </c>
       <c r="N90" s="32">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
         <v/>
       </c>
       <c r="O90" s="30">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), P56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="P90" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="Q90" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
         <v/>
       </c>
       <c r="R90" s="31">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="S90" s="33">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), T56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="T90" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
         <v/>
       </c>
       <c r="U90" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
         <v/>
       </c>
       <c r="V90" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
         <v/>
       </c>
       <c r="W90" s="45" t="n"/>
       <c r="X90" s="34" t="n"/>
       <c r="Y90" s="33">
-        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
+        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
         <v/>
       </c>
       <c r="Z90" s="34" t="n"/>
       <c r="AA90" s="34" t="n"/>
       <c r="AB90" s="35" t="n"/>
       <c r="AC90" s="31">
-        <f>IF(B56="DIV", F56,"")</f>
+        <f>IF(B55="DIV", F55,"")</f>
         <v/>
       </c>
       <c r="AD90" s="36" t="n"/>
     </row>
     <row r="91" ht="13" customHeight="1" s="68">
       <c r="A91" s="25" t="n">
-        <v>43803</v>
+        <v>43811</v>
       </c>
       <c r="B91" s="26" t="inlineStr">
         <is>
@@ -7907,194 +7846,191 @@
         </is>
       </c>
       <c r="D91" s="27" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E91" s="28" t="n">
-        <v>511.707333</v>
+        <v>501.9024</v>
       </c>
       <c r="F91" s="28" t="n">
-        <v>15458.32</v>
+        <v>12633.31</v>
       </c>
       <c r="G91" s="26" t="n"/>
       <c r="H91" s="27" t="n">
-        <v>13.78</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="I91" s="27" t="n">
-        <v>93.40000000000001</v>
+        <v>76.41</v>
       </c>
       <c r="J91" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K91" s="30">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), L57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), L56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="L91" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M91" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N91" s="32">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O91" s="30">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), P57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), P56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="P91" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q91" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R91" s="31">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S91" s="33">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), T57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), T56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="T91" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="U91" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V91" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="W91" s="45" t="n"/>
       <c r="X91" s="34" t="n"/>
-      <c r="Y91" s="33" t="n">
-        <v>-1.063644189948785</v>
+      <c r="Y91" s="33">
+        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
+        <v/>
       </c>
       <c r="Z91" s="34" t="n"/>
       <c r="AA91" s="34" t="n"/>
       <c r="AB91" s="35" t="n"/>
       <c r="AC91" s="31">
-        <f>IF(B57="DIV", F57,"")</f>
+        <f>IF(B56="DIV", F56,"")</f>
         <v/>
       </c>
       <c r="AD91" s="36" t="n"/>
     </row>
     <row r="92" ht="13" customHeight="1" s="68">
       <c r="A92" s="25" t="n">
-        <v>43676</v>
+        <v>43803</v>
       </c>
       <c r="B92" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C92" s="26" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D92" s="27" t="n">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="E92" s="28" t="n">
-        <v>4</v>
+        <v>511.707333</v>
       </c>
       <c r="F92" s="28" t="n">
-        <v>700</v>
-      </c>
-      <c r="G92" s="26" t="inlineStr">
-        <is>
-          <t>Dividend of Rs.4.0000/- per share on 30-JUL-2019</t>
-        </is>
-      </c>
+        <v>15458.32</v>
+      </c>
+      <c r="G92" s="26" t="n"/>
       <c r="H92" s="27" t="n">
-        <v>0</v>
+        <v>13.78</v>
       </c>
       <c r="I92" s="27" t="n">
-        <v>0</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="J92" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K92" s="30">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), L58/SUM(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), L57/SUM(F57:I57), "")</f>
         <v/>
       </c>
       <c r="L92" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="M92" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
         <v/>
       </c>
       <c r="N92" s="32">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
         <v/>
       </c>
       <c r="O92" s="30">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), P58/SUM(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), P57/SUM(F57:I57), "")</f>
         <v/>
       </c>
       <c r="P92" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="Q92" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
         <v/>
       </c>
       <c r="R92" s="31">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="S92" s="33">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), T58/SUM(F58:I58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), T57/SUM(F57:I57), "")</f>
         <v/>
       </c>
       <c r="T92" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="U92" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
         <v/>
       </c>
       <c r="V92" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="W92" s="45" t="n"/>
       <c r="X92" s="34" t="n"/>
       <c r="Y92" s="33" t="n">
-        <v>0.4878458011453852</v>
+        <v>-1.063644189948785</v>
       </c>
       <c r="Z92" s="34" t="n"/>
       <c r="AA92" s="34" t="n"/>
       <c r="AB92" s="35" t="n"/>
       <c r="AC92" s="31">
-        <f>IF(B58="DIV", F58,"")</f>
+        <f>IF(B57="DIV", F57,"")</f>
         <v/>
       </c>
       <c r="AD92" s="36" t="n"/>
     </row>
     <row r="93" ht="13" customHeight="1" s="68">
       <c r="A93" s="25" t="n">
-        <v>43647</v>
+        <v>43676</v>
       </c>
       <c r="B93" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C93" s="26" t="inlineStr">
@@ -8103,101 +8039,94 @@
         </is>
       </c>
       <c r="D93" s="27" t="n">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="E93" s="28" t="n">
-        <v>351.349</v>
+        <v>4</v>
       </c>
       <c r="F93" s="28" t="n">
-        <v>3538.41</v>
-      </c>
-      <c r="G93" s="26" t="n"/>
+        <v>700</v>
+      </c>
+      <c r="G93" s="26" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.4.0000/- per share on 30-JUL-2019</t>
+        </is>
+      </c>
       <c r="H93" s="27" t="n">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="I93" s="27" t="n">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="J93" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K93" s="30">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), L59/SUM(F59:I59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), L58/SUM(F58:I58), "")</f>
         <v/>
       </c>
       <c r="L93" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="M93" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
         <v/>
       </c>
       <c r="N93" s="32">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
         <v/>
       </c>
       <c r="O93" s="30">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), P59/SUM(F59:I59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), P58/SUM(F58:I58), "")</f>
         <v/>
       </c>
       <c r="P93" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="Q93" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
         <v/>
       </c>
       <c r="R93" s="31">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="S93" s="33">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), T59/SUM(F59:I59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), T58/SUM(F58:I58), "")</f>
         <v/>
       </c>
       <c r="T93" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="U93" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
         <v/>
       </c>
       <c r="V93" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
-        <v/>
-      </c>
-      <c r="W93" s="43" t="n">
-        <v>574.903</v>
-      </c>
-      <c r="X93" s="44" t="n">
-        <v>45565</v>
-      </c>
-      <c r="Y93" s="37" t="n">
-        <v>0.5235867911722714</v>
-      </c>
-      <c r="Z93" s="38" t="n">
-        <v>410.9737627400002</v>
-      </c>
-      <c r="AA93" s="38" t="n">
-        <v>3244.466999999999</v>
-      </c>
-      <c r="AB93" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC93" s="40">
-        <f>IF(B59="DIV", F59,"")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
+        <v/>
+      </c>
+      <c r="W93" s="45" t="n"/>
+      <c r="X93" s="34" t="n"/>
+      <c r="Y93" s="33" t="n">
+        <v>0.4878458011453852</v>
+      </c>
+      <c r="Z93" s="34" t="n"/>
+      <c r="AA93" s="34" t="n"/>
+      <c r="AB93" s="35" t="n"/>
+      <c r="AC93" s="31">
+        <f>IF(B58="DIV", F58,"")</f>
         <v/>
       </c>
       <c r="AD93" s="36" t="n"/>
-      <c r="AE93" s="41" t="n"/>
     </row>
     <row r="94" ht="13" customHeight="1" s="68">
       <c r="A94" s="25" t="n">
-        <v>43382</v>
+        <v>43647</v>
       </c>
       <c r="B94" s="26" t="inlineStr">
         <is>
@@ -8213,68 +8142,68 @@
         <v>10</v>
       </c>
       <c r="E94" s="28" t="n">
-        <v>370.404</v>
+        <v>351.349</v>
       </c>
       <c r="F94" s="28" t="n">
-        <v>3730.06</v>
+        <v>3538.41</v>
       </c>
       <c r="G94" s="26" t="n"/>
       <c r="H94" s="27" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="I94" s="27" t="n">
-        <v>22.38</v>
+        <v>21.4</v>
       </c>
       <c r="J94" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K94" s="30">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), L60/SUM(F60:I60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), L59/SUM(F59:I59), "")</f>
         <v/>
       </c>
       <c r="L94" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="M94" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
         <v/>
       </c>
       <c r="N94" s="32">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
         <v/>
       </c>
       <c r="O94" s="30">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), P60/SUM(F60:I60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), P59/SUM(F59:I59), "")</f>
         <v/>
       </c>
       <c r="P94" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="Q94" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
         <v/>
       </c>
       <c r="R94" s="31">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
         <v/>
       </c>
       <c r="S94" s="33">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), T60/SUM(F60:I60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), T59/SUM(F59:I59), "")</f>
         <v/>
       </c>
       <c r="T94" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="U94" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
         <v/>
       </c>
       <c r="V94" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
         <v/>
       </c>
       <c r="W94" s="43" t="n">
@@ -8283,20 +8212,20 @@
       <c r="X94" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y94" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y94" s="37" t="n">
+        <v>0.5235867911722714</v>
       </c>
       <c r="Z94" s="38" t="n">
-        <v>1004.35752548</v>
+        <v>410.9737627400002</v>
       </c>
       <c r="AA94" s="38" t="n">
-        <v>4852.4927</v>
+        <v>3244.466999999999</v>
       </c>
       <c r="AB94" s="39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC94" s="40">
-        <f>IF(B60="DIV", F60,"")</f>
+        <f>IF(B59="DIV", F59,"")</f>
         <v/>
       </c>
       <c r="AD94" s="36" t="n"/>
@@ -8304,7 +8233,7 @@
     </row>
     <row r="95" ht="13" customHeight="1" s="68">
       <c r="A95" s="25" t="n">
-        <v>43376</v>
+        <v>43382</v>
       </c>
       <c r="B95" s="26" t="inlineStr">
         <is>
@@ -8317,75 +8246,75 @@
         </is>
       </c>
       <c r="D95" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E95" s="28" t="n">
-        <v>367</v>
+        <v>370.404</v>
       </c>
       <c r="F95" s="28" t="n">
-        <v>7391.8</v>
+        <v>3730.06</v>
       </c>
       <c r="G95" s="26" t="n"/>
       <c r="H95" s="27" t="n">
-        <v>7.328</v>
+        <v>3.68</v>
       </c>
       <c r="I95" s="27" t="n">
-        <v>44.472</v>
+        <v>22.38</v>
       </c>
       <c r="J95" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K95" s="30">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), L61/SUM(F61:I61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), L60/SUM(F60:I60), "")</f>
         <v/>
       </c>
       <c r="L95" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
         <v/>
       </c>
       <c r="M95" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), ((E61*D61)+L61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
         <v/>
       </c>
       <c r="N95" s="32">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), D61, "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
         <v/>
       </c>
       <c r="O95" s="30">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), P61/SUM(F61:I61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), P60/SUM(F60:I60), "")</f>
         <v/>
       </c>
       <c r="P95" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
         <v/>
       </c>
       <c r="Q95" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), ((E61*D61)+P61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
         <v/>
       </c>
       <c r="R95" s="31">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), D61, "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
         <v/>
       </c>
       <c r="S95" s="33">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), T61/SUM(F61:I61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), T60/SUM(F60:I60), "")</f>
         <v/>
       </c>
       <c r="T95" s="34">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
         <v/>
       </c>
       <c r="U95" s="34">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), ((E61*D61)+T61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
         <v/>
       </c>
       <c r="V95" s="34">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), D61, "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
         <v/>
       </c>
       <c r="W95" s="43" t="n">
-        <v>577.2645</v>
+        <v>574.903</v>
       </c>
       <c r="X95" s="44" t="n">
         <v>45565</v>
@@ -8394,16 +8323,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z95" s="38" t="n">
-        <v>987.00392548</v>
+        <v>1004.35752548</v>
       </c>
       <c r="AA95" s="38" t="n">
-        <v>4560.301359999999</v>
+        <v>4852.4927</v>
       </c>
       <c r="AB95" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC95" s="40">
-        <f>IF(B61="DIV", F61,"")</f>
+        <f>IF(B60="DIV", F60,"")</f>
         <v/>
       </c>
       <c r="AD95" s="36" t="n"/>
@@ -8424,93 +8353,93 @@
         </is>
       </c>
       <c r="D96" s="27" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E96" s="28" t="n">
         <v>367</v>
       </c>
       <c r="F96" s="28" t="n">
-        <v>1847.95</v>
+        <v>7391.8</v>
       </c>
       <c r="G96" s="26" t="n"/>
       <c r="H96" s="27" t="n">
-        <v>1.832</v>
+        <v>7.328</v>
       </c>
       <c r="I96" s="27" t="n">
-        <v>11.118</v>
+        <v>44.472</v>
       </c>
       <c r="J96" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K96" s="30">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), L62/SUM(F62:I62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), L61/SUM(F61:I61), "")</f>
         <v/>
       </c>
       <c r="L96" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
         <v/>
       </c>
       <c r="M96" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), ((E62*D62)+L62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), ((E61*D61)+L61), "")</f>
         <v/>
       </c>
       <c r="N96" s="32">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), D61, "")</f>
         <v/>
       </c>
       <c r="O96" s="30">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), P62/SUM(F62:I62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), P61/SUM(F61:I61), "")</f>
         <v/>
       </c>
       <c r="P96" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
         <v/>
       </c>
       <c r="Q96" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), ((E62*D62)+P62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), ((E61*D61)+P61), "")</f>
         <v/>
       </c>
       <c r="R96" s="31">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), D61, "")</f>
         <v/>
       </c>
       <c r="S96" s="33">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), T62/SUM(F62:I62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), T61/SUM(F61:I61), "")</f>
         <v/>
       </c>
       <c r="T96" s="34">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
         <v/>
       </c>
       <c r="U96" s="34">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), ((E62*D62)+T62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), ((E61*D61)+T61), "")</f>
         <v/>
       </c>
       <c r="V96" s="34">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), D61, "")</f>
         <v/>
       </c>
       <c r="W96" s="43" t="n">
-        <v>580.9665</v>
+        <v>577.2645</v>
       </c>
       <c r="X96" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y96" s="37" t="n">
-        <v>-3.969633696710141</v>
+      <c r="Y96" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z96" s="38" t="n">
-        <v>982.0739254800001</v>
+        <v>987.00392548</v>
       </c>
       <c r="AA96" s="38" t="n">
-        <v>-12224.30664</v>
+        <v>4560.301359999999</v>
       </c>
       <c r="AB96" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC96" s="40">
-        <f>IF(B62="DIV", F62,"")</f>
+        <f>IF(B61="DIV", F61,"")</f>
         <v/>
       </c>
       <c r="AD96" s="36" t="n"/>
@@ -8518,7 +8447,7 @@
     </row>
     <row r="97" ht="13" customHeight="1" s="68">
       <c r="A97" s="25" t="n">
-        <v>43369</v>
+        <v>43376</v>
       </c>
       <c r="B97" s="26" t="inlineStr">
         <is>
@@ -8531,71 +8460,71 @@
         </is>
       </c>
       <c r="D97" s="27" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E97" s="28" t="n">
-        <v>414.058667</v>
+        <v>367</v>
       </c>
       <c r="F97" s="28" t="n">
-        <v>6254.418</v>
+        <v>1847.95</v>
       </c>
       <c r="G97" s="26" t="n"/>
       <c r="H97" s="27" t="n">
-        <v>6.22</v>
+        <v>1.832</v>
       </c>
       <c r="I97" s="27" t="n">
-        <v>37.296</v>
+        <v>11.118</v>
       </c>
       <c r="J97" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K97" s="30">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), L63/SUM(F63:I63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), L62/SUM(F62:I62), "")</f>
         <v/>
       </c>
       <c r="L97" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
         <v/>
       </c>
       <c r="M97" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), ((E63*D63)+L63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), ((E62*D62)+L62), "")</f>
         <v/>
       </c>
       <c r="N97" s="32">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), D62, "")</f>
         <v/>
       </c>
       <c r="O97" s="30">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), P63/SUM(F63:I63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), P62/SUM(F62:I62), "")</f>
         <v/>
       </c>
       <c r="P97" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
         <v/>
       </c>
       <c r="Q97" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), ((E63*D63)+P63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), ((E62*D62)+P62), "")</f>
         <v/>
       </c>
       <c r="R97" s="31">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), D62, "")</f>
         <v/>
       </c>
       <c r="S97" s="33">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), T63/SUM(F63:I63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), T62/SUM(F62:I62), "")</f>
         <v/>
       </c>
       <c r="T97" s="34">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
         <v/>
       </c>
       <c r="U97" s="34">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), ((E63*D63)+T63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), ((E62*D62)+T62), "")</f>
         <v/>
       </c>
       <c r="V97" s="34">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), D62, "")</f>
         <v/>
       </c>
       <c r="W97" s="43" t="n">
@@ -8604,20 +8533,20 @@
       <c r="X97" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y97" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y97" s="37" t="n">
+        <v>-3.969633696710141</v>
       </c>
       <c r="Z97" s="38" t="n">
-        <v>2195.027284</v>
+        <v>982.0739254800001</v>
       </c>
       <c r="AA97" s="38" t="n">
-        <v>3228.90984</v>
+        <v>-12224.30664</v>
       </c>
       <c r="AB97" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC97" s="40">
-        <f>IF(B63="DIV", F63,"")</f>
+        <f>IF(B62="DIV", F62,"")</f>
         <v/>
       </c>
       <c r="AD97" s="36" t="n"/>
@@ -8638,75 +8567,75 @@
         </is>
       </c>
       <c r="D98" s="27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E98" s="28" t="n">
-        <v>414.059</v>
+        <v>414.058667</v>
       </c>
       <c r="F98" s="28" t="n">
-        <v>4169.612</v>
+        <v>6254.418</v>
       </c>
       <c r="G98" s="26" t="n"/>
       <c r="H98" s="27" t="n">
-        <v>4.148</v>
+        <v>6.22</v>
       </c>
       <c r="I98" s="27" t="n">
-        <v>24.864</v>
+        <v>37.296</v>
       </c>
       <c r="J98" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K98" s="30">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), L64/SUM(F64:I64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), L63/SUM(F63:I63), "")</f>
         <v/>
       </c>
       <c r="L98" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
         <v/>
       </c>
       <c r="M98" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), ((E64*D64)+L64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), ((E63*D63)+L63), "")</f>
         <v/>
       </c>
       <c r="N98" s="32">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), D63, "")</f>
         <v/>
       </c>
       <c r="O98" s="30">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), P64/SUM(F64:I64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), P63/SUM(F63:I63), "")</f>
         <v/>
       </c>
       <c r="P98" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
         <v/>
       </c>
       <c r="Q98" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), ((E64*D64)+P64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), ((E63*D63)+P63), "")</f>
         <v/>
       </c>
       <c r="R98" s="31">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), D63, "")</f>
         <v/>
       </c>
       <c r="S98" s="33">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), T64/SUM(F64:I64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), T63/SUM(F63:I63), "")</f>
         <v/>
       </c>
       <c r="T98" s="34">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
         <v/>
       </c>
       <c r="U98" s="34">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), ((E64*D64)+T64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), ((E63*D63)+T63), "")</f>
         <v/>
       </c>
       <c r="V98" s="34">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), D63, "")</f>
         <v/>
       </c>
       <c r="W98" s="43" t="n">
-        <v>570.971</v>
+        <v>580.9665</v>
       </c>
       <c r="X98" s="44" t="n">
         <v>45565</v>
@@ -8715,16 +8644,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z98" s="38" t="n">
-        <v>2233.678484</v>
+        <v>2195.027284</v>
       </c>
       <c r="AA98" s="38" t="n">
-        <v>3554.2932</v>
+        <v>3228.90984</v>
       </c>
       <c r="AB98" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC98" s="40">
-        <f>IF(B64="DIV", F64,"")</f>
+        <f>IF(B63="DIV", F63,"")</f>
         <v/>
       </c>
       <c r="AD98" s="36" t="n"/>
@@ -8732,7 +8661,7 @@
     </row>
     <row r="99" ht="13" customHeight="1" s="68">
       <c r="A99" s="25" t="n">
-        <v>43354</v>
+        <v>43369</v>
       </c>
       <c r="B99" s="26" t="inlineStr">
         <is>
@@ -8745,71 +8674,71 @@
         </is>
       </c>
       <c r="D99" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E99" s="28" t="n">
-        <v>416.0965</v>
+        <v>414.059</v>
       </c>
       <c r="F99" s="28" t="n">
-        <v>8380.073329999999</v>
+        <v>4169.612</v>
       </c>
       <c r="G99" s="26" t="n"/>
       <c r="H99" s="27" t="n">
-        <v>8</v>
+        <v>4.148</v>
       </c>
       <c r="I99" s="27" t="n">
-        <v>50.07333</v>
+        <v>24.864</v>
       </c>
       <c r="J99" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K99" s="30">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), L65/SUM(F65:I65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), L64/SUM(F64:I64), "")</f>
         <v/>
       </c>
       <c r="L99" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
         <v/>
       </c>
       <c r="M99" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), ((E65*D65)+L65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), ((E64*D64)+L64), "")</f>
         <v/>
       </c>
       <c r="N99" s="32">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), D64, "")</f>
         <v/>
       </c>
       <c r="O99" s="30">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), P65/SUM(F65:I65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), P64/SUM(F64:I64), "")</f>
         <v/>
       </c>
       <c r="P99" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
         <v/>
       </c>
       <c r="Q99" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), ((E65*D65)+P65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), ((E64*D64)+P64), "")</f>
         <v/>
       </c>
       <c r="R99" s="31">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), D64, "")</f>
         <v/>
       </c>
       <c r="S99" s="33">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), T65/SUM(F65:I65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), T64/SUM(F64:I64), "")</f>
         <v/>
       </c>
       <c r="T99" s="34">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
         <v/>
       </c>
       <c r="U99" s="34">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), ((E65*D65)+T65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), ((E64*D64)+T64), "")</f>
         <v/>
       </c>
       <c r="V99" s="34">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), D64, "")</f>
         <v/>
       </c>
       <c r="W99" s="43" t="n">
@@ -8822,16 +8751,16 @@
         <v>#REF!</v>
       </c>
       <c r="Z99" s="38" t="n">
-        <v>2011.828484</v>
+        <v>2233.678484</v>
       </c>
       <c r="AA99" s="38" t="n">
-        <v>3497.1493</v>
+        <v>3554.2932</v>
       </c>
       <c r="AB99" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC99" s="40">
-        <f>IF(B65="DIV", F65,"")</f>
+        <f>IF(B64="DIV", F64,"")</f>
         <v/>
       </c>
       <c r="AD99" s="36" t="n"/>
@@ -8852,93 +8781,93 @@
         </is>
       </c>
       <c r="D100" s="27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E100" s="28" t="n">
-        <v>416.096</v>
+        <v>416.0965</v>
       </c>
       <c r="F100" s="28" t="n">
-        <v>4190.0366</v>
+        <v>8380.073329999999</v>
       </c>
       <c r="G100" s="26" t="n"/>
       <c r="H100" s="27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I100" s="27" t="n">
-        <v>25.03666</v>
+        <v>50.07333</v>
       </c>
       <c r="J100" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K100" s="30">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), L66/SUM(F66:I66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), L65/SUM(F65:I65), "")</f>
         <v/>
       </c>
       <c r="L100" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
         <v/>
       </c>
       <c r="M100" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), ((E66*D66)+L66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), ((E65*D65)+L65), "")</f>
         <v/>
       </c>
       <c r="N100" s="32">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), D65, "")</f>
         <v/>
       </c>
       <c r="O100" s="30">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), P66/SUM(F66:I66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), P65/SUM(F65:I65), "")</f>
         <v/>
       </c>
       <c r="P100" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
         <v/>
       </c>
       <c r="Q100" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), ((E66*D66)+P66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), ((E65*D65)+P65), "")</f>
         <v/>
       </c>
       <c r="R100" s="31">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), D65, "")</f>
         <v/>
       </c>
       <c r="S100" s="33">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), T66/SUM(F66:I66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), T65/SUM(F65:I65), "")</f>
         <v/>
       </c>
       <c r="T100" s="34">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
         <v/>
       </c>
       <c r="U100" s="34">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), ((E66*D66)+T66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), ((E65*D65)+T65), "")</f>
         <v/>
       </c>
       <c r="V100" s="34">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), D65, "")</f>
         <v/>
       </c>
       <c r="W100" s="43" t="n">
-        <v>574.903</v>
+        <v>570.971</v>
       </c>
       <c r="X100" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y100" s="37" t="n">
-        <v>-0.01674401291156987</v>
+      <c r="Y100" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z100" s="38" t="n">
-        <v>1467.260684</v>
+        <v>2011.828484</v>
       </c>
       <c r="AA100" s="38" t="n">
-        <v>3593.375</v>
+        <v>3497.1493</v>
       </c>
       <c r="AB100" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC100" s="40">
-        <f>IF(B66="DIV", F66,"")</f>
+        <f>IF(B65="DIV", F65,"")</f>
         <v/>
       </c>
       <c r="AD100" s="36" t="n"/>
@@ -8946,7 +8875,7 @@
     </row>
     <row r="101" ht="13" customHeight="1" s="68">
       <c r="A101" s="25" t="n">
-        <v>43312</v>
+        <v>43354</v>
       </c>
       <c r="B101" s="26" t="inlineStr">
         <is>
@@ -8959,93 +8888,93 @@
         </is>
       </c>
       <c r="D101" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E101" s="28" t="n">
-        <v>464.205</v>
+        <v>416.096</v>
       </c>
       <c r="F101" s="28" t="n">
-        <v>9348.911099999999</v>
+        <v>4190.0366</v>
       </c>
       <c r="G101" s="26" t="n"/>
       <c r="H101" s="27" t="n">
-        <v>9.2133</v>
+        <v>4</v>
       </c>
       <c r="I101" s="27" t="n">
-        <v>55.6933</v>
+        <v>25.03666</v>
       </c>
       <c r="J101" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K101" s="30">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), L67/SUM(F67:I67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), L66/SUM(F66:I66), "")</f>
         <v/>
       </c>
       <c r="L101" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
         <v/>
       </c>
       <c r="M101" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), ((E67*D67)+L67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), ((E66*D66)+L66), "")</f>
         <v/>
       </c>
       <c r="N101" s="32">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), D66, "")</f>
         <v/>
       </c>
       <c r="O101" s="30">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), P67/SUM(F67:I67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), P66/SUM(F66:I66), "")</f>
         <v/>
       </c>
       <c r="P101" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
         <v/>
       </c>
       <c r="Q101" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), ((E67*D67)+P67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), ((E66*D66)+P66), "")</f>
         <v/>
       </c>
       <c r="R101" s="31">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), D66, "")</f>
         <v/>
       </c>
       <c r="S101" s="33">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), T67/SUM(F67:I67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), T66/SUM(F66:I66), "")</f>
         <v/>
       </c>
       <c r="T101" s="34">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
         <v/>
       </c>
       <c r="U101" s="34">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), ((E67*D67)+T67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), ((E66*D66)+T66), "")</f>
         <v/>
       </c>
       <c r="V101" s="34">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), D66, "")</f>
         <v/>
       </c>
       <c r="W101" s="43" t="n">
-        <v>508.1195</v>
+        <v>574.903</v>
       </c>
       <c r="X101" s="44" t="n">
         <v>45565</v>
       </c>
       <c r="Y101" s="37" t="n">
-        <v>-0.04012004086497532</v>
+        <v>-0.01674401291156987</v>
       </c>
       <c r="Z101" s="38" t="n">
-        <v>1160.614684</v>
+        <v>1467.260684</v>
       </c>
       <c r="AA101" s="38" t="n">
-        <v>3805.775</v>
+        <v>3593.375</v>
       </c>
       <c r="AB101" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC101" s="40">
-        <f>IF(B67="DIV", F67,"")</f>
+        <f>IF(B66="DIV", F66,"")</f>
         <v/>
       </c>
       <c r="AD101" s="36" t="n"/>
@@ -9066,93 +8995,93 @@
         </is>
       </c>
       <c r="D102" s="27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E102" s="28" t="n">
-        <v>464.2044</v>
+        <v>464.205</v>
       </c>
       <c r="F102" s="28" t="n">
-        <v>11686.1388</v>
+        <v>9348.911099999999</v>
       </c>
       <c r="G102" s="26" t="n"/>
       <c r="H102" s="27" t="n">
-        <v>11.51666</v>
+        <v>9.2133</v>
       </c>
       <c r="I102" s="27" t="n">
-        <v>69.61660000000001</v>
+        <v>55.6933</v>
       </c>
       <c r="J102" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K102" s="30">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), L68/SUM(F68:I68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), L67/SUM(F67:I67), "")</f>
         <v/>
       </c>
       <c r="L102" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
         <v/>
       </c>
       <c r="M102" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), ((E68*D68)+L68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), ((E67*D67)+L67), "")</f>
         <v/>
       </c>
       <c r="N102" s="32">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), D67, "")</f>
         <v/>
       </c>
       <c r="O102" s="30">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), P68/SUM(F68:I68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), P67/SUM(F67:I67), "")</f>
         <v/>
       </c>
       <c r="P102" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
         <v/>
       </c>
       <c r="Q102" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), ((E68*D68)+P68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), ((E67*D67)+P67), "")</f>
         <v/>
       </c>
       <c r="R102" s="31">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), D67, "")</f>
         <v/>
       </c>
       <c r="S102" s="33">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), T68/SUM(F68:I68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), T67/SUM(F67:I67), "")</f>
         <v/>
       </c>
       <c r="T102" s="34">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
         <v/>
       </c>
       <c r="U102" s="34">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), ((E68*D68)+T68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), ((E67*D67)+T67), "")</f>
         <v/>
       </c>
       <c r="V102" s="34">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), D67, "")</f>
         <v/>
       </c>
       <c r="W102" s="43" t="n">
-        <v>501.9024</v>
+        <v>508.1195</v>
       </c>
       <c r="X102" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y102" s="37" t="e">
-        <v>#REF!</v>
+      <c r="Y102" s="37" t="n">
+        <v>-0.04012004086497532</v>
       </c>
       <c r="Z102" s="38" t="n">
-        <v>1102.83607</v>
+        <v>1160.614684</v>
       </c>
       <c r="AA102" s="38" t="n">
-        <v>4412.879723567999</v>
+        <v>3805.775</v>
       </c>
       <c r="AB102" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC102" s="40">
-        <f>IF(B68="DIV", F68,"")</f>
+        <f>IF(B67="DIV", F67,"")</f>
         <v/>
       </c>
       <c r="AD102" s="36" t="n"/>
@@ -9173,94 +9102,93 @@
         </is>
       </c>
       <c r="D103" s="27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E103" s="28" t="n">
-        <v>464.204</v>
+        <v>464.2044</v>
       </c>
       <c r="F103" s="28" t="n">
-        <v>4674.45454</v>
+        <v>11686.1388</v>
       </c>
       <c r="G103" s="26" t="n"/>
       <c r="H103" s="27" t="n">
-        <v>4.60727</v>
+        <v>11.51666</v>
       </c>
       <c r="I103" s="27" t="n">
-        <v>27.8472</v>
+        <v>69.61660000000001</v>
       </c>
       <c r="J103" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K103" s="30">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), L69/SUM(F69:I69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), L68/SUM(F68:I68), "")</f>
         <v/>
       </c>
       <c r="L103" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
         <v/>
       </c>
       <c r="M103" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), ((E69*D69)+L69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), ((E68*D68)+L68), "")</f>
         <v/>
       </c>
       <c r="N103" s="32">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), D68, "")</f>
         <v/>
       </c>
       <c r="O103" s="30">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), P69/SUM(F69:I69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), P68/SUM(F68:I68), "")</f>
         <v/>
       </c>
       <c r="P103" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
         <v/>
       </c>
       <c r="Q103" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), ((E69*D69)+P69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), ((E68*D68)+P68), "")</f>
         <v/>
       </c>
       <c r="R103" s="31">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), D68, "")</f>
         <v/>
       </c>
       <c r="S103" s="33">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), T69/SUM(F69:I69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), T68/SUM(F68:I68), "")</f>
         <v/>
       </c>
       <c r="T103" s="34">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
         <v/>
       </c>
       <c r="U103" s="34">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), ((E69*D69)+T69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), ((E68*D68)+T68), "")</f>
         <v/>
       </c>
       <c r="V103" s="34">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), D68, "")</f>
         <v/>
       </c>
       <c r="W103" s="43" t="n">
-        <v>511.707333</v>
+        <v>501.9024</v>
       </c>
       <c r="X103" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y103" s="37">
-        <f>IF(AND( C69="Buy", W69&lt;&gt;"", AA69&lt;&gt;"", B69&lt;&gt;"DIV"), Z69/SUM(F69:I69), "")</f>
-        <v/>
+      <c r="Y103" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="Z103" s="38" t="n">
-        <v>-49.3</v>
+        <v>1102.83607</v>
       </c>
       <c r="AA103" s="38" t="n">
-        <v>50</v>
+        <v>4412.879723567999</v>
       </c>
       <c r="AB103" s="39" t="n">
         <v>10</v>
       </c>
       <c r="AC103" s="40">
-        <f>IF(B69="DIV", F69,"")</f>
+        <f>IF(B68="DIV", F68,"")</f>
         <v/>
       </c>
       <c r="AD103" s="36" t="n"/>
@@ -9268,11 +9196,11 @@
     </row>
     <row r="104" ht="13" customHeight="1" s="68">
       <c r="A104" s="25" t="n">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B104" s="26" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C104" s="26" t="inlineStr">
@@ -9281,98 +9209,106 @@
         </is>
       </c>
       <c r="D104" s="27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E104" s="28" t="n">
-        <v>6</v>
+        <v>464.204</v>
       </c>
       <c r="F104" s="28" t="n">
-        <v>120</v>
-      </c>
-      <c r="G104" s="26" t="inlineStr">
-        <is>
-          <t>Dividend of Rs.6.0000/- per share on 30-JUL-2018</t>
-        </is>
-      </c>
+        <v>4674.45454</v>
+      </c>
+      <c r="G104" s="26" t="n"/>
       <c r="H104" s="27" t="n">
-        <v>0</v>
+        <v>4.60727</v>
       </c>
       <c r="I104" s="27" t="n">
-        <v>0</v>
+        <v>27.8472</v>
       </c>
       <c r="J104" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K104" s="30">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), L70/SUM(F70:I70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), L69/SUM(F69:I69), "")</f>
         <v/>
       </c>
       <c r="L104" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
         <v/>
       </c>
       <c r="M104" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), ((E70*D70)+L70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), ((E69*D69)+L69), "")</f>
         <v/>
       </c>
       <c r="N104" s="32">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), D70, "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), D69, "")</f>
         <v/>
       </c>
       <c r="O104" s="30">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), P70/SUM(F70:I70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), P69/SUM(F69:I69), "")</f>
         <v/>
       </c>
       <c r="P104" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
         <v/>
       </c>
       <c r="Q104" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), ((E70*D70)+P70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), ((E69*D69)+P69), "")</f>
         <v/>
       </c>
       <c r="R104" s="31">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), D70, "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), D69, "")</f>
         <v/>
       </c>
       <c r="S104" s="33">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), T70/SUM(F70:I70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), T69/SUM(F69:I69), "")</f>
         <v/>
       </c>
       <c r="T104" s="34">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
         <v/>
       </c>
       <c r="U104" s="34">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), ((E70*D70)+T70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), ((E69*D69)+T69), "")</f>
         <v/>
       </c>
       <c r="V104" s="34">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), D70, "")</f>
-        <v/>
-      </c>
-      <c r="W104" s="45" t="n"/>
-      <c r="X104" s="34" t="n"/>
-      <c r="Y104" s="33" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z104" s="34" t="n"/>
-      <c r="AA104" s="34" t="n"/>
-      <c r="AB104" s="35" t="n"/>
-      <c r="AC104" s="31">
-        <f>IF(B70="DIV", F70,"")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), D69, "")</f>
+        <v/>
+      </c>
+      <c r="W104" s="43" t="n">
+        <v>511.707333</v>
+      </c>
+      <c r="X104" s="44" t="n">
+        <v>45565</v>
+      </c>
+      <c r="Y104" s="37">
+        <f>IF(AND( C69="Buy", W69&lt;&gt;"", AA69&lt;&gt;"", B69&lt;&gt;"DIV"), Z69/SUM(F69:I69), "")</f>
+        <v/>
+      </c>
+      <c r="Z104" s="38" t="n">
+        <v>-49.3</v>
+      </c>
+      <c r="AA104" s="38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB104" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC104" s="40">
+        <f>IF(B69="DIV", F69,"")</f>
         <v/>
       </c>
       <c r="AD104" s="36" t="n"/>
+      <c r="AE104" s="41" t="n"/>
     </row>
     <row r="105" ht="13" customHeight="1" s="68">
       <c r="A105" s="25" t="n">
-        <v>43307</v>
+        <v>43311</v>
       </c>
       <c r="B105" s="26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C105" s="26" t="inlineStr">
@@ -9384,111 +9320,195 @@
         <v>20</v>
       </c>
       <c r="E105" s="28" t="n">
-        <v>455.113</v>
+        <v>6</v>
       </c>
       <c r="F105" s="28" t="n">
-        <v>9166.440000000001</v>
-      </c>
-      <c r="G105" s="26" t="n"/>
+        <v>120</v>
+      </c>
+      <c r="G105" s="26" t="inlineStr">
+        <is>
+          <t>Dividend of Rs.6.0000/- per share on 30-JUL-2018</t>
+        </is>
+      </c>
       <c r="H105" s="27" t="n">
-        <v>9.17</v>
+        <v>0</v>
       </c>
       <c r="I105" s="27" t="n">
-        <v>54.97</v>
+        <v>0</v>
       </c>
       <c r="J105" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K105" s="30">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), L70/SUM(F70:I70), "")</f>
+        <v/>
+      </c>
+      <c r="L105" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <v/>
+      </c>
+      <c r="M105" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), ((E70*D70)+L70), "")</f>
+        <v/>
+      </c>
+      <c r="N105" s="32">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), D70, "")</f>
+        <v/>
+      </c>
+      <c r="O105" s="30">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), P70/SUM(F70:I70), "")</f>
+        <v/>
+      </c>
+      <c r="P105" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <v/>
+      </c>
+      <c r="Q105" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), ((E70*D70)+P70), "")</f>
+        <v/>
+      </c>
+      <c r="R105" s="31">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), D70, "")</f>
+        <v/>
+      </c>
+      <c r="S105" s="33">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), T70/SUM(F70:I70), "")</f>
+        <v/>
+      </c>
+      <c r="T105" s="34">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <v/>
+      </c>
+      <c r="U105" s="34">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), ((E70*D70)+T70), "")</f>
+        <v/>
+      </c>
+      <c r="V105" s="34">
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), D70, "")</f>
+        <v/>
+      </c>
+      <c r="W105" s="45" t="n"/>
+      <c r="X105" s="34" t="n"/>
+      <c r="Y105" s="33" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z105" s="34" t="n"/>
+      <c r="AA105" s="34" t="n"/>
+      <c r="AB105" s="35" t="n"/>
+      <c r="AC105" s="31">
+        <f>IF(B70="DIV", F70,"")</f>
+        <v/>
+      </c>
+      <c r="AD105" s="36" t="n"/>
+    </row>
+    <row r="106" ht="13" customHeight="1" s="68">
+      <c r="A106" s="25" t="n">
+        <v>43307</v>
+      </c>
+      <c r="B106" s="26" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C106" s="26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D106" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E106" s="28" t="n">
+        <v>455.113</v>
+      </c>
+      <c r="F106" s="28" t="n">
+        <v>9166.440000000001</v>
+      </c>
+      <c r="G106" s="26" t="n"/>
+      <c r="H106" s="27" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="I106" s="27" t="n">
+        <v>54.97</v>
+      </c>
+      <c r="J106" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K106" s="30">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), L71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="L105" s="31">
+      <c r="L106" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
         <v/>
       </c>
-      <c r="M105" s="31">
+      <c r="M106" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), ((E71*D71)+L71), "")</f>
         <v/>
       </c>
-      <c r="N105" s="32">
+      <c r="N106" s="32">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), D71, "")</f>
         <v/>
       </c>
-      <c r="O105" s="30">
+      <c r="O106" s="30">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), P71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="P105" s="31">
+      <c r="P106" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
         <v/>
       </c>
-      <c r="Q105" s="31">
+      <c r="Q106" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), ((E71*D71)+P71), "")</f>
         <v/>
       </c>
-      <c r="R105" s="31">
+      <c r="R106" s="31">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), D71, "")</f>
         <v/>
       </c>
-      <c r="S105" s="33">
+      <c r="S106" s="33">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), T71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="T105" s="34">
+      <c r="T106" s="34">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
         <v/>
       </c>
-      <c r="U105" s="34">
+      <c r="U106" s="34">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), ((E71*D71)+T71), "")</f>
         <v/>
       </c>
-      <c r="V105" s="34">
+      <c r="V106" s="34">
         <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), D71, "")</f>
         <v/>
       </c>
-      <c r="W105" s="43" t="n">
+      <c r="W106" s="43" t="n">
         <v>511.707333</v>
       </c>
-      <c r="X105" s="44" t="n">
+      <c r="X106" s="44" t="n">
         <v>45565</v>
       </c>
-      <c r="Y105" s="37">
+      <c r="Y106" s="37">
         <f>IF(AND( C71="Buy", W71&lt;&gt;"", AA71&lt;&gt;"", B71&lt;&gt;"DIV"), Z71/SUM(F71:I71), "")</f>
         <v/>
       </c>
-      <c r="Z105" s="38" t="n">
+      <c r="Z106" s="38" t="n">
         <v>-14711.8595</v>
       </c>
-      <c r="AA105" s="38" t="n">
+      <c r="AA106" s="38" t="n">
         <v>14920.75</v>
       </c>
-      <c r="AB105" s="39" t="n">
+      <c r="AB106" s="39" t="n">
         <v>25</v>
       </c>
-      <c r="AC105" s="40">
+      <c r="AC106" s="40">
         <f>IF(B71="DIV", F71,"")</f>
         <v/>
       </c>
-      <c r="AD105" s="36" t="n"/>
-      <c r="AE105" s="41" t="n"/>
-    </row>
-    <row r="106" ht="13" customHeight="1" s="68">
-      <c r="E106" s="48" t="n"/>
-      <c r="F106" s="48" t="n"/>
-      <c r="G106" s="49" t="n"/>
-      <c r="J106" s="48" t="n"/>
-      <c r="K106" s="48" t="n"/>
-      <c r="L106" s="48" t="n"/>
-      <c r="M106" s="1" t="n"/>
-      <c r="W106" s="48" t="n"/>
-      <c r="X106" s="48" t="n"/>
-      <c r="Y106" s="48" t="n"/>
-      <c r="Z106" s="48" t="n"/>
-      <c r="AA106" s="48" t="n"/>
-      <c r="AB106" s="48" t="n"/>
-      <c r="AC106" s="48" t="n"/>
+      <c r="AD106" s="36" t="n"/>
+      <c r="AE106" s="41" t="n"/>
     </row>
     <row r="107" ht="13" customHeight="1" s="68">
       <c r="E107" s="48" t="n"/>
@@ -23545,6 +23565,7 @@
       <c r="J985" s="48" t="n"/>
       <c r="K985" s="48" t="n"/>
       <c r="L985" s="48" t="n"/>
+      <c r="M985" s="1" t="n"/>
       <c r="W985" s="48" t="n"/>
       <c r="X985" s="48" t="n"/>
       <c r="Y985" s="48" t="n"/>
@@ -23792,6 +23813,21 @@
       <c r="AA1001" s="48" t="n"/>
       <c r="AB1001" s="48" t="n"/>
       <c r="AC1001" s="48" t="n"/>
+    </row>
+    <row r="1002">
+      <c r="E1002" s="48" t="n"/>
+      <c r="F1002" s="48" t="n"/>
+      <c r="G1002" s="49" t="n"/>
+      <c r="J1002" s="48" t="n"/>
+      <c r="K1002" s="48" t="n"/>
+      <c r="L1002" s="48" t="n"/>
+      <c r="W1002" s="48" t="n"/>
+      <c r="X1002" s="48" t="n"/>
+      <c r="Y1002" s="48" t="n"/>
+      <c r="Z1002" s="48" t="n"/>
+      <c r="AA1002" s="48" t="n"/>
+      <c r="AB1002" s="48" t="n"/>
+      <c r="AC1002" s="48" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO49"/>
